--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sl </t>
+          <t>Sl</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0001</t>
+          <t>FRC-HQ-SLM-O-2017-0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0002</t>
+          <t>FRC-HQ-SLM-O-2017-0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0003</t>
+          <t>FRC-HQ-SLM-O-2017-0003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0005</t>
+          <t>FRC-HQ-SLM-O-2017-0005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0006</t>
+          <t>FRC-HQ-SLM-O-2017-0006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0007</t>
+          <t>FRC-HQ-SLM-O-2017-0007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0008</t>
+          <t>FRC-HQ-SLM-O-2017-0008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0009</t>
+          <t>FRC-HQ-SLM-O-2017-0009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0010</t>
+          <t>FRC-HQ-SLM-C-2017-0010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0011</t>
+          <t>FRC-HQ-SLM-C-2017-0011</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0012</t>
+          <t>FRC-HQ-SLM-O-2017-0012</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0013</t>
+          <t>FRC-HQ-SLM-O-2017-0013</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0014</t>
+          <t>FRC-HQ-SLM-F-2017-0014</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0015</t>
+          <t>FRC-HQ-SLM-O-2017-0015</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0016</t>
+          <t>FRC-HQ-SLM-O-2017-0016</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0017</t>
+          <t>FRC-HQ-SLM-F-2017-0017</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0018</t>
+          <t>FRC-HQ-SLM-O-2017-0018</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0019</t>
+          <t>FRC-HQ-SLM-F-2017-0019</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0020</t>
+          <t>FRC-HQ-SLM-F-2017-0020</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0021</t>
+          <t>FRC-HQ-SLM-O-2017-0021</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0022</t>
+          <t>FRC-HQ-SLM-O-2017-0022</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0023</t>
+          <t>FRC-HQ-SLM-O-2017-0023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0024</t>
+          <t>FRC-HQ-SLM-F-2017-0024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0025</t>
+          <t>FRC-HQ-SLM-F-2017-0025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0026</t>
+          <t>FRC-HQ-SLM-F-2017-0026</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0027</t>
+          <t>FRC-HQ-SLM-F-2017-0027</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0028</t>
+          <t>FRC-HQ-SLM-O-2017-0028</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0029</t>
+          <t>FRC-HQ-SLM-F-2017-0029</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0030</t>
+          <t>FRC-HQ-SLM-F-2017-0030</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0031</t>
+          <t>FRC-HQ-SLM-F-2017-0031</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0032</t>
+          <t>FRC-HQ-SLM-O-2017-0032</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0033</t>
+          <t>FRC-HQ-SLM-F-2017-0033</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0034</t>
+          <t>FRC-HQ-SLM-O-2017-0034</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0035</t>
+          <t>FRC-HQ-SLM-F-2017-0035</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0036</t>
+          <t>FRC-HQ-SLM-O-2017-0036</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0037</t>
+          <t>FRC-HQ-SLM-O-2017-0037</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0038</t>
+          <t>FRC-HQ-SLM-O-2017-0038</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0039</t>
+          <t>FRC-HQ-SLM-F-2017-0039</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0040</t>
+          <t>FRC-HQ-SLM-F-2017-0040</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0041</t>
+          <t>FRC-HQ-SLM-O-2017-0041</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7698,7 +7698,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0042</t>
+          <t>FRC-HQ-SLM-F-2017-0042</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0043</t>
+          <t>FRC-HQ-SLM-F-2017-0043</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0044</t>
+          <t>FRC-HQ-SLM-F-2017-0044</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0045</t>
+          <t>FRC-HQ-SLM-T-2017-0045</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0046</t>
+          <t>FRC-HQ-SLM-T-2017-0046</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0047</t>
+          <t>FRC-HQ-SLM-F-2017-0047</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0048</t>
+          <t>FRC-HQ-SLM-O-2017-0048</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0049</t>
+          <t>FRC-HQ-SLM-F-2017-0049</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0050</t>
+          <t>FRC-HQ-SLM-O-2017-0050</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9273,7 +9273,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0051</t>
+          <t>FRC-HQ-SLM-O-2017-0051</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0052</t>
+          <t>FRC-HQ-SLM-F-2017-0052</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0053</t>
+          <t>FRC-HQ-SLM-F-2017-0053</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0054</t>
+          <t>FRC-HQ-SLM-F-2018-0054</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9973,7 +9973,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0055</t>
+          <t>FRC-HQ-SLM-F-2018-0055</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0056</t>
+          <t>FRC-HQ-SLM-F-2018-0056</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0057</t>
+          <t>FRC-HQ-SLM-F-2018-0057</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0058</t>
+          <t>FRC-HQ-SLM-F-2018-0058</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0059</t>
+          <t>FRC-HQ-SLM-F-2018-0059</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10848,7 +10848,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0060</t>
+          <t>FRC-HQ-SLM-C-2018-0060</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0061</t>
+          <t>FRC-HQ-SLM-C-2018-0061</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0062</t>
+          <t>FRC-HQ-SLM-O-2018-0062</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0063</t>
+          <t>FRC-HQ-SLM-F-2018-0063</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0064</t>
+          <t>FRC-HQ-SLM-F-2018-0064</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0065</t>
+          <t>FRC-HQ-SLM-C-2018-0065</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -11898,7 +11898,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0066</t>
+          <t>FRC-HQ-SLM-C-2018-0066</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0067</t>
+          <t>FRC-HQ-SLM-F-2018-0067</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0068</t>
+          <t>FRC-HQ-SLM-F-2018-0068</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0069</t>
+          <t>FRC-HQ-SLM-F-2018-0069</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0070</t>
+          <t>FRC-HQ-SLM-F-2018-0070</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -12773,7 +12773,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0071</t>
+          <t>FRC-HQ-SLM-C-2018-0071</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0072</t>
+          <t>FRC-HQ-SLM-F-2018-0072</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0073</t>
+          <t>FRC-HQ-SLM-F-2018-0073</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0074</t>
+          <t>FRC-HQ-SLM-F-2018-0074</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0075</t>
+          <t>FRC-HQ-SLM-F-2018-0075</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -13648,7 +13648,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0076</t>
+          <t>FRC-HQ-SLM-T-2018-0076</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0077</t>
+          <t>FRC-HQ-SLM-F-2018-0077</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -13998,7 +13998,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0078</t>
+          <t>FRC-HQ-SLM-F-2018-0078</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0079</t>
+          <t>FRC-HQ-SLM-F-2018-0079</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -14348,7 +14348,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0080</t>
+          <t>FRC-HQ-SLM-C-2018-0080</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0081</t>
+          <t>FRC-HQ-SLM-C-2018-0081</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0082</t>
+          <t>FRC-HQ-SLM-C-2018-0082</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -14873,7 +14873,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0083</t>
+          <t>FRC-HQ-SLM-C-2018-0083</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0084</t>
+          <t>FRC-HQ-SLM-O-2018-0084</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0085</t>
+          <t>FRC-HQ-SLM-C-2018-0085</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0086</t>
+          <t>FRC-HQ-SLM-C-2018-0086</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -15573,7 +15573,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0087</t>
+          <t>FRC-HQ-SLM-O-2018-0087</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -15748,7 +15748,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0088</t>
+          <t>FRC-HQ-SLM-C-2018-0088</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0089</t>
+          <t>FRC-HQ-SLM-C-2018-0089</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0090</t>
+          <t>FRC-HQ-SLM-C-2018-0090</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -16273,7 +16273,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0091</t>
+          <t>FRC-HQ-SLM-F-2018-0091</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0092</t>
+          <t>FRC-HQ-SLM-F-2018-0092</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0093</t>
+          <t>FRC-HQ-SLM-F-2018-0093</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -16798,7 +16798,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0094</t>
+          <t>FRC-HQ-SLM-O-2018-0094</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0095</t>
+          <t>FRC-HQ-SLM-F-2018-0095</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -17148,7 +17148,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0096</t>
+          <t>FRC-HQ-SLM-O-2018-0096</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -17323,7 +17323,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0097</t>
+          <t>FRC-HQ-SLM-T-2018-0097</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0098</t>
+          <t>FRC-HQ-SLM-M-2018-0098</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -17673,7 +17673,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0099</t>
+          <t>FRC-HQ-SLM-M-2018-0099</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0100</t>
+          <t>FRC-HQ-SLM-O-2018-0100</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -18023,7 +18023,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0101</t>
+          <t>FRC-HQ-SLM-O-2018-0101</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0102</t>
+          <t>FRC-HQ-SLM-O-2018-0102</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -18373,7 +18373,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0103</t>
+          <t>FRC-HQ-SLM-O-2018-0103</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -18548,7 +18548,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0104</t>
+          <t>FRC-HQ-SLM-O-2018-0104</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0105</t>
+          <t>FRC-HQ-SLM-O-2018-0105</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -18898,7 +18898,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0106</t>
+          <t>FRC-HQ-SLM-O-2018-0106</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -19073,7 +19073,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0107</t>
+          <t>FRC-HQ-SLM-O-2018-0107</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -19248,7 +19248,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0108</t>
+          <t>FRC-HQ-SLM-O-2018-0108</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -19423,7 +19423,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0109</t>
+          <t>FRC-HQ-SLM-O-2018-0109</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0110</t>
+          <t>FRC-HQ-SLM-F-2018-0110</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -19773,7 +19773,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0111</t>
+          <t>FRC-HQ-SLM-F-2019-0111</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0112</t>
+          <t>FRC-HQ-SLM-F-2019-0112</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -20123,7 +20123,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0113</t>
+          <t>FRC-HQ-SLM-F-2019-0113</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0114</t>
+          <t>FRC-HQ-SLM-F-2019-0114</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -20473,7 +20473,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0115</t>
+          <t>FRC-HQ-SLM-F-2019-0115</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -20648,7 +20648,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0116</t>
+          <t>FRC-HQ-SLM-O-2019-0116</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -20823,7 +20823,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0117</t>
+          <t>FRC-HQ-SLM-F-2019-0117</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -20998,7 +20998,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0118</t>
+          <t>FRC-HQ-SLM-F-2019-0118</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -21173,7 +21173,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0119</t>
+          <t>FRC-HQ-SLM-O-2019-0119</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0120</t>
+          <t>FRC-HQ-SLM-O-2019-0120</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -21523,7 +21523,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0121</t>
+          <t>FRC-HQ-SLM-F-2019-0121</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -21698,7 +21698,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0122</t>
+          <t>FRC-HQ-SLM-C-2019-0122</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -21873,7 +21873,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0123</t>
+          <t>FRC-HQ-SLM-C-2019-0123</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -22048,7 +22048,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0124</t>
+          <t>FRC-HQ-SLM-C-2019-0124</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -22223,7 +22223,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0125</t>
+          <t>FRC-HQ-SLM-C-2019-0125</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -22398,7 +22398,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0126</t>
+          <t>FRC-HQ-SLM-F-2019-0126</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -22573,7 +22573,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0127</t>
+          <t>FRC-HQ-SLM-F-2019-0127</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -22748,7 +22748,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0128</t>
+          <t>FRC-HQ-SLM-F-2019-0128</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0129</t>
+          <t>FRC-HQ-SLM-C-2020-0129</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -23098,7 +23098,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0130</t>
+          <t>FRC-HQ-SLM-C-2020-0130</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -23273,7 +23273,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0131</t>
+          <t>FRC-HQ-SLM-C-2020-0131</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -23448,7 +23448,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0132</t>
+          <t>FRC-HQ-SLM-C-2020-0132</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -23623,7 +23623,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0133</t>
+          <t>FRC-HQ-SLM-T-2020-0133</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -23798,7 +23798,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0134</t>
+          <t>FRC-HQ-SLM-C-2020-0134</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -23973,7 +23973,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0135</t>
+          <t>FRC-HQ-SLM-C-2020-0135</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0136</t>
+          <t>FRC-HQ-SLM-C-2020-0136</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -24323,7 +24323,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0137</t>
+          <t>FRC-HQ-SLM-C-2020-0137</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -24498,7 +24498,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0138</t>
+          <t>FRC-HQ-SLM-F-2020-0138</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -24673,7 +24673,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0139</t>
+          <t>FRC-HQ-SLM-C-2020-0139</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -24848,7 +24848,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0140</t>
+          <t>FRC-HQ-SLM-F-2020-0140</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -25023,7 +25023,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0141</t>
+          <t>FRC-HQ-SLM-C-2020-0141</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0142</t>
+          <t>FRC-HQ-SLM-C-2020-0142</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -25373,7 +25373,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0143</t>
+          <t>FRC-HQ-SLM-M-2021-0143</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -25548,7 +25548,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0144</t>
+          <t>FRC-HQ-SLM-M-2021-0144</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -25723,7 +25723,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0145</t>
+          <t>FRC-HQ-SLM-O-2021-0145</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -25898,7 +25898,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0146</t>
+          <t>FRC-HQ-SLM-C-2021-0146</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0147</t>
+          <t>FRC-HQ-SLM-C-2021-0147</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0148</t>
+          <t>FRC-HQ-SLM-M-2021-0148</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -26423,7 +26423,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0149</t>
+          <t>FRC-HQ-SLM-F-2021-0149</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -26598,7 +26598,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0150</t>
+          <t>FRC-HQ-SLM-O-2021-0150</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -26773,7 +26773,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0152</t>
+          <t>FRC-HQ-SLM-C-2021-0152</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -26948,7 +26948,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0153</t>
+          <t>FRC-HQ-SLM-C-2021-0153</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -27123,7 +27123,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0154</t>
+          <t>FRC-HQ-SLM-C-2021-0154</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -27298,7 +27298,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0155</t>
+          <t>FRC-HQ-SLM-C-2021-0155</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -27473,7 +27473,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0156</t>
+          <t>FRC-HQ-SLM-C-2021-0156</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0157</t>
+          <t>FRC-HQ-SLM-C-2021-0157</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -27823,7 +27823,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0158</t>
+          <t>FRC-HQ-SLM-C-2021-0158</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -27998,7 +27998,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0159</t>
+          <t>FRC-HQ-SLM-C-2021-0159</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -28173,7 +28173,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0160</t>
+          <t>FRC-HQ-SLM-C-2021-0160</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -28348,7 +28348,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0161</t>
+          <t>FRC-HQ-SLM-C-2021-0161</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -28523,7 +28523,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0162</t>
+          <t>FRC-HQ-SLM-I-2021-0162</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -28698,7 +28698,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0163</t>
+          <t>FRC-HQ-SLM-I-2021-0163</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -28873,7 +28873,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0164</t>
+          <t>FRC-HQ-SLM-I-2021-0164</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -29048,7 +29048,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0165</t>
+          <t>FRC-HQ-SLM-I-2021-0165</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0166</t>
+          <t>FRC-HQ-SLM-I-2021-0166</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -29398,7 +29398,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0167</t>
+          <t>FRC-HQ-SLM-I-2021-0167</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -29573,7 +29573,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0168</t>
+          <t>FRC-HQ-SLM-I-2021-0168</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -29748,7 +29748,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0169</t>
+          <t>FRC-HQ-SLM-I-2021-0169</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -29924,7 +29924,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0170</t>
+          <t>FRC-HQ-SLM-I-2021-0170</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -30099,7 +30099,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0171</t>
+          <t>FRC-HQ-SLM-I-2021-0171</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -30274,7 +30274,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0172</t>
+          <t>FRC-HQ-SLM-I-2021-0172</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -30449,7 +30449,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0173</t>
+          <t>FRC-HQ-SLM-S-2021-0173</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -30624,7 +30624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0174</t>
+          <t>FRC-HQ-SLM-S-2021-0174</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0175</t>
+          <t>FRC-HQ-SLM-S-2021-0175</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -30974,7 +30974,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0176</t>
+          <t>FRC-HQ-SLM-S-2021-0176</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -31149,7 +31149,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0177</t>
+          <t>FRC-HQ-SLM-S-2021-0177</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0178</t>
+          <t>FRC-HQ-SLM-S-2021-0178</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -31499,7 +31499,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0179</t>
+          <t>FRC-HQ-SLM-S-2021-0179</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -31674,7 +31674,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0180</t>
+          <t>FRC-HQ-SLM-S-2021-0180</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0181</t>
+          <t>FRC-HQ-SLM-S-2021-0181</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -32024,7 +32024,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0182</t>
+          <t>FRC-HQ-SLM-S-2021-0182</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -32199,7 +32199,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0183</t>
+          <t>FRC-HQ-SLM-S-2021-0183</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -32374,7 +32374,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0184</t>
+          <t>FRC-HQ-SLM-S-2021-0184</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -32550,7 +32550,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0185</t>
+          <t>FRC-HQ-SLM-S-2021-0185</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -32725,7 +32725,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0186</t>
+          <t>FRC-HQ-SLM-S-2021-0186</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -32900,7 +32900,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0187</t>
+          <t>FRC-HQ-SLM-S-2021-0187</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -33075,7 +33075,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0188</t>
+          <t>FRC-HQ-SLM-S-2021-0188</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -33250,7 +33250,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0189</t>
+          <t>FRC-HQ-SLM-S-2021-0189</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -33425,7 +33425,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0190</t>
+          <t>FRC-HQ-SLM-S-2021-0190</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -33600,7 +33600,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0191</t>
+          <t>FRC-HQ-SLM-S-2021-0191</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -33775,7 +33775,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0192</t>
+          <t>FRC-HQ-SLM-S-2021-0192</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -33950,7 +33950,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0193</t>
+          <t>FRC-HQ-SLM-S-2021-0193</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -34125,7 +34125,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0194</t>
+          <t>FRC-HQ-SLM-S-2021-0194</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -34300,7 +34300,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0195</t>
+          <t>FRC-HQ-SLM-S-2021-0195</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -34475,7 +34475,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0196</t>
+          <t>FRC-HQ-SLM-S-2021-0196</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -34650,7 +34650,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0197</t>
+          <t>FRC-HQ-SLM-S-2021-0197</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -34825,7 +34825,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0198</t>
+          <t>FRC-HQ-SLM-E-2021-0198</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -35000,7 +35000,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0199</t>
+          <t>FRC-HQ-SLM-E-2021-0199</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -35175,7 +35175,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0200</t>
+          <t>FRC-HQ-SLM-E-2021-0200</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -35350,7 +35350,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0201</t>
+          <t>FRC-HQ-SLM-E-2021-0201</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -35525,7 +35525,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0202</t>
+          <t>FRC-HQ-SLM-E-2021-0202</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -35700,7 +35700,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0203</t>
+          <t>FRC-HQ-SLM-E-2021-0203</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -35875,7 +35875,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0204</t>
+          <t>FRC-HQ-SLM-E-2021-0204</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -36050,7 +36050,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0205</t>
+          <t>FRC-HQ-SLM-E-2021-0205</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -36225,7 +36225,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0206</t>
+          <t>FRC-HQ-SLM-E-2021-0206</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -36400,7 +36400,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0207</t>
+          <t>FRC-HQ-SLM-E-2021-0207</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -36575,7 +36575,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0208</t>
+          <t>FRC-HQ-SLM-E-2021-0208</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -36750,7 +36750,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0209</t>
+          <t>FRC-HQ-SLM-E-2021-0209</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -36925,7 +36925,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0210</t>
+          <t>FRC-HQ-SLM-E-2021-0210</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -37100,7 +37100,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0211</t>
+          <t>FRC-HQ-SLM-E-2021-0211</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -37275,7 +37275,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0212</t>
+          <t>FRC-HQ-SLM-E-2021-0212</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -37450,7 +37450,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0213</t>
+          <t>FRC-HQ-SLM-E-2021-0213</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -37625,7 +37625,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0214</t>
+          <t>FRC-HQ-SLM-E-2021-0214</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -37800,7 +37800,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0215</t>
+          <t>FRC-HQ-SLM-E-2021-0215</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -37975,7 +37975,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0216</t>
+          <t>FRC-HQ-SLM-E-2021-0216</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -38150,7 +38150,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0217</t>
+          <t>FRC-HQ-SLM-E-2021-0217</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -38325,7 +38325,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0218</t>
+          <t>FRC-HQ-SLM-E-2021-0218</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -38500,7 +38500,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0219</t>
+          <t>FRC-HQ-SLM-E-2021-0219</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -38675,7 +38675,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0220</t>
+          <t>FRC-HQ-SLM-E-2021-0220</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -38850,7 +38850,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0221</t>
+          <t>FRC-HQ-SLM-E-2021-0221</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -39025,7 +39025,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0222</t>
+          <t>FRC-HQ-SLM-E-2021-0222</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -39200,7 +39200,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0223</t>
+          <t>FRC-HQ-SLM-E-2021-0223</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -39375,7 +39375,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0224</t>
+          <t>FRC-HQ-SLM-E-2021-0224</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -39550,7 +39550,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0225</t>
+          <t>FRC-HQ-SLM-E-2021-0225</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -39725,7 +39725,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0226</t>
+          <t>FRC-HQ-SLM-E-2021-0226</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -39900,7 +39900,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0227</t>
+          <t>FRC-HQ-SLM-E-2021-0227</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -40075,7 +40075,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0228</t>
+          <t>FRC-HQ-SLM-E-2021-0228</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -40250,7 +40250,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0229</t>
+          <t>FRC-HQ-SLM-E-2021-0229</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -40425,7 +40425,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0230</t>
+          <t>FRC-HQ-SLM-E-2021-0230</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -40600,7 +40600,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0231</t>
+          <t>FRC-HQ-SLM-E-2021-0231</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -40775,7 +40775,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0232</t>
+          <t>FRC-HQ-SLM-E-2021-0232</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -40950,7 +40950,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0233</t>
+          <t>FRC-HQ-SLM-E-2021-0233</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -41125,7 +41125,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0234</t>
+          <t>FRC-HQ-SLM-E-2021-0234</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -41300,7 +41300,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0235</t>
+          <t>FRC-HQ-SLM-E-2021-0235</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -41475,7 +41475,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0236</t>
+          <t>FRC-HQ-SLM-E-2021-0236</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -41650,7 +41650,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0237</t>
+          <t>FRC-HQ-SLM-P-2021-0237</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -41825,7 +41825,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0238</t>
+          <t>FRC-HQ-SLM-P-2021-0238</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -42000,7 +42000,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0239</t>
+          <t>FRC-HQ-SLM-P-2021-0239</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -42175,7 +42175,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0240</t>
+          <t>FRC-HQ-SLM-P-2021-0240</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -42350,7 +42350,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0241</t>
+          <t>FRC-HQ-SLM-P-2021-0241</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -42525,7 +42525,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0242</t>
+          <t>FRC-HQ-SLM-I-2021-0242</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -42700,7 +42700,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0243</t>
+          <t>FRC-HQ-SLM-I-2021-0243</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -42875,7 +42875,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0244</t>
+          <t>FRC-HQ-SLM-I-2021-0244</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -43050,7 +43050,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0245</t>
+          <t>FRC-HQ-SLM-I-2021-0245</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -43225,7 +43225,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0246</t>
+          <t>FRC-HQ-SLM-I-2021-0246</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -43400,7 +43400,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0247</t>
+          <t>FRC-HQ-SLM-I-2021-0247</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -43575,7 +43575,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0248</t>
+          <t>FRC-HQ-SLM-I-2021-0248</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -43750,7 +43750,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0249</t>
+          <t>FRC-HQ-SLM-I-2021-0249</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -43925,7 +43925,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0250</t>
+          <t>FRC-HQ-SLM-I-2021-0250</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -44100,7 +44100,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0251</t>
+          <t>FRC-HQ-SLM-I-2021-0251</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -44275,7 +44275,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0252</t>
+          <t>FRC-HQ-SLM-I-2021-0252</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -44450,7 +44450,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0253</t>
+          <t>FRC-HQ-SLM-I-2021-0253</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -44625,7 +44625,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0254</t>
+          <t>FRC-HQ-SLM-I-2021-0254</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -44800,7 +44800,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0255</t>
+          <t>FRC-HQ-SLM-I-2021-0255</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -44975,7 +44975,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0256</t>
+          <t>FRC-HQ-SLM-I-2021-0256</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -45150,7 +45150,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0257</t>
+          <t>FRC-HQ-SLM-I-2021-0257</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -45325,7 +45325,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0258</t>
+          <t>FRC-HQ-SLM-I-2021-0258</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -45500,7 +45500,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0259</t>
+          <t>FRC-HQ-SLM-I-2021-0259</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -45675,7 +45675,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0260</t>
+          <t>FRC-HQ-SLM-I-2021-0260</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -45850,7 +45850,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0261</t>
+          <t>FRC-HQ-SLM-I-2021-0261</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -46025,7 +46025,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0262</t>
+          <t>FRC-HQ-SLM-I-2021-0262</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -46200,7 +46200,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0263</t>
+          <t>FRC-HQ-SLM-I-2021-0263</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -46375,7 +46375,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0264</t>
+          <t>FRC-HQ-SLM-I-2021-0264</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -46550,7 +46550,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0265</t>
+          <t>FRC-HQ-SLM-I-2021-0265</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -46725,7 +46725,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0266</t>
+          <t>FRC-HQ-SLM-I-2021-0266</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -46900,7 +46900,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0267</t>
+          <t>FRC-HQ-SLM-I-2021-0267</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0268</t>
+          <t>FRC-HQ-SLM-I-2021-0268</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -47250,7 +47250,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0269</t>
+          <t>FRC-HQ-SLM-I-2021-0269</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -47425,7 +47425,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0270</t>
+          <t>FRC-HQ-SLM-I-2021-0270</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -47600,7 +47600,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0271</t>
+          <t>FRC-HQ-SLM-I-2021-0271</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -47775,7 +47775,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0272</t>
+          <t>FRC-HQ-SLM-I-2021-0272</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -47950,7 +47950,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0273</t>
+          <t>FRC-HQ-SLM-I-2021-0273</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -48125,7 +48125,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0274</t>
+          <t>FRC-HQ-SLM-I-2021-0274</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -48300,7 +48300,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0275</t>
+          <t>FRC-HQ-SLM-F-2021-0275</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -48475,7 +48475,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0276</t>
+          <t>FRC-HQ-SLM-F-2021-0276</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -48650,7 +48650,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0277</t>
+          <t>FRC-HQ-SLM-F-2021-0277</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -48825,7 +48825,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0278</t>
+          <t>FRC-HQ-SLM-F-2021-0278</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -49000,7 +49000,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0279</t>
+          <t>FRC-HQ-SLM-F-2021-0279</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -49175,7 +49175,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0280</t>
+          <t>FRC-HQ-SLM-F-2021-0280</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -49350,7 +49350,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0281</t>
+          <t>FRC-HQ-SLM-F-2021-0281</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -49525,7 +49525,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0282</t>
+          <t>FRC-HQ-SLM-F-2021-0282</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -49700,7 +49700,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0283</t>
+          <t>FRC-HQ-SLM-F-2021-0283</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -49875,7 +49875,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0284</t>
+          <t>FRC-HQ-SLM-F-2021-0284</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -50050,7 +50050,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0285</t>
+          <t>FRC-HQ-SLM-F-2021-0285</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -50225,7 +50225,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0286</t>
+          <t>FRC-HQ-SLM-F-2021-0286</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -50400,7 +50400,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0287</t>
+          <t>FRC-HQ-SLM-F-2021-0287</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -50575,7 +50575,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0288</t>
+          <t>FRC-HQ-SLM-F-2021-0288</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -50750,7 +50750,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0289</t>
+          <t>FRC-HQ-SLM-F-2021-0289</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -50925,7 +50925,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0290</t>
+          <t>FRC-HQ-SLM-F-2021-0290</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -51100,7 +51100,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0291</t>
+          <t>FRC-HQ-SLM-F-2021-0291</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -51275,7 +51275,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0292</t>
+          <t>FRC-HQ-SLM-F-2021-0292</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -51450,7 +51450,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0293</t>
+          <t>FRC-HQ-SLM-F-2021-0293</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -51625,7 +51625,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0294</t>
+          <t>FRC-HQ-SLM-F-2021-0294</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -51800,7 +51800,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0295</t>
+          <t>FRC-HQ-SLM-F-2021-0295</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -51975,7 +51975,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0296</t>
+          <t>FRC-HQ-SLM-F-2021-0296</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -52150,7 +52150,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0297</t>
+          <t>FRC-HQ-SLM-F-2021-0297</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -52325,7 +52325,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0298</t>
+          <t>FRC-HQ-SLM-F-2021-0298</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -52500,7 +52500,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0299</t>
+          <t>FRC-HQ-SLM-F-2021-0299</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -52675,7 +52675,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0300</t>
+          <t>FRC-HQ-SLM-F-2021-0300</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -52850,7 +52850,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0301</t>
+          <t>FRC-HQ-SLM-F-2021-0301</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -53025,7 +53025,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0001</t>
+          <t>FRC-HQ-SLM-F-2023-0001</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -53200,7 +53200,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0001</t>
+          <t>FRC-HQ-SLM-F-2023-0001</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -53375,7 +53375,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-2023-0002</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -53550,7 +53550,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-2023-0002</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -53725,7 +53725,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-2023-0002</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -53900,7 +53900,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-2023-0002</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -54075,7 +54075,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-2021-0003</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -54250,7 +54250,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-2021-0003</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -54425,7 +54425,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0006</t>
+          <t>FRC-HQ-SLM-O-2019-0006</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -54600,7 +54600,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0006</t>
+          <t>FRC-HQ-SLM-O-2019-0006</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -54775,7 +54775,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0006</t>
+          <t>FRC-HQ-SLM-F-2023-0006</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -54950,7 +54950,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0006</t>
+          <t>FRC-HQ-SLM-F-2023-0006</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -55125,7 +55125,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0006</t>
+          <t>FRC-HQ-SLM-T-2023-0006</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -55300,7 +55300,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0006</t>
+          <t>FRC-HQ-SLM-T-2023-0006</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -55475,7 +55475,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-2023-0006</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -55650,7 +55650,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-2023-0006</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -55825,7 +55825,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-2023-0006</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -56000,7 +56000,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0006</t>
+          <t>FRC-HQ-SLM-C-2022-0006</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -56175,7 +56175,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0006</t>
+          <t>FRC-HQ-SLM-C-2022-0006</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -56350,7 +56350,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -56525,7 +56525,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -56700,7 +56700,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -56875,7 +56875,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -57050,7 +57050,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -57225,7 +57225,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -57400,7 +57400,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -57575,7 +57575,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -57750,7 +57750,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -57925,7 +57925,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -58100,7 +58100,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -58275,7 +58275,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-dfsdaf-SLM-C-2023-0001</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -58450,7 +58450,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0001</t>
+          <t>FRC-HQ-SLM-T-2020-0001</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -58625,7 +58625,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-98-0000</t>
+          <t>FRC-FRC-0-C-1998-0000</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">

--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF319"/>
+  <dimension ref="A1:AE310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
         <v>2022</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="AF1" s="1" t="n">
         <v>2024</v>
       </c>
     </row>
@@ -666,16 +663,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V2" t="n">
-        <v>44677.27</v>
+        <v>40615.7</v>
       </c>
       <c r="W2" t="n">
         <v>16246.29</v>
       </c>
       <c r="X2" t="n">
-        <v>28430.98</v>
+        <v>24369.41</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02</v>
+        <v>4061.59</v>
       </c>
       <c r="Z2" t="n">
         <v>8123.14</v>
@@ -693,9 +690,6 @@
         <v>4061.57</v>
       </c>
       <c r="AE2" t="n">
-        <v>4061.57</v>
-      </c>
-      <c r="AF2" t="n">
         <v>4061.57</v>
       </c>
     </row>
@@ -784,16 +778,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V3" t="n">
-        <v>22253</v>
+        <v>19074</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>22253</v>
+        <v>19074</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="Z3" t="n">
         <v>3179</v>
@@ -811,9 +805,6 @@
         <v>3179</v>
       </c>
       <c r="AE3" t="n">
-        <v>3179</v>
-      </c>
-      <c r="AF3" t="n">
         <v>3179</v>
       </c>
     </row>
@@ -902,16 +893,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V4" t="n">
-        <v>10810.03</v>
+        <v>9265.74</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>10810.03</v>
+        <v>9265.74</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.03</v>
+        <v>1544.26</v>
       </c>
       <c r="Z4" t="n">
         <v>1544.29</v>
@@ -929,9 +920,6 @@
         <v>1544.29</v>
       </c>
       <c r="AE4" t="n">
-        <v>1544.29</v>
-      </c>
-      <c r="AF4" t="n">
         <v>1544.29</v>
       </c>
     </row>
@@ -1020,16 +1008,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V5" t="n">
-        <v>11652.97</v>
+        <v>9988.259999999998</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11652.97</v>
+        <v>9988.26</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03</v>
+        <v>1664.74</v>
       </c>
       <c r="Z5" t="n">
         <v>1664.71</v>
@@ -1047,9 +1035,6 @@
         <v>1664.71</v>
       </c>
       <c r="AE5" t="n">
-        <v>1664.71</v>
-      </c>
-      <c r="AF5" t="n">
         <v>1664.71</v>
       </c>
     </row>
@@ -1138,16 +1123,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V6" t="n">
-        <v>32151</v>
+        <v>27558</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>32151</v>
+        <v>27558</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>4593</v>
       </c>
       <c r="Z6" t="n">
         <v>4593</v>
@@ -1165,9 +1150,6 @@
         <v>4593</v>
       </c>
       <c r="AE6" t="n">
-        <v>4593</v>
-      </c>
-      <c r="AF6" t="n">
         <v>4593</v>
       </c>
     </row>
@@ -1256,16 +1238,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V7" t="n">
-        <v>24570</v>
+        <v>21060</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>24570</v>
+        <v>21060</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="Z7" t="n">
         <v>3510</v>
@@ -1283,9 +1265,6 @@
         <v>3510</v>
       </c>
       <c r="AE7" t="n">
-        <v>3510</v>
-      </c>
-      <c r="AF7" t="n">
         <v>3510</v>
       </c>
     </row>
@@ -1374,16 +1353,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V8" t="n">
-        <v>47855.01</v>
+        <v>41018.58</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>47855.01</v>
+        <v>41018.58</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.01</v>
+        <v>6836.42</v>
       </c>
       <c r="Z8" t="n">
         <v>6836.43</v>
@@ -1401,9 +1380,6 @@
         <v>6836.43</v>
       </c>
       <c r="AE8" t="n">
-        <v>6836.43</v>
-      </c>
-      <c r="AF8" t="n">
         <v>6836.43</v>
       </c>
     </row>
@@ -1492,16 +1468,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V9" t="n">
-        <v>24829.98</v>
+        <v>21282.84</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>24829.98</v>
+        <v>21282.84</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02</v>
+        <v>3547.16</v>
       </c>
       <c r="Z9" t="n">
         <v>3547.14</v>
@@ -1519,9 +1495,6 @@
         <v>3547.14</v>
       </c>
       <c r="AE9" t="n">
-        <v>3547.14</v>
-      </c>
-      <c r="AF9" t="n">
         <v>3547.14</v>
       </c>
     </row>
@@ -1639,9 +1612,6 @@
       <c r="AE10" t="n">
         <v>0</v>
       </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1757,9 +1727,6 @@
       <c r="AE11" t="n">
         <v>0</v>
       </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1846,16 +1813,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V12" t="n">
-        <v>50900.01</v>
+        <v>43628.58</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>50900.01</v>
+        <v>43628.58</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.01</v>
+        <v>7271.42</v>
       </c>
       <c r="Z12" t="n">
         <v>7271.43</v>
@@ -1873,9 +1840,6 @@
         <v>7271.43</v>
       </c>
       <c r="AE12" t="n">
-        <v>7271.43</v>
-      </c>
-      <c r="AF12" t="n">
         <v>7271.43</v>
       </c>
     </row>
@@ -1964,16 +1928,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V13" t="n">
-        <v>56899.99</v>
+        <v>48771.42</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>56899.99</v>
+        <v>48771.42</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01</v>
+        <v>8128.58</v>
       </c>
       <c r="Z13" t="n">
         <v>8128.57</v>
@@ -1991,9 +1955,6 @@
         <v>8128.57</v>
       </c>
       <c r="AE13" t="n">
-        <v>8128.57</v>
-      </c>
-      <c r="AF13" t="n">
         <v>8128.57</v>
       </c>
     </row>
@@ -2111,9 +2072,6 @@
       <c r="AE14" t="n">
         <v>0</v>
       </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2200,16 +2158,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V15" t="n">
-        <v>16900.03</v>
+        <v>14485.74</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>16900.03</v>
+        <v>14485.74</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.03</v>
+        <v>2414.26</v>
       </c>
       <c r="Z15" t="n">
         <v>2414.29</v>
@@ -2227,9 +2185,6 @@
         <v>2414.29</v>
       </c>
       <c r="AE15" t="n">
-        <v>2414.29</v>
-      </c>
-      <c r="AF15" t="n">
         <v>2414.29</v>
       </c>
     </row>
@@ -2318,16 +2273,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V16" t="n">
-        <v>19499.97</v>
+        <v>16714.26</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>19499.97</v>
+        <v>16714.26</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03</v>
+        <v>2785.74</v>
       </c>
       <c r="Z16" t="n">
         <v>2785.71</v>
@@ -2345,9 +2300,6 @@
         <v>2785.71</v>
       </c>
       <c r="AE16" t="n">
-        <v>2785.71</v>
-      </c>
-      <c r="AF16" t="n">
         <v>2785.71</v>
       </c>
     </row>
@@ -2465,9 +2417,6 @@
       <c r="AE17" t="n">
         <v>0</v>
       </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2583,9 +2532,6 @@
       <c r="AE18" t="n">
         <v>0</v>
       </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2701,9 +2647,6 @@
       <c r="AE19" t="n">
         <v>0</v>
       </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2790,16 +2733,16 @@
         <v>0.1</v>
       </c>
       <c r="V20" t="n">
-        <v>21315</v>
+        <v>18270</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>21315</v>
+        <v>18270</v>
       </c>
       <c r="Y20" t="n">
-        <v>9135</v>
+        <v>12180</v>
       </c>
       <c r="Z20" t="n">
         <v>3045</v>
@@ -2817,9 +2760,6 @@
         <v>3045</v>
       </c>
       <c r="AE20" t="n">
-        <v>3045</v>
-      </c>
-      <c r="AF20" t="n">
         <v>3045</v>
       </c>
     </row>
@@ -2908,16 +2848,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V21" t="n">
-        <v>4300.03</v>
+        <v>3685.74</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>4300.03</v>
+        <v>3685.74</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.03</v>
+        <v>614.26</v>
       </c>
       <c r="Z21" t="n">
         <v>614.29</v>
@@ -2935,9 +2875,6 @@
         <v>614.29</v>
       </c>
       <c r="AE21" t="n">
-        <v>614.29</v>
-      </c>
-      <c r="AF21" t="n">
         <v>614.29</v>
       </c>
     </row>
@@ -3026,16 +2963,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V22" t="n">
-        <v>28287.98</v>
+        <v>24246.84</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>28287.98</v>
+        <v>24246.84</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02</v>
+        <v>4041.16</v>
       </c>
       <c r="Z22" t="n">
         <v>4041.14</v>
@@ -3053,9 +2990,6 @@
         <v>4041.14</v>
       </c>
       <c r="AE22" t="n">
-        <v>4041.14</v>
-      </c>
-      <c r="AF22" t="n">
         <v>4041.14</v>
       </c>
     </row>
@@ -3144,16 +3078,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V23" t="n">
-        <v>20198.99</v>
+        <v>17313.42</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>20198.99</v>
+        <v>17313.42</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01</v>
+        <v>2885.58</v>
       </c>
       <c r="Z23" t="n">
         <v>2885.57</v>
@@ -3171,9 +3105,6 @@
         <v>2885.57</v>
       </c>
       <c r="AE23" t="n">
-        <v>2885.57</v>
-      </c>
-      <c r="AF23" t="n">
         <v>2885.57</v>
       </c>
     </row>
@@ -3262,16 +3193,16 @@
         <v>0.1</v>
       </c>
       <c r="V24" t="n">
-        <v>38574.2</v>
+        <v>33063.6</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>38574.2</v>
+        <v>33063.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>16531.8</v>
+        <v>22042.4</v>
       </c>
       <c r="Z24" t="n">
         <v>5510.6</v>
@@ -3289,9 +3220,6 @@
         <v>5510.6</v>
       </c>
       <c r="AE24" t="n">
-        <v>5510.6</v>
-      </c>
-      <c r="AF24" t="n">
         <v>5510.6</v>
       </c>
     </row>
@@ -3380,16 +3308,16 @@
         <v>0.1</v>
       </c>
       <c r="V25" t="n">
-        <v>8190</v>
+        <v>7020</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>8190</v>
+        <v>7020</v>
       </c>
       <c r="Y25" t="n">
-        <v>3510</v>
+        <v>4680</v>
       </c>
       <c r="Z25" t="n">
         <v>1170</v>
@@ -3407,9 +3335,6 @@
         <v>1170</v>
       </c>
       <c r="AE25" t="n">
-        <v>1170</v>
-      </c>
-      <c r="AF25" t="n">
         <v>1170</v>
       </c>
     </row>
@@ -3498,16 +3423,16 @@
         <v>0.1</v>
       </c>
       <c r="V26" t="n">
-        <v>18144</v>
+        <v>15552</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>18144</v>
+        <v>15552</v>
       </c>
       <c r="Y26" t="n">
-        <v>7776</v>
+        <v>10368</v>
       </c>
       <c r="Z26" t="n">
         <v>2592</v>
@@ -3525,9 +3450,6 @@
         <v>2592</v>
       </c>
       <c r="AE26" t="n">
-        <v>2592</v>
-      </c>
-      <c r="AF26" t="n">
         <v>2592</v>
       </c>
     </row>
@@ -3616,16 +3538,16 @@
         <v>0.1</v>
       </c>
       <c r="V27" t="n">
-        <v>178752</v>
+        <v>153216</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>178752</v>
+        <v>153216</v>
       </c>
       <c r="Y27" t="n">
-        <v>76608</v>
+        <v>102144</v>
       </c>
       <c r="Z27" t="n">
         <v>25536</v>
@@ -3643,9 +3565,6 @@
         <v>25536</v>
       </c>
       <c r="AE27" t="n">
-        <v>25536</v>
-      </c>
-      <c r="AF27" t="n">
         <v>25536</v>
       </c>
     </row>
@@ -3734,16 +3653,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V28" t="n">
-        <v>44235.73</v>
+        <v>40214.3</v>
       </c>
       <c r="W28" t="n">
         <v>16085.71</v>
       </c>
       <c r="X28" t="n">
-        <v>28150.02</v>
+        <v>24128.59</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.02</v>
+        <v>4021.41</v>
       </c>
       <c r="Z28" t="n">
         <v>8042.86</v>
@@ -3761,9 +3680,6 @@
         <v>4021.43</v>
       </c>
       <c r="AE28" t="n">
-        <v>4021.43</v>
-      </c>
-      <c r="AF28" t="n">
         <v>4021.43</v>
       </c>
     </row>
@@ -3852,16 +3768,16 @@
         <v>0.1</v>
       </c>
       <c r="V29" t="n">
-        <v>168000</v>
+        <v>144000</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>168000</v>
+        <v>144000</v>
       </c>
       <c r="Y29" t="n">
-        <v>72000</v>
+        <v>96000</v>
       </c>
       <c r="Z29" t="n">
         <v>24000</v>
@@ -3879,9 +3795,6 @@
         <v>24000</v>
       </c>
       <c r="AE29" t="n">
-        <v>24000</v>
-      </c>
-      <c r="AF29" t="n">
         <v>24000</v>
       </c>
     </row>
@@ -3970,16 +3883,16 @@
         <v>0.1</v>
       </c>
       <c r="V30" t="n">
-        <v>33600</v>
+        <v>28800</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>33600</v>
+        <v>28800</v>
       </c>
       <c r="Y30" t="n">
-        <v>14400</v>
+        <v>19200</v>
       </c>
       <c r="Z30" t="n">
         <v>4800</v>
@@ -3997,9 +3910,6 @@
         <v>4800</v>
       </c>
       <c r="AE30" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AF30" t="n">
         <v>4800</v>
       </c>
     </row>
@@ -4088,16 +3998,16 @@
         <v>0.1</v>
       </c>
       <c r="V31" t="n">
-        <v>20160</v>
+        <v>17280</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>20160</v>
+        <v>17280</v>
       </c>
       <c r="Y31" t="n">
-        <v>8640</v>
+        <v>11520</v>
       </c>
       <c r="Z31" t="n">
         <v>2880</v>
@@ -4115,9 +4025,6 @@
         <v>2880</v>
       </c>
       <c r="AE31" t="n">
-        <v>2880</v>
-      </c>
-      <c r="AF31" t="n">
         <v>2880</v>
       </c>
     </row>
@@ -4206,16 +4113,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V32" t="n">
-        <v>362600</v>
+        <v>310800</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>362600</v>
+        <v>310800</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>51800</v>
       </c>
       <c r="Z32" t="n">
         <v>51800</v>
@@ -4233,9 +4140,6 @@
         <v>51800</v>
       </c>
       <c r="AE32" t="n">
-        <v>51800</v>
-      </c>
-      <c r="AF32" t="n">
         <v>51800</v>
       </c>
     </row>
@@ -4324,16 +4228,16 @@
         <v>0.1</v>
       </c>
       <c r="V33" t="n">
-        <v>9362.5</v>
+        <v>8025</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>9362.5</v>
+        <v>8025</v>
       </c>
       <c r="Y33" t="n">
-        <v>4012.5</v>
+        <v>5350</v>
       </c>
       <c r="Z33" t="n">
         <v>1337.5</v>
@@ -4351,9 +4255,6 @@
         <v>1337.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1337.5</v>
-      </c>
-      <c r="AF33" t="n">
         <v>1337.5</v>
       </c>
     </row>
@@ -4442,16 +4343,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V34" t="n">
-        <v>12299.98</v>
+        <v>10542.84</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>12299.98</v>
+        <v>10542.84</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.02</v>
+        <v>1757.16</v>
       </c>
       <c r="Z34" t="n">
         <v>1757.14</v>
@@ -4469,9 +4370,6 @@
         <v>1757.14</v>
       </c>
       <c r="AE34" t="n">
-        <v>1757.14</v>
-      </c>
-      <c r="AF34" t="n">
         <v>1757.14</v>
       </c>
     </row>
@@ -4560,16 +4458,16 @@
         <v>0.1</v>
       </c>
       <c r="V35" t="n">
-        <v>68110</v>
+        <v>58380</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>68110</v>
+        <v>58380</v>
       </c>
       <c r="Y35" t="n">
-        <v>29190</v>
+        <v>38920</v>
       </c>
       <c r="Z35" t="n">
         <v>9730</v>
@@ -4587,9 +4485,6 @@
         <v>9730</v>
       </c>
       <c r="AE35" t="n">
-        <v>9730</v>
-      </c>
-      <c r="AF35" t="n">
         <v>9730</v>
       </c>
     </row>
@@ -4678,16 +4573,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V36" t="n">
-        <v>53770.01</v>
+        <v>46088.58</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>53770.01</v>
+        <v>46088.58</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.01</v>
+        <v>7681.42</v>
       </c>
       <c r="Z36" t="n">
         <v>7681.43</v>
@@ -4705,9 +4600,6 @@
         <v>7681.43</v>
       </c>
       <c r="AE36" t="n">
-        <v>7681.43</v>
-      </c>
-      <c r="AF36" t="n">
         <v>7681.43</v>
       </c>
     </row>
@@ -4825,9 +4717,6 @@
       <c r="AE37" t="n">
         <v>0</v>
       </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4914,16 +4803,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V38" t="n">
-        <v>196000</v>
+        <v>168000</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>196000</v>
+        <v>168000</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="Z38" t="n">
         <v>28000</v>
@@ -4941,9 +4830,6 @@
         <v>28000</v>
       </c>
       <c r="AE38" t="n">
-        <v>28000</v>
-      </c>
-      <c r="AF38" t="n">
         <v>28000</v>
       </c>
     </row>
@@ -5032,16 +4918,16 @@
         <v>0.1</v>
       </c>
       <c r="V39" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Y39" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Z39" t="n">
         <v>1500</v>
@@ -5059,9 +4945,6 @@
         <v>1500</v>
       </c>
       <c r="AE39" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AF39" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -5150,16 +5033,16 @@
         <v>0.1</v>
       </c>
       <c r="V40" t="n">
-        <v>4462.5</v>
+        <v>3825</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>4462.5</v>
+        <v>3825</v>
       </c>
       <c r="Y40" t="n">
-        <v>1912.5</v>
+        <v>2550</v>
       </c>
       <c r="Z40" t="n">
         <v>637.5</v>
@@ -5177,9 +5060,6 @@
         <v>637.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>637.5</v>
-      </c>
-      <c r="AF40" t="n">
         <v>637.5</v>
       </c>
     </row>
@@ -5268,16 +5148,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V41" t="n">
-        <v>16408</v>
+        <v>14064</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>16408</v>
+        <v>14064</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>2344</v>
       </c>
       <c r="Z41" t="n">
         <v>2344</v>
@@ -5295,9 +5175,6 @@
         <v>2344</v>
       </c>
       <c r="AE41" t="n">
-        <v>2344</v>
-      </c>
-      <c r="AF41" t="n">
         <v>2344</v>
       </c>
     </row>
@@ -5415,9 +5292,6 @@
       <c r="AE42" t="n">
         <v>0</v>
       </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5504,16 +5378,16 @@
         <v>0.1</v>
       </c>
       <c r="V43" t="n">
-        <v>8206.379999999999</v>
+        <v>7034.04</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>8206.379999999999</v>
+        <v>7034.04</v>
       </c>
       <c r="Y43" t="n">
-        <v>3516.98</v>
+        <v>4689.32</v>
       </c>
       <c r="Z43" t="n">
         <v>1172.34</v>
@@ -5531,9 +5405,6 @@
         <v>1172.34</v>
       </c>
       <c r="AE43" t="n">
-        <v>1172.34</v>
-      </c>
-      <c r="AF43" t="n">
         <v>1172.34</v>
       </c>
     </row>
@@ -5622,16 +5493,16 @@
         <v>0.1</v>
       </c>
       <c r="V44" t="n">
-        <v>2051.56</v>
+        <v>1758.48</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2051.56</v>
+        <v>1758.48</v>
       </c>
       <c r="Y44" t="n">
-        <v>879.28</v>
+        <v>1172.36</v>
       </c>
       <c r="Z44" t="n">
         <v>293.08</v>
@@ -5649,9 +5520,6 @@
         <v>293.08</v>
       </c>
       <c r="AE44" t="n">
-        <v>293.08</v>
-      </c>
-      <c r="AF44" t="n">
         <v>293.08</v>
       </c>
     </row>
@@ -5740,16 +5608,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V45" t="n">
-        <v>10399.97</v>
+        <v>8914.26</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>10399.97</v>
+        <v>8914.26</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.03</v>
+        <v>1485.74</v>
       </c>
       <c r="Z45" t="n">
         <v>1485.71</v>
@@ -5767,9 +5635,6 @@
         <v>1485.71</v>
       </c>
       <c r="AE45" t="n">
-        <v>1485.71</v>
-      </c>
-      <c r="AF45" t="n">
         <v>1485.71</v>
       </c>
     </row>
@@ -5858,16 +5723,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V46" t="n">
-        <v>80250.03</v>
+        <v>68785.74000000001</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>80250.03</v>
+        <v>68785.74000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>-0.03</v>
+        <v>11464.26</v>
       </c>
       <c r="Z46" t="n">
         <v>11464.29</v>
@@ -5885,9 +5750,6 @@
         <v>11464.29</v>
       </c>
       <c r="AE46" t="n">
-        <v>11464.29</v>
-      </c>
-      <c r="AF46" t="n">
         <v>11464.29</v>
       </c>
     </row>
@@ -6005,9 +5867,6 @@
       <c r="AE47" t="n">
         <v>0</v>
       </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6123,9 +5982,6 @@
       <c r="AE48" t="n">
         <v>0</v>
       </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6212,16 +6068,16 @@
         <v>0.1</v>
       </c>
       <c r="V49" t="n">
-        <v>53482</v>
+        <v>48620</v>
       </c>
       <c r="W49" t="n">
         <v>19448</v>
       </c>
       <c r="X49" t="n">
-        <v>34034</v>
+        <v>29172</v>
       </c>
       <c r="Y49" t="n">
-        <v>14586</v>
+        <v>19448</v>
       </c>
       <c r="Z49" t="n">
         <v>9724</v>
@@ -6239,9 +6095,6 @@
         <v>4862</v>
       </c>
       <c r="AE49" t="n">
-        <v>4862</v>
-      </c>
-      <c r="AF49" t="n">
         <v>4862</v>
       </c>
     </row>
@@ -6359,9 +6212,6 @@
       <c r="AE50" t="n">
         <v>0</v>
       </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6477,9 +6327,6 @@
       <c r="AE51" t="n">
         <v>0</v>
       </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6595,9 +6442,6 @@
       <c r="AE52" t="n">
         <v>0</v>
       </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6713,9 +6557,6 @@
       <c r="AE53" t="n">
         <v>0</v>
       </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6831,9 +6672,6 @@
       <c r="AE54" t="n">
         <v>0</v>
       </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6949,9 +6787,6 @@
       <c r="AE55" t="n">
         <v>0</v>
       </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7067,9 +6902,6 @@
       <c r="AE56" t="n">
         <v>0</v>
       </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7185,9 +7017,6 @@
       <c r="AE57" t="n">
         <v>0</v>
       </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7303,9 +7132,6 @@
       <c r="AE58" t="n">
         <v>0</v>
       </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7392,16 +7218,16 @@
         <v>0.1</v>
       </c>
       <c r="V59" t="n">
-        <v>46479.32</v>
+        <v>42437.64</v>
       </c>
       <c r="W59" t="n">
         <v>18187.56</v>
       </c>
       <c r="X59" t="n">
-        <v>28291.76</v>
+        <v>24250.08</v>
       </c>
       <c r="Y59" t="n">
-        <v>12125.04</v>
+        <v>16166.72</v>
       </c>
       <c r="Z59" t="n">
         <v>10104.2</v>
@@ -7419,9 +7245,6 @@
         <v>4041.68</v>
       </c>
       <c r="AE59" t="n">
-        <v>4041.68</v>
-      </c>
-      <c r="AF59" t="n">
         <v>4041.68</v>
       </c>
     </row>
@@ -7539,9 +7362,6 @@
       <c r="AE60" t="n">
         <v>0</v>
       </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7657,9 +7477,6 @@
       <c r="AE61" t="n">
         <v>0</v>
       </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7746,16 +7563,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V62" t="n">
-        <v>18368</v>
+        <v>15744</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>18368</v>
+        <v>15744</v>
       </c>
       <c r="Y62" t="n">
-        <v>0</v>
+        <v>2624</v>
       </c>
       <c r="Z62" t="n">
         <v>2624</v>
@@ -7773,9 +7590,6 @@
         <v>2624</v>
       </c>
       <c r="AE62" t="n">
-        <v>2624</v>
-      </c>
-      <c r="AF62" t="n">
         <v>2624</v>
       </c>
     </row>
@@ -7864,16 +7678,16 @@
         <v>0.1</v>
       </c>
       <c r="V63" t="n">
-        <v>11950.47</v>
+        <v>10243.26</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>11950.47</v>
+        <v>10243.26</v>
       </c>
       <c r="Y63" t="n">
-        <v>5121.67</v>
+        <v>6828.88</v>
       </c>
       <c r="Z63" t="n">
         <v>1707.21</v>
@@ -7891,9 +7705,6 @@
         <v>1707.21</v>
       </c>
       <c r="AE63" t="n">
-        <v>1707.21</v>
-      </c>
-      <c r="AF63" t="n">
         <v>1707.21</v>
       </c>
     </row>
@@ -8011,9 +7822,6 @@
       <c r="AE64" t="n">
         <v>0</v>
       </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8129,9 +7937,6 @@
       <c r="AE65" t="n">
         <v>0</v>
       </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8247,9 +8052,6 @@
       <c r="AE66" t="n">
         <v>0</v>
       </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8336,16 +8138,16 @@
         <v>0.1</v>
       </c>
       <c r="V67" t="n">
-        <v>38500</v>
+        <v>33000</v>
       </c>
       <c r="W67" t="n">
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>38500</v>
+        <v>33000</v>
       </c>
       <c r="Y67" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="Z67" t="n">
         <v>5500</v>
@@ -8363,9 +8165,6 @@
         <v>5500</v>
       </c>
       <c r="AE67" t="n">
-        <v>5500</v>
-      </c>
-      <c r="AF67" t="n">
         <v>5500</v>
       </c>
     </row>
@@ -8454,16 +8253,16 @@
         <v>0.1</v>
       </c>
       <c r="V68" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Y68" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Z68" t="n">
         <v>2500</v>
@@ -8481,9 +8280,6 @@
         <v>2500</v>
       </c>
       <c r="AE68" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AF68" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -8601,9 +8397,6 @@
       <c r="AE69" t="n">
         <v>0</v>
       </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8690,16 +8483,16 @@
         <v>0.1</v>
       </c>
       <c r="V70" t="n">
-        <v>5131</v>
+        <v>4398</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>5131</v>
+        <v>4398</v>
       </c>
       <c r="Y70" t="n">
-        <v>2199</v>
+        <v>2932</v>
       </c>
       <c r="Z70" t="n">
         <v>733</v>
@@ -8717,9 +8510,6 @@
         <v>733</v>
       </c>
       <c r="AE70" t="n">
-        <v>733</v>
-      </c>
-      <c r="AF70" t="n">
         <v>733</v>
       </c>
     </row>
@@ -8837,9 +8627,6 @@
       <c r="AE71" t="n">
         <v>0</v>
       </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8926,16 +8713,16 @@
         <v>0.1</v>
       </c>
       <c r="V72" t="n">
-        <v>6650</v>
+        <v>5700</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>6650</v>
+        <v>5700</v>
       </c>
       <c r="Y72" t="n">
-        <v>2850</v>
+        <v>3800</v>
       </c>
       <c r="Z72" t="n">
         <v>950</v>
@@ -8953,9 +8740,6 @@
         <v>950</v>
       </c>
       <c r="AE72" t="n">
-        <v>950</v>
-      </c>
-      <c r="AF72" t="n">
         <v>950</v>
       </c>
     </row>
@@ -9044,16 +8828,16 @@
         <v>0.1</v>
       </c>
       <c r="V73" t="n">
-        <v>11760</v>
+        <v>10080</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>11760</v>
+        <v>10080</v>
       </c>
       <c r="Y73" t="n">
-        <v>5040</v>
+        <v>6720</v>
       </c>
       <c r="Z73" t="n">
         <v>1680</v>
@@ -9071,9 +8855,6 @@
         <v>1680</v>
       </c>
       <c r="AE73" t="n">
-        <v>1680</v>
-      </c>
-      <c r="AF73" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -9162,16 +8943,16 @@
         <v>0.1</v>
       </c>
       <c r="V74" t="n">
-        <v>8925</v>
+        <v>7650</v>
       </c>
       <c r="W74" t="n">
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>8925</v>
+        <v>7650</v>
       </c>
       <c r="Y74" t="n">
-        <v>3825</v>
+        <v>5100</v>
       </c>
       <c r="Z74" t="n">
         <v>1275</v>
@@ -9189,9 +8970,6 @@
         <v>1275</v>
       </c>
       <c r="AE74" t="n">
-        <v>1275</v>
-      </c>
-      <c r="AF74" t="n">
         <v>1275</v>
       </c>
     </row>
@@ -9280,16 +9058,16 @@
         <v>0.1</v>
       </c>
       <c r="V75" t="n">
-        <v>22050</v>
+        <v>18900</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>22050</v>
+        <v>18900</v>
       </c>
       <c r="Y75" t="n">
-        <v>9450</v>
+        <v>12600</v>
       </c>
       <c r="Z75" t="n">
         <v>3150</v>
@@ -9307,9 +9085,6 @@
         <v>3150</v>
       </c>
       <c r="AE75" t="n">
-        <v>3150</v>
-      </c>
-      <c r="AF75" t="n">
         <v>3150</v>
       </c>
     </row>
@@ -9398,16 +9173,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V76" t="n">
-        <v>20661.97</v>
+        <v>17710.26</v>
       </c>
       <c r="W76" t="n">
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>20661.97</v>
+        <v>17710.26</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.03</v>
+        <v>2951.74</v>
       </c>
       <c r="Z76" t="n">
         <v>2951.71</v>
@@ -9425,9 +9200,6 @@
         <v>2951.71</v>
       </c>
       <c r="AE76" t="n">
-        <v>2951.71</v>
-      </c>
-      <c r="AF76" t="n">
         <v>2951.71</v>
       </c>
     </row>
@@ -9516,16 +9288,16 @@
         <v>0.1</v>
       </c>
       <c r="V77" t="n">
-        <v>11874.1</v>
+        <v>10177.8</v>
       </c>
       <c r="W77" t="n">
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>11874.1</v>
+        <v>10177.8</v>
       </c>
       <c r="Y77" t="n">
-        <v>5088.9</v>
+        <v>6785.2</v>
       </c>
       <c r="Z77" t="n">
         <v>1696.3</v>
@@ -9543,9 +9315,6 @@
         <v>1696.3</v>
       </c>
       <c r="AE77" t="n">
-        <v>1696.3</v>
-      </c>
-      <c r="AF77" t="n">
         <v>1696.3</v>
       </c>
     </row>
@@ -9634,16 +9403,16 @@
         <v>0.1</v>
       </c>
       <c r="V78" t="n">
-        <v>8400</v>
+        <v>7200</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>8400</v>
+        <v>7200</v>
       </c>
       <c r="Y78" t="n">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="Z78" t="n">
         <v>1200</v>
@@ -9661,9 +9430,6 @@
         <v>1200</v>
       </c>
       <c r="AE78" t="n">
-        <v>1200</v>
-      </c>
-      <c r="AF78" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -9752,16 +9518,16 @@
         <v>0.1</v>
       </c>
       <c r="V79" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="W79" t="n">
         <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Y79" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Z79" t="n">
         <v>500</v>
@@ -9779,9 +9545,6 @@
         <v>500</v>
       </c>
       <c r="AE79" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF79" t="n">
         <v>500</v>
       </c>
     </row>
@@ -9899,9 +9662,6 @@
       <c r="AE80" t="n">
         <v>0</v>
       </c>
-      <c r="AF80" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10017,9 +9777,6 @@
       <c r="AE81" t="n">
         <v>0</v>
       </c>
-      <c r="AF81" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10135,9 +9892,6 @@
       <c r="AE82" t="n">
         <v>0</v>
       </c>
-      <c r="AF82" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10253,9 +10007,6 @@
       <c r="AE83" t="n">
         <v>0</v>
       </c>
-      <c r="AF83" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10342,16 +10093,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V84" t="n">
-        <v>39379.97</v>
+        <v>33754.26</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>39379.97</v>
+        <v>33754.26</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.03</v>
+        <v>5625.74</v>
       </c>
       <c r="Z84" t="n">
         <v>5625.71</v>
@@ -10369,9 +10120,6 @@
         <v>5625.71</v>
       </c>
       <c r="AE84" t="n">
-        <v>5625.71</v>
-      </c>
-      <c r="AF84" t="n">
         <v>5625.71</v>
       </c>
     </row>
@@ -10489,9 +10237,6 @@
       <c r="AE85" t="n">
         <v>0</v>
       </c>
-      <c r="AF85" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10607,9 +10352,6 @@
       <c r="AE86" t="n">
         <v>0</v>
       </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10696,16 +10438,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V87" t="n">
-        <v>62499.99</v>
+        <v>53571.42</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>62499.99</v>
+        <v>53571.42</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.01</v>
+        <v>8928.58</v>
       </c>
       <c r="Z87" t="n">
         <v>8928.57</v>
@@ -10723,9 +10465,6 @@
         <v>8928.57</v>
       </c>
       <c r="AE87" t="n">
-        <v>8928.57</v>
-      </c>
-      <c r="AF87" t="n">
         <v>8928.57</v>
       </c>
     </row>
@@ -10843,9 +10582,6 @@
       <c r="AE88" t="n">
         <v>0</v>
       </c>
-      <c r="AF88" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10961,9 +10697,6 @@
       <c r="AE89" t="n">
         <v>0</v>
       </c>
-      <c r="AF89" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11079,9 +10812,6 @@
       <c r="AE90" t="n">
         <v>0</v>
       </c>
-      <c r="AF90" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11197,9 +10927,6 @@
       <c r="AE91" t="n">
         <v>0</v>
       </c>
-      <c r="AF91" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11315,9 +11042,6 @@
       <c r="AE92" t="n">
         <v>0</v>
       </c>
-      <c r="AF92" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11433,9 +11157,6 @@
       <c r="AE93" t="n">
         <v>0</v>
       </c>
-      <c r="AF93" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11551,9 +11272,6 @@
       <c r="AE94" t="n">
         <v>0</v>
       </c>
-      <c r="AF94" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11640,16 +11358,16 @@
         <v>0.1</v>
       </c>
       <c r="V95" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Y95" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Z95" t="n">
         <v>3500</v>
@@ -11667,9 +11385,6 @@
         <v>3500</v>
       </c>
       <c r="AE95" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AF95" t="n">
         <v>3500</v>
       </c>
     </row>
@@ -11758,16 +11473,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V96" t="n">
-        <v>36700.02</v>
+        <v>31457.16</v>
       </c>
       <c r="W96" t="n">
         <v>0</v>
       </c>
       <c r="X96" t="n">
-        <v>36700.02</v>
+        <v>31457.16</v>
       </c>
       <c r="Y96" t="n">
-        <v>-0.02</v>
+        <v>5242.84</v>
       </c>
       <c r="Z96" t="n">
         <v>5242.86</v>
@@ -11785,9 +11500,6 @@
         <v>5242.86</v>
       </c>
       <c r="AE96" t="n">
-        <v>5242.86</v>
-      </c>
-      <c r="AF96" t="n">
         <v>5242.86</v>
       </c>
     </row>
@@ -11876,16 +11588,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V97" t="n">
-        <v>214136.02</v>
+        <v>183545.16</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>214136.02</v>
+        <v>183545.16</v>
       </c>
       <c r="Y97" t="n">
-        <v>-0.02</v>
+        <v>30590.84</v>
       </c>
       <c r="Z97" t="n">
         <v>30590.86</v>
@@ -11903,9 +11615,6 @@
         <v>30590.86</v>
       </c>
       <c r="AE97" t="n">
-        <v>30590.86</v>
-      </c>
-      <c r="AF97" t="n">
         <v>30590.86</v>
       </c>
     </row>
@@ -11994,16 +11703,16 @@
         <v>0.1</v>
       </c>
       <c r="V98" t="n">
-        <v>6493525.5</v>
+        <v>5565879</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
       </c>
       <c r="X98" t="n">
-        <v>6493525.5</v>
+        <v>5565879</v>
       </c>
       <c r="Y98" t="n">
-        <v>2782939.5</v>
+        <v>3710586</v>
       </c>
       <c r="Z98" t="n">
         <v>927646.5</v>
@@ -12021,9 +11730,6 @@
         <v>927646.5</v>
       </c>
       <c r="AE98" t="n">
-        <v>927646.5</v>
-      </c>
-      <c r="AF98" t="n">
         <v>927646.5</v>
       </c>
     </row>
@@ -12112,16 +11818,16 @@
         <v>0.1</v>
       </c>
       <c r="V99" t="n">
-        <v>6332830</v>
+        <v>5428140</v>
       </c>
       <c r="W99" t="n">
         <v>0</v>
       </c>
       <c r="X99" t="n">
-        <v>6332830</v>
+        <v>5428140</v>
       </c>
       <c r="Y99" t="n">
-        <v>2714070</v>
+        <v>3618760</v>
       </c>
       <c r="Z99" t="n">
         <v>904690</v>
@@ -12139,9 +11845,6 @@
         <v>904690</v>
       </c>
       <c r="AE99" t="n">
-        <v>904690</v>
-      </c>
-      <c r="AF99" t="n">
         <v>904690</v>
       </c>
     </row>
@@ -12230,16 +11933,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V100" t="n">
-        <v>42801.01</v>
+        <v>36686.58</v>
       </c>
       <c r="W100" t="n">
         <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>42801.01</v>
+        <v>36686.58</v>
       </c>
       <c r="Y100" t="n">
-        <v>-0.01</v>
+        <v>6114.42</v>
       </c>
       <c r="Z100" t="n">
         <v>6114.43</v>
@@ -12257,9 +11960,6 @@
         <v>6114.43</v>
       </c>
       <c r="AE100" t="n">
-        <v>6114.43</v>
-      </c>
-      <c r="AF100" t="n">
         <v>6114.43</v>
       </c>
     </row>
@@ -12348,16 +12048,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V101" t="n">
-        <v>20100.01</v>
+        <v>17228.58</v>
       </c>
       <c r="W101" t="n">
         <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>20100.01</v>
+        <v>17228.58</v>
       </c>
       <c r="Y101" t="n">
-        <v>-0.01</v>
+        <v>2871.42</v>
       </c>
       <c r="Z101" t="n">
         <v>2871.43</v>
@@ -12375,9 +12075,6 @@
         <v>2871.43</v>
       </c>
       <c r="AE101" t="n">
-        <v>2871.43</v>
-      </c>
-      <c r="AF101" t="n">
         <v>2871.43</v>
       </c>
     </row>
@@ -12466,16 +12163,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V102" t="n">
-        <v>4319.98</v>
+        <v>3702.84</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
       </c>
       <c r="X102" t="n">
-        <v>4319.98</v>
+        <v>3702.84</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.02</v>
+        <v>617.16</v>
       </c>
       <c r="Z102" t="n">
         <v>617.14</v>
@@ -12493,9 +12190,6 @@
         <v>617.14</v>
       </c>
       <c r="AE102" t="n">
-        <v>617.14</v>
-      </c>
-      <c r="AF102" t="n">
         <v>617.14</v>
       </c>
     </row>
@@ -12613,9 +12307,6 @@
       <c r="AE103" t="n">
         <v>0</v>
       </c>
-      <c r="AF103" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12702,16 +12393,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V104" t="n">
-        <v>9900.029999999999</v>
+        <v>8485.74</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
       </c>
       <c r="X104" t="n">
-        <v>9900.030000000001</v>
+        <v>8485.74</v>
       </c>
       <c r="Y104" t="n">
-        <v>-0.03</v>
+        <v>1414.26</v>
       </c>
       <c r="Z104" t="n">
         <v>1414.29</v>
@@ -12729,9 +12420,6 @@
         <v>1414.29</v>
       </c>
       <c r="AE104" t="n">
-        <v>1414.29</v>
-      </c>
-      <c r="AF104" t="n">
         <v>1414.29</v>
       </c>
     </row>
@@ -12820,16 +12508,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V105" t="n">
-        <v>57799.98</v>
+        <v>49542.84</v>
       </c>
       <c r="W105" t="n">
         <v>0</v>
       </c>
       <c r="X105" t="n">
-        <v>57799.98</v>
+        <v>49542.84</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.02</v>
+        <v>8257.16</v>
       </c>
       <c r="Z105" t="n">
         <v>8257.139999999999</v>
@@ -12847,9 +12535,6 @@
         <v>8257.139999999999</v>
       </c>
       <c r="AE105" t="n">
-        <v>8257.139999999999</v>
-      </c>
-      <c r="AF105" t="n">
         <v>8257.139999999999</v>
       </c>
     </row>
@@ -12967,9 +12652,6 @@
       <c r="AE106" t="n">
         <v>0</v>
       </c>
-      <c r="AF106" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13056,16 +12738,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V107" t="n">
-        <v>182937.02</v>
+        <v>156803.16</v>
       </c>
       <c r="W107" t="n">
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>182937.02</v>
+        <v>156803.16</v>
       </c>
       <c r="Y107" t="n">
-        <v>-0.02</v>
+        <v>26133.84</v>
       </c>
       <c r="Z107" t="n">
         <v>26133.86</v>
@@ -13083,9 +12765,6 @@
         <v>26133.86</v>
       </c>
       <c r="AE107" t="n">
-        <v>26133.86</v>
-      </c>
-      <c r="AF107" t="n">
         <v>26133.86</v>
       </c>
     </row>
@@ -13174,16 +12853,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V108" t="n">
-        <v>9145.99</v>
+        <v>7839.419999999999</v>
       </c>
       <c r="W108" t="n">
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>9145.99</v>
+        <v>7839.42</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.01</v>
+        <v>1306.58</v>
       </c>
       <c r="Z108" t="n">
         <v>1306.57</v>
@@ -13201,9 +12880,6 @@
         <v>1306.57</v>
       </c>
       <c r="AE108" t="n">
-        <v>1306.57</v>
-      </c>
-      <c r="AF108" t="n">
         <v>1306.57</v>
       </c>
     </row>
@@ -13292,16 +12968,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V109" t="n">
-        <v>72760.03</v>
+        <v>62365.74000000001</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>72760.03</v>
+        <v>62365.74</v>
       </c>
       <c r="Y109" t="n">
-        <v>-0.03</v>
+        <v>10394.26</v>
       </c>
       <c r="Z109" t="n">
         <v>10394.29</v>
@@ -13319,9 +12995,6 @@
         <v>10394.29</v>
       </c>
       <c r="AE109" t="n">
-        <v>10394.29</v>
-      </c>
-      <c r="AF109" t="n">
         <v>10394.29</v>
       </c>
     </row>
@@ -13439,9 +13112,6 @@
       <c r="AE110" t="n">
         <v>0</v>
       </c>
-      <c r="AF110" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13557,9 +13227,6 @@
       <c r="AE111" t="n">
         <v>0</v>
       </c>
-      <c r="AF111" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13675,9 +13342,6 @@
       <c r="AE112" t="n">
         <v>0</v>
       </c>
-      <c r="AF112" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13793,9 +13457,6 @@
       <c r="AE113" t="n">
         <v>0</v>
       </c>
-      <c r="AF113" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13882,16 +13543,16 @@
         <v>0.1</v>
       </c>
       <c r="V114" t="n">
-        <v>176400</v>
+        <v>147000</v>
       </c>
       <c r="W114" t="n">
         <v>0</v>
       </c>
       <c r="X114" t="n">
-        <v>176400</v>
+        <v>147000</v>
       </c>
       <c r="Y114" t="n">
-        <v>117600</v>
+        <v>147000</v>
       </c>
       <c r="Z114" t="n">
         <v>0</v>
@@ -13909,9 +13570,6 @@
         <v>29400</v>
       </c>
       <c r="AE114" t="n">
-        <v>29400</v>
-      </c>
-      <c r="AF114" t="n">
         <v>29400</v>
       </c>
     </row>
@@ -14000,16 +13658,16 @@
         <v>0.1</v>
       </c>
       <c r="V115" t="n">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="W115" t="n">
         <v>0</v>
       </c>
       <c r="X115" t="n">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="Y115" t="n">
-        <v>5600</v>
+        <v>7000</v>
       </c>
       <c r="Z115" t="n">
         <v>0</v>
@@ -14027,9 +13685,6 @@
         <v>1400</v>
       </c>
       <c r="AE115" t="n">
-        <v>1400</v>
-      </c>
-      <c r="AF115" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -14118,16 +13773,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V116" t="n">
-        <v>44519.16</v>
+        <v>37099.3</v>
       </c>
       <c r="W116" t="n">
         <v>0</v>
       </c>
       <c r="X116" t="n">
-        <v>44519.16</v>
+        <v>37099.3</v>
       </c>
       <c r="Y116" t="n">
-        <v>7419.84</v>
+        <v>14839.7</v>
       </c>
       <c r="Z116" t="n">
         <v>0</v>
@@ -14145,9 +13800,6 @@
         <v>7419.86</v>
       </c>
       <c r="AE116" t="n">
-        <v>7419.86</v>
-      </c>
-      <c r="AF116" t="n">
         <v>7419.86</v>
       </c>
     </row>
@@ -14265,9 +13917,6 @@
       <c r="AE117" t="n">
         <v>0</v>
       </c>
-      <c r="AF117" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14354,16 +14003,16 @@
         <v>0.1</v>
       </c>
       <c r="V118" t="n">
-        <v>13512</v>
+        <v>11260</v>
       </c>
       <c r="W118" t="n">
         <v>0</v>
       </c>
       <c r="X118" t="n">
-        <v>13512</v>
+        <v>11260</v>
       </c>
       <c r="Y118" t="n">
-        <v>9008</v>
+        <v>11260</v>
       </c>
       <c r="Z118" t="n">
         <v>0</v>
@@ -14381,9 +14030,6 @@
         <v>2252</v>
       </c>
       <c r="AE118" t="n">
-        <v>2252</v>
-      </c>
-      <c r="AF118" t="n">
         <v>2252</v>
       </c>
     </row>
@@ -14472,16 +14118,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V119" t="n">
-        <v>21342.84</v>
+        <v>17785.7</v>
       </c>
       <c r="W119" t="n">
         <v>0</v>
       </c>
       <c r="X119" t="n">
-        <v>21342.84</v>
+        <v>17785.7</v>
       </c>
       <c r="Y119" t="n">
-        <v>3557.16</v>
+        <v>7114.3</v>
       </c>
       <c r="Z119" t="n">
         <v>0</v>
@@ -14499,9 +14145,6 @@
         <v>3557.14</v>
       </c>
       <c r="AE119" t="n">
-        <v>3557.14</v>
-      </c>
-      <c r="AF119" t="n">
         <v>3557.14</v>
       </c>
     </row>
@@ -14590,16 +14233,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V120" t="n">
-        <v>41558.58</v>
+        <v>34632.15</v>
       </c>
       <c r="W120" t="n">
         <v>0</v>
       </c>
       <c r="X120" t="n">
-        <v>41558.58</v>
+        <v>34632.15</v>
       </c>
       <c r="Y120" t="n">
-        <v>6926.42</v>
+        <v>13852.85</v>
       </c>
       <c r="Z120" t="n">
         <v>0</v>
@@ -14617,9 +14260,6 @@
         <v>6926.43</v>
       </c>
       <c r="AE120" t="n">
-        <v>6926.43</v>
-      </c>
-      <c r="AF120" t="n">
         <v>6926.43</v>
       </c>
     </row>
@@ -14708,16 +14348,16 @@
         <v>0.1</v>
       </c>
       <c r="V121" t="n">
-        <v>19903.2</v>
+        <v>16586</v>
       </c>
       <c r="W121" t="n">
         <v>0</v>
       </c>
       <c r="X121" t="n">
-        <v>19903.2</v>
+        <v>16586</v>
       </c>
       <c r="Y121" t="n">
-        <v>13268.8</v>
+        <v>16586</v>
       </c>
       <c r="Z121" t="n">
         <v>0</v>
@@ -14735,9 +14375,6 @@
         <v>3317.2</v>
       </c>
       <c r="AE121" t="n">
-        <v>3317.2</v>
-      </c>
-      <c r="AF121" t="n">
         <v>3317.2</v>
       </c>
     </row>
@@ -14855,9 +14492,6 @@
       <c r="AE122" t="n">
         <v>17541.23</v>
       </c>
-      <c r="AF122" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14973,9 +14607,6 @@
       <c r="AE123" t="n">
         <v>21222.73</v>
       </c>
-      <c r="AF123" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15091,9 +14722,6 @@
       <c r="AE124" t="n">
         <v>8878.9</v>
       </c>
-      <c r="AF124" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15209,9 +14837,6 @@
       <c r="AE125" t="n">
         <v>1450.94</v>
       </c>
-      <c r="AF125" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15298,16 +14923,16 @@
         <v>0.1</v>
       </c>
       <c r="V126" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="W126" t="n">
         <v>0</v>
       </c>
       <c r="X126" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="Y126" t="n">
-        <v>11600</v>
+        <v>14500</v>
       </c>
       <c r="Z126" t="n">
         <v>0</v>
@@ -15325,9 +14950,6 @@
         <v>2900</v>
       </c>
       <c r="AE126" t="n">
-        <v>2900</v>
-      </c>
-      <c r="AF126" t="n">
         <v>2900</v>
       </c>
     </row>
@@ -15416,16 +15038,16 @@
         <v>0.1</v>
       </c>
       <c r="V127" t="n">
-        <v>70200</v>
+        <v>58500</v>
       </c>
       <c r="W127" t="n">
         <v>0</v>
       </c>
       <c r="X127" t="n">
-        <v>70200</v>
+        <v>58500</v>
       </c>
       <c r="Y127" t="n">
-        <v>46800</v>
+        <v>58500</v>
       </c>
       <c r="Z127" t="n">
         <v>0</v>
@@ -15443,9 +15065,6 @@
         <v>11700</v>
       </c>
       <c r="AE127" t="n">
-        <v>11700</v>
-      </c>
-      <c r="AF127" t="n">
         <v>11700</v>
       </c>
     </row>
@@ -15534,16 +15153,16 @@
         <v>0.1</v>
       </c>
       <c r="V128" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="W128" t="n">
         <v>0</v>
       </c>
       <c r="X128" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="Y128" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="Z128" t="n">
         <v>0</v>
@@ -15561,9 +15180,6 @@
         <v>1750</v>
       </c>
       <c r="AE128" t="n">
-        <v>1750</v>
-      </c>
-      <c r="AF128" t="n">
         <v>1750</v>
       </c>
     </row>
@@ -15652,16 +15268,16 @@
         <v>0.2</v>
       </c>
       <c r="V129" t="n">
-        <v>20442</v>
+        <v>16353.6</v>
       </c>
       <c r="W129" t="n">
         <v>0</v>
       </c>
       <c r="X129" t="n">
-        <v>20442</v>
+        <v>16353.6</v>
       </c>
       <c r="Y129" t="n">
-        <v>0</v>
+        <v>4088.4</v>
       </c>
       <c r="Z129" t="n">
         <v>0</v>
@@ -15679,9 +15295,6 @@
         <v>4088.4</v>
       </c>
       <c r="AE129" t="n">
-        <v>4088.4</v>
-      </c>
-      <c r="AF129" t="n">
         <v>4088.4</v>
       </c>
     </row>
@@ -15770,16 +15383,16 @@
         <v>0.2</v>
       </c>
       <c r="V130" t="n">
-        <v>56354</v>
+        <v>45083.2</v>
       </c>
       <c r="W130" t="n">
         <v>0</v>
       </c>
       <c r="X130" t="n">
-        <v>56354</v>
+        <v>45083.2</v>
       </c>
       <c r="Y130" t="n">
-        <v>0</v>
+        <v>11270.8</v>
       </c>
       <c r="Z130" t="n">
         <v>0</v>
@@ -15797,9 +15410,6 @@
         <v>11270.8</v>
       </c>
       <c r="AE130" t="n">
-        <v>11270.8</v>
-      </c>
-      <c r="AF130" t="n">
         <v>11270.8</v>
       </c>
     </row>
@@ -15888,16 +15498,16 @@
         <v>0.2</v>
       </c>
       <c r="V131" t="n">
-        <v>41989</v>
+        <v>33591.2</v>
       </c>
       <c r="W131" t="n">
         <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>41989</v>
+        <v>33591.2</v>
       </c>
       <c r="Y131" t="n">
-        <v>0</v>
+        <v>8397.799999999999</v>
       </c>
       <c r="Z131" t="n">
         <v>0</v>
@@ -15915,9 +15525,6 @@
         <v>8397.799999999999</v>
       </c>
       <c r="AE131" t="n">
-        <v>8397.799999999999</v>
-      </c>
-      <c r="AF131" t="n">
         <v>8397.799999999999</v>
       </c>
     </row>
@@ -16006,16 +15613,16 @@
         <v>0.2</v>
       </c>
       <c r="V132" t="n">
-        <v>1989</v>
+        <v>1591.2</v>
       </c>
       <c r="W132" t="n">
         <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>1989</v>
+        <v>1591.2</v>
       </c>
       <c r="Y132" t="n">
-        <v>0</v>
+        <v>397.8</v>
       </c>
       <c r="Z132" t="n">
         <v>0</v>
@@ -16033,9 +15640,6 @@
         <v>397.8</v>
       </c>
       <c r="AE132" t="n">
-        <v>397.8</v>
-      </c>
-      <c r="AF132" t="n">
         <v>397.8</v>
       </c>
     </row>
@@ -16124,16 +15728,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V133" t="n">
-        <v>6482.150000000001</v>
+        <v>5185.72</v>
       </c>
       <c r="W133" t="n">
         <v>0</v>
       </c>
       <c r="X133" t="n">
-        <v>6482.15</v>
+        <v>5185.72</v>
       </c>
       <c r="Y133" t="n">
-        <v>2592.85</v>
+        <v>3889.28</v>
       </c>
       <c r="Z133" t="n">
         <v>0</v>
@@ -16151,9 +15755,6 @@
         <v>1296.43</v>
       </c>
       <c r="AE133" t="n">
-        <v>1296.43</v>
-      </c>
-      <c r="AF133" t="n">
         <v>1296.43</v>
       </c>
     </row>
@@ -16242,16 +15843,16 @@
         <v>0.2</v>
       </c>
       <c r="V134" t="n">
-        <v>81400</v>
+        <v>65120</v>
       </c>
       <c r="W134" t="n">
         <v>0</v>
       </c>
       <c r="X134" t="n">
-        <v>81400</v>
+        <v>65120</v>
       </c>
       <c r="Y134" t="n">
-        <v>0</v>
+        <v>16280</v>
       </c>
       <c r="Z134" t="n">
         <v>0</v>
@@ -16269,9 +15870,6 @@
         <v>16280</v>
       </c>
       <c r="AE134" t="n">
-        <v>16280</v>
-      </c>
-      <c r="AF134" t="n">
         <v>16280</v>
       </c>
     </row>
@@ -16360,16 +15958,16 @@
         <v>0.2</v>
       </c>
       <c r="V135" t="n">
-        <v>23980</v>
+        <v>19184</v>
       </c>
       <c r="W135" t="n">
         <v>0</v>
       </c>
       <c r="X135" t="n">
-        <v>23980</v>
+        <v>19184</v>
       </c>
       <c r="Y135" t="n">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="Z135" t="n">
         <v>0</v>
@@ -16387,9 +15985,6 @@
         <v>4796</v>
       </c>
       <c r="AE135" t="n">
-        <v>4796</v>
-      </c>
-      <c r="AF135" t="n">
         <v>4796</v>
       </c>
     </row>
@@ -16478,16 +16073,16 @@
         <v>0.2</v>
       </c>
       <c r="V136" t="n">
-        <v>9900</v>
+        <v>7920</v>
       </c>
       <c r="W136" t="n">
         <v>0</v>
       </c>
       <c r="X136" t="n">
-        <v>9900</v>
+        <v>7920</v>
       </c>
       <c r="Y136" t="n">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="Z136" t="n">
         <v>0</v>
@@ -16505,9 +16100,6 @@
         <v>1980</v>
       </c>
       <c r="AE136" t="n">
-        <v>1980</v>
-      </c>
-      <c r="AF136" t="n">
         <v>1980</v>
       </c>
     </row>
@@ -16596,16 +16188,16 @@
         <v>0.2</v>
       </c>
       <c r="V137" t="n">
-        <v>133335</v>
+        <v>106668</v>
       </c>
       <c r="W137" t="n">
         <v>0</v>
       </c>
       <c r="X137" t="n">
-        <v>133335</v>
+        <v>106668</v>
       </c>
       <c r="Y137" t="n">
-        <v>0</v>
+        <v>26667</v>
       </c>
       <c r="Z137" t="n">
         <v>0</v>
@@ -16623,9 +16215,6 @@
         <v>26667</v>
       </c>
       <c r="AE137" t="n">
-        <v>26667</v>
-      </c>
-      <c r="AF137" t="n">
         <v>26667</v>
       </c>
     </row>
@@ -16714,16 +16303,16 @@
         <v>0.1</v>
       </c>
       <c r="V138" t="n">
-        <v>8907</v>
+        <v>7125.6</v>
       </c>
       <c r="W138" t="n">
         <v>0</v>
       </c>
       <c r="X138" t="n">
-        <v>8907</v>
+        <v>7125.6</v>
       </c>
       <c r="Y138" t="n">
-        <v>8907</v>
+        <v>10688.4</v>
       </c>
       <c r="Z138" t="n">
         <v>0</v>
@@ -16741,9 +16330,6 @@
         <v>1781.4</v>
       </c>
       <c r="AE138" t="n">
-        <v>1781.4</v>
-      </c>
-      <c r="AF138" t="n">
         <v>1781.4</v>
       </c>
     </row>
@@ -16832,16 +16418,16 @@
         <v>0.2</v>
       </c>
       <c r="V139" t="n">
-        <v>59116</v>
+        <v>47292.8</v>
       </c>
       <c r="W139" t="n">
         <v>0</v>
       </c>
       <c r="X139" t="n">
-        <v>59116</v>
+        <v>47292.8</v>
       </c>
       <c r="Y139" t="n">
-        <v>0</v>
+        <v>11823.2</v>
       </c>
       <c r="Z139" t="n">
         <v>0</v>
@@ -16859,9 +16445,6 @@
         <v>11823.2</v>
       </c>
       <c r="AE139" t="n">
-        <v>11823.2</v>
-      </c>
-      <c r="AF139" t="n">
         <v>11823.2</v>
       </c>
     </row>
@@ -16950,16 +16533,16 @@
         <v>0.1</v>
       </c>
       <c r="V140" t="n">
-        <v>2250</v>
+        <v>1800</v>
       </c>
       <c r="W140" t="n">
         <v>0</v>
       </c>
       <c r="X140" t="n">
-        <v>2250</v>
+        <v>1800</v>
       </c>
       <c r="Y140" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="Z140" t="n">
         <v>0</v>
@@ -16977,9 +16560,6 @@
         <v>450</v>
       </c>
       <c r="AE140" t="n">
-        <v>450</v>
-      </c>
-      <c r="AF140" t="n">
         <v>450</v>
       </c>
     </row>
@@ -17068,16 +16648,16 @@
         <v>0.2</v>
       </c>
       <c r="V141" t="n">
-        <v>279005</v>
+        <v>223204</v>
       </c>
       <c r="W141" t="n">
         <v>0</v>
       </c>
       <c r="X141" t="n">
-        <v>279005</v>
+        <v>223204</v>
       </c>
       <c r="Y141" t="n">
-        <v>0</v>
+        <v>55801</v>
       </c>
       <c r="Z141" t="n">
         <v>0</v>
@@ -17095,9 +16675,6 @@
         <v>55801</v>
       </c>
       <c r="AE141" t="n">
-        <v>55801</v>
-      </c>
-      <c r="AF141" t="n">
         <v>55801</v>
       </c>
     </row>
@@ -17186,16 +16763,16 @@
         <v>0.2</v>
       </c>
       <c r="V142" t="n">
-        <v>130387</v>
+        <v>104309.6</v>
       </c>
       <c r="W142" t="n">
         <v>0</v>
       </c>
       <c r="X142" t="n">
-        <v>130387</v>
+        <v>104309.6</v>
       </c>
       <c r="Y142" t="n">
-        <v>0</v>
+        <v>26077.4</v>
       </c>
       <c r="Z142" t="n">
         <v>0</v>
@@ -17213,9 +16790,6 @@
         <v>26077.4</v>
       </c>
       <c r="AE142" t="n">
-        <v>26077.4</v>
-      </c>
-      <c r="AF142" t="n">
         <v>26077.4</v>
       </c>
     </row>
@@ -17304,16 +16878,16 @@
         <v>0.1</v>
       </c>
       <c r="V143" t="n">
-        <v>1318600</v>
+        <v>988950</v>
       </c>
       <c r="W143" t="n">
         <v>0</v>
       </c>
       <c r="X143" t="n">
-        <v>1318600</v>
+        <v>988950</v>
       </c>
       <c r="Y143" t="n">
-        <v>1977900</v>
+        <v>2307550</v>
       </c>
       <c r="Z143" t="n">
         <v>0</v>
@@ -17331,9 +16905,6 @@
         <v>329650</v>
       </c>
       <c r="AE143" t="n">
-        <v>329650</v>
-      </c>
-      <c r="AF143" t="n">
         <v>329650</v>
       </c>
     </row>
@@ -17422,16 +16993,16 @@
         <v>0.1</v>
       </c>
       <c r="V144" t="n">
-        <v>12132.4</v>
+        <v>9099.299999999999</v>
       </c>
       <c r="W144" t="n">
         <v>0</v>
       </c>
       <c r="X144" t="n">
-        <v>12132.4</v>
+        <v>9099.299999999999</v>
       </c>
       <c r="Y144" t="n">
-        <v>18198.6</v>
+        <v>21231.7</v>
       </c>
       <c r="Z144" t="n">
         <v>0</v>
@@ -17449,9 +17020,6 @@
         <v>3033.1</v>
       </c>
       <c r="AE144" t="n">
-        <v>3033.1</v>
-      </c>
-      <c r="AF144" t="n">
         <v>3033.1</v>
       </c>
     </row>
@@ -17540,16 +17108,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V145" t="n">
+        <v>69000</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>69000</v>
+      </c>
+      <c r="Y145" t="n">
         <v>92000</v>
-      </c>
-      <c r="W145" t="n">
-        <v>0</v>
-      </c>
-      <c r="X145" t="n">
-        <v>92000</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>69000</v>
       </c>
       <c r="Z145" t="n">
         <v>0</v>
@@ -17567,9 +17135,6 @@
         <v>23000</v>
       </c>
       <c r="AE145" t="n">
-        <v>23000</v>
-      </c>
-      <c r="AF145" t="n">
         <v>23000</v>
       </c>
     </row>
@@ -17658,16 +17223,16 @@
         <v>0.2</v>
       </c>
       <c r="V146" t="n">
-        <v>65698.39999999999</v>
+        <v>49273.8</v>
       </c>
       <c r="W146" t="n">
         <v>0</v>
       </c>
       <c r="X146" t="n">
-        <v>65698.39999999999</v>
+        <v>49273.8</v>
       </c>
       <c r="Y146" t="n">
-        <v>16424.62</v>
+        <v>32849.22</v>
       </c>
       <c r="Z146" t="n">
         <v>0</v>
@@ -17685,9 +17250,6 @@
         <v>16424.6</v>
       </c>
       <c r="AE146" t="n">
-        <v>16424.6</v>
-      </c>
-      <c r="AF146" t="n">
         <v>16424.6</v>
       </c>
     </row>
@@ -17776,16 +17338,16 @@
         <v>0.2</v>
       </c>
       <c r="V147" t="n">
-        <v>25921.84</v>
+        <v>19441.38</v>
       </c>
       <c r="W147" t="n">
         <v>0</v>
       </c>
       <c r="X147" t="n">
-        <v>25921.84</v>
+        <v>19441.38</v>
       </c>
       <c r="Y147" t="n">
-        <v>6480.44</v>
+        <v>12960.9</v>
       </c>
       <c r="Z147" t="n">
         <v>0</v>
@@ -17803,9 +17365,6 @@
         <v>6480.46</v>
       </c>
       <c r="AE147" t="n">
-        <v>6480.46</v>
-      </c>
-      <c r="AF147" t="n">
         <v>6480.46</v>
       </c>
     </row>
@@ -17894,16 +17453,16 @@
         <v>0.1</v>
       </c>
       <c r="V148" t="n">
-        <v>8580</v>
+        <v>6435</v>
       </c>
       <c r="W148" t="n">
         <v>0</v>
       </c>
       <c r="X148" t="n">
-        <v>8580</v>
+        <v>6435</v>
       </c>
       <c r="Y148" t="n">
-        <v>12870</v>
+        <v>15015</v>
       </c>
       <c r="Z148" t="n">
         <v>0</v>
@@ -17921,9 +17480,6 @@
         <v>2145</v>
       </c>
       <c r="AE148" t="n">
-        <v>2145</v>
-      </c>
-      <c r="AF148" t="n">
         <v>2145</v>
       </c>
     </row>
@@ -18012,16 +17568,16 @@
         <v>0.1</v>
       </c>
       <c r="V149" t="n">
-        <v>7794</v>
+        <v>5845.5</v>
       </c>
       <c r="W149" t="n">
         <v>0</v>
       </c>
       <c r="X149" t="n">
-        <v>7794</v>
+        <v>5845.5</v>
       </c>
       <c r="Y149" t="n">
-        <v>11691</v>
+        <v>13639.5</v>
       </c>
       <c r="Z149" t="n">
         <v>0</v>
@@ -18039,9 +17595,6 @@
         <v>1948.5</v>
       </c>
       <c r="AE149" t="n">
-        <v>1948.5</v>
-      </c>
-      <c r="AF149" t="n">
         <v>1948.5</v>
       </c>
     </row>
@@ -18130,16 +17683,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V150" t="n">
-        <v>2571.44</v>
+        <v>1928.58</v>
       </c>
       <c r="W150" t="n">
         <v>0</v>
       </c>
       <c r="X150" t="n">
-        <v>2571.44</v>
+        <v>1928.58</v>
       </c>
       <c r="Y150" t="n">
-        <v>1928.56</v>
+        <v>2571.42</v>
       </c>
       <c r="Z150" t="n">
         <v>0</v>
@@ -18157,9 +17710,6 @@
         <v>642.86</v>
       </c>
       <c r="AE150" t="n">
-        <v>642.86</v>
-      </c>
-      <c r="AF150" t="n">
         <v>642.86</v>
       </c>
     </row>
@@ -18248,16 +17798,16 @@
         <v>0.05</v>
       </c>
       <c r="V151" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="W151" t="n">
         <v>0</v>
       </c>
       <c r="X151" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Y151" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Z151" t="n">
         <v>0</v>
@@ -18275,9 +17825,6 @@
         <v>500</v>
       </c>
       <c r="AE151" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF151" t="n">
         <v>500</v>
       </c>
     </row>
@@ -18366,16 +17913,16 @@
         <v>0.05</v>
       </c>
       <c r="V152" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="W152" t="n">
         <v>0</v>
       </c>
       <c r="X152" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Y152" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Z152" t="n">
         <v>0</v>
@@ -18393,9 +17940,6 @@
         <v>500</v>
       </c>
       <c r="AE152" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF152" t="n">
         <v>500</v>
       </c>
     </row>
@@ -18484,16 +18028,16 @@
         <v>0.05</v>
       </c>
       <c r="V153" t="n">
-        <v>15852</v>
+        <v>11889</v>
       </c>
       <c r="W153" t="n">
         <v>0</v>
       </c>
       <c r="X153" t="n">
-        <v>15852</v>
+        <v>11889</v>
       </c>
       <c r="Y153" t="n">
-        <v>63407.95</v>
+        <v>67370.95</v>
       </c>
       <c r="Z153" t="n">
         <v>0</v>
@@ -18511,9 +18055,6 @@
         <v>3963</v>
       </c>
       <c r="AE153" t="n">
-        <v>3963</v>
-      </c>
-      <c r="AF153" t="n">
         <v>3963</v>
       </c>
     </row>
@@ -18602,16 +18143,16 @@
         <v>0.05</v>
       </c>
       <c r="V154" t="n">
-        <v>5277.52</v>
+        <v>3958.14</v>
       </c>
       <c r="W154" t="n">
         <v>0</v>
       </c>
       <c r="X154" t="n">
-        <v>5277.52</v>
+        <v>3958.14</v>
       </c>
       <c r="Y154" t="n">
-        <v>21109.98</v>
+        <v>22429.36</v>
       </c>
       <c r="Z154" t="n">
         <v>0</v>
@@ -18629,9 +18170,6 @@
         <v>1319.38</v>
       </c>
       <c r="AE154" t="n">
-        <v>1319.38</v>
-      </c>
-      <c r="AF154" t="n">
         <v>1319.38</v>
       </c>
     </row>
@@ -18720,16 +18258,16 @@
         <v>0.05</v>
       </c>
       <c r="V155" t="n">
-        <v>795.84</v>
+        <v>596.88</v>
       </c>
       <c r="W155" t="n">
         <v>0</v>
       </c>
       <c r="X155" t="n">
-        <v>795.84</v>
+        <v>596.88</v>
       </c>
       <c r="Y155" t="n">
-        <v>3183.41</v>
+        <v>3382.37</v>
       </c>
       <c r="Z155" t="n">
         <v>0</v>
@@ -18747,9 +18285,6 @@
         <v>198.96</v>
       </c>
       <c r="AE155" t="n">
-        <v>198.96</v>
-      </c>
-      <c r="AF155" t="n">
         <v>198.96</v>
       </c>
     </row>
@@ -18838,16 +18373,16 @@
         <v>0.05</v>
       </c>
       <c r="V156" t="n">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="W156" t="n">
         <v>0</v>
       </c>
       <c r="X156" t="n">
-        <v>50000</v>
+        <v>37500</v>
       </c>
       <c r="Y156" t="n">
-        <v>200000</v>
+        <v>212500</v>
       </c>
       <c r="Z156" t="n">
         <v>0</v>
@@ -18865,9 +18400,6 @@
         <v>12500</v>
       </c>
       <c r="AE156" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AF156" t="n">
         <v>12500</v>
       </c>
     </row>
@@ -18956,16 +18488,16 @@
         <v>0.05</v>
       </c>
       <c r="V157" t="n">
-        <v>7700</v>
+        <v>5775</v>
       </c>
       <c r="W157" t="n">
         <v>0</v>
       </c>
       <c r="X157" t="n">
-        <v>7700</v>
+        <v>5775</v>
       </c>
       <c r="Y157" t="n">
-        <v>30800</v>
+        <v>32725</v>
       </c>
       <c r="Z157" t="n">
         <v>0</v>
@@ -18983,9 +18515,6 @@
         <v>1925</v>
       </c>
       <c r="AE157" t="n">
-        <v>1925</v>
-      </c>
-      <c r="AF157" t="n">
         <v>1925</v>
       </c>
     </row>
@@ -19074,16 +18603,16 @@
         <v>0.05</v>
       </c>
       <c r="V158" t="n">
-        <v>279.32</v>
+        <v>209.49</v>
       </c>
       <c r="W158" t="n">
         <v>0</v>
       </c>
       <c r="X158" t="n">
-        <v>279.32</v>
+        <v>209.49</v>
       </c>
       <c r="Y158" t="n">
-        <v>1117.18</v>
+        <v>1187.01</v>
       </c>
       <c r="Z158" t="n">
         <v>0</v>
@@ -19101,9 +18630,6 @@
         <v>69.83</v>
       </c>
       <c r="AE158" t="n">
-        <v>69.83</v>
-      </c>
-      <c r="AF158" t="n">
         <v>69.83</v>
       </c>
     </row>
@@ -19192,16 +18718,16 @@
         <v>0.05</v>
       </c>
       <c r="V159" t="n">
-        <v>24860</v>
+        <v>18645</v>
       </c>
       <c r="W159" t="n">
         <v>0</v>
       </c>
       <c r="X159" t="n">
-        <v>24860</v>
+        <v>18645</v>
       </c>
       <c r="Y159" t="n">
-        <v>99440</v>
+        <v>105655</v>
       </c>
       <c r="Z159" t="n">
         <v>0</v>
@@ -19219,9 +18745,6 @@
         <v>6215</v>
       </c>
       <c r="AE159" t="n">
-        <v>6215</v>
-      </c>
-      <c r="AF159" t="n">
         <v>6215</v>
       </c>
     </row>
@@ -19310,16 +18833,16 @@
         <v>0.05</v>
       </c>
       <c r="V160" t="n">
-        <v>1095</v>
+        <v>821.25</v>
       </c>
       <c r="W160" t="n">
         <v>0</v>
       </c>
       <c r="X160" t="n">
-        <v>1095</v>
+        <v>821.25</v>
       </c>
       <c r="Y160" t="n">
-        <v>4380</v>
+        <v>4653.75</v>
       </c>
       <c r="Z160" t="n">
         <v>0</v>
@@ -19337,9 +18860,6 @@
         <v>273.75</v>
       </c>
       <c r="AE160" t="n">
-        <v>273.75</v>
-      </c>
-      <c r="AF160" t="n">
         <v>273.75</v>
       </c>
     </row>
@@ -19428,16 +18948,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V161" t="n">
-        <v>87696</v>
+        <v>65772</v>
       </c>
       <c r="W161" t="n">
         <v>0</v>
       </c>
       <c r="X161" t="n">
-        <v>87696</v>
+        <v>65772</v>
       </c>
       <c r="Y161" t="n">
-        <v>241164</v>
+        <v>263088</v>
       </c>
       <c r="Z161" t="n">
         <v>0</v>
@@ -19455,9 +18975,6 @@
         <v>21924</v>
       </c>
       <c r="AE161" t="n">
-        <v>21924</v>
-      </c>
-      <c r="AF161" t="n">
         <v>21924</v>
       </c>
     </row>
@@ -19546,16 +19063,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V162" t="n">
-        <v>10173.32</v>
+        <v>7629.99</v>
       </c>
       <c r="W162" t="n">
         <v>0</v>
       </c>
       <c r="X162" t="n">
-        <v>10173.32</v>
+        <v>7629.99</v>
       </c>
       <c r="Y162" t="n">
-        <v>27976.68</v>
+        <v>30520.01</v>
       </c>
       <c r="Z162" t="n">
         <v>0</v>
@@ -19573,9 +19090,6 @@
         <v>2543.33</v>
       </c>
       <c r="AE162" t="n">
-        <v>2543.33</v>
-      </c>
-      <c r="AF162" t="n">
         <v>2543.33</v>
       </c>
     </row>
@@ -19664,16 +19178,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V163" t="n">
-        <v>9333.32</v>
+        <v>6999.99</v>
       </c>
       <c r="W163" t="n">
         <v>0</v>
       </c>
       <c r="X163" t="n">
-        <v>9333.32</v>
+        <v>6999.99</v>
       </c>
       <c r="Y163" t="n">
-        <v>25666.68</v>
+        <v>28000.01</v>
       </c>
       <c r="Z163" t="n">
         <v>0</v>
@@ -19691,9 +19205,6 @@
         <v>2333.33</v>
       </c>
       <c r="AE163" t="n">
-        <v>2333.33</v>
-      </c>
-      <c r="AF163" t="n">
         <v>2333.33</v>
       </c>
     </row>
@@ -19782,16 +19293,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V164" t="n">
-        <v>10173.32</v>
+        <v>7629.99</v>
       </c>
       <c r="W164" t="n">
         <v>0</v>
       </c>
       <c r="X164" t="n">
-        <v>10173.32</v>
+        <v>7629.99</v>
       </c>
       <c r="Y164" t="n">
-        <v>27976.68</v>
+        <v>30520.01</v>
       </c>
       <c r="Z164" t="n">
         <v>0</v>
@@ -19809,9 +19320,6 @@
         <v>2543.33</v>
       </c>
       <c r="AE164" t="n">
-        <v>2543.33</v>
-      </c>
-      <c r="AF164" t="n">
         <v>2543.33</v>
       </c>
     </row>
@@ -19900,16 +19408,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V165" t="n">
-        <v>317.32</v>
+        <v>237.99</v>
       </c>
       <c r="W165" t="n">
         <v>0</v>
       </c>
       <c r="X165" t="n">
-        <v>317.32</v>
+        <v>237.99</v>
       </c>
       <c r="Y165" t="n">
-        <v>872.6799999999999</v>
+        <v>952.01</v>
       </c>
       <c r="Z165" t="n">
         <v>0</v>
@@ -19927,9 +19435,6 @@
         <v>79.33</v>
       </c>
       <c r="AE165" t="n">
-        <v>79.33</v>
-      </c>
-      <c r="AF165" t="n">
         <v>79.33</v>
       </c>
     </row>
@@ -20018,16 +19523,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V166" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="W166" t="n">
         <v>0</v>
       </c>
       <c r="X166" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Y166" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Z166" t="n">
         <v>0</v>
@@ -20045,9 +19550,6 @@
         <v>500</v>
       </c>
       <c r="AE166" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF166" t="n">
         <v>500</v>
       </c>
     </row>
@@ -20136,16 +19638,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V167" t="n">
-        <v>8268</v>
+        <v>6201</v>
       </c>
       <c r="W167" t="n">
         <v>0</v>
       </c>
       <c r="X167" t="n">
-        <v>8268</v>
+        <v>6201</v>
       </c>
       <c r="Y167" t="n">
-        <v>22737</v>
+        <v>24804</v>
       </c>
       <c r="Z167" t="n">
         <v>0</v>
@@ -20163,9 +19665,6 @@
         <v>2067</v>
       </c>
       <c r="AE167" t="n">
-        <v>2067</v>
-      </c>
-      <c r="AF167" t="n">
         <v>2067</v>
       </c>
     </row>
@@ -20255,16 +19754,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V168" t="n">
-        <v>1866.68</v>
+        <v>1400.01</v>
       </c>
       <c r="W168" t="n">
         <v>0</v>
       </c>
       <c r="X168" t="n">
-        <v>1866.68</v>
+        <v>1400.01</v>
       </c>
       <c r="Y168" t="n">
-        <v>5133.32</v>
+        <v>5599.99</v>
       </c>
       <c r="Z168" t="n">
         <v>0</v>
@@ -20282,9 +19781,6 @@
         <v>466.67</v>
       </c>
       <c r="AE168" t="n">
-        <v>466.67</v>
-      </c>
-      <c r="AF168" t="n">
         <v>466.67</v>
       </c>
     </row>
@@ -20373,16 +19869,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V169" t="n">
-        <v>14666.68</v>
+        <v>11000.01</v>
       </c>
       <c r="W169" t="n">
         <v>0</v>
       </c>
       <c r="X169" t="n">
-        <v>14666.68</v>
+        <v>11000.01</v>
       </c>
       <c r="Y169" t="n">
-        <v>40333.32</v>
+        <v>43999.99</v>
       </c>
       <c r="Z169" t="n">
         <v>0</v>
@@ -20400,9 +19896,6 @@
         <v>3666.67</v>
       </c>
       <c r="AE169" t="n">
-        <v>3666.67</v>
-      </c>
-      <c r="AF169" t="n">
         <v>3666.67</v>
       </c>
     </row>
@@ -20491,16 +19984,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V170" t="n">
-        <v>35733.32</v>
+        <v>26799.99</v>
       </c>
       <c r="W170" t="n">
         <v>0</v>
       </c>
       <c r="X170" t="n">
-        <v>35733.32</v>
+        <v>26799.99</v>
       </c>
       <c r="Y170" t="n">
-        <v>98266.67999999999</v>
+        <v>107200.01</v>
       </c>
       <c r="Z170" t="n">
         <v>0</v>
@@ -20518,9 +20011,6 @@
         <v>8933.33</v>
       </c>
       <c r="AE170" t="n">
-        <v>8933.33</v>
-      </c>
-      <c r="AF170" t="n">
         <v>8933.33</v>
       </c>
     </row>
@@ -20609,16 +20099,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V171" t="n">
-        <v>11333.32</v>
+        <v>8499.99</v>
       </c>
       <c r="W171" t="n">
         <v>0</v>
       </c>
       <c r="X171" t="n">
-        <v>11333.32</v>
+        <v>8499.99</v>
       </c>
       <c r="Y171" t="n">
-        <v>31166.68</v>
+        <v>34000.01</v>
       </c>
       <c r="Z171" t="n">
         <v>0</v>
@@ -20636,9 +20126,6 @@
         <v>2833.33</v>
       </c>
       <c r="AE171" t="n">
-        <v>2833.33</v>
-      </c>
-      <c r="AF171" t="n">
         <v>2833.33</v>
       </c>
     </row>
@@ -20727,16 +20214,16 @@
         <v>0.05</v>
       </c>
       <c r="V172" t="n">
-        <v>29400</v>
+        <v>22050</v>
       </c>
       <c r="W172" t="n">
         <v>0</v>
       </c>
       <c r="X172" t="n">
-        <v>29400</v>
+        <v>22050</v>
       </c>
       <c r="Y172" t="n">
-        <v>117600</v>
+        <v>124950</v>
       </c>
       <c r="Z172" t="n">
         <v>0</v>
@@ -20754,9 +20241,6 @@
         <v>7350</v>
       </c>
       <c r="AE172" t="n">
-        <v>7350</v>
-      </c>
-      <c r="AF172" t="n">
         <v>7350</v>
       </c>
     </row>
@@ -20845,16 +20329,16 @@
         <v>0.05</v>
       </c>
       <c r="V173" t="n">
-        <v>42120</v>
+        <v>31590</v>
       </c>
       <c r="W173" t="n">
         <v>0</v>
       </c>
       <c r="X173" t="n">
-        <v>42120</v>
+        <v>31590</v>
       </c>
       <c r="Y173" t="n">
-        <v>168480</v>
+        <v>179010</v>
       </c>
       <c r="Z173" t="n">
         <v>0</v>
@@ -20872,9 +20356,6 @@
         <v>10530</v>
       </c>
       <c r="AE173" t="n">
-        <v>10530</v>
-      </c>
-      <c r="AF173" t="n">
         <v>10530</v>
       </c>
     </row>
@@ -20963,16 +20444,16 @@
         <v>0.05</v>
       </c>
       <c r="V174" t="n">
-        <v>1436</v>
+        <v>1077</v>
       </c>
       <c r="W174" t="n">
         <v>0</v>
       </c>
       <c r="X174" t="n">
-        <v>1436</v>
+        <v>1077</v>
       </c>
       <c r="Y174" t="n">
-        <v>5744</v>
+        <v>6103</v>
       </c>
       <c r="Z174" t="n">
         <v>0</v>
@@ -20990,9 +20471,6 @@
         <v>359</v>
       </c>
       <c r="AE174" t="n">
-        <v>359</v>
-      </c>
-      <c r="AF174" t="n">
         <v>359</v>
       </c>
     </row>
@@ -21081,16 +20559,16 @@
         <v>0.05</v>
       </c>
       <c r="V175" t="n">
-        <v>1170</v>
+        <v>877.5</v>
       </c>
       <c r="W175" t="n">
         <v>0</v>
       </c>
       <c r="X175" t="n">
-        <v>1170</v>
+        <v>877.5</v>
       </c>
       <c r="Y175" t="n">
-        <v>4680</v>
+        <v>4972.5</v>
       </c>
       <c r="Z175" t="n">
         <v>0</v>
@@ -21108,9 +20586,6 @@
         <v>292.5</v>
       </c>
       <c r="AE175" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="AF175" t="n">
         <v>292.5</v>
       </c>
     </row>
@@ -21199,16 +20674,16 @@
         <v>0.05</v>
       </c>
       <c r="V176" t="n">
-        <v>1800</v>
+        <v>1350</v>
       </c>
       <c r="W176" t="n">
         <v>0</v>
       </c>
       <c r="X176" t="n">
-        <v>1800</v>
+        <v>1350</v>
       </c>
       <c r="Y176" t="n">
-        <v>7200</v>
+        <v>7650</v>
       </c>
       <c r="Z176" t="n">
         <v>0</v>
@@ -21226,9 +20701,6 @@
         <v>450</v>
       </c>
       <c r="AE176" t="n">
-        <v>450</v>
-      </c>
-      <c r="AF176" t="n">
         <v>450</v>
       </c>
     </row>
@@ -21317,16 +20789,16 @@
         <v>0.05</v>
       </c>
       <c r="V177" t="n">
-        <v>760</v>
+        <v>570</v>
       </c>
       <c r="W177" t="n">
         <v>0</v>
       </c>
       <c r="X177" t="n">
-        <v>760</v>
+        <v>570</v>
       </c>
       <c r="Y177" t="n">
-        <v>3040</v>
+        <v>3230</v>
       </c>
       <c r="Z177" t="n">
         <v>0</v>
@@ -21344,9 +20816,6 @@
         <v>190</v>
       </c>
       <c r="AE177" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF177" t="n">
         <v>190</v>
       </c>
     </row>
@@ -21435,16 +20904,16 @@
         <v>0.05</v>
       </c>
       <c r="V178" t="n">
-        <v>880</v>
+        <v>660</v>
       </c>
       <c r="W178" t="n">
         <v>0</v>
       </c>
       <c r="X178" t="n">
-        <v>880</v>
+        <v>660</v>
       </c>
       <c r="Y178" t="n">
-        <v>3520</v>
+        <v>3740</v>
       </c>
       <c r="Z178" t="n">
         <v>0</v>
@@ -21462,9 +20931,6 @@
         <v>220</v>
       </c>
       <c r="AE178" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF178" t="n">
         <v>220</v>
       </c>
     </row>
@@ -21553,16 +21019,16 @@
         <v>0.05</v>
       </c>
       <c r="V179" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="W179" t="n">
         <v>0</v>
       </c>
       <c r="X179" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="Y179" t="n">
-        <v>14400</v>
+        <v>15300</v>
       </c>
       <c r="Z179" t="n">
         <v>0</v>
@@ -21580,9 +21046,6 @@
         <v>900</v>
       </c>
       <c r="AE179" t="n">
-        <v>900</v>
-      </c>
-      <c r="AF179" t="n">
         <v>900</v>
       </c>
     </row>
@@ -21671,16 +21134,16 @@
         <v>0.05</v>
       </c>
       <c r="V180" t="n">
-        <v>3834</v>
+        <v>2875.5</v>
       </c>
       <c r="W180" t="n">
         <v>0</v>
       </c>
       <c r="X180" t="n">
-        <v>3834</v>
+        <v>2875.5</v>
       </c>
       <c r="Y180" t="n">
-        <v>15336</v>
+        <v>16294.5</v>
       </c>
       <c r="Z180" t="n">
         <v>0</v>
@@ -21698,9 +21161,6 @@
         <v>958.5</v>
       </c>
       <c r="AE180" t="n">
-        <v>958.5</v>
-      </c>
-      <c r="AF180" t="n">
         <v>958.5</v>
       </c>
     </row>
@@ -21789,16 +21249,16 @@
         <v>0.05</v>
       </c>
       <c r="V181" t="n">
-        <v>325</v>
+        <v>243.75</v>
       </c>
       <c r="W181" t="n">
         <v>0</v>
       </c>
       <c r="X181" t="n">
-        <v>325</v>
+        <v>243.75</v>
       </c>
       <c r="Y181" t="n">
-        <v>1300</v>
+        <v>1381.25</v>
       </c>
       <c r="Z181" t="n">
         <v>0</v>
@@ -21816,9 +21276,6 @@
         <v>81.25</v>
       </c>
       <c r="AE181" t="n">
-        <v>81.25</v>
-      </c>
-      <c r="AF181" t="n">
         <v>81.25</v>
       </c>
     </row>
@@ -21907,16 +21364,16 @@
         <v>0.05</v>
       </c>
       <c r="V182" t="n">
-        <v>715</v>
+        <v>536.25</v>
       </c>
       <c r="W182" t="n">
         <v>0</v>
       </c>
       <c r="X182" t="n">
-        <v>715</v>
+        <v>536.25</v>
       </c>
       <c r="Y182" t="n">
-        <v>2860</v>
+        <v>3038.75</v>
       </c>
       <c r="Z182" t="n">
         <v>0</v>
@@ -21934,9 +21391,6 @@
         <v>178.75</v>
       </c>
       <c r="AE182" t="n">
-        <v>178.75</v>
-      </c>
-      <c r="AF182" t="n">
         <v>178.75</v>
       </c>
     </row>
@@ -22026,16 +21480,16 @@
         <v>0.05</v>
       </c>
       <c r="V183" t="n">
-        <v>910</v>
+        <v>682.5</v>
       </c>
       <c r="W183" t="n">
         <v>0</v>
       </c>
       <c r="X183" t="n">
-        <v>910</v>
+        <v>682.5</v>
       </c>
       <c r="Y183" t="n">
-        <v>3640</v>
+        <v>3867.5</v>
       </c>
       <c r="Z183" t="n">
         <v>0</v>
@@ -22053,9 +21507,6 @@
         <v>227.5</v>
       </c>
       <c r="AE183" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="AF183" t="n">
         <v>227.5</v>
       </c>
     </row>
@@ -22144,16 +21595,16 @@
         <v>0.05</v>
       </c>
       <c r="V184" t="n">
-        <v>351</v>
+        <v>263.25</v>
       </c>
       <c r="W184" t="n">
         <v>0</v>
       </c>
       <c r="X184" t="n">
-        <v>351</v>
+        <v>263.25</v>
       </c>
       <c r="Y184" t="n">
-        <v>1404</v>
+        <v>1491.75</v>
       </c>
       <c r="Z184" t="n">
         <v>0</v>
@@ -22171,9 +21622,6 @@
         <v>87.75</v>
       </c>
       <c r="AE184" t="n">
-        <v>87.75</v>
-      </c>
-      <c r="AF184" t="n">
         <v>87.75</v>
       </c>
     </row>
@@ -22262,16 +21710,16 @@
         <v>0.05</v>
       </c>
       <c r="V185" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="W185" t="n">
         <v>0</v>
       </c>
       <c r="X185" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="Y185" t="n">
-        <v>5600</v>
+        <v>5950</v>
       </c>
       <c r="Z185" t="n">
         <v>0</v>
@@ -22289,9 +21737,6 @@
         <v>350</v>
       </c>
       <c r="AE185" t="n">
-        <v>350</v>
-      </c>
-      <c r="AF185" t="n">
         <v>350</v>
       </c>
     </row>
@@ -22380,16 +21825,16 @@
         <v>0.05</v>
       </c>
       <c r="V186" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="W186" t="n">
         <v>0</v>
       </c>
       <c r="X186" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="Y186" t="n">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="Z186" t="n">
         <v>0</v>
@@ -22407,9 +21852,6 @@
         <v>21</v>
       </c>
       <c r="AE186" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF186" t="n">
         <v>21</v>
       </c>
     </row>
@@ -22498,16 +21940,16 @@
         <v>0.05</v>
       </c>
       <c r="V187" t="n">
-        <v>756</v>
+        <v>567</v>
       </c>
       <c r="W187" t="n">
         <v>0</v>
       </c>
       <c r="X187" t="n">
-        <v>756</v>
+        <v>567</v>
       </c>
       <c r="Y187" t="n">
-        <v>3024</v>
+        <v>3213</v>
       </c>
       <c r="Z187" t="n">
         <v>0</v>
@@ -22525,9 +21967,6 @@
         <v>189</v>
       </c>
       <c r="AE187" t="n">
-        <v>189</v>
-      </c>
-      <c r="AF187" t="n">
         <v>189</v>
       </c>
     </row>
@@ -22616,16 +22055,16 @@
         <v>0.05</v>
       </c>
       <c r="V188" t="n">
-        <v>25000</v>
+        <v>18750</v>
       </c>
       <c r="W188" t="n">
         <v>0</v>
       </c>
       <c r="X188" t="n">
-        <v>25000</v>
+        <v>18750</v>
       </c>
       <c r="Y188" t="n">
-        <v>100000</v>
+        <v>106250</v>
       </c>
       <c r="Z188" t="n">
         <v>0</v>
@@ -22643,9 +22082,6 @@
         <v>6250</v>
       </c>
       <c r="AE188" t="n">
-        <v>6250</v>
-      </c>
-      <c r="AF188" t="n">
         <v>6250</v>
       </c>
     </row>
@@ -22734,16 +22170,16 @@
         <v>0.05</v>
       </c>
       <c r="V189" t="n">
-        <v>4980</v>
+        <v>3735</v>
       </c>
       <c r="W189" t="n">
         <v>0</v>
       </c>
       <c r="X189" t="n">
-        <v>4980</v>
+        <v>3735</v>
       </c>
       <c r="Y189" t="n">
-        <v>19920</v>
+        <v>21165</v>
       </c>
       <c r="Z189" t="n">
         <v>0</v>
@@ -22761,9 +22197,6 @@
         <v>1245</v>
       </c>
       <c r="AE189" t="n">
-        <v>1245</v>
-      </c>
-      <c r="AF189" t="n">
         <v>1245</v>
       </c>
     </row>
@@ -22852,16 +22285,16 @@
         <v>0.05</v>
       </c>
       <c r="V190" t="n">
-        <v>1300</v>
+        <v>975</v>
       </c>
       <c r="W190" t="n">
         <v>0</v>
       </c>
       <c r="X190" t="n">
-        <v>1300</v>
+        <v>975</v>
       </c>
       <c r="Y190" t="n">
-        <v>5200</v>
+        <v>5525</v>
       </c>
       <c r="Z190" t="n">
         <v>0</v>
@@ -22879,9 +22312,6 @@
         <v>325</v>
       </c>
       <c r="AE190" t="n">
-        <v>325</v>
-      </c>
-      <c r="AF190" t="n">
         <v>325</v>
       </c>
     </row>
@@ -22970,16 +22400,16 @@
         <v>0.05</v>
       </c>
       <c r="V191" t="n">
-        <v>750</v>
+        <v>562.5</v>
       </c>
       <c r="W191" t="n">
         <v>0</v>
       </c>
       <c r="X191" t="n">
-        <v>750</v>
+        <v>562.5</v>
       </c>
       <c r="Y191" t="n">
-        <v>3000</v>
+        <v>3187.5</v>
       </c>
       <c r="Z191" t="n">
         <v>0</v>
@@ -22997,9 +22427,6 @@
         <v>187.5</v>
       </c>
       <c r="AE191" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="AF191" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -23088,16 +22515,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V192" t="n">
-        <v>2960</v>
+        <v>2220</v>
       </c>
       <c r="W192" t="n">
         <v>0</v>
       </c>
       <c r="X192" t="n">
-        <v>2960</v>
+        <v>2220</v>
       </c>
       <c r="Y192" t="n">
-        <v>8140</v>
+        <v>8880</v>
       </c>
       <c r="Z192" t="n">
         <v>0</v>
@@ -23115,9 +22542,6 @@
         <v>740</v>
       </c>
       <c r="AE192" t="n">
-        <v>740</v>
-      </c>
-      <c r="AF192" t="n">
         <v>740</v>
       </c>
     </row>
@@ -23206,16 +22630,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V193" t="n">
-        <v>7973.32</v>
+        <v>5979.99</v>
       </c>
       <c r="W193" t="n">
         <v>0</v>
       </c>
       <c r="X193" t="n">
-        <v>7973.32</v>
+        <v>5979.99</v>
       </c>
       <c r="Y193" t="n">
-        <v>21926.68</v>
+        <v>23920.01</v>
       </c>
       <c r="Z193" t="n">
         <v>0</v>
@@ -23233,9 +22657,6 @@
         <v>1993.33</v>
       </c>
       <c r="AE193" t="n">
-        <v>1993.33</v>
-      </c>
-      <c r="AF193" t="n">
         <v>1993.33</v>
       </c>
     </row>
@@ -23324,16 +22745,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V194" t="n">
-        <v>1666.68</v>
+        <v>1250.01</v>
       </c>
       <c r="W194" t="n">
         <v>0</v>
       </c>
       <c r="X194" t="n">
-        <v>1666.68</v>
+        <v>1250.01</v>
       </c>
       <c r="Y194" t="n">
-        <v>4583.32</v>
+        <v>4999.99</v>
       </c>
       <c r="Z194" t="n">
         <v>0</v>
@@ -23351,9 +22772,6 @@
         <v>416.67</v>
       </c>
       <c r="AE194" t="n">
-        <v>416.67</v>
-      </c>
-      <c r="AF194" t="n">
         <v>416.67</v>
       </c>
     </row>
@@ -23442,16 +22860,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V195" t="n">
-        <v>3240</v>
+        <v>2430</v>
       </c>
       <c r="W195" t="n">
         <v>0</v>
       </c>
       <c r="X195" t="n">
-        <v>3240</v>
+        <v>2430</v>
       </c>
       <c r="Y195" t="n">
-        <v>8910</v>
+        <v>9720</v>
       </c>
       <c r="Z195" t="n">
         <v>0</v>
@@ -23469,9 +22887,6 @@
         <v>810</v>
       </c>
       <c r="AE195" t="n">
-        <v>810</v>
-      </c>
-      <c r="AF195" t="n">
         <v>810</v>
       </c>
     </row>
@@ -23560,16 +22975,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V196" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="W196" t="n">
         <v>0</v>
       </c>
       <c r="X196" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Y196" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Z196" t="n">
         <v>0</v>
@@ -23587,9 +23002,6 @@
         <v>500</v>
       </c>
       <c r="AE196" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF196" t="n">
         <v>500</v>
       </c>
     </row>
@@ -23678,16 +23090,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V197" t="n">
-        <v>700</v>
+        <v>525</v>
       </c>
       <c r="W197" t="n">
         <v>0</v>
       </c>
       <c r="X197" t="n">
-        <v>700</v>
+        <v>525</v>
       </c>
       <c r="Y197" t="n">
-        <v>1925</v>
+        <v>2100</v>
       </c>
       <c r="Z197" t="n">
         <v>0</v>
@@ -23705,9 +23117,6 @@
         <v>175</v>
       </c>
       <c r="AE197" t="n">
-        <v>175</v>
-      </c>
-      <c r="AF197" t="n">
         <v>175</v>
       </c>
     </row>
@@ -23796,16 +23205,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V198" t="n">
-        <v>4900</v>
+        <v>3675</v>
       </c>
       <c r="W198" t="n">
         <v>0</v>
       </c>
       <c r="X198" t="n">
-        <v>4900</v>
+        <v>3675</v>
       </c>
       <c r="Y198" t="n">
-        <v>13475</v>
+        <v>14700</v>
       </c>
       <c r="Z198" t="n">
         <v>0</v>
@@ -23823,9 +23232,6 @@
         <v>1225</v>
       </c>
       <c r="AE198" t="n">
-        <v>1225</v>
-      </c>
-      <c r="AF198" t="n">
         <v>1225</v>
       </c>
     </row>
@@ -23914,16 +23320,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V199" t="n">
-        <v>896</v>
+        <v>672</v>
       </c>
       <c r="W199" t="n">
         <v>0</v>
       </c>
       <c r="X199" t="n">
-        <v>896</v>
+        <v>672</v>
       </c>
       <c r="Y199" t="n">
-        <v>2464</v>
+        <v>2688</v>
       </c>
       <c r="Z199" t="n">
         <v>0</v>
@@ -23941,9 +23347,6 @@
         <v>224</v>
       </c>
       <c r="AE199" t="n">
-        <v>224</v>
-      </c>
-      <c r="AF199" t="n">
         <v>224</v>
       </c>
     </row>
@@ -24032,16 +23435,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V200" t="n">
-        <v>550</v>
+        <v>412.5</v>
       </c>
       <c r="W200" t="n">
         <v>0</v>
       </c>
       <c r="X200" t="n">
-        <v>550</v>
+        <v>412.5</v>
       </c>
       <c r="Y200" t="n">
-        <v>1512.5</v>
+        <v>1650</v>
       </c>
       <c r="Z200" t="n">
         <v>0</v>
@@ -24059,9 +23462,6 @@
         <v>137.5</v>
       </c>
       <c r="AE200" t="n">
-        <v>137.5</v>
-      </c>
-      <c r="AF200" t="n">
         <v>137.5</v>
       </c>
     </row>
@@ -24150,16 +23550,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V201" t="n">
-        <v>3500</v>
+        <v>2625</v>
       </c>
       <c r="W201" t="n">
         <v>0</v>
       </c>
       <c r="X201" t="n">
-        <v>3500</v>
+        <v>2625</v>
       </c>
       <c r="Y201" t="n">
-        <v>9625</v>
+        <v>10500</v>
       </c>
       <c r="Z201" t="n">
         <v>0</v>
@@ -24177,9 +23577,6 @@
         <v>875</v>
       </c>
       <c r="AE201" t="n">
-        <v>875</v>
-      </c>
-      <c r="AF201" t="n">
         <v>875</v>
       </c>
     </row>
@@ -24268,16 +23665,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V202" t="n">
-        <v>560</v>
+        <v>420</v>
       </c>
       <c r="W202" t="n">
         <v>0</v>
       </c>
       <c r="X202" t="n">
-        <v>560</v>
+        <v>420</v>
       </c>
       <c r="Y202" t="n">
-        <v>1540</v>
+        <v>1680</v>
       </c>
       <c r="Z202" t="n">
         <v>0</v>
@@ -24295,9 +23692,6 @@
         <v>140</v>
       </c>
       <c r="AE202" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF202" t="n">
         <v>140</v>
       </c>
     </row>
@@ -24386,16 +23780,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V203" t="n">
-        <v>22960</v>
+        <v>17220</v>
       </c>
       <c r="W203" t="n">
         <v>0</v>
       </c>
       <c r="X203" t="n">
-        <v>22960</v>
+        <v>17220</v>
       </c>
       <c r="Y203" t="n">
-        <v>63140</v>
+        <v>68880</v>
       </c>
       <c r="Z203" t="n">
         <v>0</v>
@@ -24413,9 +23807,6 @@
         <v>5740</v>
       </c>
       <c r="AE203" t="n">
-        <v>5740</v>
-      </c>
-      <c r="AF203" t="n">
         <v>5740</v>
       </c>
     </row>
@@ -24504,16 +23895,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V204" t="n">
-        <v>52400</v>
+        <v>39300</v>
       </c>
       <c r="W204" t="n">
         <v>0</v>
       </c>
       <c r="X204" t="n">
-        <v>52400</v>
+        <v>39300</v>
       </c>
       <c r="Y204" t="n">
-        <v>144100</v>
+        <v>157200</v>
       </c>
       <c r="Z204" t="n">
         <v>0</v>
@@ -24531,9 +23922,6 @@
         <v>13100</v>
       </c>
       <c r="AE204" t="n">
-        <v>13100</v>
-      </c>
-      <c r="AF204" t="n">
         <v>13100</v>
       </c>
     </row>
@@ -24622,16 +24010,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V205" t="n">
-        <v>416</v>
+        <v>312</v>
       </c>
       <c r="W205" t="n">
         <v>0</v>
       </c>
       <c r="X205" t="n">
-        <v>416</v>
+        <v>312</v>
       </c>
       <c r="Y205" t="n">
-        <v>1144</v>
+        <v>1248</v>
       </c>
       <c r="Z205" t="n">
         <v>0</v>
@@ -24649,9 +24037,6 @@
         <v>104</v>
       </c>
       <c r="AE205" t="n">
-        <v>104</v>
-      </c>
-      <c r="AF205" t="n">
         <v>104</v>
       </c>
     </row>
@@ -24740,16 +24125,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V206" t="n">
-        <v>5957.32</v>
+        <v>4467.99</v>
       </c>
       <c r="W206" t="n">
         <v>0</v>
       </c>
       <c r="X206" t="n">
-        <v>5957.32</v>
+        <v>4467.99</v>
       </c>
       <c r="Y206" t="n">
-        <v>16382.68</v>
+        <v>17872.01</v>
       </c>
       <c r="Z206" t="n">
         <v>0</v>
@@ -24767,9 +24152,6 @@
         <v>1489.33</v>
       </c>
       <c r="AE206" t="n">
-        <v>1489.33</v>
-      </c>
-      <c r="AF206" t="n">
         <v>1489.33</v>
       </c>
     </row>
@@ -24858,16 +24240,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V207" t="n">
-        <v>13962.68</v>
+        <v>10472.01</v>
       </c>
       <c r="W207" t="n">
         <v>0</v>
       </c>
       <c r="X207" t="n">
-        <v>13962.68</v>
+        <v>10472.01</v>
       </c>
       <c r="Y207" t="n">
-        <v>38397.32</v>
+        <v>41887.99</v>
       </c>
       <c r="Z207" t="n">
         <v>0</v>
@@ -24885,9 +24267,6 @@
         <v>3490.67</v>
       </c>
       <c r="AE207" t="n">
-        <v>3490.67</v>
-      </c>
-      <c r="AF207" t="n">
         <v>3490.67</v>
       </c>
     </row>
@@ -24976,16 +24355,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V208" t="n">
-        <v>3166.68</v>
+        <v>2375.01</v>
       </c>
       <c r="W208" t="n">
         <v>0</v>
       </c>
       <c r="X208" t="n">
-        <v>3166.68</v>
+        <v>2375.01</v>
       </c>
       <c r="Y208" t="n">
-        <v>8708.32</v>
+        <v>9499.99</v>
       </c>
       <c r="Z208" t="n">
         <v>0</v>
@@ -25003,9 +24382,6 @@
         <v>791.67</v>
       </c>
       <c r="AE208" t="n">
-        <v>791.67</v>
-      </c>
-      <c r="AF208" t="n">
         <v>791.67</v>
       </c>
     </row>
@@ -25094,16 +24470,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V209" t="n">
-        <v>4180</v>
+        <v>3135</v>
       </c>
       <c r="W209" t="n">
         <v>0</v>
       </c>
       <c r="X209" t="n">
-        <v>4180</v>
+        <v>3135</v>
       </c>
       <c r="Y209" t="n">
-        <v>11495</v>
+        <v>12540</v>
       </c>
       <c r="Z209" t="n">
         <v>0</v>
@@ -25121,9 +24497,6 @@
         <v>1045</v>
       </c>
       <c r="AE209" t="n">
-        <v>1045</v>
-      </c>
-      <c r="AF209" t="n">
         <v>1045</v>
       </c>
     </row>
@@ -25212,16 +24585,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V210" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="W210" t="n">
         <v>0</v>
       </c>
       <c r="X210" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y210" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="Z210" t="n">
         <v>0</v>
@@ -25239,9 +24612,6 @@
         <v>200</v>
       </c>
       <c r="AE210" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF210" t="n">
         <v>200</v>
       </c>
     </row>
@@ -25330,16 +24700,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V211" t="n">
-        <v>1608</v>
+        <v>1206</v>
       </c>
       <c r="W211" t="n">
         <v>0</v>
       </c>
       <c r="X211" t="n">
-        <v>1608</v>
+        <v>1206</v>
       </c>
       <c r="Y211" t="n">
-        <v>4422</v>
+        <v>4824</v>
       </c>
       <c r="Z211" t="n">
         <v>0</v>
@@ -25357,9 +24727,6 @@
         <v>402</v>
       </c>
       <c r="AE211" t="n">
-        <v>402</v>
-      </c>
-      <c r="AF211" t="n">
         <v>402</v>
       </c>
     </row>
@@ -25448,16 +24815,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V212" t="n">
-        <v>2200</v>
+        <v>1650</v>
       </c>
       <c r="W212" t="n">
         <v>0</v>
       </c>
       <c r="X212" t="n">
-        <v>2200</v>
+        <v>1650</v>
       </c>
       <c r="Y212" t="n">
-        <v>6050</v>
+        <v>6600</v>
       </c>
       <c r="Z212" t="n">
         <v>0</v>
@@ -25475,9 +24842,6 @@
         <v>550</v>
       </c>
       <c r="AE212" t="n">
-        <v>550</v>
-      </c>
-      <c r="AF212" t="n">
         <v>550</v>
       </c>
     </row>
@@ -25566,16 +24930,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V213" t="n">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="W213" t="n">
         <v>0</v>
       </c>
       <c r="X213" t="n">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="Y213" t="n">
-        <v>1430</v>
+        <v>1560</v>
       </c>
       <c r="Z213" t="n">
         <v>0</v>
@@ -25593,9 +24957,6 @@
         <v>130</v>
       </c>
       <c r="AE213" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF213" t="n">
         <v>130</v>
       </c>
     </row>
@@ -25684,16 +25045,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V214" t="n">
-        <v>6186.68</v>
+        <v>4640.01</v>
       </c>
       <c r="W214" t="n">
         <v>0</v>
       </c>
       <c r="X214" t="n">
-        <v>6186.68</v>
+        <v>4640.01</v>
       </c>
       <c r="Y214" t="n">
-        <v>17013.32</v>
+        <v>18559.99</v>
       </c>
       <c r="Z214" t="n">
         <v>0</v>
@@ -25711,9 +25072,6 @@
         <v>1546.67</v>
       </c>
       <c r="AE214" t="n">
-        <v>1546.67</v>
-      </c>
-      <c r="AF214" t="n">
         <v>1546.67</v>
       </c>
     </row>
@@ -25802,16 +25160,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V215" t="n">
-        <v>933.3200000000001</v>
+        <v>699.99</v>
       </c>
       <c r="W215" t="n">
         <v>0</v>
       </c>
       <c r="X215" t="n">
-        <v>933.3200000000001</v>
+        <v>699.99</v>
       </c>
       <c r="Y215" t="n">
-        <v>2566.68</v>
+        <v>2800.01</v>
       </c>
       <c r="Z215" t="n">
         <v>0</v>
@@ -25829,9 +25187,6 @@
         <v>233.33</v>
       </c>
       <c r="AE215" t="n">
-        <v>233.33</v>
-      </c>
-      <c r="AF215" t="n">
         <v>233.33</v>
       </c>
     </row>
@@ -25920,16 +25275,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V216" t="n">
-        <v>21000</v>
+        <v>15750</v>
       </c>
       <c r="W216" t="n">
         <v>0</v>
       </c>
       <c r="X216" t="n">
-        <v>21000</v>
+        <v>15750</v>
       </c>
       <c r="Y216" t="n">
-        <v>57750</v>
+        <v>63000</v>
       </c>
       <c r="Z216" t="n">
         <v>0</v>
@@ -25947,9 +25302,6 @@
         <v>5250</v>
       </c>
       <c r="AE216" t="n">
-        <v>5250</v>
-      </c>
-      <c r="AF216" t="n">
         <v>5250</v>
       </c>
     </row>
@@ -26038,16 +25390,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V217" t="n">
-        <v>46666.68</v>
+        <v>35000.01</v>
       </c>
       <c r="W217" t="n">
         <v>0</v>
       </c>
       <c r="X217" t="n">
-        <v>46666.68</v>
+        <v>35000.01</v>
       </c>
       <c r="Y217" t="n">
-        <v>128333.32</v>
+        <v>139999.99</v>
       </c>
       <c r="Z217" t="n">
         <v>0</v>
@@ -26065,9 +25417,6 @@
         <v>11666.67</v>
       </c>
       <c r="AE217" t="n">
-        <v>11666.67</v>
-      </c>
-      <c r="AF217" t="n">
         <v>11666.67</v>
       </c>
     </row>
@@ -26156,16 +25505,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V218" t="n">
-        <v>26000</v>
+        <v>19500</v>
       </c>
       <c r="W218" t="n">
         <v>0</v>
       </c>
       <c r="X218" t="n">
-        <v>26000</v>
+        <v>19500</v>
       </c>
       <c r="Y218" t="n">
-        <v>71500</v>
+        <v>78000</v>
       </c>
       <c r="Z218" t="n">
         <v>0</v>
@@ -26183,9 +25532,6 @@
         <v>6500</v>
       </c>
       <c r="AE218" t="n">
-        <v>6500</v>
-      </c>
-      <c r="AF218" t="n">
         <v>6500</v>
       </c>
     </row>
@@ -26274,16 +25620,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V219" t="n">
-        <v>8133.32</v>
+        <v>6099.99</v>
       </c>
       <c r="W219" t="n">
         <v>0</v>
       </c>
       <c r="X219" t="n">
-        <v>8133.32</v>
+        <v>6099.99</v>
       </c>
       <c r="Y219" t="n">
-        <v>22366.68</v>
+        <v>24400.01</v>
       </c>
       <c r="Z219" t="n">
         <v>0</v>
@@ -26301,9 +25647,6 @@
         <v>2033.33</v>
       </c>
       <c r="AE219" t="n">
-        <v>2033.33</v>
-      </c>
-      <c r="AF219" t="n">
         <v>2033.33</v>
       </c>
     </row>
@@ -26392,16 +25735,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V220" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="W220" t="n">
         <v>0</v>
       </c>
       <c r="X220" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Y220" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Z220" t="n">
         <v>0</v>
@@ -26419,9 +25762,6 @@
         <v>1000</v>
       </c>
       <c r="AE220" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF220" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -26510,16 +25850,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V221" t="n">
-        <v>3420</v>
+        <v>2565</v>
       </c>
       <c r="W221" t="n">
         <v>0</v>
       </c>
       <c r="X221" t="n">
-        <v>3420</v>
+        <v>2565</v>
       </c>
       <c r="Y221" t="n">
-        <v>9405</v>
+        <v>10260</v>
       </c>
       <c r="Z221" t="n">
         <v>0</v>
@@ -26537,9 +25877,6 @@
         <v>855</v>
       </c>
       <c r="AE221" t="n">
-        <v>855</v>
-      </c>
-      <c r="AF221" t="n">
         <v>855</v>
       </c>
     </row>
@@ -26628,16 +25965,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V222" t="n">
-        <v>11700</v>
+        <v>8775</v>
       </c>
       <c r="W222" t="n">
         <v>0</v>
       </c>
       <c r="X222" t="n">
-        <v>11700</v>
+        <v>8775</v>
       </c>
       <c r="Y222" t="n">
-        <v>32175</v>
+        <v>35100</v>
       </c>
       <c r="Z222" t="n">
         <v>0</v>
@@ -26655,9 +25992,6 @@
         <v>2925</v>
       </c>
       <c r="AE222" t="n">
-        <v>2925</v>
-      </c>
-      <c r="AF222" t="n">
         <v>2925</v>
       </c>
     </row>
@@ -26746,16 +26080,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V223" t="n">
-        <v>8160</v>
+        <v>6120</v>
       </c>
       <c r="W223" t="n">
         <v>0</v>
       </c>
       <c r="X223" t="n">
-        <v>8160</v>
+        <v>6120</v>
       </c>
       <c r="Y223" t="n">
-        <v>22440</v>
+        <v>24480</v>
       </c>
       <c r="Z223" t="n">
         <v>0</v>
@@ -26773,9 +26107,6 @@
         <v>2040</v>
       </c>
       <c r="AE223" t="n">
-        <v>2040</v>
-      </c>
-      <c r="AF223" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -26864,16 +26195,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V224" t="n">
-        <v>1105</v>
+        <v>828.75</v>
       </c>
       <c r="W224" t="n">
         <v>0</v>
       </c>
       <c r="X224" t="n">
-        <v>1105</v>
+        <v>828.75</v>
       </c>
       <c r="Y224" t="n">
-        <v>3038.75</v>
+        <v>3315</v>
       </c>
       <c r="Z224" t="n">
         <v>0</v>
@@ -26891,9 +26222,6 @@
         <v>276.25</v>
       </c>
       <c r="AE224" t="n">
-        <v>276.25</v>
-      </c>
-      <c r="AF224" t="n">
         <v>276.25</v>
       </c>
     </row>
@@ -26982,16 +26310,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V225" t="n">
-        <v>21700</v>
+        <v>16275</v>
       </c>
       <c r="W225" t="n">
         <v>0</v>
       </c>
       <c r="X225" t="n">
-        <v>21700</v>
+        <v>16275</v>
       </c>
       <c r="Y225" t="n">
-        <v>59675</v>
+        <v>65100</v>
       </c>
       <c r="Z225" t="n">
         <v>0</v>
@@ -27009,9 +26337,6 @@
         <v>5425</v>
       </c>
       <c r="AE225" t="n">
-        <v>5425</v>
-      </c>
-      <c r="AF225" t="n">
         <v>5425</v>
       </c>
     </row>
@@ -27100,16 +26425,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V226" t="n">
-        <v>28533.32</v>
+        <v>21399.99</v>
       </c>
       <c r="W226" t="n">
         <v>0</v>
       </c>
       <c r="X226" t="n">
-        <v>28533.32</v>
+        <v>21399.99</v>
       </c>
       <c r="Y226" t="n">
-        <v>78466.67999999999</v>
+        <v>85600.00999999999</v>
       </c>
       <c r="Z226" t="n">
         <v>0</v>
@@ -27127,9 +26452,6 @@
         <v>7133.33</v>
       </c>
       <c r="AE226" t="n">
-        <v>7133.33</v>
-      </c>
-      <c r="AF226" t="n">
         <v>7133.33</v>
       </c>
     </row>
@@ -27218,16 +26540,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V227" t="n">
-        <v>4420</v>
+        <v>3315</v>
       </c>
       <c r="W227" t="n">
         <v>0</v>
       </c>
       <c r="X227" t="n">
-        <v>4420</v>
+        <v>3315</v>
       </c>
       <c r="Y227" t="n">
-        <v>12155</v>
+        <v>13260</v>
       </c>
       <c r="Z227" t="n">
         <v>0</v>
@@ -27245,9 +26567,6 @@
         <v>1105</v>
       </c>
       <c r="AE227" t="n">
-        <v>1105</v>
-      </c>
-      <c r="AF227" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -27336,16 +26655,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V228" t="n">
-        <v>5866.68</v>
+        <v>4400.01</v>
       </c>
       <c r="W228" t="n">
         <v>0</v>
       </c>
       <c r="X228" t="n">
-        <v>5866.68</v>
+        <v>4400.01</v>
       </c>
       <c r="Y228" t="n">
-        <v>16133.32</v>
+        <v>17599.99</v>
       </c>
       <c r="Z228" t="n">
         <v>0</v>
@@ -27363,9 +26682,6 @@
         <v>1466.67</v>
       </c>
       <c r="AE228" t="n">
-        <v>1466.67</v>
-      </c>
-      <c r="AF228" t="n">
         <v>1466.67</v>
       </c>
     </row>
@@ -27454,16 +26770,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V229" t="n">
-        <v>3920</v>
+        <v>2940</v>
       </c>
       <c r="W229" t="n">
         <v>0</v>
       </c>
       <c r="X229" t="n">
-        <v>3920</v>
+        <v>2940</v>
       </c>
       <c r="Y229" t="n">
-        <v>10780</v>
+        <v>11760</v>
       </c>
       <c r="Z229" t="n">
         <v>0</v>
@@ -27481,9 +26797,6 @@
         <v>980</v>
       </c>
       <c r="AE229" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF229" t="n">
         <v>980</v>
       </c>
     </row>
@@ -27572,16 +26885,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V230" t="n">
-        <v>190.68</v>
+        <v>143.01</v>
       </c>
       <c r="W230" t="n">
         <v>0</v>
       </c>
       <c r="X230" t="n">
-        <v>190.68</v>
+        <v>143.01</v>
       </c>
       <c r="Y230" t="n">
-        <v>524.3200000000001</v>
+        <v>571.99</v>
       </c>
       <c r="Z230" t="n">
         <v>0</v>
@@ -27599,9 +26912,6 @@
         <v>47.67</v>
       </c>
       <c r="AE230" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="AF230" t="n">
         <v>47.67</v>
       </c>
     </row>
@@ -27690,16 +27000,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V231" t="n">
-        <v>1038.68</v>
+        <v>779.01</v>
       </c>
       <c r="W231" t="n">
         <v>0</v>
       </c>
       <c r="X231" t="n">
-        <v>1038.68</v>
+        <v>779.01</v>
       </c>
       <c r="Y231" t="n">
-        <v>2856.32</v>
+        <v>3115.99</v>
       </c>
       <c r="Z231" t="n">
         <v>0</v>
@@ -27717,9 +27027,6 @@
         <v>259.67</v>
       </c>
       <c r="AE231" t="n">
-        <v>259.67</v>
-      </c>
-      <c r="AF231" t="n">
         <v>259.67</v>
       </c>
     </row>
@@ -27808,16 +27115,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V232" t="n">
-        <v>15240</v>
+        <v>11430</v>
       </c>
       <c r="W232" t="n">
         <v>0</v>
       </c>
       <c r="X232" t="n">
-        <v>15240</v>
+        <v>11430</v>
       </c>
       <c r="Y232" t="n">
-        <v>41910</v>
+        <v>45720</v>
       </c>
       <c r="Z232" t="n">
         <v>0</v>
@@ -27835,9 +27142,6 @@
         <v>3810</v>
       </c>
       <c r="AE232" t="n">
-        <v>3810</v>
-      </c>
-      <c r="AF232" t="n">
         <v>3810</v>
       </c>
     </row>
@@ -27926,16 +27230,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V233" t="n">
-        <v>3400</v>
+        <v>2550</v>
       </c>
       <c r="W233" t="n">
         <v>0</v>
       </c>
       <c r="X233" t="n">
-        <v>3400</v>
+        <v>2550</v>
       </c>
       <c r="Y233" t="n">
-        <v>9350</v>
+        <v>10200</v>
       </c>
       <c r="Z233" t="n">
         <v>0</v>
@@ -27953,9 +27257,6 @@
         <v>850</v>
       </c>
       <c r="AE233" t="n">
-        <v>850</v>
-      </c>
-      <c r="AF233" t="n">
         <v>850</v>
       </c>
     </row>
@@ -28044,16 +27345,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V234" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="W234" t="n">
         <v>0</v>
       </c>
       <c r="X234" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Y234" t="n">
-        <v>66000</v>
+        <v>72000</v>
       </c>
       <c r="Z234" t="n">
         <v>0</v>
@@ -28071,9 +27372,6 @@
         <v>6000</v>
       </c>
       <c r="AE234" t="n">
-        <v>6000</v>
-      </c>
-      <c r="AF234" t="n">
         <v>6000</v>
       </c>
     </row>
@@ -28162,16 +27460,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V235" t="n">
-        <v>9200</v>
+        <v>6900</v>
       </c>
       <c r="W235" t="n">
         <v>0</v>
       </c>
       <c r="X235" t="n">
-        <v>9200</v>
+        <v>6900</v>
       </c>
       <c r="Y235" t="n">
-        <v>25300</v>
+        <v>27600</v>
       </c>
       <c r="Z235" t="n">
         <v>0</v>
@@ -28189,9 +27487,6 @@
         <v>2300</v>
       </c>
       <c r="AE235" t="n">
-        <v>2300</v>
-      </c>
-      <c r="AF235" t="n">
         <v>2300</v>
       </c>
     </row>
@@ -28280,16 +27575,16 @@
         <v>0.1</v>
       </c>
       <c r="V236" t="n">
-        <v>90499.52</v>
+        <v>67874.64</v>
       </c>
       <c r="W236" t="n">
         <v>0</v>
       </c>
       <c r="X236" t="n">
-        <v>90499.52</v>
+        <v>67874.64</v>
       </c>
       <c r="Y236" t="n">
-        <v>135749.23</v>
+        <v>158374.11</v>
       </c>
       <c r="Z236" t="n">
         <v>0</v>
@@ -28307,9 +27602,6 @@
         <v>22624.88</v>
       </c>
       <c r="AE236" t="n">
-        <v>22624.88</v>
-      </c>
-      <c r="AF236" t="n">
         <v>22624.88</v>
       </c>
     </row>
@@ -28398,16 +27690,16 @@
         <v>0.1</v>
       </c>
       <c r="V237" t="n">
-        <v>17010</v>
+        <v>12757.5</v>
       </c>
       <c r="W237" t="n">
         <v>0</v>
       </c>
       <c r="X237" t="n">
-        <v>17010</v>
+        <v>12757.5</v>
       </c>
       <c r="Y237" t="n">
-        <v>25515</v>
+        <v>29767.5</v>
       </c>
       <c r="Z237" t="n">
         <v>0</v>
@@ -28425,9 +27717,6 @@
         <v>4252.5</v>
       </c>
       <c r="AE237" t="n">
-        <v>4252.5</v>
-      </c>
-      <c r="AF237" t="n">
         <v>4252.5</v>
       </c>
     </row>
@@ -28516,16 +27805,16 @@
         <v>0.1</v>
       </c>
       <c r="V238" t="n">
-        <v>11700</v>
+        <v>8775</v>
       </c>
       <c r="W238" t="n">
         <v>0</v>
       </c>
       <c r="X238" t="n">
-        <v>11700</v>
+        <v>8775</v>
       </c>
       <c r="Y238" t="n">
-        <v>17550</v>
+        <v>20475</v>
       </c>
       <c r="Z238" t="n">
         <v>0</v>
@@ -28543,9 +27832,6 @@
         <v>2925</v>
       </c>
       <c r="AE238" t="n">
-        <v>2925</v>
-      </c>
-      <c r="AF238" t="n">
         <v>2925</v>
       </c>
     </row>
@@ -28634,16 +27920,16 @@
         <v>0.1</v>
       </c>
       <c r="V239" t="n">
-        <v>22224</v>
+        <v>16668</v>
       </c>
       <c r="W239" t="n">
         <v>0</v>
       </c>
       <c r="X239" t="n">
-        <v>22224</v>
+        <v>16668</v>
       </c>
       <c r="Y239" t="n">
-        <v>33336</v>
+        <v>38892</v>
       </c>
       <c r="Z239" t="n">
         <v>0</v>
@@ -28661,9 +27947,6 @@
         <v>5556</v>
       </c>
       <c r="AE239" t="n">
-        <v>5556</v>
-      </c>
-      <c r="AF239" t="n">
         <v>5556</v>
       </c>
     </row>
@@ -28752,16 +28035,16 @@
         <v>0.1</v>
       </c>
       <c r="V240" t="n">
-        <v>8954</v>
+        <v>6715.5</v>
       </c>
       <c r="W240" t="n">
         <v>0</v>
       </c>
       <c r="X240" t="n">
-        <v>8954</v>
+        <v>6715.5</v>
       </c>
       <c r="Y240" t="n">
-        <v>13431</v>
+        <v>15669.5</v>
       </c>
       <c r="Z240" t="n">
         <v>0</v>
@@ -28779,9 +28062,6 @@
         <v>2238.5</v>
       </c>
       <c r="AE240" t="n">
-        <v>2238.5</v>
-      </c>
-      <c r="AF240" t="n">
         <v>2238.5</v>
       </c>
     </row>
@@ -28870,16 +28150,16 @@
         <v>0.05</v>
       </c>
       <c r="V241" t="n">
-        <v>11540.24</v>
+        <v>8655.18</v>
       </c>
       <c r="W241" t="n">
         <v>0</v>
       </c>
       <c r="X241" t="n">
-        <v>11540.24</v>
+        <v>8655.18</v>
       </c>
       <c r="Y241" t="n">
-        <v>46160.86</v>
+        <v>49045.92</v>
       </c>
       <c r="Z241" t="n">
         <v>0</v>
@@ -28897,9 +28177,6 @@
         <v>2885.06</v>
       </c>
       <c r="AE241" t="n">
-        <v>2885.06</v>
-      </c>
-      <c r="AF241" t="n">
         <v>2885.06</v>
       </c>
     </row>
@@ -28988,16 +28265,16 @@
         <v>0.05</v>
       </c>
       <c r="V242" t="n">
-        <v>47190.32</v>
+        <v>35392.74</v>
       </c>
       <c r="W242" t="n">
         <v>0</v>
       </c>
       <c r="X242" t="n">
-        <v>47190.32</v>
+        <v>35392.74</v>
       </c>
       <c r="Y242" t="n">
-        <v>188761.18</v>
+        <v>200558.76</v>
       </c>
       <c r="Z242" t="n">
         <v>0</v>
@@ -29015,9 +28292,6 @@
         <v>11797.58</v>
       </c>
       <c r="AE242" t="n">
-        <v>11797.58</v>
-      </c>
-      <c r="AF242" t="n">
         <v>11797.58</v>
       </c>
     </row>
@@ -29106,16 +28380,16 @@
         <v>0.05</v>
       </c>
       <c r="V243" t="n">
-        <v>28361.12</v>
+        <v>21270.84</v>
       </c>
       <c r="W243" t="n">
         <v>0</v>
       </c>
       <c r="X243" t="n">
-        <v>28361.12</v>
+        <v>21270.84</v>
       </c>
       <c r="Y243" t="n">
-        <v>113444.38</v>
+        <v>120534.66</v>
       </c>
       <c r="Z243" t="n">
         <v>0</v>
@@ -29133,9 +28407,6 @@
         <v>7090.28</v>
       </c>
       <c r="AE243" t="n">
-        <v>7090.28</v>
-      </c>
-      <c r="AF243" t="n">
         <v>7090.28</v>
       </c>
     </row>
@@ -29224,16 +28495,16 @@
         <v>0.05</v>
       </c>
       <c r="V244" t="n">
-        <v>42380.36</v>
+        <v>31785.27</v>
       </c>
       <c r="W244" t="n">
         <v>0</v>
       </c>
       <c r="X244" t="n">
-        <v>42380.36</v>
+        <v>31785.27</v>
       </c>
       <c r="Y244" t="n">
-        <v>169521.34</v>
+        <v>180116.43</v>
       </c>
       <c r="Z244" t="n">
         <v>0</v>
@@ -29251,9 +28522,6 @@
         <v>10595.09</v>
       </c>
       <c r="AE244" t="n">
-        <v>10595.09</v>
-      </c>
-      <c r="AF244" t="n">
         <v>10595.09</v>
       </c>
     </row>
@@ -29342,16 +28610,16 @@
         <v>0.05</v>
       </c>
       <c r="V245" t="n">
-        <v>20676.48</v>
+        <v>15507.36</v>
       </c>
       <c r="W245" t="n">
         <v>0</v>
       </c>
       <c r="X245" t="n">
-        <v>20676.48</v>
+        <v>15507.36</v>
       </c>
       <c r="Y245" t="n">
-        <v>82705.92</v>
+        <v>87875.03999999999</v>
       </c>
       <c r="Z245" t="n">
         <v>0</v>
@@ -29369,9 +28637,6 @@
         <v>5169.12</v>
       </c>
       <c r="AE245" t="n">
-        <v>5169.12</v>
-      </c>
-      <c r="AF245" t="n">
         <v>5169.12</v>
       </c>
     </row>
@@ -29460,16 +28725,16 @@
         <v>0.05</v>
       </c>
       <c r="V246" t="n">
-        <v>54057.36</v>
+        <v>40543.02</v>
       </c>
       <c r="W246" t="n">
         <v>0</v>
       </c>
       <c r="X246" t="n">
-        <v>54057.36</v>
+        <v>40543.02</v>
       </c>
       <c r="Y246" t="n">
-        <v>216229.44</v>
+        <v>229743.78</v>
       </c>
       <c r="Z246" t="n">
         <v>0</v>
@@ -29487,9 +28752,6 @@
         <v>13514.34</v>
       </c>
       <c r="AE246" t="n">
-        <v>13514.34</v>
-      </c>
-      <c r="AF246" t="n">
         <v>13514.34</v>
       </c>
     </row>
@@ -29578,16 +28840,16 @@
         <v>0.05</v>
       </c>
       <c r="V247" t="n">
-        <v>11730</v>
+        <v>8797.5</v>
       </c>
       <c r="W247" t="n">
         <v>0</v>
       </c>
       <c r="X247" t="n">
-        <v>11730</v>
+        <v>8797.5</v>
       </c>
       <c r="Y247" t="n">
-        <v>46920</v>
+        <v>49852.5</v>
       </c>
       <c r="Z247" t="n">
         <v>0</v>
@@ -29605,9 +28867,6 @@
         <v>2932.5</v>
       </c>
       <c r="AE247" t="n">
-        <v>2932.5</v>
-      </c>
-      <c r="AF247" t="n">
         <v>2932.5</v>
       </c>
     </row>
@@ -29696,16 +28955,16 @@
         <v>0.05</v>
       </c>
       <c r="V248" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="W248" t="n">
         <v>0</v>
       </c>
       <c r="X248" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="Y248" t="n">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="Z248" t="n">
         <v>0</v>
@@ -29723,9 +28982,6 @@
         <v>150</v>
       </c>
       <c r="AE248" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF248" t="n">
         <v>150</v>
       </c>
     </row>
@@ -29814,16 +29070,16 @@
         <v>0.05</v>
       </c>
       <c r="V249" t="n">
-        <v>23030.48</v>
+        <v>17272.86</v>
       </c>
       <c r="W249" t="n">
         <v>0</v>
       </c>
       <c r="X249" t="n">
-        <v>23030.48</v>
+        <v>17272.86</v>
       </c>
       <c r="Y249" t="n">
-        <v>92121.97</v>
+        <v>97879.59</v>
       </c>
       <c r="Z249" t="n">
         <v>0</v>
@@ -29841,9 +29097,6 @@
         <v>5757.62</v>
       </c>
       <c r="AE249" t="n">
-        <v>5757.62</v>
-      </c>
-      <c r="AF249" t="n">
         <v>5757.62</v>
       </c>
     </row>
@@ -29932,16 +29185,16 @@
         <v>0.05</v>
       </c>
       <c r="V250" t="n">
-        <v>10477.52</v>
+        <v>7858.14</v>
       </c>
       <c r="W250" t="n">
         <v>0</v>
       </c>
       <c r="X250" t="n">
-        <v>10477.52</v>
+        <v>7858.14</v>
       </c>
       <c r="Y250" t="n">
-        <v>41909.98</v>
+        <v>44529.36</v>
       </c>
       <c r="Z250" t="n">
         <v>0</v>
@@ -29959,9 +29212,6 @@
         <v>2619.38</v>
       </c>
       <c r="AE250" t="n">
-        <v>2619.38</v>
-      </c>
-      <c r="AF250" t="n">
         <v>2619.38</v>
       </c>
     </row>
@@ -30050,16 +29300,16 @@
         <v>0.05</v>
       </c>
       <c r="V251" t="n">
-        <v>5700</v>
+        <v>4275</v>
       </c>
       <c r="W251" t="n">
         <v>0</v>
       </c>
       <c r="X251" t="n">
-        <v>5700</v>
+        <v>4275</v>
       </c>
       <c r="Y251" t="n">
-        <v>22800</v>
+        <v>24225</v>
       </c>
       <c r="Z251" t="n">
         <v>0</v>
@@ -30077,9 +29327,6 @@
         <v>1425</v>
       </c>
       <c r="AE251" t="n">
-        <v>1425</v>
-      </c>
-      <c r="AF251" t="n">
         <v>1425</v>
       </c>
     </row>
@@ -30168,16 +29415,16 @@
         <v>0.05</v>
       </c>
       <c r="V252" t="n">
-        <v>13816</v>
+        <v>10362</v>
       </c>
       <c r="W252" t="n">
         <v>0</v>
       </c>
       <c r="X252" t="n">
-        <v>13816</v>
+        <v>10362</v>
       </c>
       <c r="Y252" t="n">
-        <v>55264</v>
+        <v>58718</v>
       </c>
       <c r="Z252" t="n">
         <v>0</v>
@@ -30195,9 +29442,6 @@
         <v>3454</v>
       </c>
       <c r="AE252" t="n">
-        <v>3454</v>
-      </c>
-      <c r="AF252" t="n">
         <v>3454</v>
       </c>
     </row>
@@ -30286,16 +29530,16 @@
         <v>0.05</v>
       </c>
       <c r="V253" t="n">
-        <v>141702.6</v>
+        <v>106276.95</v>
       </c>
       <c r="W253" t="n">
         <v>0</v>
       </c>
       <c r="X253" t="n">
-        <v>141702.6</v>
+        <v>106276.95</v>
       </c>
       <c r="Y253" t="n">
-        <v>566810.4</v>
+        <v>602236.05</v>
       </c>
       <c r="Z253" t="n">
         <v>0</v>
@@ -30313,9 +29557,6 @@
         <v>35425.65</v>
       </c>
       <c r="AE253" t="n">
-        <v>35425.65</v>
-      </c>
-      <c r="AF253" t="n">
         <v>35425.65</v>
       </c>
     </row>
@@ -30404,16 +29645,16 @@
         <v>0.05</v>
       </c>
       <c r="V254" t="n">
-        <v>96000</v>
+        <v>72000</v>
       </c>
       <c r="W254" t="n">
         <v>0</v>
       </c>
       <c r="X254" t="n">
-        <v>96000</v>
+        <v>72000</v>
       </c>
       <c r="Y254" t="n">
-        <v>384000</v>
+        <v>408000</v>
       </c>
       <c r="Z254" t="n">
         <v>0</v>
@@ -30431,9 +29672,6 @@
         <v>24000</v>
       </c>
       <c r="AE254" t="n">
-        <v>24000</v>
-      </c>
-      <c r="AF254" t="n">
         <v>24000</v>
       </c>
     </row>
@@ -30522,16 +29760,16 @@
         <v>0.05</v>
       </c>
       <c r="V255" t="n">
-        <v>119361</v>
+        <v>89520.75</v>
       </c>
       <c r="W255" t="n">
         <v>0</v>
       </c>
       <c r="X255" t="n">
-        <v>119361</v>
+        <v>89520.75</v>
       </c>
       <c r="Y255" t="n">
-        <v>477444</v>
+        <v>507284.25</v>
       </c>
       <c r="Z255" t="n">
         <v>0</v>
@@ -30549,9 +29787,6 @@
         <v>29840.25</v>
       </c>
       <c r="AE255" t="n">
-        <v>29840.25</v>
-      </c>
-      <c r="AF255" t="n">
         <v>29840.25</v>
       </c>
     </row>
@@ -30640,16 +29875,16 @@
         <v>0.05</v>
       </c>
       <c r="V256" t="n">
-        <v>8622.559999999999</v>
+        <v>6466.92</v>
       </c>
       <c r="W256" t="n">
         <v>0</v>
       </c>
       <c r="X256" t="n">
-        <v>8622.559999999999</v>
+        <v>6466.92</v>
       </c>
       <c r="Y256" t="n">
-        <v>34490.29</v>
+        <v>36645.93</v>
       </c>
       <c r="Z256" t="n">
         <v>0</v>
@@ -30667,9 +29902,6 @@
         <v>2155.64</v>
       </c>
       <c r="AE256" t="n">
-        <v>2155.64</v>
-      </c>
-      <c r="AF256" t="n">
         <v>2155.64</v>
       </c>
     </row>
@@ -30758,16 +29990,16 @@
         <v>0.05</v>
       </c>
       <c r="V257" t="n">
-        <v>21840</v>
+        <v>16380</v>
       </c>
       <c r="W257" t="n">
         <v>0</v>
       </c>
       <c r="X257" t="n">
-        <v>21840</v>
+        <v>16380</v>
       </c>
       <c r="Y257" t="n">
-        <v>87360</v>
+        <v>92820</v>
       </c>
       <c r="Z257" t="n">
         <v>0</v>
@@ -30785,9 +30017,6 @@
         <v>5460</v>
       </c>
       <c r="AE257" t="n">
-        <v>5460</v>
-      </c>
-      <c r="AF257" t="n">
         <v>5460</v>
       </c>
     </row>
@@ -30876,16 +30105,16 @@
         <v>0.05</v>
       </c>
       <c r="V258" t="n">
-        <v>7875</v>
+        <v>5906.25</v>
       </c>
       <c r="W258" t="n">
         <v>0</v>
       </c>
       <c r="X258" t="n">
-        <v>7875</v>
+        <v>5906.25</v>
       </c>
       <c r="Y258" t="n">
-        <v>31500</v>
+        <v>33468.75</v>
       </c>
       <c r="Z258" t="n">
         <v>0</v>
@@ -30903,9 +30132,6 @@
         <v>1968.75</v>
       </c>
       <c r="AE258" t="n">
-        <v>1968.75</v>
-      </c>
-      <c r="AF258" t="n">
         <v>1968.75</v>
       </c>
     </row>
@@ -30994,16 +30220,16 @@
         <v>0.05</v>
       </c>
       <c r="V259" t="n">
-        <v>22050</v>
+        <v>16537.5</v>
       </c>
       <c r="W259" t="n">
         <v>0</v>
       </c>
       <c r="X259" t="n">
-        <v>22050</v>
+        <v>16537.5</v>
       </c>
       <c r="Y259" t="n">
-        <v>88200</v>
+        <v>93712.5</v>
       </c>
       <c r="Z259" t="n">
         <v>0</v>
@@ -31021,9 +30247,6 @@
         <v>5512.5</v>
       </c>
       <c r="AE259" t="n">
-        <v>5512.5</v>
-      </c>
-      <c r="AF259" t="n">
         <v>5512.5</v>
       </c>
     </row>
@@ -31112,16 +30335,16 @@
         <v>0.05</v>
       </c>
       <c r="V260" t="n">
-        <v>43169.12</v>
+        <v>32376.84</v>
       </c>
       <c r="W260" t="n">
         <v>0</v>
       </c>
       <c r="X260" t="n">
-        <v>43169.12</v>
+        <v>32376.84</v>
       </c>
       <c r="Y260" t="n">
-        <v>172676.38</v>
+        <v>183468.66</v>
       </c>
       <c r="Z260" t="n">
         <v>0</v>
@@ -31139,9 +30362,6 @@
         <v>10792.28</v>
       </c>
       <c r="AE260" t="n">
-        <v>10792.28</v>
-      </c>
-      <c r="AF260" t="n">
         <v>10792.28</v>
       </c>
     </row>
@@ -31230,16 +30450,16 @@
         <v>0.05</v>
       </c>
       <c r="V261" t="n">
-        <v>7277.56</v>
+        <v>5458.17</v>
       </c>
       <c r="W261" t="n">
         <v>0</v>
       </c>
       <c r="X261" t="n">
-        <v>7277.56</v>
+        <v>5458.17</v>
       </c>
       <c r="Y261" t="n">
-        <v>29110.19</v>
+        <v>30929.58</v>
       </c>
       <c r="Z261" t="n">
         <v>0</v>
@@ -31257,9 +30477,6 @@
         <v>1819.39</v>
       </c>
       <c r="AE261" t="n">
-        <v>1819.39</v>
-      </c>
-      <c r="AF261" t="n">
         <v>1819.39</v>
       </c>
     </row>
@@ -31348,16 +30565,16 @@
         <v>0.05</v>
       </c>
       <c r="V262" t="n">
-        <v>17341.68</v>
+        <v>13006.26</v>
       </c>
       <c r="W262" t="n">
         <v>0</v>
       </c>
       <c r="X262" t="n">
-        <v>17341.68</v>
+        <v>13006.26</v>
       </c>
       <c r="Y262" t="n">
-        <v>69366.72</v>
+        <v>73702.14</v>
       </c>
       <c r="Z262" t="n">
         <v>0</v>
@@ -31375,9 +30592,6 @@
         <v>4335.42</v>
       </c>
       <c r="AE262" t="n">
-        <v>4335.42</v>
-      </c>
-      <c r="AF262" t="n">
         <v>4335.42</v>
       </c>
     </row>
@@ -31466,16 +30680,16 @@
         <v>0.05</v>
       </c>
       <c r="V263" t="n">
-        <v>50186.08</v>
+        <v>37639.56</v>
       </c>
       <c r="W263" t="n">
         <v>0</v>
       </c>
       <c r="X263" t="n">
-        <v>50186.08</v>
+        <v>37639.56</v>
       </c>
       <c r="Y263" t="n">
-        <v>200744.27</v>
+        <v>213290.79</v>
       </c>
       <c r="Z263" t="n">
         <v>0</v>
@@ -31493,9 +30707,6 @@
         <v>12546.52</v>
       </c>
       <c r="AE263" t="n">
-        <v>12546.52</v>
-      </c>
-      <c r="AF263" t="n">
         <v>12546.52</v>
       </c>
     </row>
@@ -31584,16 +30795,16 @@
         <v>0.05</v>
       </c>
       <c r="V264" t="n">
-        <v>7455</v>
+        <v>5591.25</v>
       </c>
       <c r="W264" t="n">
         <v>0</v>
       </c>
       <c r="X264" t="n">
-        <v>7455</v>
+        <v>5591.25</v>
       </c>
       <c r="Y264" t="n">
-        <v>29820</v>
+        <v>31683.75</v>
       </c>
       <c r="Z264" t="n">
         <v>0</v>
@@ -31611,9 +30822,6 @@
         <v>1863.75</v>
       </c>
       <c r="AE264" t="n">
-        <v>1863.75</v>
-      </c>
-      <c r="AF264" t="n">
         <v>1863.75</v>
       </c>
     </row>
@@ -31702,16 +30910,16 @@
         <v>0.05</v>
       </c>
       <c r="V265" t="n">
-        <v>6334.8</v>
+        <v>4751.1</v>
       </c>
       <c r="W265" t="n">
         <v>0</v>
       </c>
       <c r="X265" t="n">
-        <v>6334.8</v>
+        <v>4751.1</v>
       </c>
       <c r="Y265" t="n">
-        <v>25339.2</v>
+        <v>26922.9</v>
       </c>
       <c r="Z265" t="n">
         <v>0</v>
@@ -31729,9 +30937,6 @@
         <v>1583.7</v>
       </c>
       <c r="AE265" t="n">
-        <v>1583.7</v>
-      </c>
-      <c r="AF265" t="n">
         <v>1583.7</v>
       </c>
     </row>
@@ -31820,16 +31025,16 @@
         <v>0.05</v>
       </c>
       <c r="V266" t="n">
-        <v>4300</v>
+        <v>3225</v>
       </c>
       <c r="W266" t="n">
         <v>0</v>
       </c>
       <c r="X266" t="n">
-        <v>4300</v>
+        <v>3225</v>
       </c>
       <c r="Y266" t="n">
-        <v>17200</v>
+        <v>18275</v>
       </c>
       <c r="Z266" t="n">
         <v>0</v>
@@ -31847,9 +31052,6 @@
         <v>1075</v>
       </c>
       <c r="AE266" t="n">
-        <v>1075</v>
-      </c>
-      <c r="AF266" t="n">
         <v>1075</v>
       </c>
     </row>
@@ -31938,16 +31140,16 @@
         <v>0.05</v>
       </c>
       <c r="V267" t="n">
-        <v>29000</v>
+        <v>21750</v>
       </c>
       <c r="W267" t="n">
         <v>0</v>
       </c>
       <c r="X267" t="n">
-        <v>29000</v>
+        <v>21750</v>
       </c>
       <c r="Y267" t="n">
-        <v>116000</v>
+        <v>123250</v>
       </c>
       <c r="Z267" t="n">
         <v>0</v>
@@ -31965,9 +31167,6 @@
         <v>7250</v>
       </c>
       <c r="AE267" t="n">
-        <v>7250</v>
-      </c>
-      <c r="AF267" t="n">
         <v>7250</v>
       </c>
     </row>
@@ -32056,16 +31255,16 @@
         <v>0.05</v>
       </c>
       <c r="V268" t="n">
-        <v>7253.44</v>
+        <v>5440.08</v>
       </c>
       <c r="W268" t="n">
         <v>0</v>
       </c>
       <c r="X268" t="n">
-        <v>7253.44</v>
+        <v>5440.08</v>
       </c>
       <c r="Y268" t="n">
-        <v>29013.76</v>
+        <v>30827.12</v>
       </c>
       <c r="Z268" t="n">
         <v>0</v>
@@ -32083,9 +31282,6 @@
         <v>1813.36</v>
       </c>
       <c r="AE268" t="n">
-        <v>1813.36</v>
-      </c>
-      <c r="AF268" t="n">
         <v>1813.36</v>
       </c>
     </row>
@@ -32174,16 +31370,16 @@
         <v>0.05</v>
       </c>
       <c r="V269" t="n">
-        <v>16640</v>
+        <v>12480</v>
       </c>
       <c r="W269" t="n">
         <v>0</v>
       </c>
       <c r="X269" t="n">
-        <v>16640</v>
+        <v>12480</v>
       </c>
       <c r="Y269" t="n">
-        <v>66560</v>
+        <v>70720</v>
       </c>
       <c r="Z269" t="n">
         <v>0</v>
@@ -32201,9 +31397,6 @@
         <v>4160</v>
       </c>
       <c r="AE269" t="n">
-        <v>4160</v>
-      </c>
-      <c r="AF269" t="n">
         <v>4160</v>
       </c>
     </row>
@@ -32292,16 +31485,16 @@
         <v>0.05</v>
       </c>
       <c r="V270" t="n">
-        <v>14950</v>
+        <v>11212.5</v>
       </c>
       <c r="W270" t="n">
         <v>0</v>
       </c>
       <c r="X270" t="n">
-        <v>14950</v>
+        <v>11212.5</v>
       </c>
       <c r="Y270" t="n">
-        <v>59800</v>
+        <v>63537.5</v>
       </c>
       <c r="Z270" t="n">
         <v>0</v>
@@ -32319,9 +31512,6 @@
         <v>3737.5</v>
       </c>
       <c r="AE270" t="n">
-        <v>3737.5</v>
-      </c>
-      <c r="AF270" t="n">
         <v>3737.5</v>
       </c>
     </row>
@@ -32410,16 +31600,16 @@
         <v>0.05</v>
       </c>
       <c r="V271" t="n">
-        <v>28120</v>
+        <v>21090</v>
       </c>
       <c r="W271" t="n">
         <v>0</v>
       </c>
       <c r="X271" t="n">
-        <v>28120</v>
+        <v>21090</v>
       </c>
       <c r="Y271" t="n">
-        <v>112480</v>
+        <v>119510</v>
       </c>
       <c r="Z271" t="n">
         <v>0</v>
@@ -32437,9 +31627,6 @@
         <v>7030</v>
       </c>
       <c r="AE271" t="n">
-        <v>7030</v>
-      </c>
-      <c r="AF271" t="n">
         <v>7030</v>
       </c>
     </row>
@@ -32528,16 +31715,16 @@
         <v>0.05</v>
       </c>
       <c r="V272" t="n">
-        <v>26837.24</v>
+        <v>20127.93</v>
       </c>
       <c r="W272" t="n">
         <v>0</v>
       </c>
       <c r="X272" t="n">
-        <v>26837.24</v>
+        <v>20127.93</v>
       </c>
       <c r="Y272" t="n">
-        <v>107349.01</v>
+        <v>114058.32</v>
       </c>
       <c r="Z272" t="n">
         <v>0</v>
@@ -32555,9 +31742,6 @@
         <v>6709.31</v>
       </c>
       <c r="AE272" t="n">
-        <v>6709.31</v>
-      </c>
-      <c r="AF272" t="n">
         <v>6709.31</v>
       </c>
     </row>
@@ -32646,16 +31830,16 @@
         <v>0.05</v>
       </c>
       <c r="V273" t="n">
-        <v>780</v>
+        <v>585</v>
       </c>
       <c r="W273" t="n">
         <v>0</v>
       </c>
       <c r="X273" t="n">
-        <v>780</v>
+        <v>585</v>
       </c>
       <c r="Y273" t="n">
-        <v>3120</v>
+        <v>3315</v>
       </c>
       <c r="Z273" t="n">
         <v>0</v>
@@ -32673,9 +31857,6 @@
         <v>195</v>
       </c>
       <c r="AE273" t="n">
-        <v>195</v>
-      </c>
-      <c r="AF273" t="n">
         <v>195</v>
       </c>
     </row>
@@ -32764,16 +31945,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V274" t="n">
-        <v>266666.68</v>
+        <v>200000.01</v>
       </c>
       <c r="W274" t="n">
         <v>0</v>
       </c>
       <c r="X274" t="n">
-        <v>266666.68</v>
+        <v>200000.01</v>
       </c>
       <c r="Y274" t="n">
-        <v>733333.3199999999</v>
+        <v>799999.99</v>
       </c>
       <c r="Z274" t="n">
         <v>0</v>
@@ -32791,9 +31972,6 @@
         <v>66666.67</v>
       </c>
       <c r="AE274" t="n">
-        <v>66666.67</v>
-      </c>
-      <c r="AF274" t="n">
         <v>66666.67</v>
       </c>
     </row>
@@ -32882,16 +32060,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V275" t="n">
-        <v>31200</v>
+        <v>23400</v>
       </c>
       <c r="W275" t="n">
         <v>0</v>
       </c>
       <c r="X275" t="n">
-        <v>31200</v>
+        <v>23400</v>
       </c>
       <c r="Y275" t="n">
-        <v>85800</v>
+        <v>93600</v>
       </c>
       <c r="Z275" t="n">
         <v>0</v>
@@ -32909,9 +32087,6 @@
         <v>7800</v>
       </c>
       <c r="AE275" t="n">
-        <v>7800</v>
-      </c>
-      <c r="AF275" t="n">
         <v>7800</v>
       </c>
     </row>
@@ -33000,16 +32175,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V276" t="n">
-        <v>44000</v>
+        <v>33000</v>
       </c>
       <c r="W276" t="n">
         <v>0</v>
       </c>
       <c r="X276" t="n">
-        <v>44000</v>
+        <v>33000</v>
       </c>
       <c r="Y276" t="n">
-        <v>121000</v>
+        <v>132000</v>
       </c>
       <c r="Z276" t="n">
         <v>0</v>
@@ -33027,9 +32202,6 @@
         <v>11000</v>
       </c>
       <c r="AE276" t="n">
-        <v>11000</v>
-      </c>
-      <c r="AF276" t="n">
         <v>11000</v>
       </c>
     </row>
@@ -33118,16 +32290,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V277" t="n">
-        <v>12666.68</v>
+        <v>9500.01</v>
       </c>
       <c r="W277" t="n">
         <v>0</v>
       </c>
       <c r="X277" t="n">
-        <v>12666.68</v>
+        <v>9500.01</v>
       </c>
       <c r="Y277" t="n">
-        <v>34833.32</v>
+        <v>37999.99</v>
       </c>
       <c r="Z277" t="n">
         <v>0</v>
@@ -33145,9 +32317,6 @@
         <v>3166.67</v>
       </c>
       <c r="AE277" t="n">
-        <v>3166.67</v>
-      </c>
-      <c r="AF277" t="n">
         <v>3166.67</v>
       </c>
     </row>
@@ -33236,16 +32405,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V278" t="n">
-        <v>19600</v>
+        <v>14700</v>
       </c>
       <c r="W278" t="n">
         <v>0</v>
       </c>
       <c r="X278" t="n">
-        <v>19600</v>
+        <v>14700</v>
       </c>
       <c r="Y278" t="n">
-        <v>53900</v>
+        <v>58800</v>
       </c>
       <c r="Z278" t="n">
         <v>0</v>
@@ -33263,9 +32432,6 @@
         <v>4900</v>
       </c>
       <c r="AE278" t="n">
-        <v>4900</v>
-      </c>
-      <c r="AF278" t="n">
         <v>4900</v>
       </c>
     </row>
@@ -33354,16 +32520,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V279" t="n">
-        <v>13546.68</v>
+        <v>10160.01</v>
       </c>
       <c r="W279" t="n">
         <v>0</v>
       </c>
       <c r="X279" t="n">
-        <v>13546.68</v>
+        <v>10160.01</v>
       </c>
       <c r="Y279" t="n">
-        <v>37253.32</v>
+        <v>40639.99</v>
       </c>
       <c r="Z279" t="n">
         <v>0</v>
@@ -33381,9 +32547,6 @@
         <v>3386.67</v>
       </c>
       <c r="AE279" t="n">
-        <v>3386.67</v>
-      </c>
-      <c r="AF279" t="n">
         <v>3386.67</v>
       </c>
     </row>
@@ -33472,16 +32635,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V280" t="n">
-        <v>12533.32</v>
+        <v>9399.99</v>
       </c>
       <c r="W280" t="n">
         <v>0</v>
       </c>
       <c r="X280" t="n">
-        <v>12533.32</v>
+        <v>9399.99</v>
       </c>
       <c r="Y280" t="n">
-        <v>34466.68</v>
+        <v>37600.01</v>
       </c>
       <c r="Z280" t="n">
         <v>0</v>
@@ -33499,9 +32662,6 @@
         <v>3133.33</v>
       </c>
       <c r="AE280" t="n">
-        <v>3133.33</v>
-      </c>
-      <c r="AF280" t="n">
         <v>3133.33</v>
       </c>
     </row>
@@ -33590,16 +32750,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V281" t="n">
-        <v>25600</v>
+        <v>19200</v>
       </c>
       <c r="W281" t="n">
         <v>0</v>
       </c>
       <c r="X281" t="n">
-        <v>25600</v>
+        <v>19200</v>
       </c>
       <c r="Y281" t="n">
-        <v>70400</v>
+        <v>76800</v>
       </c>
       <c r="Z281" t="n">
         <v>0</v>
@@ -33617,9 +32777,6 @@
         <v>6400</v>
       </c>
       <c r="AE281" t="n">
-        <v>6400</v>
-      </c>
-      <c r="AF281" t="n">
         <v>6400</v>
       </c>
     </row>
@@ -33708,16 +32865,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V282" t="n">
-        <v>58880</v>
+        <v>44160</v>
       </c>
       <c r="W282" t="n">
         <v>0</v>
       </c>
       <c r="X282" t="n">
-        <v>58880</v>
+        <v>44160</v>
       </c>
       <c r="Y282" t="n">
-        <v>161920</v>
+        <v>176640</v>
       </c>
       <c r="Z282" t="n">
         <v>0</v>
@@ -33735,9 +32892,6 @@
         <v>14720</v>
       </c>
       <c r="AE282" t="n">
-        <v>14720</v>
-      </c>
-      <c r="AF282" t="n">
         <v>14720</v>
       </c>
     </row>
@@ -33826,16 +32980,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V283" t="n">
-        <v>17333.32</v>
+        <v>12999.99</v>
       </c>
       <c r="W283" t="n">
         <v>0</v>
       </c>
       <c r="X283" t="n">
-        <v>17333.32</v>
+        <v>12999.99</v>
       </c>
       <c r="Y283" t="n">
-        <v>47666.68</v>
+        <v>52000.01</v>
       </c>
       <c r="Z283" t="n">
         <v>0</v>
@@ -33853,9 +33007,6 @@
         <v>4333.33</v>
       </c>
       <c r="AE283" t="n">
-        <v>4333.33</v>
-      </c>
-      <c r="AF283" t="n">
         <v>4333.33</v>
       </c>
     </row>
@@ -33944,16 +33095,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V284" t="n">
-        <v>23200</v>
+        <v>17400</v>
       </c>
       <c r="W284" t="n">
         <v>0</v>
       </c>
       <c r="X284" t="n">
-        <v>23200</v>
+        <v>17400</v>
       </c>
       <c r="Y284" t="n">
-        <v>63800</v>
+        <v>69600</v>
       </c>
       <c r="Z284" t="n">
         <v>0</v>
@@ -33971,9 +33122,6 @@
         <v>5800</v>
       </c>
       <c r="AE284" t="n">
-        <v>5800</v>
-      </c>
-      <c r="AF284" t="n">
         <v>5800</v>
       </c>
     </row>
@@ -34062,16 +33210,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V285" t="n">
-        <v>37333.32</v>
+        <v>27999.99</v>
       </c>
       <c r="W285" t="n">
         <v>0</v>
       </c>
       <c r="X285" t="n">
-        <v>37333.32</v>
+        <v>27999.99</v>
       </c>
       <c r="Y285" t="n">
-        <v>102666.68</v>
+        <v>112000.01</v>
       </c>
       <c r="Z285" t="n">
         <v>0</v>
@@ -34089,9 +33237,6 @@
         <v>9333.33</v>
       </c>
       <c r="AE285" t="n">
-        <v>9333.33</v>
-      </c>
-      <c r="AF285" t="n">
         <v>9333.33</v>
       </c>
     </row>
@@ -34180,16 +33325,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V286" t="n">
-        <v>25333.32</v>
+        <v>18999.99</v>
       </c>
       <c r="W286" t="n">
         <v>0</v>
       </c>
       <c r="X286" t="n">
-        <v>25333.32</v>
+        <v>18999.99</v>
       </c>
       <c r="Y286" t="n">
-        <v>69666.67999999999</v>
+        <v>76000.00999999999</v>
       </c>
       <c r="Z286" t="n">
         <v>0</v>
@@ -34207,9 +33352,6 @@
         <v>6333.33</v>
       </c>
       <c r="AE286" t="n">
-        <v>6333.33</v>
-      </c>
-      <c r="AF286" t="n">
         <v>6333.33</v>
       </c>
     </row>
@@ -34298,16 +33440,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V287" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="W287" t="n">
         <v>0</v>
       </c>
       <c r="X287" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Y287" t="n">
-        <v>44000</v>
+        <v>48000</v>
       </c>
       <c r="Z287" t="n">
         <v>0</v>
@@ -34325,9 +33467,6 @@
         <v>4000</v>
       </c>
       <c r="AE287" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AF287" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -34416,16 +33555,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V288" t="n">
-        <v>112666.68</v>
+        <v>84500.00999999999</v>
       </c>
       <c r="W288" t="n">
         <v>0</v>
       </c>
       <c r="X288" t="n">
-        <v>112666.68</v>
+        <v>84500.00999999999</v>
       </c>
       <c r="Y288" t="n">
-        <v>309833.32</v>
+        <v>337999.99</v>
       </c>
       <c r="Z288" t="n">
         <v>0</v>
@@ -34443,9 +33582,6 @@
         <v>28166.67</v>
       </c>
       <c r="AE288" t="n">
-        <v>28166.67</v>
-      </c>
-      <c r="AF288" t="n">
         <v>28166.67</v>
       </c>
     </row>
@@ -34534,16 +33670,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V289" t="n">
-        <v>2253.32</v>
+        <v>1689.99</v>
       </c>
       <c r="W289" t="n">
         <v>0</v>
       </c>
       <c r="X289" t="n">
-        <v>2253.32</v>
+        <v>1689.99</v>
       </c>
       <c r="Y289" t="n">
-        <v>6196.68</v>
+        <v>6760.01</v>
       </c>
       <c r="Z289" t="n">
         <v>0</v>
@@ -34561,9 +33697,6 @@
         <v>563.33</v>
       </c>
       <c r="AE289" t="n">
-        <v>563.33</v>
-      </c>
-      <c r="AF289" t="n">
         <v>563.33</v>
       </c>
     </row>
@@ -34652,16 +33785,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V290" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="W290" t="n">
         <v>0</v>
       </c>
       <c r="X290" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Y290" t="n">
-        <v>44000</v>
+        <v>48000</v>
       </c>
       <c r="Z290" t="n">
         <v>0</v>
@@ -34679,9 +33812,6 @@
         <v>4000</v>
       </c>
       <c r="AE290" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AF290" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -34770,16 +33900,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V291" t="n">
-        <v>6240</v>
+        <v>4680</v>
       </c>
       <c r="W291" t="n">
         <v>0</v>
       </c>
       <c r="X291" t="n">
-        <v>6240</v>
+        <v>4680</v>
       </c>
       <c r="Y291" t="n">
-        <v>17160</v>
+        <v>18720</v>
       </c>
       <c r="Z291" t="n">
         <v>0</v>
@@ -34797,9 +33927,6 @@
         <v>1560</v>
       </c>
       <c r="AE291" t="n">
-        <v>1560</v>
-      </c>
-      <c r="AF291" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -34888,16 +34015,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V292" t="n">
-        <v>31581.32</v>
+        <v>23685.99</v>
       </c>
       <c r="W292" t="n">
         <v>0</v>
       </c>
       <c r="X292" t="n">
-        <v>31581.32</v>
+        <v>23685.99</v>
       </c>
       <c r="Y292" t="n">
-        <v>86848.67999999999</v>
+        <v>94744.00999999999</v>
       </c>
       <c r="Z292" t="n">
         <v>0</v>
@@ -34915,9 +34042,6 @@
         <v>7895.33</v>
       </c>
       <c r="AE292" t="n">
-        <v>7895.33</v>
-      </c>
-      <c r="AF292" t="n">
         <v>7895.33</v>
       </c>
     </row>
@@ -35006,16 +34130,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V293" t="n">
-        <v>2383.32</v>
+        <v>1787.49</v>
       </c>
       <c r="W293" t="n">
         <v>0</v>
       </c>
       <c r="X293" t="n">
-        <v>2383.32</v>
+        <v>1787.49</v>
       </c>
       <c r="Y293" t="n">
-        <v>6554.18</v>
+        <v>7150.01</v>
       </c>
       <c r="Z293" t="n">
         <v>0</v>
@@ -35033,9 +34157,6 @@
         <v>595.83</v>
       </c>
       <c r="AE293" t="n">
-        <v>595.83</v>
-      </c>
-      <c r="AF293" t="n">
         <v>595.83</v>
       </c>
     </row>
@@ -35124,16 +34245,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V294" t="n">
-        <v>53333.32</v>
+        <v>39999.99</v>
       </c>
       <c r="W294" t="n">
         <v>0</v>
       </c>
       <c r="X294" t="n">
-        <v>53333.32</v>
+        <v>39999.99</v>
       </c>
       <c r="Y294" t="n">
-        <v>146666.68</v>
+        <v>160000.01</v>
       </c>
       <c r="Z294" t="n">
         <v>0</v>
@@ -35151,9 +34272,6 @@
         <v>13333.33</v>
       </c>
       <c r="AE294" t="n">
-        <v>13333.33</v>
-      </c>
-      <c r="AF294" t="n">
         <v>13333.33</v>
       </c>
     </row>
@@ -35242,16 +34360,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V295" t="n">
-        <v>315296</v>
+        <v>236472</v>
       </c>
       <c r="W295" t="n">
         <v>0</v>
       </c>
       <c r="X295" t="n">
-        <v>315296</v>
+        <v>236472</v>
       </c>
       <c r="Y295" t="n">
-        <v>867064</v>
+        <v>945888</v>
       </c>
       <c r="Z295" t="n">
         <v>0</v>
@@ -35269,9 +34387,6 @@
         <v>78824</v>
       </c>
       <c r="AE295" t="n">
-        <v>78824</v>
-      </c>
-      <c r="AF295" t="n">
         <v>78824</v>
       </c>
     </row>
@@ -35360,16 +34475,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V296" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="W296" t="n">
         <v>0</v>
       </c>
       <c r="X296" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="Y296" t="n">
-        <v>88000</v>
+        <v>96000</v>
       </c>
       <c r="Z296" t="n">
         <v>0</v>
@@ -35387,9 +34502,6 @@
         <v>8000</v>
       </c>
       <c r="AE296" t="n">
-        <v>8000</v>
-      </c>
-      <c r="AF296" t="n">
         <v>8000</v>
       </c>
     </row>
@@ -35478,16 +34590,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V297" t="n">
-        <v>21013.32</v>
+        <v>15759.99</v>
       </c>
       <c r="W297" t="n">
         <v>0</v>
       </c>
       <c r="X297" t="n">
-        <v>21013.32</v>
+        <v>15759.99</v>
       </c>
       <c r="Y297" t="n">
-        <v>57786.68</v>
+        <v>63040.01</v>
       </c>
       <c r="Z297" t="n">
         <v>0</v>
@@ -35505,9 +34617,6 @@
         <v>5253.33</v>
       </c>
       <c r="AE297" t="n">
-        <v>5253.33</v>
-      </c>
-      <c r="AF297" t="n">
         <v>5253.33</v>
       </c>
     </row>
@@ -35596,16 +34705,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V298" t="n">
-        <v>13360</v>
+        <v>10020</v>
       </c>
       <c r="W298" t="n">
         <v>0</v>
       </c>
       <c r="X298" t="n">
-        <v>13360</v>
+        <v>10020</v>
       </c>
       <c r="Y298" t="n">
-        <v>36740</v>
+        <v>40080</v>
       </c>
       <c r="Z298" t="n">
         <v>0</v>
@@ -35623,9 +34732,6 @@
         <v>3340</v>
       </c>
       <c r="AE298" t="n">
-        <v>3340</v>
-      </c>
-      <c r="AF298" t="n">
         <v>3340</v>
       </c>
     </row>
@@ -35714,16 +34820,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V299" t="n">
-        <v>50133.32</v>
+        <v>37599.99</v>
       </c>
       <c r="W299" t="n">
         <v>0</v>
       </c>
       <c r="X299" t="n">
-        <v>50133.32</v>
+        <v>37599.99</v>
       </c>
       <c r="Y299" t="n">
-        <v>137866.68</v>
+        <v>150400.01</v>
       </c>
       <c r="Z299" t="n">
         <v>0</v>
@@ -35741,9 +34847,6 @@
         <v>12533.33</v>
       </c>
       <c r="AE299" t="n">
-        <v>12533.33</v>
-      </c>
-      <c r="AF299" t="n">
         <v>12533.33</v>
       </c>
     </row>
@@ -35832,16 +34935,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V300" t="n">
-        <v>12133.32</v>
+        <v>9099.99</v>
       </c>
       <c r="W300" t="n">
         <v>0</v>
       </c>
       <c r="X300" t="n">
-        <v>12133.32</v>
+        <v>9099.99</v>
       </c>
       <c r="Y300" t="n">
-        <v>33366.68</v>
+        <v>36400.01</v>
       </c>
       <c r="Z300" t="n">
         <v>0</v>
@@ -35859,9 +34962,6 @@
         <v>3033.33</v>
       </c>
       <c r="AE300" t="n">
-        <v>3033.33</v>
-      </c>
-      <c r="AF300" t="n">
         <v>3033.33</v>
       </c>
     </row>
@@ -35873,26 +34973,26 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-2023-0001</t>
+          <t>FRC-HQ-SLM-M-2023-0002</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2024-04-04 00:00:00</t>
+          <t>2024-04-03 00:00:00</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F301" t="n">
-        <v>4112314</v>
+        <v>4112101</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Motor Vehicles</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -35919,7 +35019,7 @@
         <v>0</v>
       </c>
       <c r="M301" t="n">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="N301" t="n">
         <v>0</v>
@@ -35944,22 +35044,22 @@
         <v>0</v>
       </c>
       <c r="T301" t="n">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="U301" t="n">
         <v>0.1</v>
       </c>
       <c r="V301" t="n">
-        <v>426.4</v>
+        <v>211.2</v>
       </c>
       <c r="W301" t="n">
         <v>0</v>
       </c>
       <c r="X301" t="n">
-        <v>426.4</v>
+        <v>211.2</v>
       </c>
       <c r="Y301" t="n">
-        <v>1705.6</v>
+        <v>1900.8</v>
       </c>
       <c r="Z301" t="n">
         <v>0</v>
@@ -35977,10 +35077,7 @@
         <v>0</v>
       </c>
       <c r="AE301" t="n">
-        <v>213.2</v>
-      </c>
-      <c r="AF301" t="n">
-        <v>213.2</v>
+        <v>211.2</v>
       </c>
     </row>
     <row r="302">
@@ -35991,26 +35088,26 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-2023-0001</t>
+          <t>FRC-HQ-SLM-M-2023-0002</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2024-04-04 00:00:00</t>
+          <t>2024-04-03 00:00:00</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F302" t="n">
-        <v>4112314</v>
+        <v>4112101</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Motor Vehicles</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -36037,7 +35134,7 @@
         <v>0</v>
       </c>
       <c r="M302" t="n">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="N302" t="n">
         <v>0</v>
@@ -36062,22 +35159,22 @@
         <v>0</v>
       </c>
       <c r="T302" t="n">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="U302" t="n">
         <v>0.1</v>
       </c>
       <c r="V302" t="n">
-        <v>426.4</v>
+        <v>211.2</v>
       </c>
       <c r="W302" t="n">
         <v>0</v>
       </c>
       <c r="X302" t="n">
-        <v>426.4</v>
+        <v>211.2</v>
       </c>
       <c r="Y302" t="n">
-        <v>1705.6</v>
+        <v>1900.8</v>
       </c>
       <c r="Z302" t="n">
         <v>0</v>
@@ -36095,10 +35192,7 @@
         <v>0</v>
       </c>
       <c r="AE302" t="n">
-        <v>213.2</v>
-      </c>
-      <c r="AF302" t="n">
-        <v>213.2</v>
+        <v>211.2</v>
       </c>
     </row>
     <row r="303">
@@ -36186,16 +35280,16 @@
         <v>0.1</v>
       </c>
       <c r="V303" t="n">
-        <v>422.4</v>
+        <v>211.2</v>
       </c>
       <c r="W303" t="n">
         <v>0</v>
       </c>
       <c r="X303" t="n">
-        <v>422.4</v>
+        <v>211.2</v>
       </c>
       <c r="Y303" t="n">
-        <v>1689.6</v>
+        <v>1900.8</v>
       </c>
       <c r="Z303" t="n">
         <v>0</v>
@@ -36213,9 +35307,6 @@
         <v>0</v>
       </c>
       <c r="AE303" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="AF303" t="n">
         <v>211.2</v>
       </c>
     </row>
@@ -36304,16 +35395,16 @@
         <v>0.1</v>
       </c>
       <c r="V304" t="n">
-        <v>422.4</v>
+        <v>211.2</v>
       </c>
       <c r="W304" t="n">
         <v>0</v>
       </c>
       <c r="X304" t="n">
-        <v>422.4</v>
+        <v>211.2</v>
       </c>
       <c r="Y304" t="n">
-        <v>1689.6</v>
+        <v>1900.8</v>
       </c>
       <c r="Z304" t="n">
         <v>0</v>
@@ -36331,40 +35422,37 @@
         <v>0</v>
       </c>
       <c r="AE304" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="AF304" t="n">
         <v>211.2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-2023-0002</t>
+          <t>FRC-HQ-SLM-F-2021-0003</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2024-04-03 00:00:00</t>
+          <t>2022-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F305" t="n">
-        <v>4112101</v>
+        <v>4112314</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Motor Vehicles</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -36391,7 +35479,7 @@
         <v>0</v>
       </c>
       <c r="M305" t="n">
-        <v>2112</v>
+        <v>34</v>
       </c>
       <c r="N305" t="n">
         <v>0</v>
@@ -36416,22 +35504,22 @@
         <v>0</v>
       </c>
       <c r="T305" t="n">
-        <v>2112</v>
+        <v>34</v>
       </c>
       <c r="U305" t="n">
         <v>0.1</v>
       </c>
       <c r="V305" t="n">
-        <v>422.4</v>
+        <v>10.2</v>
       </c>
       <c r="W305" t="n">
         <v>0</v>
       </c>
       <c r="X305" t="n">
-        <v>422.4</v>
+        <v>10.2</v>
       </c>
       <c r="Y305" t="n">
-        <v>1689.6</v>
+        <v>23.8</v>
       </c>
       <c r="Z305" t="n">
         <v>0</v>
@@ -36443,46 +35531,43 @@
         <v>0</v>
       </c>
       <c r="AC305" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD305" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AE305" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="AF305" t="n">
-        <v>211.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-2023-0002</t>
+          <t>FRC-HQ-SLM-F-2021-0003</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2024-04-03 00:00:00</t>
+          <t>2022-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F306" t="n">
-        <v>4112101</v>
+        <v>4112314</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Motor Vehicles</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -36509,7 +35594,7 @@
         <v>0</v>
       </c>
       <c r="M306" t="n">
-        <v>2112</v>
+        <v>34</v>
       </c>
       <c r="N306" t="n">
         <v>0</v>
@@ -36534,22 +35619,22 @@
         <v>0</v>
       </c>
       <c r="T306" t="n">
-        <v>2112</v>
+        <v>34</v>
       </c>
       <c r="U306" t="n">
         <v>0.1</v>
       </c>
       <c r="V306" t="n">
-        <v>422.4</v>
+        <v>10.2</v>
       </c>
       <c r="W306" t="n">
         <v>0</v>
       </c>
       <c r="X306" t="n">
-        <v>422.4</v>
+        <v>10.2</v>
       </c>
       <c r="Y306" t="n">
-        <v>1689.6</v>
+        <v>23.8</v>
       </c>
       <c r="Z306" t="n">
         <v>0</v>
@@ -36561,46 +35646,43 @@
         <v>0</v>
       </c>
       <c r="AC306" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD306" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AE306" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="AF306" t="n">
-        <v>211.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-2021-0003</t>
+          <t>FRC-HQ-SLM-O-2019-0006</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2022-06-03 00:00:00</t>
+          <t>2020-02-05 00:00:00</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E307" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F307" t="n">
-        <v>4112314</v>
+        <v>4112310</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office equipment</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -36627,13 +35709,13 @@
         <v>0</v>
       </c>
       <c r="M307" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N307" t="n">
         <v>0</v>
       </c>
       <c r="O307" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P307" t="inlineStr">
         <is>
@@ -36652,73 +35734,70 @@
         <v>0</v>
       </c>
       <c r="T307" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="U307" t="n">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="V307" t="n">
-        <v>13.6</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="W307" t="n">
         <v>0</v>
       </c>
       <c r="X307" t="n">
-        <v>13.6</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="Y307" t="n">
-        <v>20.4</v>
+        <v>3.45</v>
       </c>
       <c r="Z307" t="n">
         <v>0</v>
       </c>
       <c r="AA307" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB307" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC307" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
       <c r="AD307" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
       <c r="AE307" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AF307" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-2021-0003</t>
+          <t>FRC-HQ-SLM-O-2019-0006</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2022-06-03 00:00:00</t>
+          <t>2020-02-05 00:00:00</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E308" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F308" t="n">
-        <v>4112314</v>
+        <v>4112310</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office equipment</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -36745,13 +35824,13 @@
         <v>0</v>
       </c>
       <c r="M308" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N308" t="n">
         <v>0</v>
       </c>
       <c r="O308" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P308" t="inlineStr">
         <is>
@@ -36770,59 +35849,56 @@
         <v>0</v>
       </c>
       <c r="T308" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="U308" t="n">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="V308" t="n">
-        <v>13.6</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="W308" t="n">
         <v>0</v>
       </c>
       <c r="X308" t="n">
-        <v>13.6</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="Y308" t="n">
-        <v>20.4</v>
+        <v>3.45</v>
       </c>
       <c r="Z308" t="n">
         <v>0</v>
       </c>
       <c r="AA308" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB308" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC308" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
       <c r="AD308" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
       <c r="AE308" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AF308" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-2019-0006</t>
+          <t>FRC-HQ-SLM-F-2023-0006</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2020-02-05 00:00:00</t>
+          <t>2024-04-12 00:00:00</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -36832,11 +35908,11 @@
         <v>6</v>
       </c>
       <c r="F309" t="n">
-        <v>4112310</v>
+        <v>8</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Office equipment</t>
+          <t>Furniture (Leasehold)</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -36863,13 +35939,13 @@
         <v>0</v>
       </c>
       <c r="M309" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N309" t="n">
         <v>0</v>
       </c>
       <c r="O309" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P309" t="inlineStr">
         <is>
@@ -36888,59 +35964,56 @@
         <v>0</v>
       </c>
       <c r="T309" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="U309" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="V309" t="n">
-        <v>10.26</v>
+        <v>3.73</v>
       </c>
       <c r="W309" t="n">
         <v>0</v>
       </c>
       <c r="X309" t="n">
-        <v>10.26</v>
+        <v>3.73</v>
       </c>
       <c r="Y309" t="n">
-        <v>1.74</v>
+        <v>52.27</v>
       </c>
       <c r="Z309" t="n">
         <v>0</v>
       </c>
       <c r="AA309" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AB309" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AC309" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AD309" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AE309" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AF309" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-2019-0006</t>
+          <t>FRC-HQ-SLM-F-2023-0006</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2020-02-05 00:00:00</t>
+          <t>2024-04-12 00:00:00</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -36950,11 +36023,11 @@
         <v>6</v>
       </c>
       <c r="F310" t="n">
-        <v>4112310</v>
+        <v>8</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Office equipment</t>
+          <t>Furniture (Leasehold)</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -36981,13 +36054,13 @@
         <v>0</v>
       </c>
       <c r="M310" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N310" t="n">
         <v>0</v>
       </c>
       <c r="O310" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P310" t="inlineStr">
         <is>
@@ -37006,1105 +36079,40 @@
         <v>0</v>
       </c>
       <c r="T310" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="U310" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="V310" t="n">
-        <v>10.26</v>
+        <v>3.73</v>
       </c>
       <c r="W310" t="n">
         <v>0</v>
       </c>
       <c r="X310" t="n">
-        <v>10.26</v>
+        <v>3.73</v>
       </c>
       <c r="Y310" t="n">
-        <v>1.74</v>
+        <v>52.27</v>
       </c>
       <c r="Z310" t="n">
         <v>0</v>
       </c>
       <c r="AA310" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AB310" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AC310" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AD310" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AE310" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AF310" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-F-2023-0006</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>2024-04-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="D311" t="n">
-        <v>6</v>
-      </c>
-      <c r="E311" t="n">
-        <v>6</v>
-      </c>
-      <c r="F311" t="n">
-        <v>8</v>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>Furniture (Leasehold)</t>
-        </is>
-      </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I311" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J311" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>0</v>
-      </c>
-      <c r="M311" t="n">
-        <v>56</v>
-      </c>
-      <c r="N311" t="n">
-        <v>0</v>
-      </c>
-      <c r="O311" t="n">
-        <v>15</v>
-      </c>
-      <c r="P311" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q311" t="n">
-        <v>0</v>
-      </c>
-      <c r="R311" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S311" t="n">
-        <v>0</v>
-      </c>
-      <c r="T311" t="n">
-        <v>56</v>
-      </c>
-      <c r="U311" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="V311" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="W311" t="n">
-        <v>0</v>
-      </c>
-      <c r="X311" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="Y311" t="n">
-        <v>48.54</v>
-      </c>
-      <c r="Z311" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA311" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB311" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC311" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD311" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE311" t="n">
         <v>3.73</v>
-      </c>
-      <c r="AF311" t="n">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-F-2023-0006</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>2024-04-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="D312" t="n">
-        <v>6</v>
-      </c>
-      <c r="E312" t="n">
-        <v>6</v>
-      </c>
-      <c r="F312" t="n">
-        <v>8</v>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>Furniture (Leasehold)</t>
-        </is>
-      </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>0</v>
-      </c>
-      <c r="M312" t="n">
-        <v>56</v>
-      </c>
-      <c r="N312" t="n">
-        <v>0</v>
-      </c>
-      <c r="O312" t="n">
-        <v>15</v>
-      </c>
-      <c r="P312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q312" t="n">
-        <v>0</v>
-      </c>
-      <c r="R312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S312" t="n">
-        <v>0</v>
-      </c>
-      <c r="T312" t="n">
-        <v>56</v>
-      </c>
-      <c r="U312" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="V312" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="W312" t="n">
-        <v>0</v>
-      </c>
-      <c r="X312" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="Y312" t="n">
-        <v>48.54</v>
-      </c>
-      <c r="Z312" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA312" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB312" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC312" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD312" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE312" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="AF312" t="n">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-T-2023-0006</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>2024-04-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="D313" t="n">
-        <v>6</v>
-      </c>
-      <c r="E313" t="n">
-        <v>6</v>
-      </c>
-      <c r="F313" t="n">
-        <v>4112204</v>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>Telecommunications</t>
-        </is>
-      </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I313" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J313" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>0</v>
-      </c>
-      <c r="M313" t="n">
-        <v>56</v>
-      </c>
-      <c r="N313" t="n">
-        <v>0</v>
-      </c>
-      <c r="O313" t="n">
-        <v>7</v>
-      </c>
-      <c r="P313" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q313" t="n">
-        <v>0</v>
-      </c>
-      <c r="R313" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S313" t="n">
-        <v>0</v>
-      </c>
-      <c r="T313" t="n">
-        <v>56</v>
-      </c>
-      <c r="U313" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="V313" t="n">
-        <v>16</v>
-      </c>
-      <c r="W313" t="n">
-        <v>0</v>
-      </c>
-      <c r="X313" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y313" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z313" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA313" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB313" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC313" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD313" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE313" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF313" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-T-2023-0006</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>2024-04-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="D314" t="n">
-        <v>6</v>
-      </c>
-      <c r="E314" t="n">
-        <v>6</v>
-      </c>
-      <c r="F314" t="n">
-        <v>4112204</v>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>Telecommunications</t>
-        </is>
-      </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J314" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>0</v>
-      </c>
-      <c r="M314" t="n">
-        <v>56</v>
-      </c>
-      <c r="N314" t="n">
-        <v>0</v>
-      </c>
-      <c r="O314" t="n">
-        <v>7</v>
-      </c>
-      <c r="P314" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q314" t="n">
-        <v>0</v>
-      </c>
-      <c r="R314" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S314" t="n">
-        <v>0</v>
-      </c>
-      <c r="T314" t="n">
-        <v>56</v>
-      </c>
-      <c r="U314" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="V314" t="n">
-        <v>16</v>
-      </c>
-      <c r="W314" t="n">
-        <v>0</v>
-      </c>
-      <c r="X314" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y314" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z314" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA314" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB314" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC314" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD314" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE314" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF314" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-E-2023-0006</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>2024-04-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="D315" t="n">
-        <v>6</v>
-      </c>
-      <c r="E315" t="n">
-        <v>6</v>
-      </c>
-      <c r="F315" t="n">
-        <v>5</v>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>Electrical Wire and Fittings</t>
-        </is>
-      </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I315" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J315" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>0</v>
-      </c>
-      <c r="M315" t="n">
-        <v>6</v>
-      </c>
-      <c r="N315" t="n">
-        <v>0</v>
-      </c>
-      <c r="O315" t="n">
-        <v>15</v>
-      </c>
-      <c r="P315" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q315" t="n">
-        <v>0</v>
-      </c>
-      <c r="R315" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S315" t="n">
-        <v>0</v>
-      </c>
-      <c r="T315" t="n">
-        <v>6</v>
-      </c>
-      <c r="U315" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="V315" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W315" t="n">
-        <v>0</v>
-      </c>
-      <c r="X315" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y315" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Z315" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA315" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB315" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC315" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD315" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE315" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF315" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-E-2023-0006</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>2024-04-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="D316" t="n">
-        <v>6</v>
-      </c>
-      <c r="E316" t="n">
-        <v>6</v>
-      </c>
-      <c r="F316" t="n">
-        <v>5</v>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>Electrical Wire and Fittings</t>
-        </is>
-      </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I316" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J316" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>0</v>
-      </c>
-      <c r="M316" t="n">
-        <v>6</v>
-      </c>
-      <c r="N316" t="n">
-        <v>0</v>
-      </c>
-      <c r="O316" t="n">
-        <v>15</v>
-      </c>
-      <c r="P316" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q316" t="n">
-        <v>0</v>
-      </c>
-      <c r="R316" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S316" t="n">
-        <v>0</v>
-      </c>
-      <c r="T316" t="n">
-        <v>6</v>
-      </c>
-      <c r="U316" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="V316" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W316" t="n">
-        <v>0</v>
-      </c>
-      <c r="X316" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y316" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Z316" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA316" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB316" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC316" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD316" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE316" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF316" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-E-2023-0006</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>2024-04-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="D317" t="n">
-        <v>6</v>
-      </c>
-      <c r="E317" t="n">
-        <v>6</v>
-      </c>
-      <c r="F317" t="n">
-        <v>5</v>
-      </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>Electrical Wire and Fittings</t>
-        </is>
-      </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I317" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J317" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>0</v>
-      </c>
-      <c r="M317" t="n">
-        <v>6</v>
-      </c>
-      <c r="N317" t="n">
-        <v>0</v>
-      </c>
-      <c r="O317" t="n">
-        <v>15</v>
-      </c>
-      <c r="P317" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q317" t="n">
-        <v>0</v>
-      </c>
-      <c r="R317" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S317" t="n">
-        <v>0</v>
-      </c>
-      <c r="T317" t="n">
-        <v>6</v>
-      </c>
-      <c r="U317" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="V317" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W317" t="n">
-        <v>0</v>
-      </c>
-      <c r="X317" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y317" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Z317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE317" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF317" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>2022-2023</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-C-2022-0006</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>2023-06-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="D318" t="n">
-        <v>6</v>
-      </c>
-      <c r="E318" t="n">
-        <v>6</v>
-      </c>
-      <c r="F318" t="n">
-        <v>4112202</v>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J318" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>0</v>
-      </c>
-      <c r="M318" t="n">
-        <v>6</v>
-      </c>
-      <c r="N318" t="n">
-        <v>0</v>
-      </c>
-      <c r="O318" t="n">
-        <v>5</v>
-      </c>
-      <c r="P318" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q318" t="n">
-        <v>0</v>
-      </c>
-      <c r="R318" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S318" t="n">
-        <v>0</v>
-      </c>
-      <c r="T318" t="n">
-        <v>6</v>
-      </c>
-      <c r="U318" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V318" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W318" t="n">
-        <v>0</v>
-      </c>
-      <c r="X318" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Y318" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC318" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD318" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AE318" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF318" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>2022-2023</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-C-2022-0006</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>2023-06-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="D319" t="n">
-        <v>6</v>
-      </c>
-      <c r="E319" t="n">
-        <v>6</v>
-      </c>
-      <c r="F319" t="n">
-        <v>4112202</v>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>Computer and Computer Equiments</t>
-        </is>
-      </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J319" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>0</v>
-      </c>
-      <c r="M319" t="n">
-        <v>6</v>
-      </c>
-      <c r="N319" t="n">
-        <v>0</v>
-      </c>
-      <c r="O319" t="n">
-        <v>5</v>
-      </c>
-      <c r="P319" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q319" t="n">
-        <v>0</v>
-      </c>
-      <c r="R319" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S319" t="n">
-        <v>0</v>
-      </c>
-      <c r="T319" t="n">
-        <v>6</v>
-      </c>
-      <c r="U319" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V319" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W319" t="n">
-        <v>0</v>
-      </c>
-      <c r="X319" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Y319" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC319" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD319" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AE319" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF319" t="n">
-        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE310"/>
+  <dimension ref="A1:AF300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,23 +559,40 @@
           <t>Book Value</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>2024</v>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2017-2018</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-2019</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2021-2022</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -675,7 +692,7 @@
         <v>4061.59</v>
       </c>
       <c r="Z2" t="n">
-        <v>8123.14</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>8123.14</v>
@@ -687,9 +704,12 @@
         <v>8123.14</v>
       </c>
       <c r="AD2" t="n">
+        <v>8123.14</v>
+      </c>
+      <c r="AE2" t="n">
         <v>4061.57</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>4061.57</v>
       </c>
     </row>
@@ -790,7 +810,7 @@
         <v>3179</v>
       </c>
       <c r="Z3" t="n">
-        <v>3179</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>3179</v>
@@ -805,6 +825,9 @@
         <v>3179</v>
       </c>
       <c r="AE3" t="n">
+        <v>3179</v>
+      </c>
+      <c r="AF3" t="n">
         <v>3179</v>
       </c>
     </row>
@@ -905,7 +928,7 @@
         <v>1544.26</v>
       </c>
       <c r="Z4" t="n">
-        <v>1544.29</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>1544.29</v>
@@ -920,6 +943,9 @@
         <v>1544.29</v>
       </c>
       <c r="AE4" t="n">
+        <v>1544.29</v>
+      </c>
+      <c r="AF4" t="n">
         <v>1544.29</v>
       </c>
     </row>
@@ -1020,7 +1046,7 @@
         <v>1664.74</v>
       </c>
       <c r="Z5" t="n">
-        <v>1664.71</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>1664.71</v>
@@ -1035,6 +1061,9 @@
         <v>1664.71</v>
       </c>
       <c r="AE5" t="n">
+        <v>1664.71</v>
+      </c>
+      <c r="AF5" t="n">
         <v>1664.71</v>
       </c>
     </row>
@@ -1135,7 +1164,7 @@
         <v>4593</v>
       </c>
       <c r="Z6" t="n">
-        <v>4593</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>4593</v>
@@ -1150,6 +1179,9 @@
         <v>4593</v>
       </c>
       <c r="AE6" t="n">
+        <v>4593</v>
+      </c>
+      <c r="AF6" t="n">
         <v>4593</v>
       </c>
     </row>
@@ -1250,7 +1282,7 @@
         <v>3510</v>
       </c>
       <c r="Z7" t="n">
-        <v>3510</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>3510</v>
@@ -1265,6 +1297,9 @@
         <v>3510</v>
       </c>
       <c r="AE7" t="n">
+        <v>3510</v>
+      </c>
+      <c r="AF7" t="n">
         <v>3510</v>
       </c>
     </row>
@@ -1365,7 +1400,7 @@
         <v>6836.42</v>
       </c>
       <c r="Z8" t="n">
-        <v>6836.43</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>6836.43</v>
@@ -1380,6 +1415,9 @@
         <v>6836.43</v>
       </c>
       <c r="AE8" t="n">
+        <v>6836.43</v>
+      </c>
+      <c r="AF8" t="n">
         <v>6836.43</v>
       </c>
     </row>
@@ -1480,7 +1518,7 @@
         <v>3547.16</v>
       </c>
       <c r="Z9" t="n">
-        <v>3547.14</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>3547.14</v>
@@ -1495,6 +1533,9 @@
         <v>3547.14</v>
       </c>
       <c r="AE9" t="n">
+        <v>3547.14</v>
+      </c>
+      <c r="AF9" t="n">
         <v>3547.14</v>
       </c>
     </row>
@@ -1595,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>21032.8</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>21032.8</v>
@@ -1610,6 +1651,9 @@
         <v>21032.8</v>
       </c>
       <c r="AE10" t="n">
+        <v>21032.8</v>
+      </c>
+      <c r="AF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1710,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>11000</v>
@@ -1725,6 +1769,9 @@
         <v>11000</v>
       </c>
       <c r="AE11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="AF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1825,7 +1872,7 @@
         <v>7271.42</v>
       </c>
       <c r="Z12" t="n">
-        <v>7271.43</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>7271.43</v>
@@ -1840,6 +1887,9 @@
         <v>7271.43</v>
       </c>
       <c r="AE12" t="n">
+        <v>7271.43</v>
+      </c>
+      <c r="AF12" t="n">
         <v>7271.43</v>
       </c>
     </row>
@@ -1940,7 +1990,7 @@
         <v>8128.58</v>
       </c>
       <c r="Z13" t="n">
-        <v>8128.57</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>8128.57</v>
@@ -1955,6 +2005,9 @@
         <v>8128.57</v>
       </c>
       <c r="AE13" t="n">
+        <v>8128.57</v>
+      </c>
+      <c r="AF13" t="n">
         <v>8128.57</v>
       </c>
     </row>
@@ -2055,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>3840</v>
@@ -2067,9 +2120,12 @@
         <v>3840</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2170,7 +2226,7 @@
         <v>2414.26</v>
       </c>
       <c r="Z15" t="n">
-        <v>2414.29</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>2414.29</v>
@@ -2185,6 +2241,9 @@
         <v>2414.29</v>
       </c>
       <c r="AE15" t="n">
+        <v>2414.29</v>
+      </c>
+      <c r="AF15" t="n">
         <v>2414.29</v>
       </c>
     </row>
@@ -2285,7 +2344,7 @@
         <v>2785.74</v>
       </c>
       <c r="Z16" t="n">
-        <v>2785.71</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>2785.71</v>
@@ -2300,6 +2359,9 @@
         <v>2785.71</v>
       </c>
       <c r="AE16" t="n">
+        <v>2785.71</v>
+      </c>
+      <c r="AF16" t="n">
         <v>2785.71</v>
       </c>
     </row>
@@ -2400,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>3014.58</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>3014.58</v>
@@ -2412,9 +2474,12 @@
         <v>3014.58</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>3014.58</v>
       </c>
       <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2515,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>2700</v>
@@ -2527,9 +2592,12 @@
         <v>2700</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
         <v>1350</v>
@@ -2642,9 +2710,12 @@
         <v>1350</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2745,7 +2816,7 @@
         <v>12180</v>
       </c>
       <c r="Z20" t="n">
-        <v>3045</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>3045</v>
@@ -2760,6 +2831,9 @@
         <v>3045</v>
       </c>
       <c r="AE20" t="n">
+        <v>3045</v>
+      </c>
+      <c r="AF20" t="n">
         <v>3045</v>
       </c>
     </row>
@@ -2860,7 +2934,7 @@
         <v>614.26</v>
       </c>
       <c r="Z21" t="n">
-        <v>614.29</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
         <v>614.29</v>
@@ -2875,6 +2949,9 @@
         <v>614.29</v>
       </c>
       <c r="AE21" t="n">
+        <v>614.29</v>
+      </c>
+      <c r="AF21" t="n">
         <v>614.29</v>
       </c>
     </row>
@@ -2975,7 +3052,7 @@
         <v>4041.16</v>
       </c>
       <c r="Z22" t="n">
-        <v>4041.14</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>4041.14</v>
@@ -2990,6 +3067,9 @@
         <v>4041.14</v>
       </c>
       <c r="AE22" t="n">
+        <v>4041.14</v>
+      </c>
+      <c r="AF22" t="n">
         <v>4041.14</v>
       </c>
     </row>
@@ -3090,7 +3170,7 @@
         <v>2885.58</v>
       </c>
       <c r="Z23" t="n">
-        <v>2885.57</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>2885.57</v>
@@ -3105,6 +3185,9 @@
         <v>2885.57</v>
       </c>
       <c r="AE23" t="n">
+        <v>2885.57</v>
+      </c>
+      <c r="AF23" t="n">
         <v>2885.57</v>
       </c>
     </row>
@@ -3205,7 +3288,7 @@
         <v>22042.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>5510.6</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
         <v>5510.6</v>
@@ -3220,6 +3303,9 @@
         <v>5510.6</v>
       </c>
       <c r="AE24" t="n">
+        <v>5510.6</v>
+      </c>
+      <c r="AF24" t="n">
         <v>5510.6</v>
       </c>
     </row>
@@ -3320,7 +3406,7 @@
         <v>4680</v>
       </c>
       <c r="Z25" t="n">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>1170</v>
@@ -3335,6 +3421,9 @@
         <v>1170</v>
       </c>
       <c r="AE25" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AF25" t="n">
         <v>1170</v>
       </c>
     </row>
@@ -3435,7 +3524,7 @@
         <v>10368</v>
       </c>
       <c r="Z26" t="n">
-        <v>2592</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
         <v>2592</v>
@@ -3450,6 +3539,9 @@
         <v>2592</v>
       </c>
       <c r="AE26" t="n">
+        <v>2592</v>
+      </c>
+      <c r="AF26" t="n">
         <v>2592</v>
       </c>
     </row>
@@ -3550,7 +3642,7 @@
         <v>102144</v>
       </c>
       <c r="Z27" t="n">
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>25536</v>
@@ -3565,6 +3657,9 @@
         <v>25536</v>
       </c>
       <c r="AE27" t="n">
+        <v>25536</v>
+      </c>
+      <c r="AF27" t="n">
         <v>25536</v>
       </c>
     </row>
@@ -3665,7 +3760,7 @@
         <v>4021.41</v>
       </c>
       <c r="Z28" t="n">
-        <v>8042.86</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
         <v>8042.86</v>
@@ -3677,9 +3772,12 @@
         <v>8042.86</v>
       </c>
       <c r="AD28" t="n">
+        <v>8042.86</v>
+      </c>
+      <c r="AE28" t="n">
         <v>4021.43</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
         <v>4021.43</v>
       </c>
     </row>
@@ -3780,7 +3878,7 @@
         <v>96000</v>
       </c>
       <c r="Z29" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
         <v>24000</v>
@@ -3795,6 +3893,9 @@
         <v>24000</v>
       </c>
       <c r="AE29" t="n">
+        <v>24000</v>
+      </c>
+      <c r="AF29" t="n">
         <v>24000</v>
       </c>
     </row>
@@ -3895,7 +3996,7 @@
         <v>19200</v>
       </c>
       <c r="Z30" t="n">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
         <v>4800</v>
@@ -3910,6 +4011,9 @@
         <v>4800</v>
       </c>
       <c r="AE30" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AF30" t="n">
         <v>4800</v>
       </c>
     </row>
@@ -4010,7 +4114,7 @@
         <v>11520</v>
       </c>
       <c r="Z31" t="n">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>2880</v>
@@ -4025,6 +4129,9 @@
         <v>2880</v>
       </c>
       <c r="AE31" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AF31" t="n">
         <v>2880</v>
       </c>
     </row>
@@ -4125,7 +4232,7 @@
         <v>51800</v>
       </c>
       <c r="Z32" t="n">
-        <v>51800</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>51800</v>
@@ -4140,6 +4247,9 @@
         <v>51800</v>
       </c>
       <c r="AE32" t="n">
+        <v>51800</v>
+      </c>
+      <c r="AF32" t="n">
         <v>51800</v>
       </c>
     </row>
@@ -4240,7 +4350,7 @@
         <v>5350</v>
       </c>
       <c r="Z33" t="n">
-        <v>1337.5</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
         <v>1337.5</v>
@@ -4255,6 +4365,9 @@
         <v>1337.5</v>
       </c>
       <c r="AE33" t="n">
+        <v>1337.5</v>
+      </c>
+      <c r="AF33" t="n">
         <v>1337.5</v>
       </c>
     </row>
@@ -4355,7 +4468,7 @@
         <v>1757.16</v>
       </c>
       <c r="Z34" t="n">
-        <v>1757.14</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
         <v>1757.14</v>
@@ -4370,6 +4483,9 @@
         <v>1757.14</v>
       </c>
       <c r="AE34" t="n">
+        <v>1757.14</v>
+      </c>
+      <c r="AF34" t="n">
         <v>1757.14</v>
       </c>
     </row>
@@ -4470,7 +4586,7 @@
         <v>38920</v>
       </c>
       <c r="Z35" t="n">
-        <v>9730</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
         <v>9730</v>
@@ -4485,6 +4601,9 @@
         <v>9730</v>
       </c>
       <c r="AE35" t="n">
+        <v>9730</v>
+      </c>
+      <c r="AF35" t="n">
         <v>9730</v>
       </c>
     </row>
@@ -4585,7 +4704,7 @@
         <v>7681.42</v>
       </c>
       <c r="Z36" t="n">
-        <v>7681.43</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
         <v>7681.43</v>
@@ -4600,6 +4719,9 @@
         <v>7681.43</v>
       </c>
       <c r="AE36" t="n">
+        <v>7681.43</v>
+      </c>
+      <c r="AF36" t="n">
         <v>7681.43</v>
       </c>
     </row>
@@ -4700,7 +4822,7 @@
         <v>-0.02</v>
       </c>
       <c r="Z37" t="n">
-        <v>15214.29</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
         <v>15214.29</v>
@@ -4712,9 +4834,12 @@
         <v>15214.29</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>15214.29</v>
       </c>
       <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4815,7 +4940,7 @@
         <v>28000</v>
       </c>
       <c r="Z38" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
         <v>28000</v>
@@ -4830,6 +4955,9 @@
         <v>28000</v>
       </c>
       <c r="AE38" t="n">
+        <v>28000</v>
+      </c>
+      <c r="AF38" t="n">
         <v>28000</v>
       </c>
     </row>
@@ -4930,7 +5058,7 @@
         <v>6000</v>
       </c>
       <c r="Z39" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
         <v>1500</v>
@@ -4945,6 +5073,9 @@
         <v>1500</v>
       </c>
       <c r="AE39" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AF39" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -5045,7 +5176,7 @@
         <v>2550</v>
       </c>
       <c r="Z40" t="n">
-        <v>637.5</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
         <v>637.5</v>
@@ -5060,6 +5191,9 @@
         <v>637.5</v>
       </c>
       <c r="AE40" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="AF40" t="n">
         <v>637.5</v>
       </c>
     </row>
@@ -5160,7 +5294,7 @@
         <v>2344</v>
       </c>
       <c r="Z41" t="n">
-        <v>2344</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>2344</v>
@@ -5175,6 +5309,9 @@
         <v>2344</v>
       </c>
       <c r="AE41" t="n">
+        <v>2344</v>
+      </c>
+      <c r="AF41" t="n">
         <v>2344</v>
       </c>
     </row>
@@ -5275,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
         <v>1290</v>
@@ -5287,9 +5424,12 @@
         <v>1290</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5390,7 +5530,7 @@
         <v>4689.32</v>
       </c>
       <c r="Z43" t="n">
-        <v>1172.34</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
         <v>1172.34</v>
@@ -5405,6 +5545,9 @@
         <v>1172.34</v>
       </c>
       <c r="AE43" t="n">
+        <v>1172.34</v>
+      </c>
+      <c r="AF43" t="n">
         <v>1172.34</v>
       </c>
     </row>
@@ -5505,7 +5648,7 @@
         <v>1172.36</v>
       </c>
       <c r="Z44" t="n">
-        <v>293.08</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
         <v>293.08</v>
@@ -5520,6 +5663,9 @@
         <v>293.08</v>
       </c>
       <c r="AE44" t="n">
+        <v>293.08</v>
+      </c>
+      <c r="AF44" t="n">
         <v>293.08</v>
       </c>
     </row>
@@ -5620,7 +5766,7 @@
         <v>1485.74</v>
       </c>
       <c r="Z45" t="n">
-        <v>1485.71</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
         <v>1485.71</v>
@@ -5635,6 +5781,9 @@
         <v>1485.71</v>
       </c>
       <c r="AE45" t="n">
+        <v>1485.71</v>
+      </c>
+      <c r="AF45" t="n">
         <v>1485.71</v>
       </c>
     </row>
@@ -5735,7 +5884,7 @@
         <v>11464.26</v>
       </c>
       <c r="Z46" t="n">
-        <v>11464.29</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
         <v>11464.29</v>
@@ -5750,6 +5899,9 @@
         <v>11464.29</v>
       </c>
       <c r="AE46" t="n">
+        <v>11464.29</v>
+      </c>
+      <c r="AF46" t="n">
         <v>11464.29</v>
       </c>
     </row>
@@ -5850,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
         <v>4821.5</v>
@@ -5862,9 +6014,12 @@
         <v>4821.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>4821.5</v>
       </c>
       <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5965,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
         <v>7732</v>
@@ -5977,9 +6132,12 @@
         <v>7732</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6080,7 +6238,7 @@
         <v>19448</v>
       </c>
       <c r="Z49" t="n">
-        <v>9724</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
         <v>9724</v>
@@ -6092,9 +6250,12 @@
         <v>9724</v>
       </c>
       <c r="AD49" t="n">
+        <v>9724</v>
+      </c>
+      <c r="AE49" t="n">
         <v>4862</v>
       </c>
-      <c r="AE49" t="n">
+      <c r="AF49" t="n">
         <v>4862</v>
       </c>
     </row>
@@ -6195,7 +6356,7 @@
         <v>0.01</v>
       </c>
       <c r="Z50" t="n">
-        <v>23857.14</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
         <v>23857.14</v>
@@ -6207,9 +6368,12 @@
         <v>23857.14</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>23857.14</v>
       </c>
       <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,7 +6474,7 @@
         <v>0.01</v>
       </c>
       <c r="Z51" t="n">
-        <v>55007.14</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="n">
         <v>55007.14</v>
@@ -6322,9 +6486,12 @@
         <v>55007.14</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>55007.14</v>
       </c>
       <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6425,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
         <v>11990</v>
@@ -6437,9 +6604,12 @@
         <v>11990</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>11990</v>
       </c>
       <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6540,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>5702.1</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
         <v>5702.1</v>
@@ -6552,9 +6722,12 @@
         <v>5702.1</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>5702.1</v>
       </c>
       <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6655,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>1378.98</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
         <v>1378.98</v>
@@ -6664,12 +6837,15 @@
         <v>1378.98</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1378.98</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
       </c>
       <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6770,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
         <v>655</v>
@@ -6779,12 +6955,15 @@
         <v>655</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
       </c>
       <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6885,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="n">
         <v>2737.9</v>
@@ -6894,12 +7073,15 @@
         <v>2737.9</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>2737.9</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
       </c>
       <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7000,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="n">
         <v>5740</v>
@@ -7009,12 +7191,15 @@
         <v>5740</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
       </c>
       <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7115,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
         <v>3622</v>
@@ -7124,12 +7309,15 @@
         <v>3622</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
       </c>
       <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7230,7 +7418,7 @@
         <v>16166.72</v>
       </c>
       <c r="Z59" t="n">
-        <v>10104.2</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
         <v>10104.2</v>
@@ -7239,12 +7427,15 @@
         <v>10104.2</v>
       </c>
       <c r="AC59" t="n">
-        <v>4041.68</v>
+        <v>10104.2</v>
       </c>
       <c r="AD59" t="n">
         <v>4041.68</v>
       </c>
       <c r="AE59" t="n">
+        <v>4041.68</v>
+      </c>
+      <c r="AF59" t="n">
         <v>4041.68</v>
       </c>
     </row>
@@ -7345,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>16640</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
         <v>16640</v>
@@ -7360,6 +7551,9 @@
         <v>16640</v>
       </c>
       <c r="AE60" t="n">
+        <v>16640</v>
+      </c>
+      <c r="AF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7460,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>29220</v>
+        <v>0</v>
       </c>
       <c r="AA61" t="n">
         <v>29220</v>
@@ -7475,6 +7669,9 @@
         <v>29220</v>
       </c>
       <c r="AE61" t="n">
+        <v>29220</v>
+      </c>
+      <c r="AF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7575,7 +7772,7 @@
         <v>2624</v>
       </c>
       <c r="Z62" t="n">
-        <v>2624</v>
+        <v>0</v>
       </c>
       <c r="AA62" t="n">
         <v>2624</v>
@@ -7590,6 +7787,9 @@
         <v>2624</v>
       </c>
       <c r="AE62" t="n">
+        <v>2624</v>
+      </c>
+      <c r="AF62" t="n">
         <v>2624</v>
       </c>
     </row>
@@ -7690,7 +7890,7 @@
         <v>6828.88</v>
       </c>
       <c r="Z63" t="n">
-        <v>1707.21</v>
+        <v>0</v>
       </c>
       <c r="AA63" t="n">
         <v>1707.21</v>
@@ -7705,6 +7905,9 @@
         <v>1707.21</v>
       </c>
       <c r="AE63" t="n">
+        <v>1707.21</v>
+      </c>
+      <c r="AF63" t="n">
         <v>1707.21</v>
       </c>
     </row>
@@ -7805,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
         <v>9000</v>
@@ -7814,12 +8017,15 @@
         <v>9000</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
       </c>
       <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7920,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="Z65" t="n">
-        <v>39520</v>
+        <v>0</v>
       </c>
       <c r="AA65" t="n">
         <v>39520</v>
@@ -7935,6 +8141,9 @@
         <v>39520</v>
       </c>
       <c r="AE65" t="n">
+        <v>39520</v>
+      </c>
+      <c r="AF65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8035,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>11540</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
         <v>11540</v>
@@ -8050,6 +8259,9 @@
         <v>11540</v>
       </c>
       <c r="AE66" t="n">
+        <v>11540</v>
+      </c>
+      <c r="AF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8150,7 +8362,7 @@
         <v>22000</v>
       </c>
       <c r="Z67" t="n">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
         <v>5500</v>
@@ -8165,6 +8377,9 @@
         <v>5500</v>
       </c>
       <c r="AE67" t="n">
+        <v>5500</v>
+      </c>
+      <c r="AF67" t="n">
         <v>5500</v>
       </c>
     </row>
@@ -8265,7 +8480,7 @@
         <v>10000</v>
       </c>
       <c r="Z68" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
         <v>2500</v>
@@ -8280,6 +8495,9 @@
         <v>2500</v>
       </c>
       <c r="AE68" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AF68" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -8380,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
         <v>4698</v>
@@ -8389,12 +8607,15 @@
         <v>4698</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="AD69" t="n">
         <v>0</v>
       </c>
       <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8495,7 +8716,7 @@
         <v>2932</v>
       </c>
       <c r="Z70" t="n">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
         <v>733</v>
@@ -8510,6 +8731,9 @@
         <v>733</v>
       </c>
       <c r="AE70" t="n">
+        <v>733</v>
+      </c>
+      <c r="AF70" t="n">
         <v>733</v>
       </c>
     </row>
@@ -8610,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="AA71" t="n">
         <v>9200</v>
@@ -8625,6 +8849,9 @@
         <v>9200</v>
       </c>
       <c r="AE71" t="n">
+        <v>9200</v>
+      </c>
+      <c r="AF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8725,7 +8952,7 @@
         <v>3800</v>
       </c>
       <c r="Z72" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="AA72" t="n">
         <v>950</v>
@@ -8740,6 +8967,9 @@
         <v>950</v>
       </c>
       <c r="AE72" t="n">
+        <v>950</v>
+      </c>
+      <c r="AF72" t="n">
         <v>950</v>
       </c>
     </row>
@@ -8840,7 +9070,7 @@
         <v>6720</v>
       </c>
       <c r="Z73" t="n">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="AA73" t="n">
         <v>1680</v>
@@ -8855,6 +9085,9 @@
         <v>1680</v>
       </c>
       <c r="AE73" t="n">
+        <v>1680</v>
+      </c>
+      <c r="AF73" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -8955,7 +9188,7 @@
         <v>5100</v>
       </c>
       <c r="Z74" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="AA74" t="n">
         <v>1275</v>
@@ -8970,6 +9203,9 @@
         <v>1275</v>
       </c>
       <c r="AE74" t="n">
+        <v>1275</v>
+      </c>
+      <c r="AF74" t="n">
         <v>1275</v>
       </c>
     </row>
@@ -9070,7 +9306,7 @@
         <v>12600</v>
       </c>
       <c r="Z75" t="n">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="AA75" t="n">
         <v>3150</v>
@@ -9085,6 +9321,9 @@
         <v>3150</v>
       </c>
       <c r="AE75" t="n">
+        <v>3150</v>
+      </c>
+      <c r="AF75" t="n">
         <v>3150</v>
       </c>
     </row>
@@ -9185,7 +9424,7 @@
         <v>2951.74</v>
       </c>
       <c r="Z76" t="n">
-        <v>2951.71</v>
+        <v>0</v>
       </c>
       <c r="AA76" t="n">
         <v>2951.71</v>
@@ -9200,6 +9439,9 @@
         <v>2951.71</v>
       </c>
       <c r="AE76" t="n">
+        <v>2951.71</v>
+      </c>
+      <c r="AF76" t="n">
         <v>2951.71</v>
       </c>
     </row>
@@ -9300,7 +9542,7 @@
         <v>6785.2</v>
       </c>
       <c r="Z77" t="n">
-        <v>1696.3</v>
+        <v>0</v>
       </c>
       <c r="AA77" t="n">
         <v>1696.3</v>
@@ -9315,6 +9557,9 @@
         <v>1696.3</v>
       </c>
       <c r="AE77" t="n">
+        <v>1696.3</v>
+      </c>
+      <c r="AF77" t="n">
         <v>1696.3</v>
       </c>
     </row>
@@ -9415,7 +9660,7 @@
         <v>4800</v>
       </c>
       <c r="Z78" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="AA78" t="n">
         <v>1200</v>
@@ -9430,6 +9675,9 @@
         <v>1200</v>
       </c>
       <c r="AE78" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AF78" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -9530,7 +9778,7 @@
         <v>2000</v>
       </c>
       <c r="Z79" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AA79" t="n">
         <v>500</v>
@@ -9545,6 +9793,9 @@
         <v>500</v>
       </c>
       <c r="AE79" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF79" t="n">
         <v>500</v>
       </c>
     </row>
@@ -9645,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="Z80" t="n">
-        <v>12733</v>
+        <v>0</v>
       </c>
       <c r="AA80" t="n">
         <v>12733</v>
@@ -9660,6 +9911,9 @@
         <v>12733</v>
       </c>
       <c r="AE80" t="n">
+        <v>12733</v>
+      </c>
+      <c r="AF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9760,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="Z81" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="AA81" t="n">
         <v>749</v>
@@ -9775,6 +10029,9 @@
         <v>749</v>
       </c>
       <c r="AE81" t="n">
+        <v>749</v>
+      </c>
+      <c r="AF81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9875,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>3745</v>
+        <v>0</v>
       </c>
       <c r="AA82" t="n">
         <v>3745</v>
@@ -9890,6 +10147,9 @@
         <v>3745</v>
       </c>
       <c r="AE82" t="n">
+        <v>3745</v>
+      </c>
+      <c r="AF82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9990,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="Z83" t="n">
-        <v>5778</v>
+        <v>0</v>
       </c>
       <c r="AA83" t="n">
         <v>5778</v>
@@ -10005,6 +10265,9 @@
         <v>5778</v>
       </c>
       <c r="AE83" t="n">
+        <v>5778</v>
+      </c>
+      <c r="AF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10105,7 +10368,7 @@
         <v>5625.74</v>
       </c>
       <c r="Z84" t="n">
-        <v>5625.71</v>
+        <v>0</v>
       </c>
       <c r="AA84" t="n">
         <v>5625.71</v>
@@ -10120,6 +10383,9 @@
         <v>5625.71</v>
       </c>
       <c r="AE84" t="n">
+        <v>5625.71</v>
+      </c>
+      <c r="AF84" t="n">
         <v>5625.71</v>
       </c>
     </row>
@@ -10220,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>3038.8</v>
+        <v>0</v>
       </c>
       <c r="AA85" t="n">
         <v>3038.8</v>
@@ -10235,6 +10501,9 @@
         <v>3038.8</v>
       </c>
       <c r="AE85" t="n">
+        <v>3038.8</v>
+      </c>
+      <c r="AF85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10335,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Z86" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="AA86" t="n">
         <v>1070</v>
@@ -10350,6 +10619,9 @@
         <v>1070</v>
       </c>
       <c r="AE86" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AF86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10450,7 +10722,7 @@
         <v>8928.58</v>
       </c>
       <c r="Z87" t="n">
-        <v>8928.57</v>
+        <v>0</v>
       </c>
       <c r="AA87" t="n">
         <v>8928.57</v>
@@ -10465,6 +10737,9 @@
         <v>8928.57</v>
       </c>
       <c r="AE87" t="n">
+        <v>8928.57</v>
+      </c>
+      <c r="AF87" t="n">
         <v>8928.57</v>
       </c>
     </row>
@@ -10565,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="Z88" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="AA88" t="n">
         <v>2461</v>
@@ -10580,6 +10855,9 @@
         <v>2461</v>
       </c>
       <c r="AE88" t="n">
+        <v>2461</v>
+      </c>
+      <c r="AF88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10680,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="Z89" t="n">
-        <v>34411.2</v>
+        <v>0</v>
       </c>
       <c r="AA89" t="n">
         <v>34411.2</v>
@@ -10695,6 +10973,9 @@
         <v>34411.2</v>
       </c>
       <c r="AE89" t="n">
+        <v>34411.2</v>
+      </c>
+      <c r="AF89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10795,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="Z90" t="n">
-        <v>1112.8</v>
+        <v>0</v>
       </c>
       <c r="AA90" t="n">
         <v>1112.8</v>
@@ -10810,6 +11091,9 @@
         <v>1112.8</v>
       </c>
       <c r="AE90" t="n">
+        <v>1112.8</v>
+      </c>
+      <c r="AF90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10910,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="Z91" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="AA91" t="n">
         <v>31116.8</v>
@@ -10919,12 +11203,15 @@
         <v>31116.8</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>31116.8</v>
       </c>
       <c r="AD91" t="n">
         <v>0</v>
       </c>
       <c r="AE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11025,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="Z92" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="AA92" t="n">
         <v>6048</v>
@@ -11034,12 +11321,15 @@
         <v>6048</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>6048</v>
       </c>
       <c r="AD92" t="n">
         <v>0</v>
       </c>
       <c r="AE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11140,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="Z93" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AA93" t="n">
         <v>1400</v>
@@ -11149,12 +11439,15 @@
         <v>1400</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AD93" t="n">
         <v>0</v>
       </c>
       <c r="AE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11255,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="Z94" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="AA94" t="n">
         <v>48224</v>
@@ -11264,12 +11557,15 @@
         <v>48224</v>
       </c>
       <c r="AC94" t="n">
-        <v>0</v>
+        <v>48224</v>
       </c>
       <c r="AD94" t="n">
         <v>0</v>
       </c>
       <c r="AE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11370,7 +11666,7 @@
         <v>14000</v>
       </c>
       <c r="Z95" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="AA95" t="n">
         <v>3500</v>
@@ -11385,6 +11681,9 @@
         <v>3500</v>
       </c>
       <c r="AE95" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AF95" t="n">
         <v>3500</v>
       </c>
     </row>
@@ -11485,7 +11784,7 @@
         <v>5242.84</v>
       </c>
       <c r="Z96" t="n">
-        <v>5242.86</v>
+        <v>0</v>
       </c>
       <c r="AA96" t="n">
         <v>5242.86</v>
@@ -11500,6 +11799,9 @@
         <v>5242.86</v>
       </c>
       <c r="AE96" t="n">
+        <v>5242.86</v>
+      </c>
+      <c r="AF96" t="n">
         <v>5242.86</v>
       </c>
     </row>
@@ -11600,7 +11902,7 @@
         <v>30590.84</v>
       </c>
       <c r="Z97" t="n">
-        <v>30590.86</v>
+        <v>0</v>
       </c>
       <c r="AA97" t="n">
         <v>30590.86</v>
@@ -11615,6 +11917,9 @@
         <v>30590.86</v>
       </c>
       <c r="AE97" t="n">
+        <v>30590.86</v>
+      </c>
+      <c r="AF97" t="n">
         <v>30590.86</v>
       </c>
     </row>
@@ -11715,7 +12020,7 @@
         <v>3710586</v>
       </c>
       <c r="Z98" t="n">
-        <v>927646.5</v>
+        <v>0</v>
       </c>
       <c r="AA98" t="n">
         <v>927646.5</v>
@@ -11730,6 +12035,9 @@
         <v>927646.5</v>
       </c>
       <c r="AE98" t="n">
+        <v>927646.5</v>
+      </c>
+      <c r="AF98" t="n">
         <v>927646.5</v>
       </c>
     </row>
@@ -11830,7 +12138,7 @@
         <v>3618760</v>
       </c>
       <c r="Z99" t="n">
-        <v>904690</v>
+        <v>0</v>
       </c>
       <c r="AA99" t="n">
         <v>904690</v>
@@ -11845,6 +12153,9 @@
         <v>904690</v>
       </c>
       <c r="AE99" t="n">
+        <v>904690</v>
+      </c>
+      <c r="AF99" t="n">
         <v>904690</v>
       </c>
     </row>
@@ -11945,7 +12256,7 @@
         <v>6114.42</v>
       </c>
       <c r="Z100" t="n">
-        <v>6114.43</v>
+        <v>0</v>
       </c>
       <c r="AA100" t="n">
         <v>6114.43</v>
@@ -11960,6 +12271,9 @@
         <v>6114.43</v>
       </c>
       <c r="AE100" t="n">
+        <v>6114.43</v>
+      </c>
+      <c r="AF100" t="n">
         <v>6114.43</v>
       </c>
     </row>
@@ -12060,7 +12374,7 @@
         <v>2871.42</v>
       </c>
       <c r="Z101" t="n">
-        <v>2871.43</v>
+        <v>0</v>
       </c>
       <c r="AA101" t="n">
         <v>2871.43</v>
@@ -12075,6 +12389,9 @@
         <v>2871.43</v>
       </c>
       <c r="AE101" t="n">
+        <v>2871.43</v>
+      </c>
+      <c r="AF101" t="n">
         <v>2871.43</v>
       </c>
     </row>
@@ -12175,7 +12492,7 @@
         <v>617.16</v>
       </c>
       <c r="Z102" t="n">
-        <v>617.14</v>
+        <v>0</v>
       </c>
       <c r="AA102" t="n">
         <v>617.14</v>
@@ -12190,6 +12507,9 @@
         <v>617.14</v>
       </c>
       <c r="AE102" t="n">
+        <v>617.14</v>
+      </c>
+      <c r="AF102" t="n">
         <v>617.14</v>
       </c>
     </row>
@@ -12290,7 +12610,7 @@
         <v>-0.01</v>
       </c>
       <c r="Z103" t="n">
-        <v>26626.29</v>
+        <v>0</v>
       </c>
       <c r="AA103" t="n">
         <v>26626.29</v>
@@ -12299,12 +12619,15 @@
         <v>26626.29</v>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>26626.29</v>
       </c>
       <c r="AD103" t="n">
         <v>0</v>
       </c>
       <c r="AE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12405,7 +12728,7 @@
         <v>1414.26</v>
       </c>
       <c r="Z104" t="n">
-        <v>1414.29</v>
+        <v>0</v>
       </c>
       <c r="AA104" t="n">
         <v>1414.29</v>
@@ -12420,6 +12743,9 @@
         <v>1414.29</v>
       </c>
       <c r="AE104" t="n">
+        <v>1414.29</v>
+      </c>
+      <c r="AF104" t="n">
         <v>1414.29</v>
       </c>
     </row>
@@ -12520,7 +12846,7 @@
         <v>8257.16</v>
       </c>
       <c r="Z105" t="n">
-        <v>8257.139999999999</v>
+        <v>0</v>
       </c>
       <c r="AA105" t="n">
         <v>8257.139999999999</v>
@@ -12535,6 +12861,9 @@
         <v>8257.139999999999</v>
       </c>
       <c r="AE105" t="n">
+        <v>8257.139999999999</v>
+      </c>
+      <c r="AF105" t="n">
         <v>8257.139999999999</v>
       </c>
     </row>
@@ -12635,7 +12964,7 @@
         <v>-0.01</v>
       </c>
       <c r="Z106" t="n">
-        <v>53439.29</v>
+        <v>0</v>
       </c>
       <c r="AA106" t="n">
         <v>53439.29</v>
@@ -12644,12 +12973,15 @@
         <v>53439.29</v>
       </c>
       <c r="AC106" t="n">
-        <v>0</v>
+        <v>53439.29</v>
       </c>
       <c r="AD106" t="n">
         <v>0</v>
       </c>
       <c r="AE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12750,7 +13082,7 @@
         <v>26133.84</v>
       </c>
       <c r="Z107" t="n">
-        <v>26133.86</v>
+        <v>0</v>
       </c>
       <c r="AA107" t="n">
         <v>26133.86</v>
@@ -12765,6 +13097,9 @@
         <v>26133.86</v>
       </c>
       <c r="AE107" t="n">
+        <v>26133.86</v>
+      </c>
+      <c r="AF107" t="n">
         <v>26133.86</v>
       </c>
     </row>
@@ -12865,7 +13200,7 @@
         <v>1306.58</v>
       </c>
       <c r="Z108" t="n">
-        <v>1306.57</v>
+        <v>0</v>
       </c>
       <c r="AA108" t="n">
         <v>1306.57</v>
@@ -12880,6 +13215,9 @@
         <v>1306.57</v>
       </c>
       <c r="AE108" t="n">
+        <v>1306.57</v>
+      </c>
+      <c r="AF108" t="n">
         <v>1306.57</v>
       </c>
     </row>
@@ -12980,7 +13318,7 @@
         <v>10394.26</v>
       </c>
       <c r="Z109" t="n">
-        <v>10394.29</v>
+        <v>0</v>
       </c>
       <c r="AA109" t="n">
         <v>10394.29</v>
@@ -12995,6 +13333,9 @@
         <v>10394.29</v>
       </c>
       <c r="AE109" t="n">
+        <v>10394.29</v>
+      </c>
+      <c r="AF109" t="n">
         <v>10394.29</v>
       </c>
     </row>
@@ -13095,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="Z110" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="AA110" t="n">
         <v>6844.8</v>
@@ -13104,12 +13445,15 @@
         <v>6844.8</v>
       </c>
       <c r="AC110" t="n">
-        <v>0</v>
+        <v>6844.8</v>
       </c>
       <c r="AD110" t="n">
         <v>0</v>
       </c>
       <c r="AE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13213,18 +13557,21 @@
         <v>0</v>
       </c>
       <c r="AA111" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="AB111" t="n">
         <v>3591</v>
       </c>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="AD111" t="n">
         <v>0</v>
       </c>
       <c r="AE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13328,18 +13675,21 @@
         <v>0</v>
       </c>
       <c r="AA112" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AB112" t="n">
         <v>2250</v>
       </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="AD112" t="n">
         <v>0</v>
       </c>
       <c r="AE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13443,18 +13793,21 @@
         <v>0</v>
       </c>
       <c r="AA113" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="AB113" t="n">
         <v>9800</v>
       </c>
       <c r="AC113" t="n">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="AD113" t="n">
         <v>0</v>
       </c>
       <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13558,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="AA114" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="AB114" t="n">
         <v>29400</v>
@@ -13570,6 +13923,9 @@
         <v>29400</v>
       </c>
       <c r="AE114" t="n">
+        <v>29400</v>
+      </c>
+      <c r="AF114" t="n">
         <v>29400</v>
       </c>
     </row>
@@ -13673,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AA115" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AB115" t="n">
         <v>1400</v>
@@ -13685,6 +14041,9 @@
         <v>1400</v>
       </c>
       <c r="AE115" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AF115" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -13788,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="AA116" t="n">
-        <v>7419.86</v>
+        <v>0</v>
       </c>
       <c r="AB116" t="n">
         <v>7419.86</v>
@@ -13800,6 +14159,9 @@
         <v>7419.86</v>
       </c>
       <c r="AE116" t="n">
+        <v>7419.86</v>
+      </c>
+      <c r="AF116" t="n">
         <v>7419.86</v>
       </c>
     </row>
@@ -13903,18 +14265,21 @@
         <v>0</v>
       </c>
       <c r="AA117" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AB117" t="n">
         <v>4887</v>
       </c>
       <c r="AC117" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="AD117" t="n">
         <v>0</v>
       </c>
       <c r="AE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14018,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="AA118" t="n">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="AB118" t="n">
         <v>2252</v>
@@ -14030,6 +14395,9 @@
         <v>2252</v>
       </c>
       <c r="AE118" t="n">
+        <v>2252</v>
+      </c>
+      <c r="AF118" t="n">
         <v>2252</v>
       </c>
     </row>
@@ -14133,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AA119" t="n">
-        <v>3557.14</v>
+        <v>0</v>
       </c>
       <c r="AB119" t="n">
         <v>3557.14</v>
@@ -14145,6 +14513,9 @@
         <v>3557.14</v>
       </c>
       <c r="AE119" t="n">
+        <v>3557.14</v>
+      </c>
+      <c r="AF119" t="n">
         <v>3557.14</v>
       </c>
     </row>
@@ -14248,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="AA120" t="n">
-        <v>6926.43</v>
+        <v>0</v>
       </c>
       <c r="AB120" t="n">
         <v>6926.43</v>
@@ -14260,6 +14631,9 @@
         <v>6926.43</v>
       </c>
       <c r="AE120" t="n">
+        <v>6926.43</v>
+      </c>
+      <c r="AF120" t="n">
         <v>6926.43</v>
       </c>
     </row>
@@ -14363,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="AA121" t="n">
-        <v>3317.2</v>
+        <v>0</v>
       </c>
       <c r="AB121" t="n">
         <v>3317.2</v>
@@ -14375,6 +14749,9 @@
         <v>3317.2</v>
       </c>
       <c r="AE121" t="n">
+        <v>3317.2</v>
+      </c>
+      <c r="AF121" t="n">
         <v>3317.2</v>
       </c>
     </row>
@@ -14478,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="AA122" t="n">
-        <v>17541.23</v>
+        <v>0</v>
       </c>
       <c r="AB122" t="n">
         <v>17541.23</v>
@@ -14490,6 +14867,9 @@
         <v>17541.23</v>
       </c>
       <c r="AE122" t="n">
+        <v>17541.23</v>
+      </c>
+      <c r="AF122" t="n">
         <v>17541.23</v>
       </c>
     </row>
@@ -14593,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="AA123" t="n">
-        <v>21222.73</v>
+        <v>0</v>
       </c>
       <c r="AB123" t="n">
         <v>21222.73</v>
@@ -14605,6 +14985,9 @@
         <v>21222.73</v>
       </c>
       <c r="AE123" t="n">
+        <v>21222.73</v>
+      </c>
+      <c r="AF123" t="n">
         <v>21222.73</v>
       </c>
     </row>
@@ -14708,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="AA124" t="n">
-        <v>8878.9</v>
+        <v>0</v>
       </c>
       <c r="AB124" t="n">
         <v>8878.9</v>
@@ -14720,6 +15103,9 @@
         <v>8878.9</v>
       </c>
       <c r="AE124" t="n">
+        <v>8878.9</v>
+      </c>
+      <c r="AF124" t="n">
         <v>8878.9</v>
       </c>
     </row>
@@ -14823,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="AA125" t="n">
-        <v>1450.94</v>
+        <v>0</v>
       </c>
       <c r="AB125" t="n">
         <v>1450.94</v>
@@ -14835,6 +15221,9 @@
         <v>1450.94</v>
       </c>
       <c r="AE125" t="n">
+        <v>1450.94</v>
+      </c>
+      <c r="AF125" t="n">
         <v>1450.94</v>
       </c>
     </row>
@@ -14938,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="AA126" t="n">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="AB126" t="n">
         <v>2900</v>
@@ -14950,6 +15339,9 @@
         <v>2900</v>
       </c>
       <c r="AE126" t="n">
+        <v>2900</v>
+      </c>
+      <c r="AF126" t="n">
         <v>2900</v>
       </c>
     </row>
@@ -15053,7 +15445,7 @@
         <v>0</v>
       </c>
       <c r="AA127" t="n">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AB127" t="n">
         <v>11700</v>
@@ -15065,6 +15457,9 @@
         <v>11700</v>
       </c>
       <c r="AE127" t="n">
+        <v>11700</v>
+      </c>
+      <c r="AF127" t="n">
         <v>11700</v>
       </c>
     </row>
@@ -15168,7 +15563,7 @@
         <v>0</v>
       </c>
       <c r="AA128" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="AB128" t="n">
         <v>1750</v>
@@ -15180,6 +15575,9 @@
         <v>1750</v>
       </c>
       <c r="AE128" t="n">
+        <v>1750</v>
+      </c>
+      <c r="AF128" t="n">
         <v>1750</v>
       </c>
     </row>
@@ -15286,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="AB129" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="AC129" t="n">
         <v>4088.4</v>
@@ -15295,6 +15693,9 @@
         <v>4088.4</v>
       </c>
       <c r="AE129" t="n">
+        <v>4088.4</v>
+      </c>
+      <c r="AF129" t="n">
         <v>4088.4</v>
       </c>
     </row>
@@ -15401,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="AB130" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="AC130" t="n">
         <v>11270.8</v>
@@ -15410,6 +15811,9 @@
         <v>11270.8</v>
       </c>
       <c r="AE130" t="n">
+        <v>11270.8</v>
+      </c>
+      <c r="AF130" t="n">
         <v>11270.8</v>
       </c>
     </row>
@@ -15516,7 +15920,7 @@
         <v>0</v>
       </c>
       <c r="AB131" t="n">
-        <v>8397.799999999999</v>
+        <v>0</v>
       </c>
       <c r="AC131" t="n">
         <v>8397.799999999999</v>
@@ -15525,6 +15929,9 @@
         <v>8397.799999999999</v>
       </c>
       <c r="AE131" t="n">
+        <v>8397.799999999999</v>
+      </c>
+      <c r="AF131" t="n">
         <v>8397.799999999999</v>
       </c>
     </row>
@@ -15631,7 +16038,7 @@
         <v>0</v>
       </c>
       <c r="AB132" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="AC132" t="n">
         <v>397.8</v>
@@ -15640,6 +16047,9 @@
         <v>397.8</v>
       </c>
       <c r="AE132" t="n">
+        <v>397.8</v>
+      </c>
+      <c r="AF132" t="n">
         <v>397.8</v>
       </c>
     </row>
@@ -15746,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="AB133" t="n">
-        <v>1296.43</v>
+        <v>0</v>
       </c>
       <c r="AC133" t="n">
         <v>1296.43</v>
@@ -15755,6 +16165,9 @@
         <v>1296.43</v>
       </c>
       <c r="AE133" t="n">
+        <v>1296.43</v>
+      </c>
+      <c r="AF133" t="n">
         <v>1296.43</v>
       </c>
     </row>
@@ -15861,7 +16274,7 @@
         <v>0</v>
       </c>
       <c r="AB134" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="AC134" t="n">
         <v>16280</v>
@@ -15870,6 +16283,9 @@
         <v>16280</v>
       </c>
       <c r="AE134" t="n">
+        <v>16280</v>
+      </c>
+      <c r="AF134" t="n">
         <v>16280</v>
       </c>
     </row>
@@ -15976,7 +16392,7 @@
         <v>0</v>
       </c>
       <c r="AB135" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="AC135" t="n">
         <v>4796</v>
@@ -15985,6 +16401,9 @@
         <v>4796</v>
       </c>
       <c r="AE135" t="n">
+        <v>4796</v>
+      </c>
+      <c r="AF135" t="n">
         <v>4796</v>
       </c>
     </row>
@@ -16091,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="AB136" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="AC136" t="n">
         <v>1980</v>
@@ -16100,6 +16519,9 @@
         <v>1980</v>
       </c>
       <c r="AE136" t="n">
+        <v>1980</v>
+      </c>
+      <c r="AF136" t="n">
         <v>1980</v>
       </c>
     </row>
@@ -16206,7 +16628,7 @@
         <v>0</v>
       </c>
       <c r="AB137" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="AC137" t="n">
         <v>26667</v>
@@ -16215,6 +16637,9 @@
         <v>26667</v>
       </c>
       <c r="AE137" t="n">
+        <v>26667</v>
+      </c>
+      <c r="AF137" t="n">
         <v>26667</v>
       </c>
     </row>
@@ -16321,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="AB138" t="n">
-        <v>1781.4</v>
+        <v>0</v>
       </c>
       <c r="AC138" t="n">
         <v>1781.4</v>
@@ -16330,6 +16755,9 @@
         <v>1781.4</v>
       </c>
       <c r="AE138" t="n">
+        <v>1781.4</v>
+      </c>
+      <c r="AF138" t="n">
         <v>1781.4</v>
       </c>
     </row>
@@ -16436,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="AB139" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="AC139" t="n">
         <v>11823.2</v>
@@ -16445,6 +16873,9 @@
         <v>11823.2</v>
       </c>
       <c r="AE139" t="n">
+        <v>11823.2</v>
+      </c>
+      <c r="AF139" t="n">
         <v>11823.2</v>
       </c>
     </row>
@@ -16551,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="AB140" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AC140" t="n">
         <v>450</v>
@@ -16560,6 +16991,9 @@
         <v>450</v>
       </c>
       <c r="AE140" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF140" t="n">
         <v>450</v>
       </c>
     </row>
@@ -16666,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="AB141" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="AC141" t="n">
         <v>55801</v>
@@ -16675,6 +17109,9 @@
         <v>55801</v>
       </c>
       <c r="AE141" t="n">
+        <v>55801</v>
+      </c>
+      <c r="AF141" t="n">
         <v>55801</v>
       </c>
     </row>
@@ -16781,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="AB142" t="n">
-        <v>26077.4</v>
+        <v>0</v>
       </c>
       <c r="AC142" t="n">
         <v>26077.4</v>
@@ -16790,6 +17227,9 @@
         <v>26077.4</v>
       </c>
       <c r="AE142" t="n">
+        <v>26077.4</v>
+      </c>
+      <c r="AF142" t="n">
         <v>26077.4</v>
       </c>
     </row>
@@ -16899,12 +17339,15 @@
         <v>0</v>
       </c>
       <c r="AC143" t="n">
-        <v>329650</v>
+        <v>0</v>
       </c>
       <c r="AD143" t="n">
         <v>329650</v>
       </c>
       <c r="AE143" t="n">
+        <v>329650</v>
+      </c>
+      <c r="AF143" t="n">
         <v>329650</v>
       </c>
     </row>
@@ -17014,12 +17457,15 @@
         <v>0</v>
       </c>
       <c r="AC144" t="n">
-        <v>3033.1</v>
+        <v>0</v>
       </c>
       <c r="AD144" t="n">
         <v>3033.1</v>
       </c>
       <c r="AE144" t="n">
+        <v>3033.1</v>
+      </c>
+      <c r="AF144" t="n">
         <v>3033.1</v>
       </c>
     </row>
@@ -17129,12 +17575,15 @@
         <v>0</v>
       </c>
       <c r="AC145" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="AD145" t="n">
         <v>23000</v>
       </c>
       <c r="AE145" t="n">
+        <v>23000</v>
+      </c>
+      <c r="AF145" t="n">
         <v>23000</v>
       </c>
     </row>
@@ -17244,12 +17693,15 @@
         <v>0</v>
       </c>
       <c r="AC146" t="n">
-        <v>16424.6</v>
+        <v>0</v>
       </c>
       <c r="AD146" t="n">
         <v>16424.6</v>
       </c>
       <c r="AE146" t="n">
+        <v>16424.6</v>
+      </c>
+      <c r="AF146" t="n">
         <v>16424.6</v>
       </c>
     </row>
@@ -17359,12 +17811,15 @@
         <v>0</v>
       </c>
       <c r="AC147" t="n">
-        <v>6480.46</v>
+        <v>0</v>
       </c>
       <c r="AD147" t="n">
         <v>6480.46</v>
       </c>
       <c r="AE147" t="n">
+        <v>6480.46</v>
+      </c>
+      <c r="AF147" t="n">
         <v>6480.46</v>
       </c>
     </row>
@@ -17474,12 +17929,15 @@
         <v>0</v>
       </c>
       <c r="AC148" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="AD148" t="n">
         <v>2145</v>
       </c>
       <c r="AE148" t="n">
+        <v>2145</v>
+      </c>
+      <c r="AF148" t="n">
         <v>2145</v>
       </c>
     </row>
@@ -17589,12 +18047,15 @@
         <v>0</v>
       </c>
       <c r="AC149" t="n">
-        <v>1948.5</v>
+        <v>0</v>
       </c>
       <c r="AD149" t="n">
         <v>1948.5</v>
       </c>
       <c r="AE149" t="n">
+        <v>1948.5</v>
+      </c>
+      <c r="AF149" t="n">
         <v>1948.5</v>
       </c>
     </row>
@@ -17704,12 +18165,15 @@
         <v>0</v>
       </c>
       <c r="AC150" t="n">
-        <v>642.86</v>
+        <v>0</v>
       </c>
       <c r="AD150" t="n">
         <v>642.86</v>
       </c>
       <c r="AE150" t="n">
+        <v>642.86</v>
+      </c>
+      <c r="AF150" t="n">
         <v>642.86</v>
       </c>
     </row>
@@ -17819,12 +18283,15 @@
         <v>0</v>
       </c>
       <c r="AC151" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AD151" t="n">
         <v>500</v>
       </c>
       <c r="AE151" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF151" t="n">
         <v>500</v>
       </c>
     </row>
@@ -17934,12 +18401,15 @@
         <v>0</v>
       </c>
       <c r="AC152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AD152" t="n">
         <v>500</v>
       </c>
       <c r="AE152" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF152" t="n">
         <v>500</v>
       </c>
     </row>
@@ -18049,12 +18519,15 @@
         <v>0</v>
       </c>
       <c r="AC153" t="n">
-        <v>3963</v>
+        <v>0</v>
       </c>
       <c r="AD153" t="n">
         <v>3963</v>
       </c>
       <c r="AE153" t="n">
+        <v>3963</v>
+      </c>
+      <c r="AF153" t="n">
         <v>3963</v>
       </c>
     </row>
@@ -18164,12 +18637,15 @@
         <v>0</v>
       </c>
       <c r="AC154" t="n">
-        <v>1319.38</v>
+        <v>0</v>
       </c>
       <c r="AD154" t="n">
         <v>1319.38</v>
       </c>
       <c r="AE154" t="n">
+        <v>1319.38</v>
+      </c>
+      <c r="AF154" t="n">
         <v>1319.38</v>
       </c>
     </row>
@@ -18279,12 +18755,15 @@
         <v>0</v>
       </c>
       <c r="AC155" t="n">
-        <v>198.96</v>
+        <v>0</v>
       </c>
       <c r="AD155" t="n">
         <v>198.96</v>
       </c>
       <c r="AE155" t="n">
+        <v>198.96</v>
+      </c>
+      <c r="AF155" t="n">
         <v>198.96</v>
       </c>
     </row>
@@ -18394,12 +18873,15 @@
         <v>0</v>
       </c>
       <c r="AC156" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="AD156" t="n">
         <v>12500</v>
       </c>
       <c r="AE156" t="n">
+        <v>12500</v>
+      </c>
+      <c r="AF156" t="n">
         <v>12500</v>
       </c>
     </row>
@@ -18509,12 +18991,15 @@
         <v>0</v>
       </c>
       <c r="AC157" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="AD157" t="n">
         <v>1925</v>
       </c>
       <c r="AE157" t="n">
+        <v>1925</v>
+      </c>
+      <c r="AF157" t="n">
         <v>1925</v>
       </c>
     </row>
@@ -18624,12 +19109,15 @@
         <v>0</v>
       </c>
       <c r="AC158" t="n">
-        <v>69.83</v>
+        <v>0</v>
       </c>
       <c r="AD158" t="n">
         <v>69.83</v>
       </c>
       <c r="AE158" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="AF158" t="n">
         <v>69.83</v>
       </c>
     </row>
@@ -18739,12 +19227,15 @@
         <v>0</v>
       </c>
       <c r="AC159" t="n">
-        <v>6215</v>
+        <v>0</v>
       </c>
       <c r="AD159" t="n">
         <v>6215</v>
       </c>
       <c r="AE159" t="n">
+        <v>6215</v>
+      </c>
+      <c r="AF159" t="n">
         <v>6215</v>
       </c>
     </row>
@@ -18854,12 +19345,15 @@
         <v>0</v>
       </c>
       <c r="AC160" t="n">
-        <v>273.75</v>
+        <v>0</v>
       </c>
       <c r="AD160" t="n">
         <v>273.75</v>
       </c>
       <c r="AE160" t="n">
+        <v>273.75</v>
+      </c>
+      <c r="AF160" t="n">
         <v>273.75</v>
       </c>
     </row>
@@ -18969,12 +19463,15 @@
         <v>0</v>
       </c>
       <c r="AC161" t="n">
-        <v>21924</v>
+        <v>0</v>
       </c>
       <c r="AD161" t="n">
         <v>21924</v>
       </c>
       <c r="AE161" t="n">
+        <v>21924</v>
+      </c>
+      <c r="AF161" t="n">
         <v>21924</v>
       </c>
     </row>
@@ -19084,12 +19581,15 @@
         <v>0</v>
       </c>
       <c r="AC162" t="n">
-        <v>2543.33</v>
+        <v>0</v>
       </c>
       <c r="AD162" t="n">
         <v>2543.33</v>
       </c>
       <c r="AE162" t="n">
+        <v>2543.33</v>
+      </c>
+      <c r="AF162" t="n">
         <v>2543.33</v>
       </c>
     </row>
@@ -19199,12 +19699,15 @@
         <v>0</v>
       </c>
       <c r="AC163" t="n">
-        <v>2333.33</v>
+        <v>0</v>
       </c>
       <c r="AD163" t="n">
         <v>2333.33</v>
       </c>
       <c r="AE163" t="n">
+        <v>2333.33</v>
+      </c>
+      <c r="AF163" t="n">
         <v>2333.33</v>
       </c>
     </row>
@@ -19314,12 +19817,15 @@
         <v>0</v>
       </c>
       <c r="AC164" t="n">
-        <v>2543.33</v>
+        <v>0</v>
       </c>
       <c r="AD164" t="n">
         <v>2543.33</v>
       </c>
       <c r="AE164" t="n">
+        <v>2543.33</v>
+      </c>
+      <c r="AF164" t="n">
         <v>2543.33</v>
       </c>
     </row>
@@ -19429,12 +19935,15 @@
         <v>0</v>
       </c>
       <c r="AC165" t="n">
-        <v>79.33</v>
+        <v>0</v>
       </c>
       <c r="AD165" t="n">
         <v>79.33</v>
       </c>
       <c r="AE165" t="n">
+        <v>79.33</v>
+      </c>
+      <c r="AF165" t="n">
         <v>79.33</v>
       </c>
     </row>
@@ -19544,12 +20053,15 @@
         <v>0</v>
       </c>
       <c r="AC166" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AD166" t="n">
         <v>500</v>
       </c>
       <c r="AE166" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF166" t="n">
         <v>500</v>
       </c>
     </row>
@@ -19659,12 +20171,15 @@
         <v>0</v>
       </c>
       <c r="AC167" t="n">
-        <v>2067</v>
+        <v>0</v>
       </c>
       <c r="AD167" t="n">
         <v>2067</v>
       </c>
       <c r="AE167" t="n">
+        <v>2067</v>
+      </c>
+      <c r="AF167" t="n">
         <v>2067</v>
       </c>
     </row>
@@ -19775,12 +20290,15 @@
         <v>0</v>
       </c>
       <c r="AC168" t="n">
-        <v>466.67</v>
+        <v>0</v>
       </c>
       <c r="AD168" t="n">
         <v>466.67</v>
       </c>
       <c r="AE168" t="n">
+        <v>466.67</v>
+      </c>
+      <c r="AF168" t="n">
         <v>466.67</v>
       </c>
     </row>
@@ -19890,12 +20408,15 @@
         <v>0</v>
       </c>
       <c r="AC169" t="n">
-        <v>3666.67</v>
+        <v>0</v>
       </c>
       <c r="AD169" t="n">
         <v>3666.67</v>
       </c>
       <c r="AE169" t="n">
+        <v>3666.67</v>
+      </c>
+      <c r="AF169" t="n">
         <v>3666.67</v>
       </c>
     </row>
@@ -20005,12 +20526,15 @@
         <v>0</v>
       </c>
       <c r="AC170" t="n">
-        <v>8933.33</v>
+        <v>0</v>
       </c>
       <c r="AD170" t="n">
         <v>8933.33</v>
       </c>
       <c r="AE170" t="n">
+        <v>8933.33</v>
+      </c>
+      <c r="AF170" t="n">
         <v>8933.33</v>
       </c>
     </row>
@@ -20120,12 +20644,15 @@
         <v>0</v>
       </c>
       <c r="AC171" t="n">
-        <v>2833.33</v>
+        <v>0</v>
       </c>
       <c r="AD171" t="n">
         <v>2833.33</v>
       </c>
       <c r="AE171" t="n">
+        <v>2833.33</v>
+      </c>
+      <c r="AF171" t="n">
         <v>2833.33</v>
       </c>
     </row>
@@ -20235,12 +20762,15 @@
         <v>0</v>
       </c>
       <c r="AC172" t="n">
-        <v>7350</v>
+        <v>0</v>
       </c>
       <c r="AD172" t="n">
         <v>7350</v>
       </c>
       <c r="AE172" t="n">
+        <v>7350</v>
+      </c>
+      <c r="AF172" t="n">
         <v>7350</v>
       </c>
     </row>
@@ -20350,12 +20880,15 @@
         <v>0</v>
       </c>
       <c r="AC173" t="n">
-        <v>10530</v>
+        <v>0</v>
       </c>
       <c r="AD173" t="n">
         <v>10530</v>
       </c>
       <c r="AE173" t="n">
+        <v>10530</v>
+      </c>
+      <c r="AF173" t="n">
         <v>10530</v>
       </c>
     </row>
@@ -20465,12 +20998,15 @@
         <v>0</v>
       </c>
       <c r="AC174" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="AD174" t="n">
         <v>359</v>
       </c>
       <c r="AE174" t="n">
+        <v>359</v>
+      </c>
+      <c r="AF174" t="n">
         <v>359</v>
       </c>
     </row>
@@ -20580,12 +21116,15 @@
         <v>0</v>
       </c>
       <c r="AC175" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
       <c r="AD175" t="n">
         <v>292.5</v>
       </c>
       <c r="AE175" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="AF175" t="n">
         <v>292.5</v>
       </c>
     </row>
@@ -20695,12 +21234,15 @@
         <v>0</v>
       </c>
       <c r="AC176" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AD176" t="n">
         <v>450</v>
       </c>
       <c r="AE176" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF176" t="n">
         <v>450</v>
       </c>
     </row>
@@ -20810,12 +21352,15 @@
         <v>0</v>
       </c>
       <c r="AC177" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AD177" t="n">
         <v>190</v>
       </c>
       <c r="AE177" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF177" t="n">
         <v>190</v>
       </c>
     </row>
@@ -20925,12 +21470,15 @@
         <v>0</v>
       </c>
       <c r="AC178" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AD178" t="n">
         <v>220</v>
       </c>
       <c r="AE178" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF178" t="n">
         <v>220</v>
       </c>
     </row>
@@ -21040,12 +21588,15 @@
         <v>0</v>
       </c>
       <c r="AC179" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AD179" t="n">
         <v>900</v>
       </c>
       <c r="AE179" t="n">
+        <v>900</v>
+      </c>
+      <c r="AF179" t="n">
         <v>900</v>
       </c>
     </row>
@@ -21155,12 +21706,15 @@
         <v>0</v>
       </c>
       <c r="AC180" t="n">
-        <v>958.5</v>
+        <v>0</v>
       </c>
       <c r="AD180" t="n">
         <v>958.5</v>
       </c>
       <c r="AE180" t="n">
+        <v>958.5</v>
+      </c>
+      <c r="AF180" t="n">
         <v>958.5</v>
       </c>
     </row>
@@ -21270,12 +21824,15 @@
         <v>0</v>
       </c>
       <c r="AC181" t="n">
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="AD181" t="n">
         <v>81.25</v>
       </c>
       <c r="AE181" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AF181" t="n">
         <v>81.25</v>
       </c>
     </row>
@@ -21385,12 +21942,15 @@
         <v>0</v>
       </c>
       <c r="AC182" t="n">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="AD182" t="n">
         <v>178.75</v>
       </c>
       <c r="AE182" t="n">
+        <v>178.75</v>
+      </c>
+      <c r="AF182" t="n">
         <v>178.75</v>
       </c>
     </row>
@@ -21501,12 +22061,15 @@
         <v>0</v>
       </c>
       <c r="AC183" t="n">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="AD183" t="n">
         <v>227.5</v>
       </c>
       <c r="AE183" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="AF183" t="n">
         <v>227.5</v>
       </c>
     </row>
@@ -21616,12 +22179,15 @@
         <v>0</v>
       </c>
       <c r="AC184" t="n">
-        <v>87.75</v>
+        <v>0</v>
       </c>
       <c r="AD184" t="n">
         <v>87.75</v>
       </c>
       <c r="AE184" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="AF184" t="n">
         <v>87.75</v>
       </c>
     </row>
@@ -21731,12 +22297,15 @@
         <v>0</v>
       </c>
       <c r="AC185" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD185" t="n">
         <v>350</v>
       </c>
       <c r="AE185" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF185" t="n">
         <v>350</v>
       </c>
     </row>
@@ -21846,12 +22415,15 @@
         <v>0</v>
       </c>
       <c r="AC186" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AD186" t="n">
         <v>21</v>
       </c>
       <c r="AE186" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF186" t="n">
         <v>21</v>
       </c>
     </row>
@@ -21961,12 +22533,15 @@
         <v>0</v>
       </c>
       <c r="AC187" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="AD187" t="n">
         <v>189</v>
       </c>
       <c r="AE187" t="n">
+        <v>189</v>
+      </c>
+      <c r="AF187" t="n">
         <v>189</v>
       </c>
     </row>
@@ -22076,12 +22651,15 @@
         <v>0</v>
       </c>
       <c r="AC188" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="AD188" t="n">
         <v>6250</v>
       </c>
       <c r="AE188" t="n">
+        <v>6250</v>
+      </c>
+      <c r="AF188" t="n">
         <v>6250</v>
       </c>
     </row>
@@ -22191,12 +22769,15 @@
         <v>0</v>
       </c>
       <c r="AC189" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="AD189" t="n">
         <v>1245</v>
       </c>
       <c r="AE189" t="n">
+        <v>1245</v>
+      </c>
+      <c r="AF189" t="n">
         <v>1245</v>
       </c>
     </row>
@@ -22306,12 +22887,15 @@
         <v>0</v>
       </c>
       <c r="AC190" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="AD190" t="n">
         <v>325</v>
       </c>
       <c r="AE190" t="n">
+        <v>325</v>
+      </c>
+      <c r="AF190" t="n">
         <v>325</v>
       </c>
     </row>
@@ -22421,12 +23005,15 @@
         <v>0</v>
       </c>
       <c r="AC191" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="AD191" t="n">
         <v>187.5</v>
       </c>
       <c r="AE191" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="AF191" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -22536,12 +23123,15 @@
         <v>0</v>
       </c>
       <c r="AC192" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="AD192" t="n">
         <v>740</v>
       </c>
       <c r="AE192" t="n">
+        <v>740</v>
+      </c>
+      <c r="AF192" t="n">
         <v>740</v>
       </c>
     </row>
@@ -22651,12 +23241,15 @@
         <v>0</v>
       </c>
       <c r="AC193" t="n">
-        <v>1993.33</v>
+        <v>0</v>
       </c>
       <c r="AD193" t="n">
         <v>1993.33</v>
       </c>
       <c r="AE193" t="n">
+        <v>1993.33</v>
+      </c>
+      <c r="AF193" t="n">
         <v>1993.33</v>
       </c>
     </row>
@@ -22766,12 +23359,15 @@
         <v>0</v>
       </c>
       <c r="AC194" t="n">
-        <v>416.67</v>
+        <v>0</v>
       </c>
       <c r="AD194" t="n">
         <v>416.67</v>
       </c>
       <c r="AE194" t="n">
+        <v>416.67</v>
+      </c>
+      <c r="AF194" t="n">
         <v>416.67</v>
       </c>
     </row>
@@ -22881,12 +23477,15 @@
         <v>0</v>
       </c>
       <c r="AC195" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="AD195" t="n">
         <v>810</v>
       </c>
       <c r="AE195" t="n">
+        <v>810</v>
+      </c>
+      <c r="AF195" t="n">
         <v>810</v>
       </c>
     </row>
@@ -22996,12 +23595,15 @@
         <v>0</v>
       </c>
       <c r="AC196" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AD196" t="n">
         <v>500</v>
       </c>
       <c r="AE196" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF196" t="n">
         <v>500</v>
       </c>
     </row>
@@ -23111,12 +23713,15 @@
         <v>0</v>
       </c>
       <c r="AC197" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD197" t="n">
         <v>175</v>
       </c>
       <c r="AE197" t="n">
+        <v>175</v>
+      </c>
+      <c r="AF197" t="n">
         <v>175</v>
       </c>
     </row>
@@ -23226,12 +23831,15 @@
         <v>0</v>
       </c>
       <c r="AC198" t="n">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="AD198" t="n">
         <v>1225</v>
       </c>
       <c r="AE198" t="n">
+        <v>1225</v>
+      </c>
+      <c r="AF198" t="n">
         <v>1225</v>
       </c>
     </row>
@@ -23341,12 +23949,15 @@
         <v>0</v>
       </c>
       <c r="AC199" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="AD199" t="n">
         <v>224</v>
       </c>
       <c r="AE199" t="n">
+        <v>224</v>
+      </c>
+      <c r="AF199" t="n">
         <v>224</v>
       </c>
     </row>
@@ -23456,12 +24067,15 @@
         <v>0</v>
       </c>
       <c r="AC200" t="n">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="AD200" t="n">
         <v>137.5</v>
       </c>
       <c r="AE200" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="AF200" t="n">
         <v>137.5</v>
       </c>
     </row>
@@ -23571,12 +24185,15 @@
         <v>0</v>
       </c>
       <c r="AC201" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="AD201" t="n">
         <v>875</v>
       </c>
       <c r="AE201" t="n">
+        <v>875</v>
+      </c>
+      <c r="AF201" t="n">
         <v>875</v>
       </c>
     </row>
@@ -23686,12 +24303,15 @@
         <v>0</v>
       </c>
       <c r="AC202" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD202" t="n">
         <v>140</v>
       </c>
       <c r="AE202" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF202" t="n">
         <v>140</v>
       </c>
     </row>
@@ -23801,12 +24421,15 @@
         <v>0</v>
       </c>
       <c r="AC203" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="AD203" t="n">
         <v>5740</v>
       </c>
       <c r="AE203" t="n">
+        <v>5740</v>
+      </c>
+      <c r="AF203" t="n">
         <v>5740</v>
       </c>
     </row>
@@ -23916,12 +24539,15 @@
         <v>0</v>
       </c>
       <c r="AC204" t="n">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="AD204" t="n">
         <v>13100</v>
       </c>
       <c r="AE204" t="n">
+        <v>13100</v>
+      </c>
+      <c r="AF204" t="n">
         <v>13100</v>
       </c>
     </row>
@@ -24031,12 +24657,15 @@
         <v>0</v>
       </c>
       <c r="AC205" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="AD205" t="n">
         <v>104</v>
       </c>
       <c r="AE205" t="n">
+        <v>104</v>
+      </c>
+      <c r="AF205" t="n">
         <v>104</v>
       </c>
     </row>
@@ -24146,12 +24775,15 @@
         <v>0</v>
       </c>
       <c r="AC206" t="n">
-        <v>1489.33</v>
+        <v>0</v>
       </c>
       <c r="AD206" t="n">
         <v>1489.33</v>
       </c>
       <c r="AE206" t="n">
+        <v>1489.33</v>
+      </c>
+      <c r="AF206" t="n">
         <v>1489.33</v>
       </c>
     </row>
@@ -24261,12 +24893,15 @@
         <v>0</v>
       </c>
       <c r="AC207" t="n">
-        <v>3490.67</v>
+        <v>0</v>
       </c>
       <c r="AD207" t="n">
         <v>3490.67</v>
       </c>
       <c r="AE207" t="n">
+        <v>3490.67</v>
+      </c>
+      <c r="AF207" t="n">
         <v>3490.67</v>
       </c>
     </row>
@@ -24376,12 +25011,15 @@
         <v>0</v>
       </c>
       <c r="AC208" t="n">
-        <v>791.67</v>
+        <v>0</v>
       </c>
       <c r="AD208" t="n">
         <v>791.67</v>
       </c>
       <c r="AE208" t="n">
+        <v>791.67</v>
+      </c>
+      <c r="AF208" t="n">
         <v>791.67</v>
       </c>
     </row>
@@ -24491,12 +25129,15 @@
         <v>0</v>
       </c>
       <c r="AC209" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="AD209" t="n">
         <v>1045</v>
       </c>
       <c r="AE209" t="n">
+        <v>1045</v>
+      </c>
+      <c r="AF209" t="n">
         <v>1045</v>
       </c>
     </row>
@@ -24606,12 +25247,15 @@
         <v>0</v>
       </c>
       <c r="AC210" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD210" t="n">
         <v>200</v>
       </c>
       <c r="AE210" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF210" t="n">
         <v>200</v>
       </c>
     </row>
@@ -24721,12 +25365,15 @@
         <v>0</v>
       </c>
       <c r="AC211" t="n">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="AD211" t="n">
         <v>402</v>
       </c>
       <c r="AE211" t="n">
+        <v>402</v>
+      </c>
+      <c r="AF211" t="n">
         <v>402</v>
       </c>
     </row>
@@ -24836,12 +25483,15 @@
         <v>0</v>
       </c>
       <c r="AC212" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="AD212" t="n">
         <v>550</v>
       </c>
       <c r="AE212" t="n">
+        <v>550</v>
+      </c>
+      <c r="AF212" t="n">
         <v>550</v>
       </c>
     </row>
@@ -24951,12 +25601,15 @@
         <v>0</v>
       </c>
       <c r="AC213" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AD213" t="n">
         <v>130</v>
       </c>
       <c r="AE213" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF213" t="n">
         <v>130</v>
       </c>
     </row>
@@ -25066,12 +25719,15 @@
         <v>0</v>
       </c>
       <c r="AC214" t="n">
-        <v>1546.67</v>
+        <v>0</v>
       </c>
       <c r="AD214" t="n">
         <v>1546.67</v>
       </c>
       <c r="AE214" t="n">
+        <v>1546.67</v>
+      </c>
+      <c r="AF214" t="n">
         <v>1546.67</v>
       </c>
     </row>
@@ -25181,12 +25837,15 @@
         <v>0</v>
       </c>
       <c r="AC215" t="n">
-        <v>233.33</v>
+        <v>0</v>
       </c>
       <c r="AD215" t="n">
         <v>233.33</v>
       </c>
       <c r="AE215" t="n">
+        <v>233.33</v>
+      </c>
+      <c r="AF215" t="n">
         <v>233.33</v>
       </c>
     </row>
@@ -25296,12 +25955,15 @@
         <v>0</v>
       </c>
       <c r="AC216" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="AD216" t="n">
         <v>5250</v>
       </c>
       <c r="AE216" t="n">
+        <v>5250</v>
+      </c>
+      <c r="AF216" t="n">
         <v>5250</v>
       </c>
     </row>
@@ -25411,12 +26073,15 @@
         <v>0</v>
       </c>
       <c r="AC217" t="n">
-        <v>11666.67</v>
+        <v>0</v>
       </c>
       <c r="AD217" t="n">
         <v>11666.67</v>
       </c>
       <c r="AE217" t="n">
+        <v>11666.67</v>
+      </c>
+      <c r="AF217" t="n">
         <v>11666.67</v>
       </c>
     </row>
@@ -25526,12 +26191,15 @@
         <v>0</v>
       </c>
       <c r="AC218" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="AD218" t="n">
         <v>6500</v>
       </c>
       <c r="AE218" t="n">
+        <v>6500</v>
+      </c>
+      <c r="AF218" t="n">
         <v>6500</v>
       </c>
     </row>
@@ -25641,12 +26309,15 @@
         <v>0</v>
       </c>
       <c r="AC219" t="n">
-        <v>2033.33</v>
+        <v>0</v>
       </c>
       <c r="AD219" t="n">
         <v>2033.33</v>
       </c>
       <c r="AE219" t="n">
+        <v>2033.33</v>
+      </c>
+      <c r="AF219" t="n">
         <v>2033.33</v>
       </c>
     </row>
@@ -25756,12 +26427,15 @@
         <v>0</v>
       </c>
       <c r="AC220" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD220" t="n">
         <v>1000</v>
       </c>
       <c r="AE220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF220" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -25871,12 +26545,15 @@
         <v>0</v>
       </c>
       <c r="AC221" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="AD221" t="n">
         <v>855</v>
       </c>
       <c r="AE221" t="n">
+        <v>855</v>
+      </c>
+      <c r="AF221" t="n">
         <v>855</v>
       </c>
     </row>
@@ -25986,12 +26663,15 @@
         <v>0</v>
       </c>
       <c r="AC222" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="AD222" t="n">
         <v>2925</v>
       </c>
       <c r="AE222" t="n">
+        <v>2925</v>
+      </c>
+      <c r="AF222" t="n">
         <v>2925</v>
       </c>
     </row>
@@ -26101,12 +26781,15 @@
         <v>0</v>
       </c>
       <c r="AC223" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="AD223" t="n">
         <v>2040</v>
       </c>
       <c r="AE223" t="n">
+        <v>2040</v>
+      </c>
+      <c r="AF223" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -26216,12 +26899,15 @@
         <v>0</v>
       </c>
       <c r="AC224" t="n">
-        <v>276.25</v>
+        <v>0</v>
       </c>
       <c r="AD224" t="n">
         <v>276.25</v>
       </c>
       <c r="AE224" t="n">
+        <v>276.25</v>
+      </c>
+      <c r="AF224" t="n">
         <v>276.25</v>
       </c>
     </row>
@@ -26331,12 +27017,15 @@
         <v>0</v>
       </c>
       <c r="AC225" t="n">
-        <v>5425</v>
+        <v>0</v>
       </c>
       <c r="AD225" t="n">
         <v>5425</v>
       </c>
       <c r="AE225" t="n">
+        <v>5425</v>
+      </c>
+      <c r="AF225" t="n">
         <v>5425</v>
       </c>
     </row>
@@ -26446,12 +27135,15 @@
         <v>0</v>
       </c>
       <c r="AC226" t="n">
-        <v>7133.33</v>
+        <v>0</v>
       </c>
       <c r="AD226" t="n">
         <v>7133.33</v>
       </c>
       <c r="AE226" t="n">
+        <v>7133.33</v>
+      </c>
+      <c r="AF226" t="n">
         <v>7133.33</v>
       </c>
     </row>
@@ -26561,12 +27253,15 @@
         <v>0</v>
       </c>
       <c r="AC227" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="AD227" t="n">
         <v>1105</v>
       </c>
       <c r="AE227" t="n">
+        <v>1105</v>
+      </c>
+      <c r="AF227" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -26676,12 +27371,15 @@
         <v>0</v>
       </c>
       <c r="AC228" t="n">
-        <v>1466.67</v>
+        <v>0</v>
       </c>
       <c r="AD228" t="n">
         <v>1466.67</v>
       </c>
       <c r="AE228" t="n">
+        <v>1466.67</v>
+      </c>
+      <c r="AF228" t="n">
         <v>1466.67</v>
       </c>
     </row>
@@ -26791,12 +27489,15 @@
         <v>0</v>
       </c>
       <c r="AC229" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AD229" t="n">
         <v>980</v>
       </c>
       <c r="AE229" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF229" t="n">
         <v>980</v>
       </c>
     </row>
@@ -26906,12 +27607,15 @@
         <v>0</v>
       </c>
       <c r="AC230" t="n">
-        <v>47.67</v>
+        <v>0</v>
       </c>
       <c r="AD230" t="n">
         <v>47.67</v>
       </c>
       <c r="AE230" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="AF230" t="n">
         <v>47.67</v>
       </c>
     </row>
@@ -27021,12 +27725,15 @@
         <v>0</v>
       </c>
       <c r="AC231" t="n">
-        <v>259.67</v>
+        <v>0</v>
       </c>
       <c r="AD231" t="n">
         <v>259.67</v>
       </c>
       <c r="AE231" t="n">
+        <v>259.67</v>
+      </c>
+      <c r="AF231" t="n">
         <v>259.67</v>
       </c>
     </row>
@@ -27136,12 +27843,15 @@
         <v>0</v>
       </c>
       <c r="AC232" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="AD232" t="n">
         <v>3810</v>
       </c>
       <c r="AE232" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AF232" t="n">
         <v>3810</v>
       </c>
     </row>
@@ -27251,12 +27961,15 @@
         <v>0</v>
       </c>
       <c r="AC233" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="AD233" t="n">
         <v>850</v>
       </c>
       <c r="AE233" t="n">
+        <v>850</v>
+      </c>
+      <c r="AF233" t="n">
         <v>850</v>
       </c>
     </row>
@@ -27366,12 +28079,15 @@
         <v>0</v>
       </c>
       <c r="AC234" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AD234" t="n">
         <v>6000</v>
       </c>
       <c r="AE234" t="n">
+        <v>6000</v>
+      </c>
+      <c r="AF234" t="n">
         <v>6000</v>
       </c>
     </row>
@@ -27481,12 +28197,15 @@
         <v>0</v>
       </c>
       <c r="AC235" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="AD235" t="n">
         <v>2300</v>
       </c>
       <c r="AE235" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AF235" t="n">
         <v>2300</v>
       </c>
     </row>
@@ -27596,12 +28315,15 @@
         <v>0</v>
       </c>
       <c r="AC236" t="n">
-        <v>22624.88</v>
+        <v>0</v>
       </c>
       <c r="AD236" t="n">
         <v>22624.88</v>
       </c>
       <c r="AE236" t="n">
+        <v>22624.88</v>
+      </c>
+      <c r="AF236" t="n">
         <v>22624.88</v>
       </c>
     </row>
@@ -27711,12 +28433,15 @@
         <v>0</v>
       </c>
       <c r="AC237" t="n">
-        <v>4252.5</v>
+        <v>0</v>
       </c>
       <c r="AD237" t="n">
         <v>4252.5</v>
       </c>
       <c r="AE237" t="n">
+        <v>4252.5</v>
+      </c>
+      <c r="AF237" t="n">
         <v>4252.5</v>
       </c>
     </row>
@@ -27826,12 +28551,15 @@
         <v>0</v>
       </c>
       <c r="AC238" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="AD238" t="n">
         <v>2925</v>
       </c>
       <c r="AE238" t="n">
+        <v>2925</v>
+      </c>
+      <c r="AF238" t="n">
         <v>2925</v>
       </c>
     </row>
@@ -27941,12 +28669,15 @@
         <v>0</v>
       </c>
       <c r="AC239" t="n">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="AD239" t="n">
         <v>5556</v>
       </c>
       <c r="AE239" t="n">
+        <v>5556</v>
+      </c>
+      <c r="AF239" t="n">
         <v>5556</v>
       </c>
     </row>
@@ -28056,12 +28787,15 @@
         <v>0</v>
       </c>
       <c r="AC240" t="n">
-        <v>2238.5</v>
+        <v>0</v>
       </c>
       <c r="AD240" t="n">
         <v>2238.5</v>
       </c>
       <c r="AE240" t="n">
+        <v>2238.5</v>
+      </c>
+      <c r="AF240" t="n">
         <v>2238.5</v>
       </c>
     </row>
@@ -28171,12 +28905,15 @@
         <v>0</v>
       </c>
       <c r="AC241" t="n">
-        <v>2885.06</v>
+        <v>0</v>
       </c>
       <c r="AD241" t="n">
         <v>2885.06</v>
       </c>
       <c r="AE241" t="n">
+        <v>2885.06</v>
+      </c>
+      <c r="AF241" t="n">
         <v>2885.06</v>
       </c>
     </row>
@@ -28286,12 +29023,15 @@
         <v>0</v>
       </c>
       <c r="AC242" t="n">
-        <v>11797.58</v>
+        <v>0</v>
       </c>
       <c r="AD242" t="n">
         <v>11797.58</v>
       </c>
       <c r="AE242" t="n">
+        <v>11797.58</v>
+      </c>
+      <c r="AF242" t="n">
         <v>11797.58</v>
       </c>
     </row>
@@ -28401,12 +29141,15 @@
         <v>0</v>
       </c>
       <c r="AC243" t="n">
-        <v>7090.28</v>
+        <v>0</v>
       </c>
       <c r="AD243" t="n">
         <v>7090.28</v>
       </c>
       <c r="AE243" t="n">
+        <v>7090.28</v>
+      </c>
+      <c r="AF243" t="n">
         <v>7090.28</v>
       </c>
     </row>
@@ -28516,12 +29259,15 @@
         <v>0</v>
       </c>
       <c r="AC244" t="n">
-        <v>10595.09</v>
+        <v>0</v>
       </c>
       <c r="AD244" t="n">
         <v>10595.09</v>
       </c>
       <c r="AE244" t="n">
+        <v>10595.09</v>
+      </c>
+      <c r="AF244" t="n">
         <v>10595.09</v>
       </c>
     </row>
@@ -28631,12 +29377,15 @@
         <v>0</v>
       </c>
       <c r="AC245" t="n">
-        <v>5169.12</v>
+        <v>0</v>
       </c>
       <c r="AD245" t="n">
         <v>5169.12</v>
       </c>
       <c r="AE245" t="n">
+        <v>5169.12</v>
+      </c>
+      <c r="AF245" t="n">
         <v>5169.12</v>
       </c>
     </row>
@@ -28746,12 +29495,15 @@
         <v>0</v>
       </c>
       <c r="AC246" t="n">
-        <v>13514.34</v>
+        <v>0</v>
       </c>
       <c r="AD246" t="n">
         <v>13514.34</v>
       </c>
       <c r="AE246" t="n">
+        <v>13514.34</v>
+      </c>
+      <c r="AF246" t="n">
         <v>13514.34</v>
       </c>
     </row>
@@ -28861,12 +29613,15 @@
         <v>0</v>
       </c>
       <c r="AC247" t="n">
-        <v>2932.5</v>
+        <v>0</v>
       </c>
       <c r="AD247" t="n">
         <v>2932.5</v>
       </c>
       <c r="AE247" t="n">
+        <v>2932.5</v>
+      </c>
+      <c r="AF247" t="n">
         <v>2932.5</v>
       </c>
     </row>
@@ -28976,12 +29731,15 @@
         <v>0</v>
       </c>
       <c r="AC248" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AD248" t="n">
         <v>150</v>
       </c>
       <c r="AE248" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF248" t="n">
         <v>150</v>
       </c>
     </row>
@@ -29091,12 +29849,15 @@
         <v>0</v>
       </c>
       <c r="AC249" t="n">
-        <v>5757.62</v>
+        <v>0</v>
       </c>
       <c r="AD249" t="n">
         <v>5757.62</v>
       </c>
       <c r="AE249" t="n">
+        <v>5757.62</v>
+      </c>
+      <c r="AF249" t="n">
         <v>5757.62</v>
       </c>
     </row>
@@ -29206,12 +29967,15 @@
         <v>0</v>
       </c>
       <c r="AC250" t="n">
-        <v>2619.38</v>
+        <v>0</v>
       </c>
       <c r="AD250" t="n">
         <v>2619.38</v>
       </c>
       <c r="AE250" t="n">
+        <v>2619.38</v>
+      </c>
+      <c r="AF250" t="n">
         <v>2619.38</v>
       </c>
     </row>
@@ -29321,12 +30085,15 @@
         <v>0</v>
       </c>
       <c r="AC251" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="AD251" t="n">
         <v>1425</v>
       </c>
       <c r="AE251" t="n">
+        <v>1425</v>
+      </c>
+      <c r="AF251" t="n">
         <v>1425</v>
       </c>
     </row>
@@ -29436,12 +30203,15 @@
         <v>0</v>
       </c>
       <c r="AC252" t="n">
-        <v>3454</v>
+        <v>0</v>
       </c>
       <c r="AD252" t="n">
         <v>3454</v>
       </c>
       <c r="AE252" t="n">
+        <v>3454</v>
+      </c>
+      <c r="AF252" t="n">
         <v>3454</v>
       </c>
     </row>
@@ -29551,12 +30321,15 @@
         <v>0</v>
       </c>
       <c r="AC253" t="n">
-        <v>35425.65</v>
+        <v>0</v>
       </c>
       <c r="AD253" t="n">
         <v>35425.65</v>
       </c>
       <c r="AE253" t="n">
+        <v>35425.65</v>
+      </c>
+      <c r="AF253" t="n">
         <v>35425.65</v>
       </c>
     </row>
@@ -29666,12 +30439,15 @@
         <v>0</v>
       </c>
       <c r="AC254" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="AD254" t="n">
         <v>24000</v>
       </c>
       <c r="AE254" t="n">
+        <v>24000</v>
+      </c>
+      <c r="AF254" t="n">
         <v>24000</v>
       </c>
     </row>
@@ -29781,12 +30557,15 @@
         <v>0</v>
       </c>
       <c r="AC255" t="n">
-        <v>29840.25</v>
+        <v>0</v>
       </c>
       <c r="AD255" t="n">
         <v>29840.25</v>
       </c>
       <c r="AE255" t="n">
+        <v>29840.25</v>
+      </c>
+      <c r="AF255" t="n">
         <v>29840.25</v>
       </c>
     </row>
@@ -29896,12 +30675,15 @@
         <v>0</v>
       </c>
       <c r="AC256" t="n">
-        <v>2155.64</v>
+        <v>0</v>
       </c>
       <c r="AD256" t="n">
         <v>2155.64</v>
       </c>
       <c r="AE256" t="n">
+        <v>2155.64</v>
+      </c>
+      <c r="AF256" t="n">
         <v>2155.64</v>
       </c>
     </row>
@@ -30011,12 +30793,15 @@
         <v>0</v>
       </c>
       <c r="AC257" t="n">
-        <v>5460</v>
+        <v>0</v>
       </c>
       <c r="AD257" t="n">
         <v>5460</v>
       </c>
       <c r="AE257" t="n">
+        <v>5460</v>
+      </c>
+      <c r="AF257" t="n">
         <v>5460</v>
       </c>
     </row>
@@ -30126,12 +30911,15 @@
         <v>0</v>
       </c>
       <c r="AC258" t="n">
-        <v>1968.75</v>
+        <v>0</v>
       </c>
       <c r="AD258" t="n">
         <v>1968.75</v>
       </c>
       <c r="AE258" t="n">
+        <v>1968.75</v>
+      </c>
+      <c r="AF258" t="n">
         <v>1968.75</v>
       </c>
     </row>
@@ -30241,12 +31029,15 @@
         <v>0</v>
       </c>
       <c r="AC259" t="n">
-        <v>5512.5</v>
+        <v>0</v>
       </c>
       <c r="AD259" t="n">
         <v>5512.5</v>
       </c>
       <c r="AE259" t="n">
+        <v>5512.5</v>
+      </c>
+      <c r="AF259" t="n">
         <v>5512.5</v>
       </c>
     </row>
@@ -30356,12 +31147,15 @@
         <v>0</v>
       </c>
       <c r="AC260" t="n">
-        <v>10792.28</v>
+        <v>0</v>
       </c>
       <c r="AD260" t="n">
         <v>10792.28</v>
       </c>
       <c r="AE260" t="n">
+        <v>10792.28</v>
+      </c>
+      <c r="AF260" t="n">
         <v>10792.28</v>
       </c>
     </row>
@@ -30471,12 +31265,15 @@
         <v>0</v>
       </c>
       <c r="AC261" t="n">
-        <v>1819.39</v>
+        <v>0</v>
       </c>
       <c r="AD261" t="n">
         <v>1819.39</v>
       </c>
       <c r="AE261" t="n">
+        <v>1819.39</v>
+      </c>
+      <c r="AF261" t="n">
         <v>1819.39</v>
       </c>
     </row>
@@ -30586,12 +31383,15 @@
         <v>0</v>
       </c>
       <c r="AC262" t="n">
-        <v>4335.42</v>
+        <v>0</v>
       </c>
       <c r="AD262" t="n">
         <v>4335.42</v>
       </c>
       <c r="AE262" t="n">
+        <v>4335.42</v>
+      </c>
+      <c r="AF262" t="n">
         <v>4335.42</v>
       </c>
     </row>
@@ -30701,12 +31501,15 @@
         <v>0</v>
       </c>
       <c r="AC263" t="n">
-        <v>12546.52</v>
+        <v>0</v>
       </c>
       <c r="AD263" t="n">
         <v>12546.52</v>
       </c>
       <c r="AE263" t="n">
+        <v>12546.52</v>
+      </c>
+      <c r="AF263" t="n">
         <v>12546.52</v>
       </c>
     </row>
@@ -30816,12 +31619,15 @@
         <v>0</v>
       </c>
       <c r="AC264" t="n">
-        <v>1863.75</v>
+        <v>0</v>
       </c>
       <c r="AD264" t="n">
         <v>1863.75</v>
       </c>
       <c r="AE264" t="n">
+        <v>1863.75</v>
+      </c>
+      <c r="AF264" t="n">
         <v>1863.75</v>
       </c>
     </row>
@@ -30931,12 +31737,15 @@
         <v>0</v>
       </c>
       <c r="AC265" t="n">
-        <v>1583.7</v>
+        <v>0</v>
       </c>
       <c r="AD265" t="n">
         <v>1583.7</v>
       </c>
       <c r="AE265" t="n">
+        <v>1583.7</v>
+      </c>
+      <c r="AF265" t="n">
         <v>1583.7</v>
       </c>
     </row>
@@ -31046,12 +31855,15 @@
         <v>0</v>
       </c>
       <c r="AC266" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AD266" t="n">
         <v>1075</v>
       </c>
       <c r="AE266" t="n">
+        <v>1075</v>
+      </c>
+      <c r="AF266" t="n">
         <v>1075</v>
       </c>
     </row>
@@ -31161,12 +31973,15 @@
         <v>0</v>
       </c>
       <c r="AC267" t="n">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="AD267" t="n">
         <v>7250</v>
       </c>
       <c r="AE267" t="n">
+        <v>7250</v>
+      </c>
+      <c r="AF267" t="n">
         <v>7250</v>
       </c>
     </row>
@@ -31276,12 +32091,15 @@
         <v>0</v>
       </c>
       <c r="AC268" t="n">
-        <v>1813.36</v>
+        <v>0</v>
       </c>
       <c r="AD268" t="n">
         <v>1813.36</v>
       </c>
       <c r="AE268" t="n">
+        <v>1813.36</v>
+      </c>
+      <c r="AF268" t="n">
         <v>1813.36</v>
       </c>
     </row>
@@ -31391,12 +32209,15 @@
         <v>0</v>
       </c>
       <c r="AC269" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="AD269" t="n">
         <v>4160</v>
       </c>
       <c r="AE269" t="n">
+        <v>4160</v>
+      </c>
+      <c r="AF269" t="n">
         <v>4160</v>
       </c>
     </row>
@@ -31506,12 +32327,15 @@
         <v>0</v>
       </c>
       <c r="AC270" t="n">
-        <v>3737.5</v>
+        <v>0</v>
       </c>
       <c r="AD270" t="n">
         <v>3737.5</v>
       </c>
       <c r="AE270" t="n">
+        <v>3737.5</v>
+      </c>
+      <c r="AF270" t="n">
         <v>3737.5</v>
       </c>
     </row>
@@ -31621,12 +32445,15 @@
         <v>0</v>
       </c>
       <c r="AC271" t="n">
-        <v>7030</v>
+        <v>0</v>
       </c>
       <c r="AD271" t="n">
         <v>7030</v>
       </c>
       <c r="AE271" t="n">
+        <v>7030</v>
+      </c>
+      <c r="AF271" t="n">
         <v>7030</v>
       </c>
     </row>
@@ -31736,12 +32563,15 @@
         <v>0</v>
       </c>
       <c r="AC272" t="n">
-        <v>6709.31</v>
+        <v>0</v>
       </c>
       <c r="AD272" t="n">
         <v>6709.31</v>
       </c>
       <c r="AE272" t="n">
+        <v>6709.31</v>
+      </c>
+      <c r="AF272" t="n">
         <v>6709.31</v>
       </c>
     </row>
@@ -31851,12 +32681,15 @@
         <v>0</v>
       </c>
       <c r="AC273" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AD273" t="n">
         <v>195</v>
       </c>
       <c r="AE273" t="n">
+        <v>195</v>
+      </c>
+      <c r="AF273" t="n">
         <v>195</v>
       </c>
     </row>
@@ -31966,12 +32799,15 @@
         <v>0</v>
       </c>
       <c r="AC274" t="n">
-        <v>66666.67</v>
+        <v>0</v>
       </c>
       <c r="AD274" t="n">
         <v>66666.67</v>
       </c>
       <c r="AE274" t="n">
+        <v>66666.67</v>
+      </c>
+      <c r="AF274" t="n">
         <v>66666.67</v>
       </c>
     </row>
@@ -32081,12 +32917,15 @@
         <v>0</v>
       </c>
       <c r="AC275" t="n">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="AD275" t="n">
         <v>7800</v>
       </c>
       <c r="AE275" t="n">
+        <v>7800</v>
+      </c>
+      <c r="AF275" t="n">
         <v>7800</v>
       </c>
     </row>
@@ -32196,12 +33035,15 @@
         <v>0</v>
       </c>
       <c r="AC276" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="AD276" t="n">
         <v>11000</v>
       </c>
       <c r="AE276" t="n">
+        <v>11000</v>
+      </c>
+      <c r="AF276" t="n">
         <v>11000</v>
       </c>
     </row>
@@ -32311,12 +33153,15 @@
         <v>0</v>
       </c>
       <c r="AC277" t="n">
-        <v>3166.67</v>
+        <v>0</v>
       </c>
       <c r="AD277" t="n">
         <v>3166.67</v>
       </c>
       <c r="AE277" t="n">
+        <v>3166.67</v>
+      </c>
+      <c r="AF277" t="n">
         <v>3166.67</v>
       </c>
     </row>
@@ -32426,12 +33271,15 @@
         <v>0</v>
       </c>
       <c r="AC278" t="n">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="AD278" t="n">
         <v>4900</v>
       </c>
       <c r="AE278" t="n">
+        <v>4900</v>
+      </c>
+      <c r="AF278" t="n">
         <v>4900</v>
       </c>
     </row>
@@ -32541,12 +33389,15 @@
         <v>0</v>
       </c>
       <c r="AC279" t="n">
-        <v>3386.67</v>
+        <v>0</v>
       </c>
       <c r="AD279" t="n">
         <v>3386.67</v>
       </c>
       <c r="AE279" t="n">
+        <v>3386.67</v>
+      </c>
+      <c r="AF279" t="n">
         <v>3386.67</v>
       </c>
     </row>
@@ -32656,12 +33507,15 @@
         <v>0</v>
       </c>
       <c r="AC280" t="n">
-        <v>3133.33</v>
+        <v>0</v>
       </c>
       <c r="AD280" t="n">
         <v>3133.33</v>
       </c>
       <c r="AE280" t="n">
+        <v>3133.33</v>
+      </c>
+      <c r="AF280" t="n">
         <v>3133.33</v>
       </c>
     </row>
@@ -32771,12 +33625,15 @@
         <v>0</v>
       </c>
       <c r="AC281" t="n">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="AD281" t="n">
         <v>6400</v>
       </c>
       <c r="AE281" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AF281" t="n">
         <v>6400</v>
       </c>
     </row>
@@ -32886,12 +33743,15 @@
         <v>0</v>
       </c>
       <c r="AC282" t="n">
-        <v>14720</v>
+        <v>0</v>
       </c>
       <c r="AD282" t="n">
         <v>14720</v>
       </c>
       <c r="AE282" t="n">
+        <v>14720</v>
+      </c>
+      <c r="AF282" t="n">
         <v>14720</v>
       </c>
     </row>
@@ -33001,12 +33861,15 @@
         <v>0</v>
       </c>
       <c r="AC283" t="n">
-        <v>4333.33</v>
+        <v>0</v>
       </c>
       <c r="AD283" t="n">
         <v>4333.33</v>
       </c>
       <c r="AE283" t="n">
+        <v>4333.33</v>
+      </c>
+      <c r="AF283" t="n">
         <v>4333.33</v>
       </c>
     </row>
@@ -33116,12 +33979,15 @@
         <v>0</v>
       </c>
       <c r="AC284" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="AD284" t="n">
         <v>5800</v>
       </c>
       <c r="AE284" t="n">
+        <v>5800</v>
+      </c>
+      <c r="AF284" t="n">
         <v>5800</v>
       </c>
     </row>
@@ -33231,12 +34097,15 @@
         <v>0</v>
       </c>
       <c r="AC285" t="n">
-        <v>9333.33</v>
+        <v>0</v>
       </c>
       <c r="AD285" t="n">
         <v>9333.33</v>
       </c>
       <c r="AE285" t="n">
+        <v>9333.33</v>
+      </c>
+      <c r="AF285" t="n">
         <v>9333.33</v>
       </c>
     </row>
@@ -33346,12 +34215,15 @@
         <v>0</v>
       </c>
       <c r="AC286" t="n">
-        <v>6333.33</v>
+        <v>0</v>
       </c>
       <c r="AD286" t="n">
         <v>6333.33</v>
       </c>
       <c r="AE286" t="n">
+        <v>6333.33</v>
+      </c>
+      <c r="AF286" t="n">
         <v>6333.33</v>
       </c>
     </row>
@@ -33461,12 +34333,15 @@
         <v>0</v>
       </c>
       <c r="AC287" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AD287" t="n">
         <v>4000</v>
       </c>
       <c r="AE287" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AF287" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -33576,12 +34451,15 @@
         <v>0</v>
       </c>
       <c r="AC288" t="n">
-        <v>28166.67</v>
+        <v>0</v>
       </c>
       <c r="AD288" t="n">
         <v>28166.67</v>
       </c>
       <c r="AE288" t="n">
+        <v>28166.67</v>
+      </c>
+      <c r="AF288" t="n">
         <v>28166.67</v>
       </c>
     </row>
@@ -33691,12 +34569,15 @@
         <v>0</v>
       </c>
       <c r="AC289" t="n">
-        <v>563.33</v>
+        <v>0</v>
       </c>
       <c r="AD289" t="n">
         <v>563.33</v>
       </c>
       <c r="AE289" t="n">
+        <v>563.33</v>
+      </c>
+      <c r="AF289" t="n">
         <v>563.33</v>
       </c>
     </row>
@@ -33806,12 +34687,15 @@
         <v>0</v>
       </c>
       <c r="AC290" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AD290" t="n">
         <v>4000</v>
       </c>
       <c r="AE290" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AF290" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -33921,12 +34805,15 @@
         <v>0</v>
       </c>
       <c r="AC291" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="AD291" t="n">
         <v>1560</v>
       </c>
       <c r="AE291" t="n">
+        <v>1560</v>
+      </c>
+      <c r="AF291" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -34036,12 +34923,15 @@
         <v>0</v>
       </c>
       <c r="AC292" t="n">
-        <v>7895.33</v>
+        <v>0</v>
       </c>
       <c r="AD292" t="n">
         <v>7895.33</v>
       </c>
       <c r="AE292" t="n">
+        <v>7895.33</v>
+      </c>
+      <c r="AF292" t="n">
         <v>7895.33</v>
       </c>
     </row>
@@ -34151,12 +35041,15 @@
         <v>0</v>
       </c>
       <c r="AC293" t="n">
-        <v>595.83</v>
+        <v>0</v>
       </c>
       <c r="AD293" t="n">
         <v>595.83</v>
       </c>
       <c r="AE293" t="n">
+        <v>595.83</v>
+      </c>
+      <c r="AF293" t="n">
         <v>595.83</v>
       </c>
     </row>
@@ -34266,12 +35159,15 @@
         <v>0</v>
       </c>
       <c r="AC294" t="n">
-        <v>13333.33</v>
+        <v>0</v>
       </c>
       <c r="AD294" t="n">
         <v>13333.33</v>
       </c>
       <c r="AE294" t="n">
+        <v>13333.33</v>
+      </c>
+      <c r="AF294" t="n">
         <v>13333.33</v>
       </c>
     </row>
@@ -34381,12 +35277,15 @@
         <v>0</v>
       </c>
       <c r="AC295" t="n">
-        <v>78824</v>
+        <v>0</v>
       </c>
       <c r="AD295" t="n">
         <v>78824</v>
       </c>
       <c r="AE295" t="n">
+        <v>78824</v>
+      </c>
+      <c r="AF295" t="n">
         <v>78824</v>
       </c>
     </row>
@@ -34496,12 +35395,15 @@
         <v>0</v>
       </c>
       <c r="AC296" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="AD296" t="n">
         <v>8000</v>
       </c>
       <c r="AE296" t="n">
+        <v>8000</v>
+      </c>
+      <c r="AF296" t="n">
         <v>8000</v>
       </c>
     </row>
@@ -34611,12 +35513,15 @@
         <v>0</v>
       </c>
       <c r="AC297" t="n">
-        <v>5253.33</v>
+        <v>0</v>
       </c>
       <c r="AD297" t="n">
         <v>5253.33</v>
       </c>
       <c r="AE297" t="n">
+        <v>5253.33</v>
+      </c>
+      <c r="AF297" t="n">
         <v>5253.33</v>
       </c>
     </row>
@@ -34726,12 +35631,15 @@
         <v>0</v>
       </c>
       <c r="AC298" t="n">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="AD298" t="n">
         <v>3340</v>
       </c>
       <c r="AE298" t="n">
+        <v>3340</v>
+      </c>
+      <c r="AF298" t="n">
         <v>3340</v>
       </c>
     </row>
@@ -34841,12 +35749,15 @@
         <v>0</v>
       </c>
       <c r="AC299" t="n">
-        <v>12533.33</v>
+        <v>0</v>
       </c>
       <c r="AD299" t="n">
         <v>12533.33</v>
       </c>
       <c r="AE299" t="n">
+        <v>12533.33</v>
+      </c>
+      <c r="AF299" t="n">
         <v>12533.33</v>
       </c>
     </row>
@@ -34956,7 +35867,7 @@
         <v>0</v>
       </c>
       <c r="AC300" t="n">
-        <v>3033.33</v>
+        <v>0</v>
       </c>
       <c r="AD300" t="n">
         <v>3033.33</v>
@@ -34964,1155 +35875,8 @@
       <c r="AE300" t="n">
         <v>3033.33</v>
       </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-M-2023-0002</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>2024-04-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="D301" t="n">
-        <v>2</v>
-      </c>
-      <c r="E301" t="n">
-        <v>2</v>
-      </c>
-      <c r="F301" t="n">
-        <v>4112101</v>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>Motor Vehicles</t>
-        </is>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>0</v>
-      </c>
-      <c r="M301" t="n">
-        <v>2112</v>
-      </c>
-      <c r="N301" t="n">
-        <v>0</v>
-      </c>
-      <c r="O301" t="n">
-        <v>10</v>
-      </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q301" t="n">
-        <v>0</v>
-      </c>
-      <c r="R301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S301" t="n">
-        <v>0</v>
-      </c>
-      <c r="T301" t="n">
-        <v>2112</v>
-      </c>
-      <c r="U301" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V301" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="W301" t="n">
-        <v>0</v>
-      </c>
-      <c r="X301" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="Y301" t="n">
-        <v>1900.8</v>
-      </c>
-      <c r="Z301" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA301" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB301" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC301" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD301" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE301" t="n">
-        <v>211.2</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-M-2023-0002</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>2024-04-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="D302" t="n">
-        <v>2</v>
-      </c>
-      <c r="E302" t="n">
-        <v>2</v>
-      </c>
-      <c r="F302" t="n">
-        <v>4112101</v>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>Motor Vehicles</t>
-        </is>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>0</v>
-      </c>
-      <c r="M302" t="n">
-        <v>2112</v>
-      </c>
-      <c r="N302" t="n">
-        <v>0</v>
-      </c>
-      <c r="O302" t="n">
-        <v>10</v>
-      </c>
-      <c r="P302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q302" t="n">
-        <v>0</v>
-      </c>
-      <c r="R302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S302" t="n">
-        <v>0</v>
-      </c>
-      <c r="T302" t="n">
-        <v>2112</v>
-      </c>
-      <c r="U302" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V302" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="W302" t="n">
-        <v>0</v>
-      </c>
-      <c r="X302" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="Y302" t="n">
-        <v>1900.8</v>
-      </c>
-      <c r="Z302" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA302" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB302" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC302" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD302" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE302" t="n">
-        <v>211.2</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-M-2023-0002</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>2024-04-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="D303" t="n">
-        <v>2</v>
-      </c>
-      <c r="E303" t="n">
-        <v>2</v>
-      </c>
-      <c r="F303" t="n">
-        <v>4112101</v>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>Motor Vehicles</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>0</v>
-      </c>
-      <c r="M303" t="n">
-        <v>2112</v>
-      </c>
-      <c r="N303" t="n">
-        <v>0</v>
-      </c>
-      <c r="O303" t="n">
-        <v>10</v>
-      </c>
-      <c r="P303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q303" t="n">
-        <v>0</v>
-      </c>
-      <c r="R303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S303" t="n">
-        <v>0</v>
-      </c>
-      <c r="T303" t="n">
-        <v>2112</v>
-      </c>
-      <c r="U303" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V303" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="W303" t="n">
-        <v>0</v>
-      </c>
-      <c r="X303" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="Y303" t="n">
-        <v>1900.8</v>
-      </c>
-      <c r="Z303" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA303" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB303" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC303" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD303" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE303" t="n">
-        <v>211.2</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-M-2023-0002</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>2024-04-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="D304" t="n">
-        <v>2</v>
-      </c>
-      <c r="E304" t="n">
-        <v>2</v>
-      </c>
-      <c r="F304" t="n">
-        <v>4112101</v>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>Motor Vehicles</t>
-        </is>
-      </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I304" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J304" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>0</v>
-      </c>
-      <c r="M304" t="n">
-        <v>2112</v>
-      </c>
-      <c r="N304" t="n">
-        <v>0</v>
-      </c>
-      <c r="O304" t="n">
-        <v>10</v>
-      </c>
-      <c r="P304" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q304" t="n">
-        <v>0</v>
-      </c>
-      <c r="R304" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S304" t="n">
-        <v>0</v>
-      </c>
-      <c r="T304" t="n">
-        <v>2112</v>
-      </c>
-      <c r="U304" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V304" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="W304" t="n">
-        <v>0</v>
-      </c>
-      <c r="X304" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="Y304" t="n">
-        <v>1900.8</v>
-      </c>
-      <c r="Z304" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA304" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB304" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC304" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD304" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE304" t="n">
-        <v>211.2</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>2021-2022</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-F-2021-0003</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>2022-06-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="D305" t="n">
-        <v>3</v>
-      </c>
-      <c r="E305" t="n">
-        <v>3</v>
-      </c>
-      <c r="F305" t="n">
-        <v>4112314</v>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>Furniture</t>
-        </is>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>0</v>
-      </c>
-      <c r="M305" t="n">
-        <v>34</v>
-      </c>
-      <c r="N305" t="n">
-        <v>0</v>
-      </c>
-      <c r="O305" t="n">
-        <v>10</v>
-      </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q305" t="n">
-        <v>0</v>
-      </c>
-      <c r="R305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S305" t="n">
-        <v>0</v>
-      </c>
-      <c r="T305" t="n">
-        <v>34</v>
-      </c>
-      <c r="U305" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V305" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="W305" t="n">
-        <v>0</v>
-      </c>
-      <c r="X305" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="Y305" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="Z305" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA305" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB305" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC305" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AD305" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE305" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>2021-2022</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-F-2021-0003</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>2022-06-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="D306" t="n">
-        <v>3</v>
-      </c>
-      <c r="E306" t="n">
-        <v>3</v>
-      </c>
-      <c r="F306" t="n">
-        <v>4112314</v>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>Furniture</t>
-        </is>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>0</v>
-      </c>
-      <c r="M306" t="n">
-        <v>34</v>
-      </c>
-      <c r="N306" t="n">
-        <v>0</v>
-      </c>
-      <c r="O306" t="n">
-        <v>10</v>
-      </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q306" t="n">
-        <v>0</v>
-      </c>
-      <c r="R306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S306" t="n">
-        <v>0</v>
-      </c>
-      <c r="T306" t="n">
-        <v>34</v>
-      </c>
-      <c r="U306" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V306" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="W306" t="n">
-        <v>0</v>
-      </c>
-      <c r="X306" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="Y306" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="Z306" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA306" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB306" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC306" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AD306" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE306" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>2019-2020</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-O-2019-0006</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>2020-02-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="D307" t="n">
-        <v>6</v>
-      </c>
-      <c r="E307" t="n">
-        <v>6</v>
-      </c>
-      <c r="F307" t="n">
-        <v>4112310</v>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>Office equipment</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J307" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>0</v>
-      </c>
-      <c r="M307" t="n">
-        <v>12</v>
-      </c>
-      <c r="N307" t="n">
-        <v>0</v>
-      </c>
-      <c r="O307" t="n">
-        <v>7</v>
-      </c>
-      <c r="P307" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q307" t="n">
-        <v>0</v>
-      </c>
-      <c r="R307" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S307" t="n">
-        <v>0</v>
-      </c>
-      <c r="T307" t="n">
-        <v>12</v>
-      </c>
-      <c r="U307" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="V307" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="W307" t="n">
-        <v>0</v>
-      </c>
-      <c r="X307" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="Y307" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Z307" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA307" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AB307" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AC307" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AD307" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AE307" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>2019-2020</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-O-2019-0006</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>2020-02-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="D308" t="n">
-        <v>6</v>
-      </c>
-      <c r="E308" t="n">
-        <v>6</v>
-      </c>
-      <c r="F308" t="n">
-        <v>4112310</v>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>Office equipment</t>
-        </is>
-      </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>0</v>
-      </c>
-      <c r="M308" t="n">
-        <v>12</v>
-      </c>
-      <c r="N308" t="n">
-        <v>0</v>
-      </c>
-      <c r="O308" t="n">
-        <v>7</v>
-      </c>
-      <c r="P308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q308" t="n">
-        <v>0</v>
-      </c>
-      <c r="R308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S308" t="n">
-        <v>0</v>
-      </c>
-      <c r="T308" t="n">
-        <v>12</v>
-      </c>
-      <c r="U308" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="V308" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="W308" t="n">
-        <v>0</v>
-      </c>
-      <c r="X308" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="Y308" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Z308" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA308" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AB308" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AC308" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AD308" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AE308" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-F-2023-0006</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>2024-04-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="D309" t="n">
-        <v>6</v>
-      </c>
-      <c r="E309" t="n">
-        <v>6</v>
-      </c>
-      <c r="F309" t="n">
-        <v>8</v>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>Furniture (Leasehold)</t>
-        </is>
-      </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I309" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J309" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>0</v>
-      </c>
-      <c r="M309" t="n">
-        <v>56</v>
-      </c>
-      <c r="N309" t="n">
-        <v>0</v>
-      </c>
-      <c r="O309" t="n">
-        <v>15</v>
-      </c>
-      <c r="P309" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q309" t="n">
-        <v>0</v>
-      </c>
-      <c r="R309" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S309" t="n">
-        <v>0</v>
-      </c>
-      <c r="T309" t="n">
-        <v>56</v>
-      </c>
-      <c r="U309" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="V309" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="W309" t="n">
-        <v>0</v>
-      </c>
-      <c r="X309" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Y309" t="n">
-        <v>52.27</v>
-      </c>
-      <c r="Z309" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA309" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB309" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC309" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD309" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE309" t="n">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-F-2023-0006</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>2024-04-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="D310" t="n">
-        <v>6</v>
-      </c>
-      <c r="E310" t="n">
-        <v>6</v>
-      </c>
-      <c r="F310" t="n">
-        <v>8</v>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>Furniture (Leasehold)</t>
-        </is>
-      </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I310" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J310" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>0</v>
-      </c>
-      <c r="M310" t="n">
-        <v>56</v>
-      </c>
-      <c r="N310" t="n">
-        <v>0</v>
-      </c>
-      <c r="O310" t="n">
-        <v>15</v>
-      </c>
-      <c r="P310" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q310" t="n">
-        <v>0</v>
-      </c>
-      <c r="R310" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S310" t="n">
-        <v>0</v>
-      </c>
-      <c r="T310" t="n">
-        <v>56</v>
-      </c>
-      <c r="U310" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="V310" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="W310" t="n">
-        <v>0</v>
-      </c>
-      <c r="X310" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Y310" t="n">
-        <v>52.27</v>
-      </c>
-      <c r="Z310" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA310" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB310" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC310" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD310" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE310" t="n">
-        <v>3.73</v>
+      <c r="AF300" t="n">
+        <v>3033.33</v>
       </c>
     </row>
   </sheetData>

--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF300"/>
+  <dimension ref="A1:AE301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,40 +559,23 @@
           <t>Book Value</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2017-2018</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2018-2019</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2019-2020</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2020-2021</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>2021-2022</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>2022-2023</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
+      <c r="Z1" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>2025</v>
       </c>
     </row>
     <row r="2">
@@ -692,7 +675,7 @@
         <v>4061.59</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>8123.14</v>
       </c>
       <c r="AA2" t="n">
         <v>8123.14</v>
@@ -704,12 +687,9 @@
         <v>8123.14</v>
       </c>
       <c r="AD2" t="n">
-        <v>8123.14</v>
+        <v>4061.57</v>
       </c>
       <c r="AE2" t="n">
-        <v>4061.57</v>
-      </c>
-      <c r="AF2" t="n">
         <v>4061.57</v>
       </c>
     </row>
@@ -810,7 +790,7 @@
         <v>3179</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="AA3" t="n">
         <v>3179</v>
@@ -825,9 +805,6 @@
         <v>3179</v>
       </c>
       <c r="AE3" t="n">
-        <v>3179</v>
-      </c>
-      <c r="AF3" t="n">
         <v>3179</v>
       </c>
     </row>
@@ -928,7 +905,7 @@
         <v>1544.26</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1544.29</v>
       </c>
       <c r="AA4" t="n">
         <v>1544.29</v>
@@ -943,9 +920,6 @@
         <v>1544.29</v>
       </c>
       <c r="AE4" t="n">
-        <v>1544.29</v>
-      </c>
-      <c r="AF4" t="n">
         <v>1544.29</v>
       </c>
     </row>
@@ -1046,7 +1020,7 @@
         <v>1664.74</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1664.71</v>
       </c>
       <c r="AA5" t="n">
         <v>1664.71</v>
@@ -1061,9 +1035,6 @@
         <v>1664.71</v>
       </c>
       <c r="AE5" t="n">
-        <v>1664.71</v>
-      </c>
-      <c r="AF5" t="n">
         <v>1664.71</v>
       </c>
     </row>
@@ -1164,7 +1135,7 @@
         <v>4593</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>4593</v>
       </c>
       <c r="AA6" t="n">
         <v>4593</v>
@@ -1179,9 +1150,6 @@
         <v>4593</v>
       </c>
       <c r="AE6" t="n">
-        <v>4593</v>
-      </c>
-      <c r="AF6" t="n">
         <v>4593</v>
       </c>
     </row>
@@ -1282,7 +1250,7 @@
         <v>3510</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="AA7" t="n">
         <v>3510</v>
@@ -1297,9 +1265,6 @@
         <v>3510</v>
       </c>
       <c r="AE7" t="n">
-        <v>3510</v>
-      </c>
-      <c r="AF7" t="n">
         <v>3510</v>
       </c>
     </row>
@@ -1400,7 +1365,7 @@
         <v>6836.42</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>6836.43</v>
       </c>
       <c r="AA8" t="n">
         <v>6836.43</v>
@@ -1415,9 +1380,6 @@
         <v>6836.43</v>
       </c>
       <c r="AE8" t="n">
-        <v>6836.43</v>
-      </c>
-      <c r="AF8" t="n">
         <v>6836.43</v>
       </c>
     </row>
@@ -1518,7 +1480,7 @@
         <v>3547.16</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>3547.14</v>
       </c>
       <c r="AA9" t="n">
         <v>3547.14</v>
@@ -1533,9 +1495,6 @@
         <v>3547.14</v>
       </c>
       <c r="AE9" t="n">
-        <v>3547.14</v>
-      </c>
-      <c r="AF9" t="n">
         <v>3547.14</v>
       </c>
     </row>
@@ -1636,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>21032.8</v>
       </c>
       <c r="AA10" t="n">
         <v>21032.8</v>
@@ -1651,9 +1610,6 @@
         <v>21032.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>21032.8</v>
-      </c>
-      <c r="AF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1754,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="AA11" t="n">
         <v>11000</v>
@@ -1769,9 +1725,6 @@
         <v>11000</v>
       </c>
       <c r="AE11" t="n">
-        <v>11000</v>
-      </c>
-      <c r="AF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1872,7 +1825,7 @@
         <v>7271.42</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>7271.43</v>
       </c>
       <c r="AA12" t="n">
         <v>7271.43</v>
@@ -1887,9 +1840,6 @@
         <v>7271.43</v>
       </c>
       <c r="AE12" t="n">
-        <v>7271.43</v>
-      </c>
-      <c r="AF12" t="n">
         <v>7271.43</v>
       </c>
     </row>
@@ -1990,7 +1940,7 @@
         <v>8128.58</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>8128.57</v>
       </c>
       <c r="AA13" t="n">
         <v>8128.57</v>
@@ -2005,9 +1955,6 @@
         <v>8128.57</v>
       </c>
       <c r="AE13" t="n">
-        <v>8128.57</v>
-      </c>
-      <c r="AF13" t="n">
         <v>8128.57</v>
       </c>
     </row>
@@ -2108,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="AA14" t="n">
         <v>3840</v>
@@ -2120,12 +2067,9 @@
         <v>3840</v>
       </c>
       <c r="AD14" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2226,7 +2170,7 @@
         <v>2414.26</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>2414.29</v>
       </c>
       <c r="AA15" t="n">
         <v>2414.29</v>
@@ -2241,9 +2185,6 @@
         <v>2414.29</v>
       </c>
       <c r="AE15" t="n">
-        <v>2414.29</v>
-      </c>
-      <c r="AF15" t="n">
         <v>2414.29</v>
       </c>
     </row>
@@ -2344,7 +2285,7 @@
         <v>2785.74</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>2785.71</v>
       </c>
       <c r="AA16" t="n">
         <v>2785.71</v>
@@ -2359,9 +2300,6 @@
         <v>2785.71</v>
       </c>
       <c r="AE16" t="n">
-        <v>2785.71</v>
-      </c>
-      <c r="AF16" t="n">
         <v>2785.71</v>
       </c>
     </row>
@@ -2462,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>3014.58</v>
       </c>
       <c r="AA17" t="n">
         <v>3014.58</v>
@@ -2474,12 +2412,9 @@
         <v>3014.58</v>
       </c>
       <c r="AD17" t="n">
-        <v>3014.58</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2580,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="AA18" t="n">
         <v>2700</v>
@@ -2592,12 +2527,9 @@
         <v>2700</v>
       </c>
       <c r="AD18" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2698,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="AA19" t="n">
         <v>1350</v>
@@ -2710,12 +2642,9 @@
         <v>1350</v>
       </c>
       <c r="AD19" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2816,7 +2745,7 @@
         <v>12180</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>3045</v>
       </c>
       <c r="AA20" t="n">
         <v>3045</v>
@@ -2831,9 +2760,6 @@
         <v>3045</v>
       </c>
       <c r="AE20" t="n">
-        <v>3045</v>
-      </c>
-      <c r="AF20" t="n">
         <v>3045</v>
       </c>
     </row>
@@ -2934,7 +2860,7 @@
         <v>614.26</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>614.29</v>
       </c>
       <c r="AA21" t="n">
         <v>614.29</v>
@@ -2949,9 +2875,6 @@
         <v>614.29</v>
       </c>
       <c r="AE21" t="n">
-        <v>614.29</v>
-      </c>
-      <c r="AF21" t="n">
         <v>614.29</v>
       </c>
     </row>
@@ -3052,7 +2975,7 @@
         <v>4041.16</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>4041.14</v>
       </c>
       <c r="AA22" t="n">
         <v>4041.14</v>
@@ -3067,9 +2990,6 @@
         <v>4041.14</v>
       </c>
       <c r="AE22" t="n">
-        <v>4041.14</v>
-      </c>
-      <c r="AF22" t="n">
         <v>4041.14</v>
       </c>
     </row>
@@ -3170,7 +3090,7 @@
         <v>2885.58</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>2885.57</v>
       </c>
       <c r="AA23" t="n">
         <v>2885.57</v>
@@ -3185,9 +3105,6 @@
         <v>2885.57</v>
       </c>
       <c r="AE23" t="n">
-        <v>2885.57</v>
-      </c>
-      <c r="AF23" t="n">
         <v>2885.57</v>
       </c>
     </row>
@@ -3288,7 +3205,7 @@
         <v>22042.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>5510.6</v>
       </c>
       <c r="AA24" t="n">
         <v>5510.6</v>
@@ -3303,9 +3220,6 @@
         <v>5510.6</v>
       </c>
       <c r="AE24" t="n">
-        <v>5510.6</v>
-      </c>
-      <c r="AF24" t="n">
         <v>5510.6</v>
       </c>
     </row>
@@ -3406,7 +3320,7 @@
         <v>4680</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="AA25" t="n">
         <v>1170</v>
@@ -3421,9 +3335,6 @@
         <v>1170</v>
       </c>
       <c r="AE25" t="n">
-        <v>1170</v>
-      </c>
-      <c r="AF25" t="n">
         <v>1170</v>
       </c>
     </row>
@@ -3524,7 +3435,7 @@
         <v>10368</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>2592</v>
       </c>
       <c r="AA26" t="n">
         <v>2592</v>
@@ -3539,9 +3450,6 @@
         <v>2592</v>
       </c>
       <c r="AE26" t="n">
-        <v>2592</v>
-      </c>
-      <c r="AF26" t="n">
         <v>2592</v>
       </c>
     </row>
@@ -3642,7 +3550,7 @@
         <v>102144</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>25536</v>
       </c>
       <c r="AA27" t="n">
         <v>25536</v>
@@ -3657,9 +3565,6 @@
         <v>25536</v>
       </c>
       <c r="AE27" t="n">
-        <v>25536</v>
-      </c>
-      <c r="AF27" t="n">
         <v>25536</v>
       </c>
     </row>
@@ -3760,7 +3665,7 @@
         <v>4021.41</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>8042.86</v>
       </c>
       <c r="AA28" t="n">
         <v>8042.86</v>
@@ -3772,12 +3677,9 @@
         <v>8042.86</v>
       </c>
       <c r="AD28" t="n">
-        <v>8042.86</v>
+        <v>4021.43</v>
       </c>
       <c r="AE28" t="n">
-        <v>4021.43</v>
-      </c>
-      <c r="AF28" t="n">
         <v>4021.43</v>
       </c>
     </row>
@@ -3878,7 +3780,7 @@
         <v>96000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="AA29" t="n">
         <v>24000</v>
@@ -3893,9 +3795,6 @@
         <v>24000</v>
       </c>
       <c r="AE29" t="n">
-        <v>24000</v>
-      </c>
-      <c r="AF29" t="n">
         <v>24000</v>
       </c>
     </row>
@@ -3996,7 +3895,7 @@
         <v>19200</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="AA30" t="n">
         <v>4800</v>
@@ -4011,9 +3910,6 @@
         <v>4800</v>
       </c>
       <c r="AE30" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AF30" t="n">
         <v>4800</v>
       </c>
     </row>
@@ -4114,7 +4010,7 @@
         <v>11520</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="AA31" t="n">
         <v>2880</v>
@@ -4129,9 +4025,6 @@
         <v>2880</v>
       </c>
       <c r="AE31" t="n">
-        <v>2880</v>
-      </c>
-      <c r="AF31" t="n">
         <v>2880</v>
       </c>
     </row>
@@ -4232,7 +4125,7 @@
         <v>51800</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>51800</v>
       </c>
       <c r="AA32" t="n">
         <v>51800</v>
@@ -4247,9 +4140,6 @@
         <v>51800</v>
       </c>
       <c r="AE32" t="n">
-        <v>51800</v>
-      </c>
-      <c r="AF32" t="n">
         <v>51800</v>
       </c>
     </row>
@@ -4350,7 +4240,7 @@
         <v>5350</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1337.5</v>
       </c>
       <c r="AA33" t="n">
         <v>1337.5</v>
@@ -4365,9 +4255,6 @@
         <v>1337.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1337.5</v>
-      </c>
-      <c r="AF33" t="n">
         <v>1337.5</v>
       </c>
     </row>
@@ -4468,7 +4355,7 @@
         <v>1757.16</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1757.14</v>
       </c>
       <c r="AA34" t="n">
         <v>1757.14</v>
@@ -4483,9 +4370,6 @@
         <v>1757.14</v>
       </c>
       <c r="AE34" t="n">
-        <v>1757.14</v>
-      </c>
-      <c r="AF34" t="n">
         <v>1757.14</v>
       </c>
     </row>
@@ -4586,7 +4470,7 @@
         <v>38920</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>9730</v>
       </c>
       <c r="AA35" t="n">
         <v>9730</v>
@@ -4601,9 +4485,6 @@
         <v>9730</v>
       </c>
       <c r="AE35" t="n">
-        <v>9730</v>
-      </c>
-      <c r="AF35" t="n">
         <v>9730</v>
       </c>
     </row>
@@ -4704,7 +4585,7 @@
         <v>7681.42</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>7681.43</v>
       </c>
       <c r="AA36" t="n">
         <v>7681.43</v>
@@ -4719,9 +4600,6 @@
         <v>7681.43</v>
       </c>
       <c r="AE36" t="n">
-        <v>7681.43</v>
-      </c>
-      <c r="AF36" t="n">
         <v>7681.43</v>
       </c>
     </row>
@@ -4822,7 +4700,7 @@
         <v>-0.02</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>15214.29</v>
       </c>
       <c r="AA37" t="n">
         <v>15214.29</v>
@@ -4834,12 +4712,9 @@
         <v>15214.29</v>
       </c>
       <c r="AD37" t="n">
-        <v>15214.29</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4940,7 +4815,7 @@
         <v>28000</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="AA38" t="n">
         <v>28000</v>
@@ -4955,9 +4830,6 @@
         <v>28000</v>
       </c>
       <c r="AE38" t="n">
-        <v>28000</v>
-      </c>
-      <c r="AF38" t="n">
         <v>28000</v>
       </c>
     </row>
@@ -5058,7 +4930,7 @@
         <v>6000</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AA39" t="n">
         <v>1500</v>
@@ -5073,9 +4945,6 @@
         <v>1500</v>
       </c>
       <c r="AE39" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AF39" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -5176,7 +5045,7 @@
         <v>2550</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>637.5</v>
       </c>
       <c r="AA40" t="n">
         <v>637.5</v>
@@ -5191,9 +5060,6 @@
         <v>637.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>637.5</v>
-      </c>
-      <c r="AF40" t="n">
         <v>637.5</v>
       </c>
     </row>
@@ -5294,7 +5160,7 @@
         <v>2344</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>2344</v>
       </c>
       <c r="AA41" t="n">
         <v>2344</v>
@@ -5309,9 +5175,6 @@
         <v>2344</v>
       </c>
       <c r="AE41" t="n">
-        <v>2344</v>
-      </c>
-      <c r="AF41" t="n">
         <v>2344</v>
       </c>
     </row>
@@ -5412,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="AA42" t="n">
         <v>1290</v>
@@ -5424,12 +5287,9 @@
         <v>1290</v>
       </c>
       <c r="AD42" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,7 +5390,7 @@
         <v>4689.32</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1172.34</v>
       </c>
       <c r="AA43" t="n">
         <v>1172.34</v>
@@ -5545,9 +5405,6 @@
         <v>1172.34</v>
       </c>
       <c r="AE43" t="n">
-        <v>1172.34</v>
-      </c>
-      <c r="AF43" t="n">
         <v>1172.34</v>
       </c>
     </row>
@@ -5648,7 +5505,7 @@
         <v>1172.36</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>293.08</v>
       </c>
       <c r="AA44" t="n">
         <v>293.08</v>
@@ -5663,9 +5520,6 @@
         <v>293.08</v>
       </c>
       <c r="AE44" t="n">
-        <v>293.08</v>
-      </c>
-      <c r="AF44" t="n">
         <v>293.08</v>
       </c>
     </row>
@@ -5766,7 +5620,7 @@
         <v>1485.74</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>1485.71</v>
       </c>
       <c r="AA45" t="n">
         <v>1485.71</v>
@@ -5781,9 +5635,6 @@
         <v>1485.71</v>
       </c>
       <c r="AE45" t="n">
-        <v>1485.71</v>
-      </c>
-      <c r="AF45" t="n">
         <v>1485.71</v>
       </c>
     </row>
@@ -5884,7 +5735,7 @@
         <v>11464.26</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>11464.29</v>
       </c>
       <c r="AA46" t="n">
         <v>11464.29</v>
@@ -5899,9 +5750,6 @@
         <v>11464.29</v>
       </c>
       <c r="AE46" t="n">
-        <v>11464.29</v>
-      </c>
-      <c r="AF46" t="n">
         <v>11464.29</v>
       </c>
     </row>
@@ -6002,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>4821.5</v>
       </c>
       <c r="AA47" t="n">
         <v>4821.5</v>
@@ -6014,12 +5862,9 @@
         <v>4821.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>4821.5</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6120,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="AA48" t="n">
         <v>7732</v>
@@ -6132,12 +5977,9 @@
         <v>7732</v>
       </c>
       <c r="AD48" t="n">
-        <v>7732</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6238,7 +6080,7 @@
         <v>19448</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>9724</v>
       </c>
       <c r="AA49" t="n">
         <v>9724</v>
@@ -6250,12 +6092,9 @@
         <v>9724</v>
       </c>
       <c r="AD49" t="n">
-        <v>9724</v>
+        <v>4862</v>
       </c>
       <c r="AE49" t="n">
-        <v>4862</v>
-      </c>
-      <c r="AF49" t="n">
         <v>4862</v>
       </c>
     </row>
@@ -6356,7 +6195,7 @@
         <v>0.01</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>23857.14</v>
       </c>
       <c r="AA50" t="n">
         <v>23857.14</v>
@@ -6368,12 +6207,9 @@
         <v>23857.14</v>
       </c>
       <c r="AD50" t="n">
-        <v>23857.14</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6474,7 +6310,7 @@
         <v>0.01</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>55007.14</v>
       </c>
       <c r="AA51" t="n">
         <v>55007.14</v>
@@ -6486,12 +6322,9 @@
         <v>55007.14</v>
       </c>
       <c r="AD51" t="n">
-        <v>55007.14</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6592,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>11990</v>
       </c>
       <c r="AA52" t="n">
         <v>11990</v>
@@ -6604,12 +6437,9 @@
         <v>11990</v>
       </c>
       <c r="AD52" t="n">
-        <v>11990</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6710,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>5702.1</v>
       </c>
       <c r="AA53" t="n">
         <v>5702.1</v>
@@ -6722,12 +6552,9 @@
         <v>5702.1</v>
       </c>
       <c r="AD53" t="n">
-        <v>5702.1</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6828,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>1378.98</v>
       </c>
       <c r="AA54" t="n">
         <v>1378.98</v>
@@ -6837,15 +6664,12 @@
         <v>1378.98</v>
       </c>
       <c r="AC54" t="n">
-        <v>1378.98</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6946,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="AA55" t="n">
         <v>655</v>
@@ -6955,15 +6779,12 @@
         <v>655</v>
       </c>
       <c r="AC55" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>2737.9</v>
       </c>
       <c r="AA56" t="n">
         <v>2737.9</v>
@@ -7073,15 +6894,12 @@
         <v>2737.9</v>
       </c>
       <c r="AC56" t="n">
-        <v>2737.9</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7182,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="AA57" t="n">
         <v>5740</v>
@@ -7191,15 +7009,12 @@
         <v>5740</v>
       </c>
       <c r="AC57" t="n">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7300,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="AA58" t="n">
         <v>3622</v>
@@ -7309,15 +7124,12 @@
         <v>3622</v>
       </c>
       <c r="AC58" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7418,7 +7230,7 @@
         <v>16166.72</v>
       </c>
       <c r="Z59" t="n">
-        <v>0</v>
+        <v>10104.2</v>
       </c>
       <c r="AA59" t="n">
         <v>10104.2</v>
@@ -7427,15 +7239,12 @@
         <v>10104.2</v>
       </c>
       <c r="AC59" t="n">
-        <v>10104.2</v>
+        <v>4041.68</v>
       </c>
       <c r="AD59" t="n">
         <v>4041.68</v>
       </c>
       <c r="AE59" t="n">
-        <v>4041.68</v>
-      </c>
-      <c r="AF59" t="n">
         <v>4041.68</v>
       </c>
     </row>
@@ -7536,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>0</v>
+        <v>16640</v>
       </c>
       <c r="AA60" t="n">
         <v>16640</v>
@@ -7551,9 +7360,6 @@
         <v>16640</v>
       </c>
       <c r="AE60" t="n">
-        <v>16640</v>
-      </c>
-      <c r="AF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7654,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>0</v>
+        <v>29220</v>
       </c>
       <c r="AA61" t="n">
         <v>29220</v>
@@ -7669,9 +7475,6 @@
         <v>29220</v>
       </c>
       <c r="AE61" t="n">
-        <v>29220</v>
-      </c>
-      <c r="AF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7772,7 +7575,7 @@
         <v>2624</v>
       </c>
       <c r="Z62" t="n">
-        <v>0</v>
+        <v>2624</v>
       </c>
       <c r="AA62" t="n">
         <v>2624</v>
@@ -7787,9 +7590,6 @@
         <v>2624</v>
       </c>
       <c r="AE62" t="n">
-        <v>2624</v>
-      </c>
-      <c r="AF62" t="n">
         <v>2624</v>
       </c>
     </row>
@@ -7890,7 +7690,7 @@
         <v>6828.88</v>
       </c>
       <c r="Z63" t="n">
-        <v>0</v>
+        <v>1707.21</v>
       </c>
       <c r="AA63" t="n">
         <v>1707.21</v>
@@ -7905,9 +7705,6 @@
         <v>1707.21</v>
       </c>
       <c r="AE63" t="n">
-        <v>1707.21</v>
-      </c>
-      <c r="AF63" t="n">
         <v>1707.21</v>
       </c>
     </row>
@@ -8008,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AA64" t="n">
         <v>9000</v>
@@ -8017,15 +7814,12 @@
         <v>9000</v>
       </c>
       <c r="AC64" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8126,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="Z65" t="n">
-        <v>0</v>
+        <v>39520</v>
       </c>
       <c r="AA65" t="n">
         <v>39520</v>
@@ -8141,9 +7935,6 @@
         <v>39520</v>
       </c>
       <c r="AE65" t="n">
-        <v>39520</v>
-      </c>
-      <c r="AF65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8244,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>0</v>
+        <v>11540</v>
       </c>
       <c r="AA66" t="n">
         <v>11540</v>
@@ -8259,9 +8050,6 @@
         <v>11540</v>
       </c>
       <c r="AE66" t="n">
-        <v>11540</v>
-      </c>
-      <c r="AF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8362,7 +8150,7 @@
         <v>22000</v>
       </c>
       <c r="Z67" t="n">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="AA67" t="n">
         <v>5500</v>
@@ -8377,9 +8165,6 @@
         <v>5500</v>
       </c>
       <c r="AE67" t="n">
-        <v>5500</v>
-      </c>
-      <c r="AF67" t="n">
         <v>5500</v>
       </c>
     </row>
@@ -8480,7 +8265,7 @@
         <v>10000</v>
       </c>
       <c r="Z68" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AA68" t="n">
         <v>2500</v>
@@ -8495,9 +8280,6 @@
         <v>2500</v>
       </c>
       <c r="AE68" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AF68" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -8598,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="AA69" t="n">
         <v>4698</v>
@@ -8607,15 +8389,12 @@
         <v>4698</v>
       </c>
       <c r="AC69" t="n">
-        <v>4698</v>
+        <v>0</v>
       </c>
       <c r="AD69" t="n">
         <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8716,7 +8495,7 @@
         <v>2932</v>
       </c>
       <c r="Z70" t="n">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="AA70" t="n">
         <v>733</v>
@@ -8731,9 +8510,6 @@
         <v>733</v>
       </c>
       <c r="AE70" t="n">
-        <v>733</v>
-      </c>
-      <c r="AF70" t="n">
         <v>733</v>
       </c>
     </row>
@@ -8834,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="AA71" t="n">
         <v>9200</v>
@@ -8849,9 +8625,6 @@
         <v>9200</v>
       </c>
       <c r="AE71" t="n">
-        <v>9200</v>
-      </c>
-      <c r="AF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8952,7 +8725,7 @@
         <v>3800</v>
       </c>
       <c r="Z72" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="AA72" t="n">
         <v>950</v>
@@ -8967,9 +8740,6 @@
         <v>950</v>
       </c>
       <c r="AE72" t="n">
-        <v>950</v>
-      </c>
-      <c r="AF72" t="n">
         <v>950</v>
       </c>
     </row>
@@ -9070,7 +8840,7 @@
         <v>6720</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="AA73" t="n">
         <v>1680</v>
@@ -9085,9 +8855,6 @@
         <v>1680</v>
       </c>
       <c r="AE73" t="n">
-        <v>1680</v>
-      </c>
-      <c r="AF73" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -9188,7 +8955,7 @@
         <v>5100</v>
       </c>
       <c r="Z74" t="n">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="AA74" t="n">
         <v>1275</v>
@@ -9203,9 +8970,6 @@
         <v>1275</v>
       </c>
       <c r="AE74" t="n">
-        <v>1275</v>
-      </c>
-      <c r="AF74" t="n">
         <v>1275</v>
       </c>
     </row>
@@ -9306,7 +9070,7 @@
         <v>12600</v>
       </c>
       <c r="Z75" t="n">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="AA75" t="n">
         <v>3150</v>
@@ -9321,9 +9085,6 @@
         <v>3150</v>
       </c>
       <c r="AE75" t="n">
-        <v>3150</v>
-      </c>
-      <c r="AF75" t="n">
         <v>3150</v>
       </c>
     </row>
@@ -9424,7 +9185,7 @@
         <v>2951.74</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>2951.71</v>
       </c>
       <c r="AA76" t="n">
         <v>2951.71</v>
@@ -9439,9 +9200,6 @@
         <v>2951.71</v>
       </c>
       <c r="AE76" t="n">
-        <v>2951.71</v>
-      </c>
-      <c r="AF76" t="n">
         <v>2951.71</v>
       </c>
     </row>
@@ -9542,7 +9300,7 @@
         <v>6785.2</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>1696.3</v>
       </c>
       <c r="AA77" t="n">
         <v>1696.3</v>
@@ -9557,9 +9315,6 @@
         <v>1696.3</v>
       </c>
       <c r="AE77" t="n">
-        <v>1696.3</v>
-      </c>
-      <c r="AF77" t="n">
         <v>1696.3</v>
       </c>
     </row>
@@ -9660,7 +9415,7 @@
         <v>4800</v>
       </c>
       <c r="Z78" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="AA78" t="n">
         <v>1200</v>
@@ -9675,9 +9430,6 @@
         <v>1200</v>
       </c>
       <c r="AE78" t="n">
-        <v>1200</v>
-      </c>
-      <c r="AF78" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -9778,7 +9530,7 @@
         <v>2000</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AA79" t="n">
         <v>500</v>
@@ -9793,9 +9545,6 @@
         <v>500</v>
       </c>
       <c r="AE79" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF79" t="n">
         <v>500</v>
       </c>
     </row>
@@ -9896,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="Z80" t="n">
-        <v>0</v>
+        <v>12733</v>
       </c>
       <c r="AA80" t="n">
         <v>12733</v>
@@ -9911,9 +9660,6 @@
         <v>12733</v>
       </c>
       <c r="AE80" t="n">
-        <v>12733</v>
-      </c>
-      <c r="AF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10014,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="Z81" t="n">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="AA81" t="n">
         <v>749</v>
@@ -10029,9 +9775,6 @@
         <v>749</v>
       </c>
       <c r="AE81" t="n">
-        <v>749</v>
-      </c>
-      <c r="AF81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10132,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>0</v>
+        <v>3745</v>
       </c>
       <c r="AA82" t="n">
         <v>3745</v>
@@ -10147,9 +9890,6 @@
         <v>3745</v>
       </c>
       <c r="AE82" t="n">
-        <v>3745</v>
-      </c>
-      <c r="AF82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10250,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="Z83" t="n">
-        <v>0</v>
+        <v>5778</v>
       </c>
       <c r="AA83" t="n">
         <v>5778</v>
@@ -10265,9 +10005,6 @@
         <v>5778</v>
       </c>
       <c r="AE83" t="n">
-        <v>5778</v>
-      </c>
-      <c r="AF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10368,7 +10105,7 @@
         <v>5625.74</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>5625.71</v>
       </c>
       <c r="AA84" t="n">
         <v>5625.71</v>
@@ -10383,9 +10120,6 @@
         <v>5625.71</v>
       </c>
       <c r="AE84" t="n">
-        <v>5625.71</v>
-      </c>
-      <c r="AF84" t="n">
         <v>5625.71</v>
       </c>
     </row>
@@ -10486,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>0</v>
+        <v>3038.8</v>
       </c>
       <c r="AA85" t="n">
         <v>3038.8</v>
@@ -10501,9 +10235,6 @@
         <v>3038.8</v>
       </c>
       <c r="AE85" t="n">
-        <v>3038.8</v>
-      </c>
-      <c r="AF85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10604,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="AA86" t="n">
         <v>1070</v>
@@ -10619,9 +10350,6 @@
         <v>1070</v>
       </c>
       <c r="AE86" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AF86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10722,7 +10450,7 @@
         <v>8928.58</v>
       </c>
       <c r="Z87" t="n">
-        <v>0</v>
+        <v>8928.57</v>
       </c>
       <c r="AA87" t="n">
         <v>8928.57</v>
@@ -10737,9 +10465,6 @@
         <v>8928.57</v>
       </c>
       <c r="AE87" t="n">
-        <v>8928.57</v>
-      </c>
-      <c r="AF87" t="n">
         <v>8928.57</v>
       </c>
     </row>
@@ -10840,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="Z88" t="n">
-        <v>0</v>
+        <v>2461</v>
       </c>
       <c r="AA88" t="n">
         <v>2461</v>
@@ -10855,9 +10580,6 @@
         <v>2461</v>
       </c>
       <c r="AE88" t="n">
-        <v>2461</v>
-      </c>
-      <c r="AF88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10958,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="Z89" t="n">
-        <v>0</v>
+        <v>34411.2</v>
       </c>
       <c r="AA89" t="n">
         <v>34411.2</v>
@@ -10973,9 +10695,6 @@
         <v>34411.2</v>
       </c>
       <c r="AE89" t="n">
-        <v>34411.2</v>
-      </c>
-      <c r="AF89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11076,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="Z90" t="n">
-        <v>0</v>
+        <v>1112.8</v>
       </c>
       <c r="AA90" t="n">
         <v>1112.8</v>
@@ -11091,9 +10810,6 @@
         <v>1112.8</v>
       </c>
       <c r="AE90" t="n">
-        <v>1112.8</v>
-      </c>
-      <c r="AF90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11194,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="Z91" t="n">
-        <v>0</v>
+        <v>31116.8</v>
       </c>
       <c r="AA91" t="n">
         <v>31116.8</v>
@@ -11203,15 +10919,12 @@
         <v>31116.8</v>
       </c>
       <c r="AC91" t="n">
-        <v>31116.8</v>
+        <v>0</v>
       </c>
       <c r="AD91" t="n">
         <v>0</v>
       </c>
       <c r="AE91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11312,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>6048</v>
       </c>
       <c r="AA92" t="n">
         <v>6048</v>
@@ -11321,15 +11034,12 @@
         <v>6048</v>
       </c>
       <c r="AC92" t="n">
-        <v>6048</v>
+        <v>0</v>
       </c>
       <c r="AD92" t="n">
         <v>0</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11430,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AA93" t="n">
         <v>1400</v>
@@ -11439,15 +11149,12 @@
         <v>1400</v>
       </c>
       <c r="AC93" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AD93" t="n">
         <v>0</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11548,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="Z94" t="n">
-        <v>0</v>
+        <v>48224</v>
       </c>
       <c r="AA94" t="n">
         <v>48224</v>
@@ -11557,15 +11264,12 @@
         <v>48224</v>
       </c>
       <c r="AC94" t="n">
-        <v>48224</v>
+        <v>0</v>
       </c>
       <c r="AD94" t="n">
         <v>0</v>
       </c>
       <c r="AE94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11666,7 +11370,7 @@
         <v>14000</v>
       </c>
       <c r="Z95" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="AA95" t="n">
         <v>3500</v>
@@ -11681,9 +11385,6 @@
         <v>3500</v>
       </c>
       <c r="AE95" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AF95" t="n">
         <v>3500</v>
       </c>
     </row>
@@ -11784,7 +11485,7 @@
         <v>5242.84</v>
       </c>
       <c r="Z96" t="n">
-        <v>0</v>
+        <v>5242.86</v>
       </c>
       <c r="AA96" t="n">
         <v>5242.86</v>
@@ -11799,9 +11500,6 @@
         <v>5242.86</v>
       </c>
       <c r="AE96" t="n">
-        <v>5242.86</v>
-      </c>
-      <c r="AF96" t="n">
         <v>5242.86</v>
       </c>
     </row>
@@ -11902,7 +11600,7 @@
         <v>30590.84</v>
       </c>
       <c r="Z97" t="n">
-        <v>0</v>
+        <v>30590.86</v>
       </c>
       <c r="AA97" t="n">
         <v>30590.86</v>
@@ -11917,9 +11615,6 @@
         <v>30590.86</v>
       </c>
       <c r="AE97" t="n">
-        <v>30590.86</v>
-      </c>
-      <c r="AF97" t="n">
         <v>30590.86</v>
       </c>
     </row>
@@ -12020,7 +11715,7 @@
         <v>3710586</v>
       </c>
       <c r="Z98" t="n">
-        <v>0</v>
+        <v>927646.5</v>
       </c>
       <c r="AA98" t="n">
         <v>927646.5</v>
@@ -12035,9 +11730,6 @@
         <v>927646.5</v>
       </c>
       <c r="AE98" t="n">
-        <v>927646.5</v>
-      </c>
-      <c r="AF98" t="n">
         <v>927646.5</v>
       </c>
     </row>
@@ -12138,7 +11830,7 @@
         <v>3618760</v>
       </c>
       <c r="Z99" t="n">
-        <v>0</v>
+        <v>904690</v>
       </c>
       <c r="AA99" t="n">
         <v>904690</v>
@@ -12153,9 +11845,6 @@
         <v>904690</v>
       </c>
       <c r="AE99" t="n">
-        <v>904690</v>
-      </c>
-      <c r="AF99" t="n">
         <v>904690</v>
       </c>
     </row>
@@ -12256,7 +11945,7 @@
         <v>6114.42</v>
       </c>
       <c r="Z100" t="n">
-        <v>0</v>
+        <v>6114.43</v>
       </c>
       <c r="AA100" t="n">
         <v>6114.43</v>
@@ -12271,9 +11960,6 @@
         <v>6114.43</v>
       </c>
       <c r="AE100" t="n">
-        <v>6114.43</v>
-      </c>
-      <c r="AF100" t="n">
         <v>6114.43</v>
       </c>
     </row>
@@ -12374,7 +12060,7 @@
         <v>2871.42</v>
       </c>
       <c r="Z101" t="n">
-        <v>0</v>
+        <v>2871.43</v>
       </c>
       <c r="AA101" t="n">
         <v>2871.43</v>
@@ -12389,9 +12075,6 @@
         <v>2871.43</v>
       </c>
       <c r="AE101" t="n">
-        <v>2871.43</v>
-      </c>
-      <c r="AF101" t="n">
         <v>2871.43</v>
       </c>
     </row>
@@ -12492,7 +12175,7 @@
         <v>617.16</v>
       </c>
       <c r="Z102" t="n">
-        <v>0</v>
+        <v>617.14</v>
       </c>
       <c r="AA102" t="n">
         <v>617.14</v>
@@ -12507,9 +12190,6 @@
         <v>617.14</v>
       </c>
       <c r="AE102" t="n">
-        <v>617.14</v>
-      </c>
-      <c r="AF102" t="n">
         <v>617.14</v>
       </c>
     </row>
@@ -12610,7 +12290,7 @@
         <v>-0.01</v>
       </c>
       <c r="Z103" t="n">
-        <v>0</v>
+        <v>26626.29</v>
       </c>
       <c r="AA103" t="n">
         <v>26626.29</v>
@@ -12619,15 +12299,12 @@
         <v>26626.29</v>
       </c>
       <c r="AC103" t="n">
-        <v>26626.29</v>
+        <v>0</v>
       </c>
       <c r="AD103" t="n">
         <v>0</v>
       </c>
       <c r="AE103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12728,7 +12405,7 @@
         <v>1414.26</v>
       </c>
       <c r="Z104" t="n">
-        <v>0</v>
+        <v>1414.29</v>
       </c>
       <c r="AA104" t="n">
         <v>1414.29</v>
@@ -12743,9 +12420,6 @@
         <v>1414.29</v>
       </c>
       <c r="AE104" t="n">
-        <v>1414.29</v>
-      </c>
-      <c r="AF104" t="n">
         <v>1414.29</v>
       </c>
     </row>
@@ -12846,7 +12520,7 @@
         <v>8257.16</v>
       </c>
       <c r="Z105" t="n">
-        <v>0</v>
+        <v>8257.139999999999</v>
       </c>
       <c r="AA105" t="n">
         <v>8257.139999999999</v>
@@ -12861,9 +12535,6 @@
         <v>8257.139999999999</v>
       </c>
       <c r="AE105" t="n">
-        <v>8257.139999999999</v>
-      </c>
-      <c r="AF105" t="n">
         <v>8257.139999999999</v>
       </c>
     </row>
@@ -12964,7 +12635,7 @@
         <v>-0.01</v>
       </c>
       <c r="Z106" t="n">
-        <v>0</v>
+        <v>53439.29</v>
       </c>
       <c r="AA106" t="n">
         <v>53439.29</v>
@@ -12973,15 +12644,12 @@
         <v>53439.29</v>
       </c>
       <c r="AC106" t="n">
-        <v>53439.29</v>
+        <v>0</v>
       </c>
       <c r="AD106" t="n">
         <v>0</v>
       </c>
       <c r="AE106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13082,7 +12750,7 @@
         <v>26133.84</v>
       </c>
       <c r="Z107" t="n">
-        <v>0</v>
+        <v>26133.86</v>
       </c>
       <c r="AA107" t="n">
         <v>26133.86</v>
@@ -13097,9 +12765,6 @@
         <v>26133.86</v>
       </c>
       <c r="AE107" t="n">
-        <v>26133.86</v>
-      </c>
-      <c r="AF107" t="n">
         <v>26133.86</v>
       </c>
     </row>
@@ -13200,7 +12865,7 @@
         <v>1306.58</v>
       </c>
       <c r="Z108" t="n">
-        <v>0</v>
+        <v>1306.57</v>
       </c>
       <c r="AA108" t="n">
         <v>1306.57</v>
@@ -13215,9 +12880,6 @@
         <v>1306.57</v>
       </c>
       <c r="AE108" t="n">
-        <v>1306.57</v>
-      </c>
-      <c r="AF108" t="n">
         <v>1306.57</v>
       </c>
     </row>
@@ -13318,7 +12980,7 @@
         <v>10394.26</v>
       </c>
       <c r="Z109" t="n">
-        <v>0</v>
+        <v>10394.29</v>
       </c>
       <c r="AA109" t="n">
         <v>10394.29</v>
@@ -13333,9 +12995,6 @@
         <v>10394.29</v>
       </c>
       <c r="AE109" t="n">
-        <v>10394.29</v>
-      </c>
-      <c r="AF109" t="n">
         <v>10394.29</v>
       </c>
     </row>
@@ -13436,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="Z110" t="n">
-        <v>0</v>
+        <v>6844.8</v>
       </c>
       <c r="AA110" t="n">
         <v>6844.8</v>
@@ -13445,15 +13104,12 @@
         <v>6844.8</v>
       </c>
       <c r="AC110" t="n">
-        <v>6844.8</v>
+        <v>0</v>
       </c>
       <c r="AD110" t="n">
         <v>0</v>
       </c>
       <c r="AE110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13557,21 +13213,18 @@
         <v>0</v>
       </c>
       <c r="AA111" t="n">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="AB111" t="n">
         <v>3591</v>
       </c>
       <c r="AC111" t="n">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="AD111" t="n">
         <v>0</v>
       </c>
       <c r="AE111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13675,21 +13328,18 @@
         <v>0</v>
       </c>
       <c r="AA112" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="AB112" t="n">
         <v>2250</v>
       </c>
       <c r="AC112" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AD112" t="n">
         <v>0</v>
       </c>
       <c r="AE112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13793,21 +13443,18 @@
         <v>0</v>
       </c>
       <c r="AA113" t="n">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="AB113" t="n">
         <v>9800</v>
       </c>
       <c r="AC113" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="AD113" t="n">
         <v>0</v>
       </c>
       <c r="AE113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13911,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="AA114" t="n">
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="AB114" t="n">
         <v>29400</v>
@@ -13923,9 +13570,6 @@
         <v>29400</v>
       </c>
       <c r="AE114" t="n">
-        <v>29400</v>
-      </c>
-      <c r="AF114" t="n">
         <v>29400</v>
       </c>
     </row>
@@ -14029,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="AA115" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AB115" t="n">
         <v>1400</v>
@@ -14041,9 +13685,6 @@
         <v>1400</v>
       </c>
       <c r="AE115" t="n">
-        <v>1400</v>
-      </c>
-      <c r="AF115" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -14147,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="AA116" t="n">
-        <v>0</v>
+        <v>7419.86</v>
       </c>
       <c r="AB116" t="n">
         <v>7419.86</v>
@@ -14159,9 +13800,6 @@
         <v>7419.86</v>
       </c>
       <c r="AE116" t="n">
-        <v>7419.86</v>
-      </c>
-      <c r="AF116" t="n">
         <v>7419.86</v>
       </c>
     </row>
@@ -14265,21 +13903,18 @@
         <v>0</v>
       </c>
       <c r="AA117" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="AB117" t="n">
         <v>4887</v>
       </c>
       <c r="AC117" t="n">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="AD117" t="n">
         <v>0</v>
       </c>
       <c r="AE117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14383,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="AA118" t="n">
-        <v>0</v>
+        <v>2252</v>
       </c>
       <c r="AB118" t="n">
         <v>2252</v>
@@ -14395,9 +14030,6 @@
         <v>2252</v>
       </c>
       <c r="AE118" t="n">
-        <v>2252</v>
-      </c>
-      <c r="AF118" t="n">
         <v>2252</v>
       </c>
     </row>
@@ -14501,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="AA119" t="n">
-        <v>0</v>
+        <v>3557.14</v>
       </c>
       <c r="AB119" t="n">
         <v>3557.14</v>
@@ -14513,9 +14145,6 @@
         <v>3557.14</v>
       </c>
       <c r="AE119" t="n">
-        <v>3557.14</v>
-      </c>
-      <c r="AF119" t="n">
         <v>3557.14</v>
       </c>
     </row>
@@ -14619,7 +14248,7 @@
         <v>0</v>
       </c>
       <c r="AA120" t="n">
-        <v>0</v>
+        <v>6926.43</v>
       </c>
       <c r="AB120" t="n">
         <v>6926.43</v>
@@ -14631,9 +14260,6 @@
         <v>6926.43</v>
       </c>
       <c r="AE120" t="n">
-        <v>6926.43</v>
-      </c>
-      <c r="AF120" t="n">
         <v>6926.43</v>
       </c>
     </row>
@@ -14737,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="AA121" t="n">
-        <v>0</v>
+        <v>3317.2</v>
       </c>
       <c r="AB121" t="n">
         <v>3317.2</v>
@@ -14749,9 +14375,6 @@
         <v>3317.2</v>
       </c>
       <c r="AE121" t="n">
-        <v>3317.2</v>
-      </c>
-      <c r="AF121" t="n">
         <v>3317.2</v>
       </c>
     </row>
@@ -14855,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="AA122" t="n">
-        <v>0</v>
+        <v>17541.23</v>
       </c>
       <c r="AB122" t="n">
         <v>17541.23</v>
@@ -14867,9 +14490,6 @@
         <v>17541.23</v>
       </c>
       <c r="AE122" t="n">
-        <v>17541.23</v>
-      </c>
-      <c r="AF122" t="n">
         <v>17541.23</v>
       </c>
     </row>
@@ -14973,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="AA123" t="n">
-        <v>0</v>
+        <v>21222.73</v>
       </c>
       <c r="AB123" t="n">
         <v>21222.73</v>
@@ -14985,9 +14605,6 @@
         <v>21222.73</v>
       </c>
       <c r="AE123" t="n">
-        <v>21222.73</v>
-      </c>
-      <c r="AF123" t="n">
         <v>21222.73</v>
       </c>
     </row>
@@ -15091,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="AA124" t="n">
-        <v>0</v>
+        <v>8878.9</v>
       </c>
       <c r="AB124" t="n">
         <v>8878.9</v>
@@ -15103,9 +14720,6 @@
         <v>8878.9</v>
       </c>
       <c r="AE124" t="n">
-        <v>8878.9</v>
-      </c>
-      <c r="AF124" t="n">
         <v>8878.9</v>
       </c>
     </row>
@@ -15209,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="AA125" t="n">
-        <v>0</v>
+        <v>1450.94</v>
       </c>
       <c r="AB125" t="n">
         <v>1450.94</v>
@@ -15221,9 +14835,6 @@
         <v>1450.94</v>
       </c>
       <c r="AE125" t="n">
-        <v>1450.94</v>
-      </c>
-      <c r="AF125" t="n">
         <v>1450.94</v>
       </c>
     </row>
@@ -15327,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="AA126" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="AB126" t="n">
         <v>2900</v>
@@ -15339,9 +14950,6 @@
         <v>2900</v>
       </c>
       <c r="AE126" t="n">
-        <v>2900</v>
-      </c>
-      <c r="AF126" t="n">
         <v>2900</v>
       </c>
     </row>
@@ -15445,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="AA127" t="n">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AB127" t="n">
         <v>11700</v>
@@ -15457,9 +15065,6 @@
         <v>11700</v>
       </c>
       <c r="AE127" t="n">
-        <v>11700</v>
-      </c>
-      <c r="AF127" t="n">
         <v>11700</v>
       </c>
     </row>
@@ -15563,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="AA128" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="AB128" t="n">
         <v>1750</v>
@@ -15575,9 +15180,6 @@
         <v>1750</v>
       </c>
       <c r="AE128" t="n">
-        <v>1750</v>
-      </c>
-      <c r="AF128" t="n">
         <v>1750</v>
       </c>
     </row>
@@ -15684,7 +15286,7 @@
         <v>0</v>
       </c>
       <c r="AB129" t="n">
-        <v>0</v>
+        <v>4088.4</v>
       </c>
       <c r="AC129" t="n">
         <v>4088.4</v>
@@ -15693,9 +15295,6 @@
         <v>4088.4</v>
       </c>
       <c r="AE129" t="n">
-        <v>4088.4</v>
-      </c>
-      <c r="AF129" t="n">
         <v>4088.4</v>
       </c>
     </row>
@@ -15802,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="AB130" t="n">
-        <v>0</v>
+        <v>11270.8</v>
       </c>
       <c r="AC130" t="n">
         <v>11270.8</v>
@@ -15811,9 +15410,6 @@
         <v>11270.8</v>
       </c>
       <c r="AE130" t="n">
-        <v>11270.8</v>
-      </c>
-      <c r="AF130" t="n">
         <v>11270.8</v>
       </c>
     </row>
@@ -15920,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AB131" t="n">
-        <v>0</v>
+        <v>8397.799999999999</v>
       </c>
       <c r="AC131" t="n">
         <v>8397.799999999999</v>
@@ -15929,9 +15525,6 @@
         <v>8397.799999999999</v>
       </c>
       <c r="AE131" t="n">
-        <v>8397.799999999999</v>
-      </c>
-      <c r="AF131" t="n">
         <v>8397.799999999999</v>
       </c>
     </row>
@@ -16038,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="AB132" t="n">
-        <v>0</v>
+        <v>397.8</v>
       </c>
       <c r="AC132" t="n">
         <v>397.8</v>
@@ -16047,9 +15640,6 @@
         <v>397.8</v>
       </c>
       <c r="AE132" t="n">
-        <v>397.8</v>
-      </c>
-      <c r="AF132" t="n">
         <v>397.8</v>
       </c>
     </row>
@@ -16156,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="AB133" t="n">
-        <v>0</v>
+        <v>1296.43</v>
       </c>
       <c r="AC133" t="n">
         <v>1296.43</v>
@@ -16165,9 +15755,6 @@
         <v>1296.43</v>
       </c>
       <c r="AE133" t="n">
-        <v>1296.43</v>
-      </c>
-      <c r="AF133" t="n">
         <v>1296.43</v>
       </c>
     </row>
@@ -16274,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="AB134" t="n">
-        <v>0</v>
+        <v>16280</v>
       </c>
       <c r="AC134" t="n">
         <v>16280</v>
@@ -16283,9 +15870,6 @@
         <v>16280</v>
       </c>
       <c r="AE134" t="n">
-        <v>16280</v>
-      </c>
-      <c r="AF134" t="n">
         <v>16280</v>
       </c>
     </row>
@@ -16392,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="AB135" t="n">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="AC135" t="n">
         <v>4796</v>
@@ -16401,9 +15985,6 @@
         <v>4796</v>
       </c>
       <c r="AE135" t="n">
-        <v>4796</v>
-      </c>
-      <c r="AF135" t="n">
         <v>4796</v>
       </c>
     </row>
@@ -16510,7 +16091,7 @@
         <v>0</v>
       </c>
       <c r="AB136" t="n">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="AC136" t="n">
         <v>1980</v>
@@ -16519,9 +16100,6 @@
         <v>1980</v>
       </c>
       <c r="AE136" t="n">
-        <v>1980</v>
-      </c>
-      <c r="AF136" t="n">
         <v>1980</v>
       </c>
     </row>
@@ -16628,7 +16206,7 @@
         <v>0</v>
       </c>
       <c r="AB137" t="n">
-        <v>0</v>
+        <v>26667</v>
       </c>
       <c r="AC137" t="n">
         <v>26667</v>
@@ -16637,9 +16215,6 @@
         <v>26667</v>
       </c>
       <c r="AE137" t="n">
-        <v>26667</v>
-      </c>
-      <c r="AF137" t="n">
         <v>26667</v>
       </c>
     </row>
@@ -16746,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="AB138" t="n">
-        <v>0</v>
+        <v>1781.4</v>
       </c>
       <c r="AC138" t="n">
         <v>1781.4</v>
@@ -16755,9 +16330,6 @@
         <v>1781.4</v>
       </c>
       <c r="AE138" t="n">
-        <v>1781.4</v>
-      </c>
-      <c r="AF138" t="n">
         <v>1781.4</v>
       </c>
     </row>
@@ -16864,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="AB139" t="n">
-        <v>0</v>
+        <v>11823.2</v>
       </c>
       <c r="AC139" t="n">
         <v>11823.2</v>
@@ -16873,9 +16445,6 @@
         <v>11823.2</v>
       </c>
       <c r="AE139" t="n">
-        <v>11823.2</v>
-      </c>
-      <c r="AF139" t="n">
         <v>11823.2</v>
       </c>
     </row>
@@ -16982,7 +16551,7 @@
         <v>0</v>
       </c>
       <c r="AB140" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AC140" t="n">
         <v>450</v>
@@ -16991,9 +16560,6 @@
         <v>450</v>
       </c>
       <c r="AE140" t="n">
-        <v>450</v>
-      </c>
-      <c r="AF140" t="n">
         <v>450</v>
       </c>
     </row>
@@ -17100,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="AB141" t="n">
-        <v>0</v>
+        <v>55801</v>
       </c>
       <c r="AC141" t="n">
         <v>55801</v>
@@ -17109,9 +16675,6 @@
         <v>55801</v>
       </c>
       <c r="AE141" t="n">
-        <v>55801</v>
-      </c>
-      <c r="AF141" t="n">
         <v>55801</v>
       </c>
     </row>
@@ -17218,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="AB142" t="n">
-        <v>0</v>
+        <v>26077.4</v>
       </c>
       <c r="AC142" t="n">
         <v>26077.4</v>
@@ -17227,9 +16790,6 @@
         <v>26077.4</v>
       </c>
       <c r="AE142" t="n">
-        <v>26077.4</v>
-      </c>
-      <c r="AF142" t="n">
         <v>26077.4</v>
       </c>
     </row>
@@ -17339,15 +16899,12 @@
         <v>0</v>
       </c>
       <c r="AC143" t="n">
-        <v>0</v>
+        <v>329650</v>
       </c>
       <c r="AD143" t="n">
         <v>329650</v>
       </c>
       <c r="AE143" t="n">
-        <v>329650</v>
-      </c>
-      <c r="AF143" t="n">
         <v>329650</v>
       </c>
     </row>
@@ -17457,15 +17014,12 @@
         <v>0</v>
       </c>
       <c r="AC144" t="n">
-        <v>0</v>
+        <v>3033.1</v>
       </c>
       <c r="AD144" t="n">
         <v>3033.1</v>
       </c>
       <c r="AE144" t="n">
-        <v>3033.1</v>
-      </c>
-      <c r="AF144" t="n">
         <v>3033.1</v>
       </c>
     </row>
@@ -17575,15 +17129,12 @@
         <v>0</v>
       </c>
       <c r="AC145" t="n">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="AD145" t="n">
         <v>23000</v>
       </c>
       <c r="AE145" t="n">
-        <v>23000</v>
-      </c>
-      <c r="AF145" t="n">
         <v>23000</v>
       </c>
     </row>
@@ -17693,15 +17244,12 @@
         <v>0</v>
       </c>
       <c r="AC146" t="n">
-        <v>0</v>
+        <v>16424.6</v>
       </c>
       <c r="AD146" t="n">
         <v>16424.6</v>
       </c>
       <c r="AE146" t="n">
-        <v>16424.6</v>
-      </c>
-      <c r="AF146" t="n">
         <v>16424.6</v>
       </c>
     </row>
@@ -17811,15 +17359,12 @@
         <v>0</v>
       </c>
       <c r="AC147" t="n">
-        <v>0</v>
+        <v>6480.46</v>
       </c>
       <c r="AD147" t="n">
         <v>6480.46</v>
       </c>
       <c r="AE147" t="n">
-        <v>6480.46</v>
-      </c>
-      <c r="AF147" t="n">
         <v>6480.46</v>
       </c>
     </row>
@@ -17929,15 +17474,12 @@
         <v>0</v>
       </c>
       <c r="AC148" t="n">
-        <v>0</v>
+        <v>2145</v>
       </c>
       <c r="AD148" t="n">
         <v>2145</v>
       </c>
       <c r="AE148" t="n">
-        <v>2145</v>
-      </c>
-      <c r="AF148" t="n">
         <v>2145</v>
       </c>
     </row>
@@ -18047,15 +17589,12 @@
         <v>0</v>
       </c>
       <c r="AC149" t="n">
-        <v>0</v>
+        <v>1948.5</v>
       </c>
       <c r="AD149" t="n">
         <v>1948.5</v>
       </c>
       <c r="AE149" t="n">
-        <v>1948.5</v>
-      </c>
-      <c r="AF149" t="n">
         <v>1948.5</v>
       </c>
     </row>
@@ -18165,15 +17704,12 @@
         <v>0</v>
       </c>
       <c r="AC150" t="n">
-        <v>0</v>
+        <v>642.86</v>
       </c>
       <c r="AD150" t="n">
         <v>642.86</v>
       </c>
       <c r="AE150" t="n">
-        <v>642.86</v>
-      </c>
-      <c r="AF150" t="n">
         <v>642.86</v>
       </c>
     </row>
@@ -18283,15 +17819,12 @@
         <v>0</v>
       </c>
       <c r="AC151" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AD151" t="n">
         <v>500</v>
       </c>
       <c r="AE151" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF151" t="n">
         <v>500</v>
       </c>
     </row>
@@ -18401,15 +17934,12 @@
         <v>0</v>
       </c>
       <c r="AC152" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AD152" t="n">
         <v>500</v>
       </c>
       <c r="AE152" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF152" t="n">
         <v>500</v>
       </c>
     </row>
@@ -18519,15 +18049,12 @@
         <v>0</v>
       </c>
       <c r="AC153" t="n">
-        <v>0</v>
+        <v>3963</v>
       </c>
       <c r="AD153" t="n">
         <v>3963</v>
       </c>
       <c r="AE153" t="n">
-        <v>3963</v>
-      </c>
-      <c r="AF153" t="n">
         <v>3963</v>
       </c>
     </row>
@@ -18637,15 +18164,12 @@
         <v>0</v>
       </c>
       <c r="AC154" t="n">
-        <v>0</v>
+        <v>1319.38</v>
       </c>
       <c r="AD154" t="n">
         <v>1319.38</v>
       </c>
       <c r="AE154" t="n">
-        <v>1319.38</v>
-      </c>
-      <c r="AF154" t="n">
         <v>1319.38</v>
       </c>
     </row>
@@ -18755,15 +18279,12 @@
         <v>0</v>
       </c>
       <c r="AC155" t="n">
-        <v>0</v>
+        <v>198.96</v>
       </c>
       <c r="AD155" t="n">
         <v>198.96</v>
       </c>
       <c r="AE155" t="n">
-        <v>198.96</v>
-      </c>
-      <c r="AF155" t="n">
         <v>198.96</v>
       </c>
     </row>
@@ -18873,15 +18394,12 @@
         <v>0</v>
       </c>
       <c r="AC156" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="AD156" t="n">
         <v>12500</v>
       </c>
       <c r="AE156" t="n">
-        <v>12500</v>
-      </c>
-      <c r="AF156" t="n">
         <v>12500</v>
       </c>
     </row>
@@ -18991,15 +18509,12 @@
         <v>0</v>
       </c>
       <c r="AC157" t="n">
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="AD157" t="n">
         <v>1925</v>
       </c>
       <c r="AE157" t="n">
-        <v>1925</v>
-      </c>
-      <c r="AF157" t="n">
         <v>1925</v>
       </c>
     </row>
@@ -19109,15 +18624,12 @@
         <v>0</v>
       </c>
       <c r="AC158" t="n">
-        <v>0</v>
+        <v>69.83</v>
       </c>
       <c r="AD158" t="n">
         <v>69.83</v>
       </c>
       <c r="AE158" t="n">
-        <v>69.83</v>
-      </c>
-      <c r="AF158" t="n">
         <v>69.83</v>
       </c>
     </row>
@@ -19227,15 +18739,12 @@
         <v>0</v>
       </c>
       <c r="AC159" t="n">
-        <v>0</v>
+        <v>6215</v>
       </c>
       <c r="AD159" t="n">
         <v>6215</v>
       </c>
       <c r="AE159" t="n">
-        <v>6215</v>
-      </c>
-      <c r="AF159" t="n">
         <v>6215</v>
       </c>
     </row>
@@ -19345,15 +18854,12 @@
         <v>0</v>
       </c>
       <c r="AC160" t="n">
-        <v>0</v>
+        <v>273.75</v>
       </c>
       <c r="AD160" t="n">
         <v>273.75</v>
       </c>
       <c r="AE160" t="n">
-        <v>273.75</v>
-      </c>
-      <c r="AF160" t="n">
         <v>273.75</v>
       </c>
     </row>
@@ -19463,15 +18969,12 @@
         <v>0</v>
       </c>
       <c r="AC161" t="n">
-        <v>0</v>
+        <v>21924</v>
       </c>
       <c r="AD161" t="n">
         <v>21924</v>
       </c>
       <c r="AE161" t="n">
-        <v>21924</v>
-      </c>
-      <c r="AF161" t="n">
         <v>21924</v>
       </c>
     </row>
@@ -19581,15 +19084,12 @@
         <v>0</v>
       </c>
       <c r="AC162" t="n">
-        <v>0</v>
+        <v>2543.33</v>
       </c>
       <c r="AD162" t="n">
         <v>2543.33</v>
       </c>
       <c r="AE162" t="n">
-        <v>2543.33</v>
-      </c>
-      <c r="AF162" t="n">
         <v>2543.33</v>
       </c>
     </row>
@@ -19699,15 +19199,12 @@
         <v>0</v>
       </c>
       <c r="AC163" t="n">
-        <v>0</v>
+        <v>2333.33</v>
       </c>
       <c r="AD163" t="n">
         <v>2333.33</v>
       </c>
       <c r="AE163" t="n">
-        <v>2333.33</v>
-      </c>
-      <c r="AF163" t="n">
         <v>2333.33</v>
       </c>
     </row>
@@ -19817,15 +19314,12 @@
         <v>0</v>
       </c>
       <c r="AC164" t="n">
-        <v>0</v>
+        <v>2543.33</v>
       </c>
       <c r="AD164" t="n">
         <v>2543.33</v>
       </c>
       <c r="AE164" t="n">
-        <v>2543.33</v>
-      </c>
-      <c r="AF164" t="n">
         <v>2543.33</v>
       </c>
     </row>
@@ -19935,15 +19429,12 @@
         <v>0</v>
       </c>
       <c r="AC165" t="n">
-        <v>0</v>
+        <v>79.33</v>
       </c>
       <c r="AD165" t="n">
         <v>79.33</v>
       </c>
       <c r="AE165" t="n">
-        <v>79.33</v>
-      </c>
-      <c r="AF165" t="n">
         <v>79.33</v>
       </c>
     </row>
@@ -20053,15 +19544,12 @@
         <v>0</v>
       </c>
       <c r="AC166" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AD166" t="n">
         <v>500</v>
       </c>
       <c r="AE166" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF166" t="n">
         <v>500</v>
       </c>
     </row>
@@ -20171,15 +19659,12 @@
         <v>0</v>
       </c>
       <c r="AC167" t="n">
-        <v>0</v>
+        <v>2067</v>
       </c>
       <c r="AD167" t="n">
         <v>2067</v>
       </c>
       <c r="AE167" t="n">
-        <v>2067</v>
-      </c>
-      <c r="AF167" t="n">
         <v>2067</v>
       </c>
     </row>
@@ -20290,15 +19775,12 @@
         <v>0</v>
       </c>
       <c r="AC168" t="n">
-        <v>0</v>
+        <v>466.67</v>
       </c>
       <c r="AD168" t="n">
         <v>466.67</v>
       </c>
       <c r="AE168" t="n">
-        <v>466.67</v>
-      </c>
-      <c r="AF168" t="n">
         <v>466.67</v>
       </c>
     </row>
@@ -20408,15 +19890,12 @@
         <v>0</v>
       </c>
       <c r="AC169" t="n">
-        <v>0</v>
+        <v>3666.67</v>
       </c>
       <c r="AD169" t="n">
         <v>3666.67</v>
       </c>
       <c r="AE169" t="n">
-        <v>3666.67</v>
-      </c>
-      <c r="AF169" t="n">
         <v>3666.67</v>
       </c>
     </row>
@@ -20526,15 +20005,12 @@
         <v>0</v>
       </c>
       <c r="AC170" t="n">
-        <v>0</v>
+        <v>8933.33</v>
       </c>
       <c r="AD170" t="n">
         <v>8933.33</v>
       </c>
       <c r="AE170" t="n">
-        <v>8933.33</v>
-      </c>
-      <c r="AF170" t="n">
         <v>8933.33</v>
       </c>
     </row>
@@ -20644,15 +20120,12 @@
         <v>0</v>
       </c>
       <c r="AC171" t="n">
-        <v>0</v>
+        <v>2833.33</v>
       </c>
       <c r="AD171" t="n">
         <v>2833.33</v>
       </c>
       <c r="AE171" t="n">
-        <v>2833.33</v>
-      </c>
-      <c r="AF171" t="n">
         <v>2833.33</v>
       </c>
     </row>
@@ -20762,15 +20235,12 @@
         <v>0</v>
       </c>
       <c r="AC172" t="n">
-        <v>0</v>
+        <v>7350</v>
       </c>
       <c r="AD172" t="n">
         <v>7350</v>
       </c>
       <c r="AE172" t="n">
-        <v>7350</v>
-      </c>
-      <c r="AF172" t="n">
         <v>7350</v>
       </c>
     </row>
@@ -20880,15 +20350,12 @@
         <v>0</v>
       </c>
       <c r="AC173" t="n">
-        <v>0</v>
+        <v>10530</v>
       </c>
       <c r="AD173" t="n">
         <v>10530</v>
       </c>
       <c r="AE173" t="n">
-        <v>10530</v>
-      </c>
-      <c r="AF173" t="n">
         <v>10530</v>
       </c>
     </row>
@@ -20998,15 +20465,12 @@
         <v>0</v>
       </c>
       <c r="AC174" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="AD174" t="n">
         <v>359</v>
       </c>
       <c r="AE174" t="n">
-        <v>359</v>
-      </c>
-      <c r="AF174" t="n">
         <v>359</v>
       </c>
     </row>
@@ -21116,15 +20580,12 @@
         <v>0</v>
       </c>
       <c r="AC175" t="n">
-        <v>0</v>
+        <v>292.5</v>
       </c>
       <c r="AD175" t="n">
         <v>292.5</v>
       </c>
       <c r="AE175" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="AF175" t="n">
         <v>292.5</v>
       </c>
     </row>
@@ -21234,15 +20695,12 @@
         <v>0</v>
       </c>
       <c r="AC176" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AD176" t="n">
         <v>450</v>
       </c>
       <c r="AE176" t="n">
-        <v>450</v>
-      </c>
-      <c r="AF176" t="n">
         <v>450</v>
       </c>
     </row>
@@ -21352,15 +20810,12 @@
         <v>0</v>
       </c>
       <c r="AC177" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AD177" t="n">
         <v>190</v>
       </c>
       <c r="AE177" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF177" t="n">
         <v>190</v>
       </c>
     </row>
@@ -21470,15 +20925,12 @@
         <v>0</v>
       </c>
       <c r="AC178" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AD178" t="n">
         <v>220</v>
       </c>
       <c r="AE178" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF178" t="n">
         <v>220</v>
       </c>
     </row>
@@ -21588,15 +21040,12 @@
         <v>0</v>
       </c>
       <c r="AC179" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AD179" t="n">
         <v>900</v>
       </c>
       <c r="AE179" t="n">
-        <v>900</v>
-      </c>
-      <c r="AF179" t="n">
         <v>900</v>
       </c>
     </row>
@@ -21706,15 +21155,12 @@
         <v>0</v>
       </c>
       <c r="AC180" t="n">
-        <v>0</v>
+        <v>958.5</v>
       </c>
       <c r="AD180" t="n">
         <v>958.5</v>
       </c>
       <c r="AE180" t="n">
-        <v>958.5</v>
-      </c>
-      <c r="AF180" t="n">
         <v>958.5</v>
       </c>
     </row>
@@ -21824,15 +21270,12 @@
         <v>0</v>
       </c>
       <c r="AC181" t="n">
-        <v>0</v>
+        <v>81.25</v>
       </c>
       <c r="AD181" t="n">
         <v>81.25</v>
       </c>
       <c r="AE181" t="n">
-        <v>81.25</v>
-      </c>
-      <c r="AF181" t="n">
         <v>81.25</v>
       </c>
     </row>
@@ -21942,15 +21385,12 @@
         <v>0</v>
       </c>
       <c r="AC182" t="n">
-        <v>0</v>
+        <v>178.75</v>
       </c>
       <c r="AD182" t="n">
         <v>178.75</v>
       </c>
       <c r="AE182" t="n">
-        <v>178.75</v>
-      </c>
-      <c r="AF182" t="n">
         <v>178.75</v>
       </c>
     </row>
@@ -22061,15 +21501,12 @@
         <v>0</v>
       </c>
       <c r="AC183" t="n">
-        <v>0</v>
+        <v>227.5</v>
       </c>
       <c r="AD183" t="n">
         <v>227.5</v>
       </c>
       <c r="AE183" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="AF183" t="n">
         <v>227.5</v>
       </c>
     </row>
@@ -22179,15 +21616,12 @@
         <v>0</v>
       </c>
       <c r="AC184" t="n">
-        <v>0</v>
+        <v>87.75</v>
       </c>
       <c r="AD184" t="n">
         <v>87.75</v>
       </c>
       <c r="AE184" t="n">
-        <v>87.75</v>
-      </c>
-      <c r="AF184" t="n">
         <v>87.75</v>
       </c>
     </row>
@@ -22297,15 +21731,12 @@
         <v>0</v>
       </c>
       <c r="AC185" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AD185" t="n">
         <v>350</v>
       </c>
       <c r="AE185" t="n">
-        <v>350</v>
-      </c>
-      <c r="AF185" t="n">
         <v>350</v>
       </c>
     </row>
@@ -22415,15 +21846,12 @@
         <v>0</v>
       </c>
       <c r="AC186" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD186" t="n">
         <v>21</v>
       </c>
       <c r="AE186" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF186" t="n">
         <v>21</v>
       </c>
     </row>
@@ -22533,15 +21961,12 @@
         <v>0</v>
       </c>
       <c r="AC187" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AD187" t="n">
         <v>189</v>
       </c>
       <c r="AE187" t="n">
-        <v>189</v>
-      </c>
-      <c r="AF187" t="n">
         <v>189</v>
       </c>
     </row>
@@ -22651,15 +22076,12 @@
         <v>0</v>
       </c>
       <c r="AC188" t="n">
-        <v>0</v>
+        <v>6250</v>
       </c>
       <c r="AD188" t="n">
         <v>6250</v>
       </c>
       <c r="AE188" t="n">
-        <v>6250</v>
-      </c>
-      <c r="AF188" t="n">
         <v>6250</v>
       </c>
     </row>
@@ -22769,15 +22191,12 @@
         <v>0</v>
       </c>
       <c r="AC189" t="n">
-        <v>0</v>
+        <v>1245</v>
       </c>
       <c r="AD189" t="n">
         <v>1245</v>
       </c>
       <c r="AE189" t="n">
-        <v>1245</v>
-      </c>
-      <c r="AF189" t="n">
         <v>1245</v>
       </c>
     </row>
@@ -22887,15 +22306,12 @@
         <v>0</v>
       </c>
       <c r="AC190" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="AD190" t="n">
         <v>325</v>
       </c>
       <c r="AE190" t="n">
-        <v>325</v>
-      </c>
-      <c r="AF190" t="n">
         <v>325</v>
       </c>
     </row>
@@ -23005,15 +22421,12 @@
         <v>0</v>
       </c>
       <c r="AC191" t="n">
-        <v>0</v>
+        <v>187.5</v>
       </c>
       <c r="AD191" t="n">
         <v>187.5</v>
       </c>
       <c r="AE191" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="AF191" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -23123,15 +22536,12 @@
         <v>0</v>
       </c>
       <c r="AC192" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="AD192" t="n">
         <v>740</v>
       </c>
       <c r="AE192" t="n">
-        <v>740</v>
-      </c>
-      <c r="AF192" t="n">
         <v>740</v>
       </c>
     </row>
@@ -23241,15 +22651,12 @@
         <v>0</v>
       </c>
       <c r="AC193" t="n">
-        <v>0</v>
+        <v>1993.33</v>
       </c>
       <c r="AD193" t="n">
         <v>1993.33</v>
       </c>
       <c r="AE193" t="n">
-        <v>1993.33</v>
-      </c>
-      <c r="AF193" t="n">
         <v>1993.33</v>
       </c>
     </row>
@@ -23359,15 +22766,12 @@
         <v>0</v>
       </c>
       <c r="AC194" t="n">
-        <v>0</v>
+        <v>416.67</v>
       </c>
       <c r="AD194" t="n">
         <v>416.67</v>
       </c>
       <c r="AE194" t="n">
-        <v>416.67</v>
-      </c>
-      <c r="AF194" t="n">
         <v>416.67</v>
       </c>
     </row>
@@ -23477,15 +22881,12 @@
         <v>0</v>
       </c>
       <c r="AC195" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="AD195" t="n">
         <v>810</v>
       </c>
       <c r="AE195" t="n">
-        <v>810</v>
-      </c>
-      <c r="AF195" t="n">
         <v>810</v>
       </c>
     </row>
@@ -23595,15 +22996,12 @@
         <v>0</v>
       </c>
       <c r="AC196" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AD196" t="n">
         <v>500</v>
       </c>
       <c r="AE196" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF196" t="n">
         <v>500</v>
       </c>
     </row>
@@ -23713,15 +23111,12 @@
         <v>0</v>
       </c>
       <c r="AC197" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AD197" t="n">
         <v>175</v>
       </c>
       <c r="AE197" t="n">
-        <v>175</v>
-      </c>
-      <c r="AF197" t="n">
         <v>175</v>
       </c>
     </row>
@@ -23831,15 +23226,12 @@
         <v>0</v>
       </c>
       <c r="AC198" t="n">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="AD198" t="n">
         <v>1225</v>
       </c>
       <c r="AE198" t="n">
-        <v>1225</v>
-      </c>
-      <c r="AF198" t="n">
         <v>1225</v>
       </c>
     </row>
@@ -23949,15 +23341,12 @@
         <v>0</v>
       </c>
       <c r="AC199" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="AD199" t="n">
         <v>224</v>
       </c>
       <c r="AE199" t="n">
-        <v>224</v>
-      </c>
-      <c r="AF199" t="n">
         <v>224</v>
       </c>
     </row>
@@ -24067,15 +23456,12 @@
         <v>0</v>
       </c>
       <c r="AC200" t="n">
-        <v>0</v>
+        <v>137.5</v>
       </c>
       <c r="AD200" t="n">
         <v>137.5</v>
       </c>
       <c r="AE200" t="n">
-        <v>137.5</v>
-      </c>
-      <c r="AF200" t="n">
         <v>137.5</v>
       </c>
     </row>
@@ -24185,15 +23571,12 @@
         <v>0</v>
       </c>
       <c r="AC201" t="n">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="AD201" t="n">
         <v>875</v>
       </c>
       <c r="AE201" t="n">
-        <v>875</v>
-      </c>
-      <c r="AF201" t="n">
         <v>875</v>
       </c>
     </row>
@@ -24303,15 +23686,12 @@
         <v>0</v>
       </c>
       <c r="AC202" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AD202" t="n">
         <v>140</v>
       </c>
       <c r="AE202" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF202" t="n">
         <v>140</v>
       </c>
     </row>
@@ -24421,15 +23801,12 @@
         <v>0</v>
       </c>
       <c r="AC203" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="AD203" t="n">
         <v>5740</v>
       </c>
       <c r="AE203" t="n">
-        <v>5740</v>
-      </c>
-      <c r="AF203" t="n">
         <v>5740</v>
       </c>
     </row>
@@ -24539,15 +23916,12 @@
         <v>0</v>
       </c>
       <c r="AC204" t="n">
-        <v>0</v>
+        <v>13100</v>
       </c>
       <c r="AD204" t="n">
         <v>13100</v>
       </c>
       <c r="AE204" t="n">
-        <v>13100</v>
-      </c>
-      <c r="AF204" t="n">
         <v>13100</v>
       </c>
     </row>
@@ -24657,15 +24031,12 @@
         <v>0</v>
       </c>
       <c r="AC205" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AD205" t="n">
         <v>104</v>
       </c>
       <c r="AE205" t="n">
-        <v>104</v>
-      </c>
-      <c r="AF205" t="n">
         <v>104</v>
       </c>
     </row>
@@ -24775,15 +24146,12 @@
         <v>0</v>
       </c>
       <c r="AC206" t="n">
-        <v>0</v>
+        <v>1489.33</v>
       </c>
       <c r="AD206" t="n">
         <v>1489.33</v>
       </c>
       <c r="AE206" t="n">
-        <v>1489.33</v>
-      </c>
-      <c r="AF206" t="n">
         <v>1489.33</v>
       </c>
     </row>
@@ -24893,15 +24261,12 @@
         <v>0</v>
       </c>
       <c r="AC207" t="n">
-        <v>0</v>
+        <v>3490.67</v>
       </c>
       <c r="AD207" t="n">
         <v>3490.67</v>
       </c>
       <c r="AE207" t="n">
-        <v>3490.67</v>
-      </c>
-      <c r="AF207" t="n">
         <v>3490.67</v>
       </c>
     </row>
@@ -25011,15 +24376,12 @@
         <v>0</v>
       </c>
       <c r="AC208" t="n">
-        <v>0</v>
+        <v>791.67</v>
       </c>
       <c r="AD208" t="n">
         <v>791.67</v>
       </c>
       <c r="AE208" t="n">
-        <v>791.67</v>
-      </c>
-      <c r="AF208" t="n">
         <v>791.67</v>
       </c>
     </row>
@@ -25129,15 +24491,12 @@
         <v>0</v>
       </c>
       <c r="AC209" t="n">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="AD209" t="n">
         <v>1045</v>
       </c>
       <c r="AE209" t="n">
-        <v>1045</v>
-      </c>
-      <c r="AF209" t="n">
         <v>1045</v>
       </c>
     </row>
@@ -25247,15 +24606,12 @@
         <v>0</v>
       </c>
       <c r="AC210" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AD210" t="n">
         <v>200</v>
       </c>
       <c r="AE210" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF210" t="n">
         <v>200</v>
       </c>
     </row>
@@ -25365,15 +24721,12 @@
         <v>0</v>
       </c>
       <c r="AC211" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="AD211" t="n">
         <v>402</v>
       </c>
       <c r="AE211" t="n">
-        <v>402</v>
-      </c>
-      <c r="AF211" t="n">
         <v>402</v>
       </c>
     </row>
@@ -25483,15 +24836,12 @@
         <v>0</v>
       </c>
       <c r="AC212" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="AD212" t="n">
         <v>550</v>
       </c>
       <c r="AE212" t="n">
-        <v>550</v>
-      </c>
-      <c r="AF212" t="n">
         <v>550</v>
       </c>
     </row>
@@ -25601,15 +24951,12 @@
         <v>0</v>
       </c>
       <c r="AC213" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AD213" t="n">
         <v>130</v>
       </c>
       <c r="AE213" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF213" t="n">
         <v>130</v>
       </c>
     </row>
@@ -25719,15 +25066,12 @@
         <v>0</v>
       </c>
       <c r="AC214" t="n">
-        <v>0</v>
+        <v>1546.67</v>
       </c>
       <c r="AD214" t="n">
         <v>1546.67</v>
       </c>
       <c r="AE214" t="n">
-        <v>1546.67</v>
-      </c>
-      <c r="AF214" t="n">
         <v>1546.67</v>
       </c>
     </row>
@@ -25837,15 +25181,12 @@
         <v>0</v>
       </c>
       <c r="AC215" t="n">
-        <v>0</v>
+        <v>233.33</v>
       </c>
       <c r="AD215" t="n">
         <v>233.33</v>
       </c>
       <c r="AE215" t="n">
-        <v>233.33</v>
-      </c>
-      <c r="AF215" t="n">
         <v>233.33</v>
       </c>
     </row>
@@ -25955,15 +25296,12 @@
         <v>0</v>
       </c>
       <c r="AC216" t="n">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="AD216" t="n">
         <v>5250</v>
       </c>
       <c r="AE216" t="n">
-        <v>5250</v>
-      </c>
-      <c r="AF216" t="n">
         <v>5250</v>
       </c>
     </row>
@@ -26073,15 +25411,12 @@
         <v>0</v>
       </c>
       <c r="AC217" t="n">
-        <v>0</v>
+        <v>11666.67</v>
       </c>
       <c r="AD217" t="n">
         <v>11666.67</v>
       </c>
       <c r="AE217" t="n">
-        <v>11666.67</v>
-      </c>
-      <c r="AF217" t="n">
         <v>11666.67</v>
       </c>
     </row>
@@ -26191,15 +25526,12 @@
         <v>0</v>
       </c>
       <c r="AC218" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="AD218" t="n">
         <v>6500</v>
       </c>
       <c r="AE218" t="n">
-        <v>6500</v>
-      </c>
-      <c r="AF218" t="n">
         <v>6500</v>
       </c>
     </row>
@@ -26309,15 +25641,12 @@
         <v>0</v>
       </c>
       <c r="AC219" t="n">
-        <v>0</v>
+        <v>2033.33</v>
       </c>
       <c r="AD219" t="n">
         <v>2033.33</v>
       </c>
       <c r="AE219" t="n">
-        <v>2033.33</v>
-      </c>
-      <c r="AF219" t="n">
         <v>2033.33</v>
       </c>
     </row>
@@ -26427,15 +25756,12 @@
         <v>0</v>
       </c>
       <c r="AC220" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD220" t="n">
         <v>1000</v>
       </c>
       <c r="AE220" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF220" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -26545,15 +25871,12 @@
         <v>0</v>
       </c>
       <c r="AC221" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="AD221" t="n">
         <v>855</v>
       </c>
       <c r="AE221" t="n">
-        <v>855</v>
-      </c>
-      <c r="AF221" t="n">
         <v>855</v>
       </c>
     </row>
@@ -26663,15 +25986,12 @@
         <v>0</v>
       </c>
       <c r="AC222" t="n">
-        <v>0</v>
+        <v>2925</v>
       </c>
       <c r="AD222" t="n">
         <v>2925</v>
       </c>
       <c r="AE222" t="n">
-        <v>2925</v>
-      </c>
-      <c r="AF222" t="n">
         <v>2925</v>
       </c>
     </row>
@@ -26781,15 +26101,12 @@
         <v>0</v>
       </c>
       <c r="AC223" t="n">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="AD223" t="n">
         <v>2040</v>
       </c>
       <c r="AE223" t="n">
-        <v>2040</v>
-      </c>
-      <c r="AF223" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -26899,15 +26216,12 @@
         <v>0</v>
       </c>
       <c r="AC224" t="n">
-        <v>0</v>
+        <v>276.25</v>
       </c>
       <c r="AD224" t="n">
         <v>276.25</v>
       </c>
       <c r="AE224" t="n">
-        <v>276.25</v>
-      </c>
-      <c r="AF224" t="n">
         <v>276.25</v>
       </c>
     </row>
@@ -27017,15 +26331,12 @@
         <v>0</v>
       </c>
       <c r="AC225" t="n">
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="AD225" t="n">
         <v>5425</v>
       </c>
       <c r="AE225" t="n">
-        <v>5425</v>
-      </c>
-      <c r="AF225" t="n">
         <v>5425</v>
       </c>
     </row>
@@ -27135,15 +26446,12 @@
         <v>0</v>
       </c>
       <c r="AC226" t="n">
-        <v>0</v>
+        <v>7133.33</v>
       </c>
       <c r="AD226" t="n">
         <v>7133.33</v>
       </c>
       <c r="AE226" t="n">
-        <v>7133.33</v>
-      </c>
-      <c r="AF226" t="n">
         <v>7133.33</v>
       </c>
     </row>
@@ -27253,15 +26561,12 @@
         <v>0</v>
       </c>
       <c r="AC227" t="n">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="AD227" t="n">
         <v>1105</v>
       </c>
       <c r="AE227" t="n">
-        <v>1105</v>
-      </c>
-      <c r="AF227" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -27371,15 +26676,12 @@
         <v>0</v>
       </c>
       <c r="AC228" t="n">
-        <v>0</v>
+        <v>1466.67</v>
       </c>
       <c r="AD228" t="n">
         <v>1466.67</v>
       </c>
       <c r="AE228" t="n">
-        <v>1466.67</v>
-      </c>
-      <c r="AF228" t="n">
         <v>1466.67</v>
       </c>
     </row>
@@ -27489,15 +26791,12 @@
         <v>0</v>
       </c>
       <c r="AC229" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD229" t="n">
         <v>980</v>
       </c>
       <c r="AE229" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF229" t="n">
         <v>980</v>
       </c>
     </row>
@@ -27607,15 +26906,12 @@
         <v>0</v>
       </c>
       <c r="AC230" t="n">
-        <v>0</v>
+        <v>47.67</v>
       </c>
       <c r="AD230" t="n">
         <v>47.67</v>
       </c>
       <c r="AE230" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="AF230" t="n">
         <v>47.67</v>
       </c>
     </row>
@@ -27725,15 +27021,12 @@
         <v>0</v>
       </c>
       <c r="AC231" t="n">
-        <v>0</v>
+        <v>259.67</v>
       </c>
       <c r="AD231" t="n">
         <v>259.67</v>
       </c>
       <c r="AE231" t="n">
-        <v>259.67</v>
-      </c>
-      <c r="AF231" t="n">
         <v>259.67</v>
       </c>
     </row>
@@ -27843,15 +27136,12 @@
         <v>0</v>
       </c>
       <c r="AC232" t="n">
-        <v>0</v>
+        <v>3810</v>
       </c>
       <c r="AD232" t="n">
         <v>3810</v>
       </c>
       <c r="AE232" t="n">
-        <v>3810</v>
-      </c>
-      <c r="AF232" t="n">
         <v>3810</v>
       </c>
     </row>
@@ -27961,15 +27251,12 @@
         <v>0</v>
       </c>
       <c r="AC233" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="AD233" t="n">
         <v>850</v>
       </c>
       <c r="AE233" t="n">
-        <v>850</v>
-      </c>
-      <c r="AF233" t="n">
         <v>850</v>
       </c>
     </row>
@@ -28079,15 +27366,12 @@
         <v>0</v>
       </c>
       <c r="AC234" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AD234" t="n">
         <v>6000</v>
       </c>
       <c r="AE234" t="n">
-        <v>6000</v>
-      </c>
-      <c r="AF234" t="n">
         <v>6000</v>
       </c>
     </row>
@@ -28197,15 +27481,12 @@
         <v>0</v>
       </c>
       <c r="AC235" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="AD235" t="n">
         <v>2300</v>
       </c>
       <c r="AE235" t="n">
-        <v>2300</v>
-      </c>
-      <c r="AF235" t="n">
         <v>2300</v>
       </c>
     </row>
@@ -28315,15 +27596,12 @@
         <v>0</v>
       </c>
       <c r="AC236" t="n">
-        <v>0</v>
+        <v>22624.88</v>
       </c>
       <c r="AD236" t="n">
         <v>22624.88</v>
       </c>
       <c r="AE236" t="n">
-        <v>22624.88</v>
-      </c>
-      <c r="AF236" t="n">
         <v>22624.88</v>
       </c>
     </row>
@@ -28433,15 +27711,12 @@
         <v>0</v>
       </c>
       <c r="AC237" t="n">
-        <v>0</v>
+        <v>4252.5</v>
       </c>
       <c r="AD237" t="n">
         <v>4252.5</v>
       </c>
       <c r="AE237" t="n">
-        <v>4252.5</v>
-      </c>
-      <c r="AF237" t="n">
         <v>4252.5</v>
       </c>
     </row>
@@ -28551,15 +27826,12 @@
         <v>0</v>
       </c>
       <c r="AC238" t="n">
-        <v>0</v>
+        <v>2925</v>
       </c>
       <c r="AD238" t="n">
         <v>2925</v>
       </c>
       <c r="AE238" t="n">
-        <v>2925</v>
-      </c>
-      <c r="AF238" t="n">
         <v>2925</v>
       </c>
     </row>
@@ -28669,15 +27941,12 @@
         <v>0</v>
       </c>
       <c r="AC239" t="n">
-        <v>0</v>
+        <v>5556</v>
       </c>
       <c r="AD239" t="n">
         <v>5556</v>
       </c>
       <c r="AE239" t="n">
-        <v>5556</v>
-      </c>
-      <c r="AF239" t="n">
         <v>5556</v>
       </c>
     </row>
@@ -28787,15 +28056,12 @@
         <v>0</v>
       </c>
       <c r="AC240" t="n">
-        <v>0</v>
+        <v>2238.5</v>
       </c>
       <c r="AD240" t="n">
         <v>2238.5</v>
       </c>
       <c r="AE240" t="n">
-        <v>2238.5</v>
-      </c>
-      <c r="AF240" t="n">
         <v>2238.5</v>
       </c>
     </row>
@@ -28905,15 +28171,12 @@
         <v>0</v>
       </c>
       <c r="AC241" t="n">
-        <v>0</v>
+        <v>2885.06</v>
       </c>
       <c r="AD241" t="n">
         <v>2885.06</v>
       </c>
       <c r="AE241" t="n">
-        <v>2885.06</v>
-      </c>
-      <c r="AF241" t="n">
         <v>2885.06</v>
       </c>
     </row>
@@ -29023,15 +28286,12 @@
         <v>0</v>
       </c>
       <c r="AC242" t="n">
-        <v>0</v>
+        <v>11797.58</v>
       </c>
       <c r="AD242" t="n">
         <v>11797.58</v>
       </c>
       <c r="AE242" t="n">
-        <v>11797.58</v>
-      </c>
-      <c r="AF242" t="n">
         <v>11797.58</v>
       </c>
     </row>
@@ -29141,15 +28401,12 @@
         <v>0</v>
       </c>
       <c r="AC243" t="n">
-        <v>0</v>
+        <v>7090.28</v>
       </c>
       <c r="AD243" t="n">
         <v>7090.28</v>
       </c>
       <c r="AE243" t="n">
-        <v>7090.28</v>
-      </c>
-      <c r="AF243" t="n">
         <v>7090.28</v>
       </c>
     </row>
@@ -29259,15 +28516,12 @@
         <v>0</v>
       </c>
       <c r="AC244" t="n">
-        <v>0</v>
+        <v>10595.09</v>
       </c>
       <c r="AD244" t="n">
         <v>10595.09</v>
       </c>
       <c r="AE244" t="n">
-        <v>10595.09</v>
-      </c>
-      <c r="AF244" t="n">
         <v>10595.09</v>
       </c>
     </row>
@@ -29377,15 +28631,12 @@
         <v>0</v>
       </c>
       <c r="AC245" t="n">
-        <v>0</v>
+        <v>5169.12</v>
       </c>
       <c r="AD245" t="n">
         <v>5169.12</v>
       </c>
       <c r="AE245" t="n">
-        <v>5169.12</v>
-      </c>
-      <c r="AF245" t="n">
         <v>5169.12</v>
       </c>
     </row>
@@ -29495,15 +28746,12 @@
         <v>0</v>
       </c>
       <c r="AC246" t="n">
-        <v>0</v>
+        <v>13514.34</v>
       </c>
       <c r="AD246" t="n">
         <v>13514.34</v>
       </c>
       <c r="AE246" t="n">
-        <v>13514.34</v>
-      </c>
-      <c r="AF246" t="n">
         <v>13514.34</v>
       </c>
     </row>
@@ -29613,15 +28861,12 @@
         <v>0</v>
       </c>
       <c r="AC247" t="n">
-        <v>0</v>
+        <v>2932.5</v>
       </c>
       <c r="AD247" t="n">
         <v>2932.5</v>
       </c>
       <c r="AE247" t="n">
-        <v>2932.5</v>
-      </c>
-      <c r="AF247" t="n">
         <v>2932.5</v>
       </c>
     </row>
@@ -29731,15 +28976,12 @@
         <v>0</v>
       </c>
       <c r="AC248" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AD248" t="n">
         <v>150</v>
       </c>
       <c r="AE248" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF248" t="n">
         <v>150</v>
       </c>
     </row>
@@ -29849,15 +29091,12 @@
         <v>0</v>
       </c>
       <c r="AC249" t="n">
-        <v>0</v>
+        <v>5757.62</v>
       </c>
       <c r="AD249" t="n">
         <v>5757.62</v>
       </c>
       <c r="AE249" t="n">
-        <v>5757.62</v>
-      </c>
-      <c r="AF249" t="n">
         <v>5757.62</v>
       </c>
     </row>
@@ -29967,15 +29206,12 @@
         <v>0</v>
       </c>
       <c r="AC250" t="n">
-        <v>0</v>
+        <v>2619.38</v>
       </c>
       <c r="AD250" t="n">
         <v>2619.38</v>
       </c>
       <c r="AE250" t="n">
-        <v>2619.38</v>
-      </c>
-      <c r="AF250" t="n">
         <v>2619.38</v>
       </c>
     </row>
@@ -30085,15 +29321,12 @@
         <v>0</v>
       </c>
       <c r="AC251" t="n">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="AD251" t="n">
         <v>1425</v>
       </c>
       <c r="AE251" t="n">
-        <v>1425</v>
-      </c>
-      <c r="AF251" t="n">
         <v>1425</v>
       </c>
     </row>
@@ -30203,15 +29436,12 @@
         <v>0</v>
       </c>
       <c r="AC252" t="n">
-        <v>0</v>
+        <v>3454</v>
       </c>
       <c r="AD252" t="n">
         <v>3454</v>
       </c>
       <c r="AE252" t="n">
-        <v>3454</v>
-      </c>
-      <c r="AF252" t="n">
         <v>3454</v>
       </c>
     </row>
@@ -30321,15 +29551,12 @@
         <v>0</v>
       </c>
       <c r="AC253" t="n">
-        <v>0</v>
+        <v>35425.65</v>
       </c>
       <c r="AD253" t="n">
         <v>35425.65</v>
       </c>
       <c r="AE253" t="n">
-        <v>35425.65</v>
-      </c>
-      <c r="AF253" t="n">
         <v>35425.65</v>
       </c>
     </row>
@@ -30439,15 +29666,12 @@
         <v>0</v>
       </c>
       <c r="AC254" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="AD254" t="n">
         <v>24000</v>
       </c>
       <c r="AE254" t="n">
-        <v>24000</v>
-      </c>
-      <c r="AF254" t="n">
         <v>24000</v>
       </c>
     </row>
@@ -30557,15 +29781,12 @@
         <v>0</v>
       </c>
       <c r="AC255" t="n">
-        <v>0</v>
+        <v>29840.25</v>
       </c>
       <c r="AD255" t="n">
         <v>29840.25</v>
       </c>
       <c r="AE255" t="n">
-        <v>29840.25</v>
-      </c>
-      <c r="AF255" t="n">
         <v>29840.25</v>
       </c>
     </row>
@@ -30675,15 +29896,12 @@
         <v>0</v>
       </c>
       <c r="AC256" t="n">
-        <v>0</v>
+        <v>2155.64</v>
       </c>
       <c r="AD256" t="n">
         <v>2155.64</v>
       </c>
       <c r="AE256" t="n">
-        <v>2155.64</v>
-      </c>
-      <c r="AF256" t="n">
         <v>2155.64</v>
       </c>
     </row>
@@ -30793,15 +30011,12 @@
         <v>0</v>
       </c>
       <c r="AC257" t="n">
-        <v>0</v>
+        <v>5460</v>
       </c>
       <c r="AD257" t="n">
         <v>5460</v>
       </c>
       <c r="AE257" t="n">
-        <v>5460</v>
-      </c>
-      <c r="AF257" t="n">
         <v>5460</v>
       </c>
     </row>
@@ -30911,15 +30126,12 @@
         <v>0</v>
       </c>
       <c r="AC258" t="n">
-        <v>0</v>
+        <v>1968.75</v>
       </c>
       <c r="AD258" t="n">
         <v>1968.75</v>
       </c>
       <c r="AE258" t="n">
-        <v>1968.75</v>
-      </c>
-      <c r="AF258" t="n">
         <v>1968.75</v>
       </c>
     </row>
@@ -31029,15 +30241,12 @@
         <v>0</v>
       </c>
       <c r="AC259" t="n">
-        <v>0</v>
+        <v>5512.5</v>
       </c>
       <c r="AD259" t="n">
         <v>5512.5</v>
       </c>
       <c r="AE259" t="n">
-        <v>5512.5</v>
-      </c>
-      <c r="AF259" t="n">
         <v>5512.5</v>
       </c>
     </row>
@@ -31147,15 +30356,12 @@
         <v>0</v>
       </c>
       <c r="AC260" t="n">
-        <v>0</v>
+        <v>10792.28</v>
       </c>
       <c r="AD260" t="n">
         <v>10792.28</v>
       </c>
       <c r="AE260" t="n">
-        <v>10792.28</v>
-      </c>
-      <c r="AF260" t="n">
         <v>10792.28</v>
       </c>
     </row>
@@ -31265,15 +30471,12 @@
         <v>0</v>
       </c>
       <c r="AC261" t="n">
-        <v>0</v>
+        <v>1819.39</v>
       </c>
       <c r="AD261" t="n">
         <v>1819.39</v>
       </c>
       <c r="AE261" t="n">
-        <v>1819.39</v>
-      </c>
-      <c r="AF261" t="n">
         <v>1819.39</v>
       </c>
     </row>
@@ -31383,15 +30586,12 @@
         <v>0</v>
       </c>
       <c r="AC262" t="n">
-        <v>0</v>
+        <v>4335.42</v>
       </c>
       <c r="AD262" t="n">
         <v>4335.42</v>
       </c>
       <c r="AE262" t="n">
-        <v>4335.42</v>
-      </c>
-      <c r="AF262" t="n">
         <v>4335.42</v>
       </c>
     </row>
@@ -31501,15 +30701,12 @@
         <v>0</v>
       </c>
       <c r="AC263" t="n">
-        <v>0</v>
+        <v>12546.52</v>
       </c>
       <c r="AD263" t="n">
         <v>12546.52</v>
       </c>
       <c r="AE263" t="n">
-        <v>12546.52</v>
-      </c>
-      <c r="AF263" t="n">
         <v>12546.52</v>
       </c>
     </row>
@@ -31619,15 +30816,12 @@
         <v>0</v>
       </c>
       <c r="AC264" t="n">
-        <v>0</v>
+        <v>1863.75</v>
       </c>
       <c r="AD264" t="n">
         <v>1863.75</v>
       </c>
       <c r="AE264" t="n">
-        <v>1863.75</v>
-      </c>
-      <c r="AF264" t="n">
         <v>1863.75</v>
       </c>
     </row>
@@ -31737,15 +30931,12 @@
         <v>0</v>
       </c>
       <c r="AC265" t="n">
-        <v>0</v>
+        <v>1583.7</v>
       </c>
       <c r="AD265" t="n">
         <v>1583.7</v>
       </c>
       <c r="AE265" t="n">
-        <v>1583.7</v>
-      </c>
-      <c r="AF265" t="n">
         <v>1583.7</v>
       </c>
     </row>
@@ -31855,15 +31046,12 @@
         <v>0</v>
       </c>
       <c r="AC266" t="n">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="AD266" t="n">
         <v>1075</v>
       </c>
       <c r="AE266" t="n">
-        <v>1075</v>
-      </c>
-      <c r="AF266" t="n">
         <v>1075</v>
       </c>
     </row>
@@ -31973,15 +31161,12 @@
         <v>0</v>
       </c>
       <c r="AC267" t="n">
-        <v>0</v>
+        <v>7250</v>
       </c>
       <c r="AD267" t="n">
         <v>7250</v>
       </c>
       <c r="AE267" t="n">
-        <v>7250</v>
-      </c>
-      <c r="AF267" t="n">
         <v>7250</v>
       </c>
     </row>
@@ -32091,15 +31276,12 @@
         <v>0</v>
       </c>
       <c r="AC268" t="n">
-        <v>0</v>
+        <v>1813.36</v>
       </c>
       <c r="AD268" t="n">
         <v>1813.36</v>
       </c>
       <c r="AE268" t="n">
-        <v>1813.36</v>
-      </c>
-      <c r="AF268" t="n">
         <v>1813.36</v>
       </c>
     </row>
@@ -32209,15 +31391,12 @@
         <v>0</v>
       </c>
       <c r="AC269" t="n">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="AD269" t="n">
         <v>4160</v>
       </c>
       <c r="AE269" t="n">
-        <v>4160</v>
-      </c>
-      <c r="AF269" t="n">
         <v>4160</v>
       </c>
     </row>
@@ -32327,15 +31506,12 @@
         <v>0</v>
       </c>
       <c r="AC270" t="n">
-        <v>0</v>
+        <v>3737.5</v>
       </c>
       <c r="AD270" t="n">
         <v>3737.5</v>
       </c>
       <c r="AE270" t="n">
-        <v>3737.5</v>
-      </c>
-      <c r="AF270" t="n">
         <v>3737.5</v>
       </c>
     </row>
@@ -32445,15 +31621,12 @@
         <v>0</v>
       </c>
       <c r="AC271" t="n">
-        <v>0</v>
+        <v>7030</v>
       </c>
       <c r="AD271" t="n">
         <v>7030</v>
       </c>
       <c r="AE271" t="n">
-        <v>7030</v>
-      </c>
-      <c r="AF271" t="n">
         <v>7030</v>
       </c>
     </row>
@@ -32563,15 +31736,12 @@
         <v>0</v>
       </c>
       <c r="AC272" t="n">
-        <v>0</v>
+        <v>6709.31</v>
       </c>
       <c r="AD272" t="n">
         <v>6709.31</v>
       </c>
       <c r="AE272" t="n">
-        <v>6709.31</v>
-      </c>
-      <c r="AF272" t="n">
         <v>6709.31</v>
       </c>
     </row>
@@ -32681,15 +31851,12 @@
         <v>0</v>
       </c>
       <c r="AC273" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="AD273" t="n">
         <v>195</v>
       </c>
       <c r="AE273" t="n">
-        <v>195</v>
-      </c>
-      <c r="AF273" t="n">
         <v>195</v>
       </c>
     </row>
@@ -32799,15 +31966,12 @@
         <v>0</v>
       </c>
       <c r="AC274" t="n">
-        <v>0</v>
+        <v>66666.67</v>
       </c>
       <c r="AD274" t="n">
         <v>66666.67</v>
       </c>
       <c r="AE274" t="n">
-        <v>66666.67</v>
-      </c>
-      <c r="AF274" t="n">
         <v>66666.67</v>
       </c>
     </row>
@@ -32917,15 +32081,12 @@
         <v>0</v>
       </c>
       <c r="AC275" t="n">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="AD275" t="n">
         <v>7800</v>
       </c>
       <c r="AE275" t="n">
-        <v>7800</v>
-      </c>
-      <c r="AF275" t="n">
         <v>7800</v>
       </c>
     </row>
@@ -33035,15 +32196,12 @@
         <v>0</v>
       </c>
       <c r="AC276" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="AD276" t="n">
         <v>11000</v>
       </c>
       <c r="AE276" t="n">
-        <v>11000</v>
-      </c>
-      <c r="AF276" t="n">
         <v>11000</v>
       </c>
     </row>
@@ -33153,15 +32311,12 @@
         <v>0</v>
       </c>
       <c r="AC277" t="n">
-        <v>0</v>
+        <v>3166.67</v>
       </c>
       <c r="AD277" t="n">
         <v>3166.67</v>
       </c>
       <c r="AE277" t="n">
-        <v>3166.67</v>
-      </c>
-      <c r="AF277" t="n">
         <v>3166.67</v>
       </c>
     </row>
@@ -33271,15 +32426,12 @@
         <v>0</v>
       </c>
       <c r="AC278" t="n">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="AD278" t="n">
         <v>4900</v>
       </c>
       <c r="AE278" t="n">
-        <v>4900</v>
-      </c>
-      <c r="AF278" t="n">
         <v>4900</v>
       </c>
     </row>
@@ -33389,15 +32541,12 @@
         <v>0</v>
       </c>
       <c r="AC279" t="n">
-        <v>0</v>
+        <v>3386.67</v>
       </c>
       <c r="AD279" t="n">
         <v>3386.67</v>
       </c>
       <c r="AE279" t="n">
-        <v>3386.67</v>
-      </c>
-      <c r="AF279" t="n">
         <v>3386.67</v>
       </c>
     </row>
@@ -33507,15 +32656,12 @@
         <v>0</v>
       </c>
       <c r="AC280" t="n">
-        <v>0</v>
+        <v>3133.33</v>
       </c>
       <c r="AD280" t="n">
         <v>3133.33</v>
       </c>
       <c r="AE280" t="n">
-        <v>3133.33</v>
-      </c>
-      <c r="AF280" t="n">
         <v>3133.33</v>
       </c>
     </row>
@@ -33625,15 +32771,12 @@
         <v>0</v>
       </c>
       <c r="AC281" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="AD281" t="n">
         <v>6400</v>
       </c>
       <c r="AE281" t="n">
-        <v>6400</v>
-      </c>
-      <c r="AF281" t="n">
         <v>6400</v>
       </c>
     </row>
@@ -33743,15 +32886,12 @@
         <v>0</v>
       </c>
       <c r="AC282" t="n">
-        <v>0</v>
+        <v>14720</v>
       </c>
       <c r="AD282" t="n">
         <v>14720</v>
       </c>
       <c r="AE282" t="n">
-        <v>14720</v>
-      </c>
-      <c r="AF282" t="n">
         <v>14720</v>
       </c>
     </row>
@@ -33861,15 +33001,12 @@
         <v>0</v>
       </c>
       <c r="AC283" t="n">
-        <v>0</v>
+        <v>4333.33</v>
       </c>
       <c r="AD283" t="n">
         <v>4333.33</v>
       </c>
       <c r="AE283" t="n">
-        <v>4333.33</v>
-      </c>
-      <c r="AF283" t="n">
         <v>4333.33</v>
       </c>
     </row>
@@ -33979,15 +33116,12 @@
         <v>0</v>
       </c>
       <c r="AC284" t="n">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="AD284" t="n">
         <v>5800</v>
       </c>
       <c r="AE284" t="n">
-        <v>5800</v>
-      </c>
-      <c r="AF284" t="n">
         <v>5800</v>
       </c>
     </row>
@@ -34097,15 +33231,12 @@
         <v>0</v>
       </c>
       <c r="AC285" t="n">
-        <v>0</v>
+        <v>9333.33</v>
       </c>
       <c r="AD285" t="n">
         <v>9333.33</v>
       </c>
       <c r="AE285" t="n">
-        <v>9333.33</v>
-      </c>
-      <c r="AF285" t="n">
         <v>9333.33</v>
       </c>
     </row>
@@ -34215,15 +33346,12 @@
         <v>0</v>
       </c>
       <c r="AC286" t="n">
-        <v>0</v>
+        <v>6333.33</v>
       </c>
       <c r="AD286" t="n">
         <v>6333.33</v>
       </c>
       <c r="AE286" t="n">
-        <v>6333.33</v>
-      </c>
-      <c r="AF286" t="n">
         <v>6333.33</v>
       </c>
     </row>
@@ -34333,15 +33461,12 @@
         <v>0</v>
       </c>
       <c r="AC287" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AD287" t="n">
         <v>4000</v>
       </c>
       <c r="AE287" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AF287" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -34451,15 +33576,12 @@
         <v>0</v>
       </c>
       <c r="AC288" t="n">
-        <v>0</v>
+        <v>28166.67</v>
       </c>
       <c r="AD288" t="n">
         <v>28166.67</v>
       </c>
       <c r="AE288" t="n">
-        <v>28166.67</v>
-      </c>
-      <c r="AF288" t="n">
         <v>28166.67</v>
       </c>
     </row>
@@ -34569,15 +33691,12 @@
         <v>0</v>
       </c>
       <c r="AC289" t="n">
-        <v>0</v>
+        <v>563.33</v>
       </c>
       <c r="AD289" t="n">
         <v>563.33</v>
       </c>
       <c r="AE289" t="n">
-        <v>563.33</v>
-      </c>
-      <c r="AF289" t="n">
         <v>563.33</v>
       </c>
     </row>
@@ -34687,15 +33806,12 @@
         <v>0</v>
       </c>
       <c r="AC290" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AD290" t="n">
         <v>4000</v>
       </c>
       <c r="AE290" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AF290" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -34805,15 +33921,12 @@
         <v>0</v>
       </c>
       <c r="AC291" t="n">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="AD291" t="n">
         <v>1560</v>
       </c>
       <c r="AE291" t="n">
-        <v>1560</v>
-      </c>
-      <c r="AF291" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -34923,15 +34036,12 @@
         <v>0</v>
       </c>
       <c r="AC292" t="n">
-        <v>0</v>
+        <v>7895.33</v>
       </c>
       <c r="AD292" t="n">
         <v>7895.33</v>
       </c>
       <c r="AE292" t="n">
-        <v>7895.33</v>
-      </c>
-      <c r="AF292" t="n">
         <v>7895.33</v>
       </c>
     </row>
@@ -35041,15 +34151,12 @@
         <v>0</v>
       </c>
       <c r="AC293" t="n">
-        <v>0</v>
+        <v>595.83</v>
       </c>
       <c r="AD293" t="n">
         <v>595.83</v>
       </c>
       <c r="AE293" t="n">
-        <v>595.83</v>
-      </c>
-      <c r="AF293" t="n">
         <v>595.83</v>
       </c>
     </row>
@@ -35159,15 +34266,12 @@
         <v>0</v>
       </c>
       <c r="AC294" t="n">
-        <v>0</v>
+        <v>13333.33</v>
       </c>
       <c r="AD294" t="n">
         <v>13333.33</v>
       </c>
       <c r="AE294" t="n">
-        <v>13333.33</v>
-      </c>
-      <c r="AF294" t="n">
         <v>13333.33</v>
       </c>
     </row>
@@ -35277,15 +34381,12 @@
         <v>0</v>
       </c>
       <c r="AC295" t="n">
-        <v>0</v>
+        <v>78824</v>
       </c>
       <c r="AD295" t="n">
         <v>78824</v>
       </c>
       <c r="AE295" t="n">
-        <v>78824</v>
-      </c>
-      <c r="AF295" t="n">
         <v>78824</v>
       </c>
     </row>
@@ -35395,15 +34496,12 @@
         <v>0</v>
       </c>
       <c r="AC296" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="AD296" t="n">
         <v>8000</v>
       </c>
       <c r="AE296" t="n">
-        <v>8000</v>
-      </c>
-      <c r="AF296" t="n">
         <v>8000</v>
       </c>
     </row>
@@ -35513,15 +34611,12 @@
         <v>0</v>
       </c>
       <c r="AC297" t="n">
-        <v>0</v>
+        <v>5253.33</v>
       </c>
       <c r="AD297" t="n">
         <v>5253.33</v>
       </c>
       <c r="AE297" t="n">
-        <v>5253.33</v>
-      </c>
-      <c r="AF297" t="n">
         <v>5253.33</v>
       </c>
     </row>
@@ -35631,15 +34726,12 @@
         <v>0</v>
       </c>
       <c r="AC298" t="n">
-        <v>0</v>
+        <v>3340</v>
       </c>
       <c r="AD298" t="n">
         <v>3340</v>
       </c>
       <c r="AE298" t="n">
-        <v>3340</v>
-      </c>
-      <c r="AF298" t="n">
         <v>3340</v>
       </c>
     </row>
@@ -35749,15 +34841,12 @@
         <v>0</v>
       </c>
       <c r="AC299" t="n">
-        <v>0</v>
+        <v>12533.33</v>
       </c>
       <c r="AD299" t="n">
         <v>12533.33</v>
       </c>
       <c r="AE299" t="n">
-        <v>12533.33</v>
-      </c>
-      <c r="AF299" t="n">
         <v>12533.33</v>
       </c>
     </row>
@@ -35867,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="AC300" t="n">
-        <v>0</v>
+        <v>3033.33</v>
       </c>
       <c r="AD300" t="n">
         <v>3033.33</v>
@@ -35875,8 +34964,120 @@
       <c r="AE300" t="n">
         <v>3033.33</v>
       </c>
-      <c r="AF300" t="n">
-        <v>3033.33</v>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>FRC-HQ-SLM-C-2024-0305</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>305</v>
+      </c>
+      <c r="E301" t="n">
+        <v>8</v>
+      </c>
+      <c r="F301" t="n">
+        <v>4112202</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Computer and Computer Equiments</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>120000</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>10</v>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S301" t="n">
+        <v>0</v>
+      </c>
+      <c r="T301" t="n">
+        <v>120000</v>
+      </c>
+      <c r="U301" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V301" t="n">
+        <v>12000</v>
+      </c>
+      <c r="W301" t="n">
+        <v>0</v>
+      </c>
+      <c r="X301" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>108000</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
